--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\dashboard-financiero-opcional\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19632" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U247"/>
+  <dimension ref="A1:U249"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="D251" sqref="D251"/>
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13653,7 +13653,7 @@
         <v>203.74436160185655</v>
       </c>
       <c r="G194" s="6">
-        <f t="shared" ref="G194:G247" si="18">+F194/$U$1</f>
+        <f t="shared" ref="G194:G249" si="18">+F194/$U$1</f>
         <v>2.0374436160185656</v>
       </c>
       <c r="H194" s="2">
@@ -16898,55 +16898,55 @@
         <v>2.1230362386167529</v>
       </c>
       <c r="H238" s="2">
-        <f t="shared" ref="H238:H247" si="30">+B238/G238</f>
+        <f t="shared" ref="H238:H249" si="30">+B238/G238</f>
         <v>49994.718916882477</v>
       </c>
       <c r="I238">
-        <f t="shared" ref="I238:I247" si="31">+C238/G238</f>
+        <f t="shared" ref="I238:I249" si="31">+C238/G238</f>
         <v>520.48098845451352</v>
       </c>
       <c r="J238">
-        <f t="shared" ref="J238:J247" si="32">+D238/F238</f>
+        <f t="shared" ref="J238:J249" si="32">+D238/F238</f>
         <v>11979.079554746566</v>
       </c>
       <c r="K238">
-        <f t="shared" ref="K238:K247" si="33">+D238/C238/G238</f>
+        <f t="shared" ref="K238:K249" si="33">+D238/C238/G238</f>
         <v>1084.0795977146213</v>
       </c>
       <c r="L238">
-        <f t="shared" ref="L238:L247" si="34">+E238/G238</f>
+        <f t="shared" ref="L238:L249" si="34">+E238/G238</f>
         <v>35.185456866563044</v>
       </c>
       <c r="M238" s="8">
-        <f t="shared" ref="M238:M247" si="35">+LN(B238/B237)</f>
+        <f t="shared" ref="M238:M249" si="35">+LN(B238/B237)</f>
         <v>3.8327301701708852E-2</v>
       </c>
       <c r="N238" s="8">
-        <f t="shared" ref="N238:N247" si="36">+LN(C238/C237)</f>
+        <f t="shared" ref="N238:N249" si="36">+LN(C238/C237)</f>
         <v>9.0909717012521048E-3</v>
       </c>
       <c r="O238" s="8">
-        <f t="shared" ref="O238:O247" si="37">+LN(D238/D237)</f>
+        <f t="shared" ref="O238:O249" si="37">+LN(D238/D237)</f>
         <v>7.025476035197252E-2</v>
       </c>
       <c r="P238" s="8">
-        <f t="shared" ref="P238:P247" si="38">+LN(E238/E237)</f>
+        <f t="shared" ref="P238:P249" si="38">+LN(E238/E237)</f>
         <v>2.2062206335645335E-2</v>
       </c>
       <c r="Q238" s="8">
-        <f t="shared" ref="Q238:Q247" si="39">+_xlfn.STDEV.S(M219:M238)</f>
+        <f t="shared" ref="Q238:Q249" si="39">+_xlfn.STDEV.S(M219:M238)</f>
         <v>3.2180583054749801E-2</v>
       </c>
       <c r="R238" s="8">
-        <f t="shared" ref="R238:R247" si="40">+_xlfn.STDEV.S(N219:N238)</f>
+        <f t="shared" ref="R238:R249" si="40">+_xlfn.STDEV.S(N219:N238)</f>
         <v>1.0160035859511671E-2</v>
       </c>
       <c r="S238" s="8">
-        <f t="shared" ref="S238:S247" si="41">+_xlfn.STDEV.S(O219:O238)</f>
+        <f t="shared" ref="S238:S249" si="41">+_xlfn.STDEV.S(O219:O238)</f>
         <v>2.24463844568943E-2</v>
       </c>
       <c r="T238" s="8">
-        <f t="shared" ref="T238:T247" si="42">+_xlfn.STDEV.S(P219:P238)</f>
+        <f t="shared" ref="T238:T249" si="42">+_xlfn.STDEV.S(P219:P238)</f>
         <v>9.3475949167742284E-3</v>
       </c>
     </row>
@@ -17558,7 +17558,7 @@
         <v>1.3194826794129885E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="16">
         <v>45653</v>
       </c>
@@ -17632,6 +17632,158 @@
       <c r="T247" s="8">
         <f t="shared" si="42"/>
         <v>1.3151728671364552E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="16">
+        <v>45656</v>
+      </c>
+      <c r="B248">
+        <v>92643.21</v>
+      </c>
+      <c r="C248">
+        <v>1215</v>
+      </c>
+      <c r="D248">
+        <v>2533635</v>
+      </c>
+      <c r="E248">
+        <v>75.23</v>
+      </c>
+      <c r="F248">
+        <v>212.47352791725422</v>
+      </c>
+      <c r="G248" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1247352791725422</v>
+      </c>
+      <c r="H248" s="2">
+        <f t="shared" si="30"/>
+        <v>43602.236432991791</v>
+      </c>
+      <c r="I248">
+        <f t="shared" si="31"/>
+        <v>571.83594206294254</v>
+      </c>
+      <c r="J248">
+        <f t="shared" si="32"/>
+        <v>11924.473720729577</v>
+      </c>
+      <c r="K248">
+        <f t="shared" si="33"/>
+        <v>981.43816631519132</v>
+      </c>
+      <c r="L248">
+        <f t="shared" si="34"/>
+        <v>35.406763721312899</v>
+      </c>
+      <c r="M248" s="8">
+        <f t="shared" si="35"/>
+        <v>-1.6699124718738797E-2</v>
+      </c>
+      <c r="N248" s="8">
+        <f t="shared" si="36"/>
+        <v>4.1237171838621562E-3</v>
+      </c>
+      <c r="O248" s="8">
+        <f t="shared" si="37"/>
+        <v>-1.7182624989483801E-2</v>
+      </c>
+      <c r="P248" s="8">
+        <f t="shared" si="38"/>
+        <v>3.9957431959107108E-3</v>
+      </c>
+      <c r="Q248" s="8">
+        <f t="shared" si="39"/>
+        <v>3.1425279498059303E-2</v>
+      </c>
+      <c r="R248" s="8">
+        <f t="shared" si="40"/>
+        <v>1.8614177987299606E-2</v>
+      </c>
+      <c r="S248" s="8">
+        <f t="shared" si="41"/>
+        <v>2.5607439411847857E-2</v>
+      </c>
+      <c r="T248" s="8">
+        <f t="shared" si="42"/>
+        <v>1.2983324550563301E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A249" s="16">
+        <v>45657</v>
+      </c>
+      <c r="B249">
+        <v>93429.2</v>
+      </c>
+      <c r="C249">
+        <v>1230</v>
+      </c>
+      <c r="D249">
+        <v>2533635</v>
+      </c>
+      <c r="E249">
+        <v>75.23</v>
+      </c>
+      <c r="F249">
+        <v>212.49052579948761</v>
+      </c>
+      <c r="G249" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1249052579948762</v>
+      </c>
+      <c r="H249" s="2">
+        <f t="shared" si="30"/>
+        <v>43968.642671703194</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="31"/>
+        <v>578.84933710440555</v>
+      </c>
+      <c r="J249">
+        <f t="shared" si="32"/>
+        <v>11923.519839142444</v>
+      </c>
+      <c r="K249">
+        <f t="shared" si="33"/>
+        <v>969.39185684084919</v>
+      </c>
+      <c r="L249">
+        <f t="shared" si="34"/>
+        <v>35.403931406800353</v>
+      </c>
+      <c r="M249" s="8">
+        <f t="shared" si="35"/>
+        <v>8.4482667245536248E-3</v>
+      </c>
+      <c r="N249" s="8">
+        <f t="shared" si="36"/>
+        <v>1.2270092591814401E-2</v>
+      </c>
+      <c r="O249" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P249" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q249" s="8">
+        <f t="shared" si="39"/>
+        <v>3.1501290185368465E-2</v>
+      </c>
+      <c r="R249" s="8">
+        <f t="shared" si="40"/>
+        <v>1.7942433805614999E-2</v>
+      </c>
+      <c r="S249" s="8">
+        <f t="shared" si="41"/>
+        <v>2.4615061076099242E-2</v>
+      </c>
+      <c r="T249" s="8">
+        <f t="shared" si="42"/>
+        <v>1.2940746322726307E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U249"/>
+  <dimension ref="A1:U252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13653,7 +13653,7 @@
         <v>203.74436160185655</v>
       </c>
       <c r="G194" s="6">
-        <f t="shared" ref="G194:G249" si="18">+F194/$U$1</f>
+        <f t="shared" ref="G194:G252" si="18">+F194/$U$1</f>
         <v>2.0374436160185656</v>
       </c>
       <c r="H194" s="2">
@@ -16898,55 +16898,55 @@
         <v>2.1230362386167529</v>
       </c>
       <c r="H238" s="2">
-        <f t="shared" ref="H238:H249" si="30">+B238/G238</f>
+        <f t="shared" ref="H238:H252" si="30">+B238/G238</f>
         <v>49994.718916882477</v>
       </c>
       <c r="I238">
-        <f t="shared" ref="I238:I249" si="31">+C238/G238</f>
+        <f t="shared" ref="I238:I252" si="31">+C238/G238</f>
         <v>520.48098845451352</v>
       </c>
       <c r="J238">
-        <f t="shared" ref="J238:J249" si="32">+D238/F238</f>
+        <f t="shared" ref="J238:J252" si="32">+D238/F238</f>
         <v>11979.079554746566</v>
       </c>
       <c r="K238">
-        <f t="shared" ref="K238:K249" si="33">+D238/C238/G238</f>
+        <f t="shared" ref="K238:K252" si="33">+D238/C238/G238</f>
         <v>1084.0795977146213</v>
       </c>
       <c r="L238">
-        <f t="shared" ref="L238:L249" si="34">+E238/G238</f>
+        <f t="shared" ref="L238:L252" si="34">+E238/G238</f>
         <v>35.185456866563044</v>
       </c>
       <c r="M238" s="8">
-        <f t="shared" ref="M238:M249" si="35">+LN(B238/B237)</f>
+        <f t="shared" ref="M238:M252" si="35">+LN(B238/B237)</f>
         <v>3.8327301701708852E-2</v>
       </c>
       <c r="N238" s="8">
-        <f t="shared" ref="N238:N249" si="36">+LN(C238/C237)</f>
+        <f t="shared" ref="N238:N252" si="36">+LN(C238/C237)</f>
         <v>9.0909717012521048E-3</v>
       </c>
       <c r="O238" s="8">
-        <f t="shared" ref="O238:O249" si="37">+LN(D238/D237)</f>
+        <f t="shared" ref="O238:O252" si="37">+LN(D238/D237)</f>
         <v>7.025476035197252E-2</v>
       </c>
       <c r="P238" s="8">
-        <f t="shared" ref="P238:P249" si="38">+LN(E238/E237)</f>
+        <f t="shared" ref="P238:P252" si="38">+LN(E238/E237)</f>
         <v>2.2062206335645335E-2</v>
       </c>
       <c r="Q238" s="8">
-        <f t="shared" ref="Q238:Q249" si="39">+_xlfn.STDEV.S(M219:M238)</f>
+        <f t="shared" ref="Q238:Q252" si="39">+_xlfn.STDEV.S(M219:M238)</f>
         <v>3.2180583054749801E-2</v>
       </c>
       <c r="R238" s="8">
-        <f t="shared" ref="R238:R249" si="40">+_xlfn.STDEV.S(N219:N238)</f>
+        <f t="shared" ref="R238:R252" si="40">+_xlfn.STDEV.S(N219:N238)</f>
         <v>1.0160035859511671E-2</v>
       </c>
       <c r="S238" s="8">
-        <f t="shared" ref="S238:S249" si="41">+_xlfn.STDEV.S(O219:O238)</f>
+        <f t="shared" ref="S238:S252" si="41">+_xlfn.STDEV.S(O219:O238)</f>
         <v>2.24463844568943E-2</v>
       </c>
       <c r="T238" s="8">
-        <f t="shared" ref="T238:T249" si="42">+_xlfn.STDEV.S(P219:P238)</f>
+        <f t="shared" ref="T238:T252" si="42">+_xlfn.STDEV.S(P219:P238)</f>
         <v>9.3475949167742284E-3</v>
       </c>
     </row>
@@ -17710,7 +17710,7 @@
         <v>1.2983324550563301E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="16">
         <v>45657</v>
       </c>
@@ -17784,6 +17784,234 @@
       <c r="T249" s="8">
         <f t="shared" si="42"/>
         <v>1.2940746322726307E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="16">
+        <v>45658</v>
+      </c>
+      <c r="B250">
+        <v>94419.76</v>
+      </c>
+      <c r="C250">
+        <v>1230</v>
+      </c>
+      <c r="D250">
+        <v>2533635</v>
+      </c>
+      <c r="E250">
+        <v>75.23</v>
+      </c>
+      <c r="F250">
+        <v>212.50752504155159</v>
+      </c>
+      <c r="G250" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1250752504155157</v>
+      </c>
+      <c r="H250" s="2">
+        <f t="shared" si="30"/>
+        <v>44431.254837464279</v>
+      </c>
+      <c r="I250">
+        <f t="shared" si="31"/>
+        <v>578.80303286177661</v>
+      </c>
+      <c r="J250">
+        <f t="shared" si="32"/>
+        <v>11922.566033859735</v>
+      </c>
+      <c r="K250">
+        <f t="shared" si="33"/>
+        <v>969.31431169591349</v>
+      </c>
+      <c r="L250">
+        <f t="shared" si="34"/>
+        <v>35.401099318854847</v>
+      </c>
+      <c r="M250" s="8">
+        <f t="shared" si="35"/>
+        <v>1.0546443072553259E-2</v>
+      </c>
+      <c r="N250" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O250" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P250" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q250" s="8">
+        <f t="shared" si="39"/>
+        <v>3.0859623317084483E-2</v>
+      </c>
+      <c r="R250" s="8">
+        <f t="shared" si="40"/>
+        <v>1.7662183558150742E-2</v>
+      </c>
+      <c r="S250" s="8">
+        <f t="shared" si="41"/>
+        <v>2.4335349120384014E-2</v>
+      </c>
+      <c r="T250" s="8">
+        <f t="shared" si="42"/>
+        <v>1.2940746322726307E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="16">
+        <v>45659</v>
+      </c>
+      <c r="B251">
+        <v>96886.88</v>
+      </c>
+      <c r="C251">
+        <v>1230</v>
+      </c>
+      <c r="D251">
+        <v>2695646</v>
+      </c>
+      <c r="E251">
+        <v>76.87</v>
+      </c>
+      <c r="F251">
+        <v>212.52452564355494</v>
+      </c>
+      <c r="G251" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1252452564355493</v>
+      </c>
+      <c r="H251" s="2">
+        <f t="shared" si="30"/>
+        <v>45588.564287633417</v>
+      </c>
+      <c r="I251">
+        <f t="shared" si="31"/>
+        <v>578.7567323231907</v>
+      </c>
+      <c r="J251">
+        <f t="shared" si="32"/>
+        <v>12683.929028130729</v>
+      </c>
+      <c r="K251">
+        <f t="shared" si="33"/>
+        <v>1031.2137421244495</v>
+      </c>
+      <c r="L251">
+        <f t="shared" si="34"/>
+        <v>36.169943100555834</v>
+      </c>
+      <c r="M251" s="8">
+        <f t="shared" si="35"/>
+        <v>2.5793739132302027E-2</v>
+      </c>
+      <c r="N251" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O251" s="8">
+        <f t="shared" si="37"/>
+        <v>6.1982848308529341E-2</v>
+      </c>
+      <c r="P251" s="8">
+        <f t="shared" si="38"/>
+        <v>2.1565595788910402E-2</v>
+      </c>
+      <c r="Q251" s="8">
+        <f t="shared" si="39"/>
+        <v>3.1151029099653588E-2</v>
+      </c>
+      <c r="R251" s="8">
+        <f t="shared" si="40"/>
+        <v>1.5847989086026172E-2</v>
+      </c>
+      <c r="S251" s="8">
+        <f t="shared" si="41"/>
+        <v>2.7170048946020826E-2</v>
+      </c>
+      <c r="T251" s="8">
+        <f t="shared" si="42"/>
+        <v>1.3477823092602315E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A252" s="16">
+        <v>45660</v>
+      </c>
+      <c r="B252">
+        <v>98107.43</v>
+      </c>
+      <c r="C252">
+        <v>1205</v>
+      </c>
+      <c r="D252">
+        <v>2728911</v>
+      </c>
+      <c r="E252">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="F252">
+        <v>212.54152760560643</v>
+      </c>
+      <c r="G252" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1254152760560645</v>
+      </c>
+      <c r="H252" s="2">
+        <f t="shared" si="30"/>
+        <v>46159.181739791027</v>
+      </c>
+      <c r="I252">
+        <f t="shared" si="31"/>
+        <v>566.9480282629786</v>
+      </c>
+      <c r="J252">
+        <f t="shared" si="32"/>
+        <v>12839.424985519943</v>
+      </c>
+      <c r="K252">
+        <f t="shared" si="33"/>
+        <v>1065.5124469311156</v>
+      </c>
+      <c r="L252">
+        <f t="shared" si="34"/>
+        <v>35.880047000277798</v>
+      </c>
+      <c r="M252" s="8">
+        <f t="shared" si="35"/>
+        <v>1.2518990332199975E-2</v>
+      </c>
+      <c r="N252" s="8">
+        <f t="shared" si="36"/>
+        <v>-2.0534602441707864E-2</v>
+      </c>
+      <c r="O252" s="8">
+        <f t="shared" si="37"/>
+        <v>1.2264749725021248E-2</v>
+      </c>
+      <c r="P252" s="8">
+        <f t="shared" si="38"/>
+        <v>-7.9671289316228817E-3</v>
+      </c>
+      <c r="Q252" s="8">
+        <f t="shared" si="39"/>
+        <v>2.94666656670508E-2</v>
+      </c>
+      <c r="R252" s="8">
+        <f t="shared" si="40"/>
+        <v>1.6849101790084645E-2</v>
+      </c>
+      <c r="S252" s="8">
+        <f t="shared" si="41"/>
+        <v>2.6970864980235418E-2</v>
+      </c>
+      <c r="T252" s="8">
+        <f t="shared" si="42"/>
+        <v>1.3705591832213688E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U252"/>
+  <dimension ref="A1:U254"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+      <selection activeCell="I259" sqref="I259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13653,7 +13653,7 @@
         <v>203.74436160185655</v>
       </c>
       <c r="G194" s="6">
-        <f t="shared" ref="G194:G252" si="18">+F194/$U$1</f>
+        <f t="shared" ref="G194:G254" si="18">+F194/$U$1</f>
         <v>2.0374436160185656</v>
       </c>
       <c r="H194" s="2">
@@ -16898,55 +16898,55 @@
         <v>2.1230362386167529</v>
       </c>
       <c r="H238" s="2">
-        <f t="shared" ref="H238:H252" si="30">+B238/G238</f>
+        <f t="shared" ref="H238:H254" si="30">+B238/G238</f>
         <v>49994.718916882477</v>
       </c>
       <c r="I238">
-        <f t="shared" ref="I238:I252" si="31">+C238/G238</f>
+        <f t="shared" ref="I238:I254" si="31">+C238/G238</f>
         <v>520.48098845451352</v>
       </c>
       <c r="J238">
-        <f t="shared" ref="J238:J252" si="32">+D238/F238</f>
+        <f t="shared" ref="J238:J254" si="32">+D238/F238</f>
         <v>11979.079554746566</v>
       </c>
       <c r="K238">
-        <f t="shared" ref="K238:K252" si="33">+D238/C238/G238</f>
+        <f t="shared" ref="K238:K254" si="33">+D238/C238/G238</f>
         <v>1084.0795977146213</v>
       </c>
       <c r="L238">
-        <f t="shared" ref="L238:L252" si="34">+E238/G238</f>
+        <f t="shared" ref="L238:L254" si="34">+E238/G238</f>
         <v>35.185456866563044</v>
       </c>
       <c r="M238" s="8">
-        <f t="shared" ref="M238:M252" si="35">+LN(B238/B237)</f>
+        <f t="shared" ref="M238:M254" si="35">+LN(B238/B237)</f>
         <v>3.8327301701708852E-2</v>
       </c>
       <c r="N238" s="8">
-        <f t="shared" ref="N238:N252" si="36">+LN(C238/C237)</f>
+        <f t="shared" ref="N238:N254" si="36">+LN(C238/C237)</f>
         <v>9.0909717012521048E-3</v>
       </c>
       <c r="O238" s="8">
-        <f t="shared" ref="O238:O252" si="37">+LN(D238/D237)</f>
+        <f t="shared" ref="O238:O254" si="37">+LN(D238/D237)</f>
         <v>7.025476035197252E-2</v>
       </c>
       <c r="P238" s="8">
-        <f t="shared" ref="P238:P252" si="38">+LN(E238/E237)</f>
+        <f t="shared" ref="P238:P254" si="38">+LN(E238/E237)</f>
         <v>2.2062206335645335E-2</v>
       </c>
       <c r="Q238" s="8">
-        <f t="shared" ref="Q238:Q252" si="39">+_xlfn.STDEV.S(M219:M238)</f>
+        <f t="shared" ref="Q238:Q254" si="39">+_xlfn.STDEV.S(M219:M238)</f>
         <v>3.2180583054749801E-2</v>
       </c>
       <c r="R238" s="8">
-        <f t="shared" ref="R238:R252" si="40">+_xlfn.STDEV.S(N219:N238)</f>
+        <f t="shared" ref="R238:R254" si="40">+_xlfn.STDEV.S(N219:N238)</f>
         <v>1.0160035859511671E-2</v>
       </c>
       <c r="S238" s="8">
-        <f t="shared" ref="S238:S252" si="41">+_xlfn.STDEV.S(O219:O238)</f>
+        <f t="shared" ref="S238:S254" si="41">+_xlfn.STDEV.S(O219:O238)</f>
         <v>2.24463844568943E-2</v>
       </c>
       <c r="T238" s="8">
-        <f t="shared" ref="T238:T252" si="42">+_xlfn.STDEV.S(P219:P238)</f>
+        <f t="shared" ref="T238:T254" si="42">+_xlfn.STDEV.S(P219:P238)</f>
         <v>9.3475949167742284E-3</v>
       </c>
     </row>
@@ -17938,7 +17938,7 @@
         <v>1.3477823092602315E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="16">
         <v>45660</v>
       </c>
@@ -18012,6 +18012,158 @@
       <c r="T252" s="8">
         <f t="shared" si="42"/>
         <v>1.3705591832213688E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="16">
+        <v>45663</v>
+      </c>
+      <c r="B253">
+        <v>102078.09</v>
+      </c>
+      <c r="C253">
+        <v>1205</v>
+      </c>
+      <c r="D253">
+        <v>2801221</v>
+      </c>
+      <c r="E253">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="F253">
+        <v>212.5585309278149</v>
+      </c>
+      <c r="G253" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1255853092781489</v>
+      </c>
+      <c r="H253" s="2">
+        <f t="shared" si="30"/>
+        <v>48023.520653078762</v>
+      </c>
+      <c r="I253">
+        <f t="shared" si="31"/>
+        <v>566.90267604889459</v>
+      </c>
+      <c r="J253">
+        <f t="shared" si="32"/>
+        <v>13178.586565181417</v>
+      </c>
+      <c r="K253">
+        <f t="shared" si="33"/>
+        <v>1093.6586361146406</v>
+      </c>
+      <c r="L253">
+        <f t="shared" si="34"/>
+        <v>36.220611642327299</v>
+      </c>
+      <c r="M253" s="8">
+        <f t="shared" si="35"/>
+        <v>3.9675005861328209E-2</v>
+      </c>
+      <c r="N253" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O253" s="8">
+        <f t="shared" si="37"/>
+        <v>2.6152765042456578E-2</v>
+      </c>
+      <c r="P253" s="8">
+        <f t="shared" si="38"/>
+        <v>9.5269888605404619E-3</v>
+      </c>
+      <c r="Q253" s="8">
+        <f t="shared" si="39"/>
+        <v>2.9107028105402027E-2</v>
+      </c>
+      <c r="R253" s="8">
+        <f t="shared" si="40"/>
+        <v>1.6712903635426733E-2</v>
+      </c>
+      <c r="S253" s="8">
+        <f t="shared" si="41"/>
+        <v>2.7191151619692315E-2</v>
+      </c>
+      <c r="T253" s="8">
+        <f t="shared" si="42"/>
+        <v>1.3643899655943963E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A254" s="16">
+        <v>45664</v>
+      </c>
+      <c r="B254">
+        <v>96795.77</v>
+      </c>
+      <c r="C254">
+        <v>1205</v>
+      </c>
+      <c r="D254">
+        <v>2822174.5</v>
+      </c>
+      <c r="E254">
+        <v>76.84</v>
+      </c>
+      <c r="F254">
+        <v>212.57553561028914</v>
+      </c>
+      <c r="G254" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1257553561028915</v>
+      </c>
+      <c r="H254" s="2">
+        <f t="shared" si="30"/>
+        <v>45534.76472356345</v>
+      </c>
+      <c r="I254">
+        <f t="shared" si="31"/>
+        <v>566.85732746269753</v>
+      </c>
+      <c r="J254">
+        <f t="shared" si="32"/>
+        <v>13276.1020307334</v>
+      </c>
+      <c r="K254">
+        <f t="shared" si="33"/>
+        <v>1101.7512058699917</v>
+      </c>
+      <c r="L254">
+        <f t="shared" si="34"/>
+        <v>36.1471510723931</v>
+      </c>
+      <c r="M254" s="8">
+        <f t="shared" si="35"/>
+        <v>-5.3134813625759912E-2</v>
+      </c>
+      <c r="N254" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O254" s="8">
+        <f t="shared" si="37"/>
+        <v>7.4522935382701477E-3</v>
+      </c>
+      <c r="P254" s="8">
+        <f t="shared" si="38"/>
+        <v>-1.9502053896021665E-3</v>
+      </c>
+      <c r="Q254" s="8">
+        <f t="shared" si="39"/>
+        <v>3.1661371638001694E-2</v>
+      </c>
+      <c r="R254" s="8">
+        <f t="shared" si="40"/>
+        <v>1.6687759679550454E-2</v>
+      </c>
+      <c r="S254" s="8">
+        <f t="shared" si="41"/>
+        <v>2.6628872380724526E-2</v>
+      </c>
+      <c r="T254" s="8">
+        <f t="shared" si="42"/>
+        <v>1.3223308957371418E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258"/>
+    <sheetView tabSelected="1" topLeftCell="L252" workbookViewId="0">
+      <selection activeCell="U256" sqref="U256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15183,7 +15183,7 @@
         <v>2.0374436160185656</v>
       </c>
       <c r="H194" s="2">
-        <f t="shared" ref="H194:H257" si="66">+B194/G194</f>
+        <f t="shared" ref="H194:H253" si="66">+B194/G194</f>
         <v>30837.43431823955</v>
       </c>
       <c r="I194">
@@ -17761,31 +17761,31 @@
         <v>66.527777777777771</v>
       </c>
       <c r="F228">
-        <v>210.76854697263937</v>
+        <v>210.95634005785419</v>
       </c>
       <c r="G228" s="6">
         <f t="shared" si="65"/>
-        <v>2.1076854697263938</v>
+        <v>2.109563400578542</v>
       </c>
       <c r="H228" s="2">
         <f t="shared" si="66"/>
-        <v>45483.684058629784</v>
+        <v>45443.194536703282</v>
       </c>
       <c r="I228">
         <f t="shared" si="67"/>
-        <v>531.38858529275296</v>
+        <v>530.91554380060018</v>
       </c>
       <c r="J228">
         <f t="shared" si="68"/>
-        <v>10908.312853238289</v>
+        <v>10898.602285996572</v>
       </c>
       <c r="K228">
         <f t="shared" si="69"/>
-        <v>973.95650475341859</v>
+        <v>973.08948982112258</v>
       </c>
       <c r="L228">
         <f t="shared" si="70"/>
-        <v>31.564376532146412</v>
+        <v>31.536277961369976</v>
       </c>
       <c r="M228" s="8">
         <f t="shared" si="71"/>
@@ -17913,31 +17913,31 @@
         <v>66.342592592592595</v>
       </c>
       <c r="F230">
-        <v>211.14810107971314</v>
+        <v>211.14810107971311</v>
       </c>
       <c r="G230" s="6">
         <f t="shared" si="65"/>
-        <v>2.1114810107971316</v>
+        <v>2.1114810107971311</v>
       </c>
       <c r="H230" s="2">
         <f t="shared" si="66"/>
-        <v>46776.897113894789</v>
+        <v>46776.897113894804</v>
       </c>
       <c r="I230">
         <f t="shared" si="67"/>
-        <v>516.22533872019073</v>
+        <v>516.22533872019085</v>
       </c>
       <c r="J230">
         <f t="shared" si="68"/>
-        <v>10496.318786041582</v>
+        <v>10496.318786041584</v>
       </c>
       <c r="K230">
         <f t="shared" si="69"/>
-        <v>962.96502624234688</v>
+        <v>962.96502624234711</v>
       </c>
       <c r="L230">
         <f t="shared" si="70"/>
-        <v>31.419933332740118</v>
+        <v>31.419933332740126</v>
       </c>
       <c r="M230" s="8">
         <f t="shared" si="71"/>
@@ -18293,31 +18293,31 @@
         <v>67.370370370370367</v>
       </c>
       <c r="F235">
-        <v>212.09997937415295</v>
+        <v>212.09997937415292</v>
       </c>
       <c r="G235" s="6">
         <f t="shared" si="65"/>
-        <v>2.1209997937415297</v>
+        <v>2.1209997937415292</v>
       </c>
       <c r="H235" s="2">
         <f t="shared" si="66"/>
-        <v>47735.539767024711</v>
+        <v>47735.539767024726</v>
       </c>
       <c r="I235">
         <f t="shared" si="67"/>
-        <v>504.47906838900565</v>
+        <v>504.47906838900576</v>
       </c>
       <c r="J235">
         <f t="shared" si="68"/>
-        <v>10802.213450281954</v>
+        <v>10802.213450281955</v>
       </c>
       <c r="K235">
         <f t="shared" si="69"/>
-        <v>1009.5526589048554</v>
+        <v>1009.5526589048557</v>
       </c>
       <c r="L235">
         <f t="shared" si="70"/>
-        <v>31.76349689856702</v>
+        <v>31.763496898567027</v>
       </c>
       <c r="M235" s="8">
         <f t="shared" si="71"/>
@@ -18369,31 +18369,31 @@
         <v>67.444444444444443</v>
       </c>
       <c r="F236">
-        <v>212.26965935765224</v>
+        <v>212.29086935558968</v>
       </c>
       <c r="G236" s="6">
         <f t="shared" si="65"/>
-        <v>2.1226965935765225</v>
+        <v>2.122908693555897</v>
       </c>
       <c r="H236" s="2">
         <f t="shared" si="66"/>
-        <v>46842.653020169128</v>
+        <v>46837.972966915033</v>
       </c>
       <c r="I236">
         <f t="shared" si="67"/>
-        <v>508.78679660022095</v>
+        <v>508.73596367019786</v>
       </c>
       <c r="J236">
         <f t="shared" si="68"/>
-        <v>10854.539960974118</v>
+        <v>10853.455483008189</v>
       </c>
       <c r="K236">
         <f t="shared" si="69"/>
-        <v>1005.0499963864924</v>
+        <v>1004.9495817600174</v>
       </c>
       <c r="L236">
         <f t="shared" si="70"/>
-        <v>31.773002627194867</v>
+        <v>31.769828183931079</v>
       </c>
       <c r="M236" s="8">
         <f t="shared" si="71"/>
@@ -18445,31 +18445,31 @@
         <v>67.657407407407391</v>
       </c>
       <c r="F237">
-        <v>212.28664093040086</v>
+        <v>212.46070205107412</v>
       </c>
       <c r="G237" s="6">
         <f t="shared" si="65"/>
-        <v>2.1228664093040086</v>
+        <v>2.1246070205107412</v>
       </c>
       <c r="H237" s="2">
         <f t="shared" si="66"/>
-        <v>48118.661425091828</v>
+        <v>48079.239602363712</v>
       </c>
       <c r="I237">
         <f t="shared" si="67"/>
-        <v>515.81201492514106</v>
+        <v>515.38942939987521</v>
       </c>
       <c r="J237">
         <f t="shared" si="68"/>
-        <v>11167.267943050792</v>
+        <v>11158.119017370604</v>
       </c>
       <c r="K237">
         <f t="shared" si="69"/>
-        <v>1019.8418212831774</v>
+        <v>1019.0063029562195</v>
       </c>
       <c r="L237">
         <f t="shared" si="70"/>
-        <v>31.87077957938445</v>
+        <v>31.844669039615148</v>
       </c>
       <c r="M237" s="8">
         <f t="shared" si="71"/>
@@ -18521,31 +18521,31 @@
         <v>69.166666666666671</v>
       </c>
       <c r="F238" s="16">
-        <v>212.30362386167531</v>
+        <v>212.47769890723819</v>
       </c>
       <c r="G238" s="6">
         <f t="shared" si="65"/>
-        <v>2.1230362386167529</v>
+        <v>2.124776989072382</v>
       </c>
       <c r="H238" s="2">
         <f t="shared" si="66"/>
-        <v>49994.718916882477</v>
+        <v>49953.760110296571</v>
       </c>
       <c r="I238">
         <f t="shared" si="67"/>
-        <v>520.48098845451352</v>
+        <v>520.05457781355778</v>
       </c>
       <c r="J238">
         <f t="shared" si="68"/>
-        <v>11979.079554746566</v>
+        <v>11969.265542123037</v>
       </c>
       <c r="K238">
         <f t="shared" si="69"/>
-        <v>1084.0795977146213</v>
+        <v>1083.1914517758405</v>
       </c>
       <c r="L238">
         <f t="shared" si="70"/>
-        <v>32.579126728299116</v>
+        <v>32.552435866157836</v>
       </c>
       <c r="M238" s="8">
         <f t="shared" si="71"/>
@@ -18597,31 +18597,31 @@
         <v>67.629629629629633</v>
       </c>
       <c r="F239" s="4">
-        <v>212.32060815158425</v>
+        <v>212.49469712315079</v>
       </c>
       <c r="G239" s="6">
         <f t="shared" si="65"/>
-        <v>2.1232060815158427</v>
+        <v>2.1249469712315077</v>
       </c>
       <c r="H239" s="2">
         <f t="shared" si="66"/>
-        <v>47118.153471271282</v>
+        <v>47079.551327354384</v>
       </c>
       <c r="I239">
         <f t="shared" si="67"/>
-        <v>548.69850371201812</v>
+        <v>548.24897551435231</v>
       </c>
       <c r="J239">
         <f t="shared" si="68"/>
-        <v>12208.899656830876</v>
+        <v>12198.897361178364</v>
       </c>
       <c r="K239">
         <f t="shared" si="69"/>
-        <v>1047.9742194704615</v>
+        <v>1047.1156533200315</v>
       </c>
       <c r="L239">
         <f t="shared" si="70"/>
-        <v>31.852597926502785</v>
+        <v>31.826502282282863</v>
       </c>
       <c r="M239" s="8">
         <f t="shared" si="71"/>
@@ -18673,31 +18673,31 @@
         <v>69.999999999999986</v>
       </c>
       <c r="F240">
-        <v>212.33759380023639</v>
+        <v>212.51169669892064</v>
       </c>
       <c r="G240" s="6">
         <f t="shared" si="65"/>
-        <v>2.123375938002364</v>
+        <v>2.1251169669892063</v>
       </c>
       <c r="H240" s="2">
         <f t="shared" si="66"/>
-        <v>45913.183932807406</v>
+        <v>45875.568975444148</v>
       </c>
       <c r="I240">
         <f t="shared" si="67"/>
-        <v>548.65461134311067</v>
+        <v>548.20511910482389</v>
       </c>
       <c r="J240">
         <f t="shared" si="68"/>
-        <v>11872.683281754291</v>
+        <v>11862.95643562477</v>
       </c>
       <c r="K240">
         <f t="shared" si="69"/>
-        <v>1019.114444785776</v>
+        <v>1018.2795223712251</v>
       </c>
       <c r="L240">
         <f t="shared" si="70"/>
-        <v>32.966371497010933</v>
+        <v>32.939363379688984</v>
       </c>
       <c r="M240" s="8">
         <f t="shared" si="71"/>
@@ -18749,31 +18749,31 @@
         <v>68.675925925925924</v>
       </c>
       <c r="F241">
-        <v>212.35458080774043</v>
+        <v>212.5286976346566</v>
       </c>
       <c r="G241" s="6">
         <f t="shared" si="65"/>
-        <v>2.1235458080774041</v>
+        <v>2.1252869763465658</v>
       </c>
       <c r="H241" s="2">
         <f t="shared" si="66"/>
-        <v>45501.792159351418</v>
+        <v>45464.514239908254</v>
       </c>
       <c r="I241">
         <f t="shared" si="67"/>
-        <v>567.44714214145984</v>
+        <v>566.98225388433536</v>
       </c>
       <c r="J241">
         <f t="shared" si="68"/>
-        <v>11395.534726848678</v>
+        <v>11386.198790715185</v>
       </c>
       <c r="K241">
         <f t="shared" si="69"/>
-        <v>945.68752919906058</v>
+        <v>944.91276271495315</v>
       </c>
       <c r="L241">
         <f t="shared" si="70"/>
-        <v>32.340214025381954</v>
+        <v>32.313718895498042</v>
       </c>
       <c r="M241" s="8">
         <f t="shared" si="71"/>
@@ -18825,31 +18825,31 @@
         <v>68.5</v>
       </c>
       <c r="F242">
-        <v>212.37156917420506</v>
+        <v>212.54569993046738</v>
       </c>
       <c r="G242" s="6">
         <f t="shared" si="65"/>
-        <v>2.1237156917420505</v>
+        <v>2.1254569993046739</v>
       </c>
       <c r="H242" s="2">
         <f t="shared" si="66"/>
-        <v>46030.624711263648</v>
+        <v>45992.9135390554</v>
       </c>
       <c r="I242">
         <f t="shared" si="67"/>
-        <v>553.27556535412043</v>
+        <v>552.82228734074215</v>
       </c>
       <c r="J242">
         <f t="shared" si="68"/>
-        <v>11619.078813585907</v>
+        <v>11609.55973612848</v>
       </c>
       <c r="K242">
         <f t="shared" si="69"/>
-        <v>988.85777136901345</v>
+        <v>988.04763711731744</v>
       </c>
       <c r="L242">
         <f t="shared" si="70"/>
-        <v>32.254788278091276</v>
+        <v>32.228363134332625</v>
       </c>
       <c r="M242" s="8">
         <f t="shared" si="71"/>
@@ -18901,31 +18901,31 @@
         <v>68.518518518518519</v>
       </c>
       <c r="F243">
-        <v>212.38855889973902</v>
+        <v>212.56270358646182</v>
       </c>
       <c r="G243" s="6">
         <f t="shared" si="65"/>
-        <v>2.1238855889973904</v>
+        <v>2.1256270358646181</v>
       </c>
       <c r="H243" s="2">
         <f t="shared" si="66"/>
-        <v>44581.610464572128</v>
+        <v>44545.08641563524</v>
       </c>
       <c r="I243">
         <f t="shared" si="67"/>
-        <v>565.00218571871221</v>
+        <v>564.53930052309909</v>
       </c>
       <c r="J243">
         <f t="shared" si="68"/>
-        <v>11776.307598474286</v>
+        <v>11766.659709343758</v>
       </c>
       <c r="K243">
         <f t="shared" si="69"/>
-        <v>981.35896653952364</v>
+        <v>980.55497577864639</v>
       </c>
       <c r="L243">
         <f t="shared" si="70"/>
-        <v>32.260927270975849</v>
+        <v>32.234497097769548</v>
       </c>
       <c r="M243" s="8">
         <f t="shared" si="71"/>
@@ -18977,31 +18977,31 @@
         <v>68.509259259259252</v>
       </c>
       <c r="F244">
-        <v>212.40554998445103</v>
+        <v>212.57970860274878</v>
       </c>
       <c r="G244" s="6">
         <f t="shared" si="65"/>
-        <v>2.1240554998445105</v>
+        <v>2.1257970860274877</v>
       </c>
       <c r="H244" s="2">
         <f t="shared" si="66"/>
-        <v>46456.455590366393</v>
+        <v>46418.395550817899</v>
       </c>
       <c r="I244">
         <f t="shared" si="67"/>
-        <v>564.95698915957939</v>
+        <v>564.49414099181968</v>
       </c>
       <c r="J244">
         <f t="shared" si="68"/>
-        <v>12010.138154048918</v>
+        <v>12000.298696274598</v>
       </c>
       <c r="K244">
         <f t="shared" si="69"/>
-        <v>1000.844846170743</v>
+        <v>1000.0248913562165</v>
       </c>
       <c r="L244">
         <f t="shared" si="70"/>
-        <v>32.25398736722012</v>
+        <v>32.227562879617849</v>
       </c>
       <c r="M244" s="8">
         <f t="shared" si="71"/>
@@ -19053,31 +19053,31 @@
         <v>68.509259259259252</v>
       </c>
       <c r="F245">
-        <v>212.42254242844979</v>
+        <v>212.59671497943702</v>
       </c>
       <c r="G245" s="6">
         <f t="shared" si="65"/>
-        <v>2.1242254242844978</v>
+        <v>2.1259671497943704</v>
       </c>
       <c r="H245" s="2">
         <f t="shared" si="66"/>
-        <v>46746.0745290001</v>
+        <v>46707.777215468501</v>
       </c>
       <c r="I245">
         <f t="shared" si="67"/>
-        <v>564.91179621588219</v>
+        <v>564.44898507301366</v>
       </c>
       <c r="J245">
         <f t="shared" si="68"/>
-        <v>12009.17741985533</v>
+        <v>11999.338749174662</v>
       </c>
       <c r="K245">
         <f t="shared" si="69"/>
-        <v>1000.7647849879442</v>
+        <v>999.9448957645551</v>
       </c>
       <c r="L245">
         <f t="shared" si="70"/>
-        <v>32.251407254639751</v>
+        <v>32.224984880827371</v>
       </c>
       <c r="M245" s="8">
         <f t="shared" si="71"/>
@@ -19129,31 +19129,31 @@
         <v>69.351851851851848</v>
       </c>
       <c r="F246">
-        <v>212.43953623184407</v>
+        <v>212.61372271663538</v>
       </c>
       <c r="G246" s="6">
         <f t="shared" si="65"/>
-        <v>2.1243953623184408</v>
+        <v>2.1261372271663537</v>
       </c>
       <c r="H246" s="2">
         <f t="shared" si="66"/>
-        <v>45124.03467845203</v>
+        <v>45087.066241608867</v>
       </c>
       <c r="I246">
         <f t="shared" si="67"/>
-        <v>564.86660688733105</v>
+        <v>564.40383276639238</v>
       </c>
       <c r="J246">
         <f t="shared" si="68"/>
-        <v>12226.483573026455</v>
+        <v>12216.466871527924</v>
       </c>
       <c r="K246">
         <f t="shared" si="69"/>
-        <v>1018.8736310855378</v>
+        <v>1018.0389059606603</v>
       </c>
       <c r="L246">
         <f t="shared" si="70"/>
-        <v>32.645454364090348</v>
+        <v>32.618709162193511</v>
       </c>
       <c r="M246" s="8">
         <f t="shared" si="71"/>
@@ -19205,31 +19205,31 @@
         <v>69.379629629629633</v>
       </c>
       <c r="F247">
-        <v>212.45653139474263</v>
+        <v>212.6307318144527</v>
       </c>
       <c r="G247" s="6">
         <f t="shared" si="65"/>
-        <v>2.1245653139474263</v>
+        <v>2.1263073181445269</v>
       </c>
       <c r="H247" s="2">
         <f t="shared" si="66"/>
-        <v>44340.015993658038</v>
+        <v>44303.689874050899</v>
       </c>
       <c r="I247">
         <f t="shared" si="67"/>
-        <v>569.52826635008421</v>
+        <v>569.06167310559727</v>
       </c>
       <c r="J247">
         <f t="shared" si="68"/>
-        <v>12132.10840391129</v>
+        <v>12122.169020465186</v>
       </c>
       <c r="K247">
         <f t="shared" si="69"/>
-        <v>1002.6535871001067</v>
+        <v>1001.8321504516684</v>
       </c>
       <c r="L247">
         <f t="shared" si="70"/>
-        <v>32.655917506590001</v>
+        <v>32.629163732631163</v>
       </c>
       <c r="M247" s="8">
         <f t="shared" si="71"/>
@@ -19281,31 +19281,31 @@
         <v>69.657407407407405</v>
       </c>
       <c r="F248">
-        <v>212.47352791725422</v>
+        <v>212.64774227299787</v>
       </c>
       <c r="G248" s="6">
         <f t="shared" si="65"/>
-        <v>2.1247352791725422</v>
+        <v>2.1264774227299785</v>
       </c>
       <c r="H248" s="2">
         <f t="shared" si="66"/>
-        <v>43602.236432991791</v>
+        <v>43566.514748632675</v>
       </c>
       <c r="I248">
         <f t="shared" si="67"/>
-        <v>571.83594206294254</v>
+        <v>571.36745822590444</v>
       </c>
       <c r="J248">
         <f t="shared" si="68"/>
-        <v>11924.473720729577</v>
+        <v>11914.704444627072</v>
       </c>
       <c r="K248">
         <f t="shared" si="69"/>
-        <v>981.43816631519132</v>
+        <v>980.63411066889489</v>
       </c>
       <c r="L248">
         <f t="shared" si="70"/>
-        <v>32.784040482697129</v>
+        <v>32.757181742367621</v>
       </c>
       <c r="M248" s="8">
         <f t="shared" si="71"/>
@@ -19357,31 +19357,31 @@
         <v>69.657407407407405</v>
       </c>
       <c r="F249">
-        <v>212.49052579948761</v>
+        <v>212.66475409237972</v>
       </c>
       <c r="G249" s="6">
         <f t="shared" si="65"/>
-        <v>2.1249052579948762</v>
+        <v>2.126647540923797</v>
       </c>
       <c r="H249" s="2">
         <f t="shared" si="66"/>
-        <v>43968.642671703194</v>
+        <v>43932.620804392987</v>
       </c>
       <c r="I249">
         <f t="shared" si="67"/>
-        <v>578.84933710440555</v>
+        <v>578.37510745466489</v>
       </c>
       <c r="J249">
         <f t="shared" si="68"/>
-        <v>11923.519839142444</v>
+        <v>11913.751344519511</v>
       </c>
       <c r="K249">
         <f t="shared" si="69"/>
-        <v>969.39185684084919</v>
+        <v>968.59767028613919</v>
       </c>
       <c r="L249">
         <f t="shared" si="70"/>
-        <v>32.781417969259586</v>
+        <v>32.754561377457421</v>
       </c>
       <c r="M249" s="8">
         <f t="shared" si="71"/>
@@ -19433,31 +19433,31 @@
         <v>69.657407407407405</v>
       </c>
       <c r="F250">
-        <v>212.50752504155159</v>
+        <v>212.68176727270713</v>
       </c>
       <c r="G250" s="6">
         <f t="shared" si="65"/>
-        <v>2.1250752504155157</v>
+        <v>2.1268176727270713</v>
       </c>
       <c r="H250" s="2">
         <f t="shared" si="66"/>
-        <v>44431.254837464279</v>
+        <v>44394.853969278927</v>
       </c>
       <c r="I250">
         <f t="shared" si="67"/>
-        <v>578.80303286177661</v>
+        <v>578.32884114737305</v>
       </c>
       <c r="J250">
         <f t="shared" si="68"/>
-        <v>11922.566033859735</v>
+        <v>11912.798320653857</v>
       </c>
       <c r="K250">
         <f t="shared" si="69"/>
-        <v>969.31431169591349</v>
+        <v>968.52018867104539</v>
       </c>
       <c r="L250">
         <f t="shared" si="70"/>
-        <v>32.778795665606339</v>
+        <v>32.751941222159644</v>
       </c>
       <c r="M250" s="8">
         <f t="shared" si="71"/>
@@ -19509,31 +19509,31 @@
         <v>71.175925925925924</v>
       </c>
       <c r="F251">
-        <v>212.52452564355494</v>
+        <v>212.69878181408896</v>
       </c>
       <c r="G251" s="6">
         <f t="shared" si="65"/>
-        <v>2.1252452564355493</v>
+        <v>2.1269878181408894</v>
       </c>
       <c r="H251" s="2">
         <f t="shared" si="66"/>
-        <v>45588.564287633417</v>
+        <v>45551.215279025317</v>
       </c>
       <c r="I251">
         <f t="shared" si="67"/>
-        <v>578.7567323231907</v>
+        <v>578.28257854108972</v>
       </c>
       <c r="J251">
         <f t="shared" si="68"/>
-        <v>12683.929028130729</v>
+        <v>12673.537558650198</v>
       </c>
       <c r="K251">
         <f t="shared" si="69"/>
-        <v>1031.2137421244495</v>
+        <v>1030.3689072073332</v>
       </c>
       <c r="L251">
         <f t="shared" si="70"/>
-        <v>33.490688056070212</v>
+        <v>33.463250385767516</v>
       </c>
       <c r="M251" s="8">
         <f t="shared" si="71"/>
@@ -19585,31 +19585,31 @@
         <v>70.611111111111114</v>
       </c>
       <c r="F252">
-        <v>212.54152760560643</v>
+        <v>212.71579771663411</v>
       </c>
       <c r="G252" s="6">
         <f t="shared" si="65"/>
-        <v>2.1254152760560645</v>
+        <v>2.1271579771663411</v>
       </c>
       <c r="H252" s="2">
         <f t="shared" si="66"/>
-        <v>46159.181739791027</v>
+        <v>46121.365245609173</v>
       </c>
       <c r="I252">
         <f t="shared" si="67"/>
-        <v>566.9480282629786</v>
+        <v>566.4835489112196</v>
       </c>
       <c r="J252">
         <f t="shared" si="68"/>
-        <v>12839.424985519943</v>
+        <v>12828.906124007181</v>
       </c>
       <c r="K252">
         <f t="shared" si="69"/>
-        <v>1065.5124469311156</v>
+        <v>1064.6395123657412</v>
       </c>
       <c r="L252">
         <f t="shared" si="70"/>
-        <v>33.222265740997962</v>
+        <v>33.19504797907608</v>
       </c>
       <c r="M252" s="8">
         <f t="shared" si="71"/>
@@ -19661,31 +19661,31 @@
         <v>71.287037037037024</v>
       </c>
       <c r="F253">
-        <v>212.5585309278149</v>
+        <v>212.73281498045145</v>
       </c>
       <c r="G253" s="6">
         <f t="shared" si="65"/>
-        <v>2.1255853092781489</v>
+        <v>2.1273281498045145</v>
       </c>
       <c r="H253" s="2">
         <f t="shared" si="66"/>
-        <v>48023.520653078762</v>
+        <v>47984.17677563295</v>
       </c>
       <c r="I253">
         <f t="shared" si="67"/>
-        <v>566.90267604889459</v>
+        <v>566.43823385251142</v>
       </c>
       <c r="J253">
         <f t="shared" si="68"/>
-        <v>13178.586565181417</v>
+        <v>13167.789841249509</v>
       </c>
       <c r="K253">
         <f t="shared" si="69"/>
-        <v>1093.6586361146406</v>
+        <v>1092.7626424273453</v>
       </c>
       <c r="L253">
         <f t="shared" si="70"/>
-        <v>33.537603372525275</v>
+        <v>33.510127266255452</v>
       </c>
       <c r="M253" s="8">
         <f t="shared" si="71"/>
@@ -19737,31 +19737,31 @@
         <v>71.148148148148152</v>
       </c>
       <c r="F254">
-        <v>212.57553561028914</v>
+        <v>212.74983360564991</v>
       </c>
       <c r="G254" s="6">
         <f t="shared" si="65"/>
-        <v>2.1257553561028915</v>
+        <v>2.1274983360564992</v>
       </c>
       <c r="H254" s="2">
         <f t="shared" ref="H254:H257" si="80">+B254/G254</f>
-        <v>45534.76472356345</v>
+        <v>45497.459790929504</v>
       </c>
       <c r="I254">
         <f t="shared" ref="I254:I257" si="81">+C254/G254</f>
-        <v>566.85732746269753</v>
+        <v>566.39292241871783</v>
       </c>
       <c r="J254">
         <f t="shared" ref="J254:J257" si="82">+D254/F254</f>
-        <v>13276.1020307334</v>
+        <v>13265.225416021442</v>
       </c>
       <c r="K254">
         <f t="shared" ref="K254:K257" si="83">+D254/C254/G254</f>
-        <v>1101.7512058699917</v>
+        <v>1100.8485822424434</v>
       </c>
       <c r="L254">
         <f t="shared" ref="L254:L257" si="84">+E254/G254</f>
-        <v>33.469584326289905</v>
+        <v>33.442163945485078</v>
       </c>
       <c r="M254" s="8">
         <f t="shared" ref="M254:P257" si="85">+LN(B254/B253)</f>
@@ -19813,31 +19813,31 @@
         <v>68.599999999999994</v>
       </c>
       <c r="F255">
-        <v>212.59254165313797</v>
+        <v>212.76685359233838</v>
       </c>
       <c r="G255" s="6">
         <f t="shared" si="65"/>
-        <v>2.1259254165313797</v>
+        <v>2.1276685359233838</v>
       </c>
       <c r="H255" s="2">
         <f t="shared" si="80"/>
-        <v>44706.892942213955</v>
+        <v>44670.266254020724</v>
       </c>
       <c r="I255">
         <f t="shared" si="81"/>
-        <v>571.51581638379923</v>
+        <v>571.04759481377766</v>
       </c>
       <c r="J255">
         <f t="shared" si="82"/>
-        <v>13088.309582091726</v>
+        <v>13077.586818721446</v>
       </c>
       <c r="K255">
         <f t="shared" si="83"/>
-        <v>1077.2271260980845</v>
+        <v>1076.3445941334523</v>
       </c>
       <c r="L255">
         <f t="shared" si="84"/>
-        <v>32.268300414756069</v>
+        <v>32.241864201008347</v>
       </c>
       <c r="M255" s="8">
         <f t="shared" si="85"/>
@@ -19889,31 +19889,31 @@
         <v>68.52</v>
       </c>
       <c r="F256">
-        <v>212.60954905647023</v>
+        <v>212.78387494062576</v>
       </c>
       <c r="G256" s="6">
         <f t="shared" si="65"/>
-        <v>2.1260954905647025</v>
+        <v>2.1278387494062576</v>
       </c>
       <c r="H256" s="2">
         <f t="shared" si="80"/>
-        <v>43499.47611028314</v>
+        <v>43463.838613619722</v>
       </c>
       <c r="I256">
         <f t="shared" si="81"/>
-        <v>573.82182757744408</v>
+        <v>573.35171677854964</v>
       </c>
       <c r="J256">
         <f t="shared" si="82"/>
-        <v>13309.51508320263</v>
+        <v>13298.611094424306</v>
       </c>
       <c r="K256">
         <f t="shared" si="83"/>
-        <v>1090.943859278904</v>
+        <v>1090.0500897069105</v>
       </c>
       <c r="L256">
         <f t="shared" si="84"/>
-        <v>32.22809149639874</v>
+        <v>32.201688224316577</v>
       </c>
       <c r="M256" s="8">
         <f t="shared" si="85"/>
@@ -19965,31 +19965,31 @@
         <v>68.47</v>
       </c>
       <c r="F257">
-        <v>212.62655782039477</v>
+        <v>212.80089765062104</v>
       </c>
       <c r="G257" s="6">
         <f t="shared" si="65"/>
-        <v>2.1262655782039475</v>
+        <v>2.1280089765062105</v>
       </c>
       <c r="H257" s="2">
         <f t="shared" si="80"/>
-        <v>44538.862393659278</v>
+        <v>44502.373366620814</v>
       </c>
       <c r="I257">
         <f t="shared" si="81"/>
-        <v>576.12746618169649</v>
+        <v>575.65546645917777</v>
       </c>
       <c r="J257">
         <f t="shared" si="82"/>
-        <v>13192.801636611623</v>
+        <v>13181.993266802432</v>
       </c>
       <c r="K257">
         <f t="shared" si="83"/>
-        <v>1076.9633989070715</v>
+        <v>1076.0810830042801</v>
       </c>
       <c r="L257">
         <f t="shared" si="84"/>
-        <v>32.201998048539394</v>
+        <v>32.175616153844814</v>
       </c>
       <c r="M257" s="8">
         <f t="shared" si="85"/>
@@ -20029,7 +20029,7 @@
         <v>45670</v>
       </c>
       <c r="B258">
-        <v>94889.75</v>
+        <v>94516.52</v>
       </c>
       <c r="C258">
         <v>1250</v>
@@ -20041,35 +20041,35 @@
         <v>68.56</v>
       </c>
       <c r="F258">
-        <v>213.62663782039476</v>
+        <v>212.81792172243311</v>
       </c>
       <c r="G258" s="6">
         <f t="shared" ref="G258" si="86">+F258/$U$1</f>
-        <v>2.1362663782039477</v>
+        <v>2.1281792172243312</v>
       </c>
       <c r="H258" s="2">
         <f t="shared" ref="H258" si="87">+B258/G258</f>
-        <v>44418.500879922074</v>
+        <v>44411.917584306073</v>
       </c>
       <c r="I258">
         <f t="shared" ref="I258" si="88">+C258/G258</f>
-        <v>585.13302121570132</v>
+        <v>587.35654867934818</v>
       </c>
       <c r="J258">
         <f t="shared" ref="J258" si="89">+D258/F258</f>
-        <v>12429.063281107878</v>
+        <v>12476.294188527065</v>
       </c>
       <c r="K258">
         <f t="shared" ref="K258" si="90">+D258/C258/G258</f>
-        <v>994.32506248863012</v>
+        <v>998.10353508216508</v>
       </c>
       <c r="L258">
         <f t="shared" ref="L258" si="91">+E258/G258</f>
-        <v>32.093375947638791</v>
+        <v>32.215331981964887</v>
       </c>
       <c r="M258" s="8">
         <f t="shared" ref="M258" si="92">+LN(B258/B257)</f>
-        <v>1.9863797677813094E-3</v>
+        <v>-1.9546775486614684E-3</v>
       </c>
       <c r="N258" s="8">
         <f t="shared" ref="N258" si="93">+LN(C258/C257)</f>
@@ -20085,7 +20085,7 @@
       </c>
       <c r="Q258" s="8">
         <f t="shared" ref="Q258" si="96">+_xlfn.STDEV.S(M239:M258)</f>
-        <v>2.8459209001087584E-2</v>
+        <v>2.8417511554841141E-2</v>
       </c>
       <c r="R258" s="8">
         <f t="shared" ref="R258" si="97">+_xlfn.STDEV.S(N239:N258)</f>
@@ -20101,7 +20101,80 @@
       </c>
     </row>
     <row r="259" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="14"/>
+      <c r="A259" s="14">
+        <v>45671</v>
+      </c>
+      <c r="B259">
+        <v>97042.8</v>
+      </c>
+      <c r="C259">
+        <v>1235</v>
+      </c>
+      <c r="D259">
+        <v>2733273.25</v>
+      </c>
+      <c r="E259">
+        <v>68.62</v>
+      </c>
+      <c r="F259">
+        <v>213.81890179443309</v>
+      </c>
+      <c r="G259" s="6">
+        <f t="shared" ref="G259" si="100">+F259/$U$1</f>
+        <v>2.138189017944331</v>
+      </c>
+      <c r="H259" s="2">
+        <f t="shared" ref="H259" si="101">+B259/G259</f>
+        <v>45385.51044158743</v>
+      </c>
+      <c r="I259">
+        <f t="shared" ref="I259" si="102">+C259/G259</f>
+        <v>577.59159252783797</v>
+      </c>
+      <c r="J259">
+        <f t="shared" ref="J259" si="103">+D259/F259</f>
+        <v>12783.122666244853</v>
+      </c>
+      <c r="K259">
+        <f t="shared" ref="K259" si="104">+D259/C259/G259</f>
+        <v>1035.0706612344011</v>
+      </c>
+      <c r="L259">
+        <f t="shared" ref="L259" si="105">+E259/G259</f>
+        <v>32.092579011546754</v>
+      </c>
+      <c r="M259" s="8">
+        <f t="shared" ref="M259" si="106">+LN(B259/B258)</f>
+        <v>2.6377484264132452E-2</v>
+      </c>
+      <c r="N259" s="8">
+        <f t="shared" ref="N259" si="107">+LN(C259/C258)</f>
+        <v>-1.2072581234269249E-2</v>
+      </c>
+      <c r="O259" s="8">
+        <f t="shared" ref="O259" si="108">+LN(D259/D258)</f>
+        <v>2.8987811269565553E-2</v>
+      </c>
+      <c r="P259" s="8">
+        <f t="shared" ref="P259" si="109">+LN(E259/E258)</f>
+        <v>8.7476314077940091E-4</v>
+      </c>
+      <c r="Q259" s="8">
+        <f t="shared" ref="Q259" si="110">+_xlfn.STDEV.S(M240:M259)</f>
+        <v>2.6321426564605718E-2</v>
+      </c>
+      <c r="R259" s="8">
+        <f t="shared" ref="R259" si="111">+_xlfn.STDEV.S(N240:N259)</f>
+        <v>1.3302460854154204E-2</v>
+      </c>
+      <c r="S259" s="8">
+        <f t="shared" ref="S259" si="112">+_xlfn.STDEV.S(O240:O259)</f>
+        <v>2.6251398302702858E-2</v>
+      </c>
+      <c r="T259" s="8">
+        <f t="shared" ref="T259" si="113">+_xlfn.STDEV.S(P240:P259)</f>
+        <v>1.3899563933030349E-2</v>
+      </c>
     </row>
     <row r="260" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="14"/>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L252" workbookViewId="0">
-      <selection activeCell="U256" sqref="U256"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="E261" sqref="E261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20044,59 +20044,59 @@
         <v>212.81792172243311</v>
       </c>
       <c r="G258" s="6">
-        <f t="shared" ref="G258" si="86">+F258/$U$1</f>
+        <f t="shared" ref="G258:G261" si="86">+F258/$U$1</f>
         <v>2.1281792172243312</v>
       </c>
       <c r="H258" s="2">
-        <f t="shared" ref="H258" si="87">+B258/G258</f>
+        <f t="shared" ref="H258:H261" si="87">+B258/G258</f>
         <v>44411.917584306073</v>
       </c>
       <c r="I258">
-        <f t="shared" ref="I258" si="88">+C258/G258</f>
+        <f t="shared" ref="I258:I261" si="88">+C258/G258</f>
         <v>587.35654867934818</v>
       </c>
       <c r="J258">
-        <f t="shared" ref="J258" si="89">+D258/F258</f>
+        <f t="shared" ref="J258:J261" si="89">+D258/F258</f>
         <v>12476.294188527065</v>
       </c>
       <c r="K258">
-        <f t="shared" ref="K258" si="90">+D258/C258/G258</f>
+        <f t="shared" ref="K258:K261" si="90">+D258/C258/G258</f>
         <v>998.10353508216508</v>
       </c>
       <c r="L258">
-        <f t="shared" ref="L258" si="91">+E258/G258</f>
+        <f t="shared" ref="L258:L261" si="91">+E258/G258</f>
         <v>32.215331981964887</v>
       </c>
       <c r="M258" s="8">
-        <f t="shared" ref="M258" si="92">+LN(B258/B257)</f>
+        <f t="shared" ref="M258:M261" si="92">+LN(B258/B257)</f>
         <v>-1.9546775486614684E-3</v>
       </c>
       <c r="N258" s="8">
-        <f t="shared" ref="N258" si="93">+LN(C258/C257)</f>
+        <f t="shared" ref="N258:N261" si="93">+LN(C258/C257)</f>
         <v>2.0202707317519469E-2</v>
       </c>
       <c r="O258" s="8">
-        <f t="shared" ref="O258" si="94">+LN(D258/D257)</f>
+        <f t="shared" ref="O258:O261" si="94">+LN(D258/D257)</f>
         <v>-5.4941376218979834E-2</v>
       </c>
       <c r="P258" s="8">
-        <f t="shared" ref="P258" si="95">+LN(E258/E257)</f>
+        <f t="shared" ref="P258:P261" si="95">+LN(E258/E257)</f>
         <v>1.3135811565527494E-3</v>
       </c>
       <c r="Q258" s="8">
-        <f t="shared" ref="Q258" si="96">+_xlfn.STDEV.S(M239:M258)</f>
+        <f t="shared" ref="Q258:Q261" si="96">+_xlfn.STDEV.S(M239:M258)</f>
         <v>2.8417511554841141E-2</v>
       </c>
       <c r="R258" s="8">
-        <f t="shared" ref="R258" si="97">+_xlfn.STDEV.S(N239:N258)</f>
+        <f t="shared" ref="R258:R261" si="97">+_xlfn.STDEV.S(N239:N258)</f>
         <v>1.6893419308479745E-2</v>
       </c>
       <c r="S258" s="8">
-        <f t="shared" ref="S258" si="98">+_xlfn.STDEV.S(O239:O258)</f>
+        <f t="shared" ref="S258:S261" si="98">+_xlfn.STDEV.S(O239:O258)</f>
         <v>2.5818237743090586E-2</v>
       </c>
       <c r="T258" s="8">
-        <f t="shared" ref="T258" si="99">+_xlfn.STDEV.S(P239:P258)</f>
+        <f t="shared" ref="T258:T261" si="99">+_xlfn.STDEV.S(P239:P258)</f>
         <v>1.4835431534097953E-2</v>
       </c>
     </row>
@@ -20105,13 +20105,13 @@
         <v>45671</v>
       </c>
       <c r="B259">
-        <v>97042.8</v>
+        <v>96534.05</v>
       </c>
       <c r="C259">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="D259">
-        <v>2733273.25</v>
+        <v>2733273</v>
       </c>
       <c r="E259">
         <v>68.62</v>
@@ -20120,67 +20120,213 @@
         <v>213.81890179443309</v>
       </c>
       <c r="G259" s="6">
-        <f t="shared" ref="G259" si="100">+F259/$U$1</f>
+        <f t="shared" si="86"/>
         <v>2.138189017944331</v>
       </c>
       <c r="H259" s="2">
-        <f t="shared" ref="H259" si="101">+B259/G259</f>
-        <v>45385.51044158743</v>
+        <f t="shared" si="87"/>
+        <v>45147.575443450958</v>
       </c>
       <c r="I259">
-        <f t="shared" ref="I259" si="102">+C259/G259</f>
-        <v>577.59159252783797</v>
+        <f t="shared" si="88"/>
+        <v>579.9300200279506</v>
       </c>
       <c r="J259">
-        <f t="shared" ref="J259" si="103">+D259/F259</f>
-        <v>12783.122666244853</v>
+        <f t="shared" si="89"/>
+        <v>12783.121497031103</v>
       </c>
       <c r="K259">
-        <f t="shared" ref="K259" si="104">+D259/C259/G259</f>
-        <v>1035.0706612344011</v>
+        <f t="shared" si="90"/>
+        <v>1030.8968949218631</v>
       </c>
       <c r="L259">
-        <f t="shared" ref="L259" si="105">+E259/G259</f>
+        <f t="shared" si="91"/>
         <v>32.092579011546754</v>
       </c>
       <c r="M259" s="8">
-        <f t="shared" ref="M259" si="106">+LN(B259/B258)</f>
-        <v>2.6377484264132452E-2</v>
+        <f t="shared" si="92"/>
+        <v>2.112116181286005E-2</v>
       </c>
       <c r="N259" s="8">
-        <f t="shared" ref="N259" si="107">+LN(C259/C258)</f>
-        <v>-1.2072581234269249E-2</v>
+        <f t="shared" si="93"/>
+        <v>-8.0321716972642666E-3</v>
       </c>
       <c r="O259" s="8">
-        <f t="shared" ref="O259" si="108">+LN(D259/D258)</f>
-        <v>2.8987811269565553E-2</v>
+        <f t="shared" si="94"/>
+        <v>2.8987719804136131E-2</v>
       </c>
       <c r="P259" s="8">
-        <f t="shared" ref="P259" si="109">+LN(E259/E258)</f>
+        <f t="shared" si="95"/>
         <v>8.7476314077940091E-4</v>
       </c>
       <c r="Q259" s="8">
-        <f t="shared" ref="Q259" si="110">+_xlfn.STDEV.S(M240:M259)</f>
-        <v>2.6321426564605718E-2</v>
+        <f t="shared" si="96"/>
+        <v>2.6053069287116627E-2</v>
       </c>
       <c r="R259" s="8">
-        <f t="shared" ref="R259" si="111">+_xlfn.STDEV.S(N240:N259)</f>
-        <v>1.3302460854154204E-2</v>
+        <f t="shared" si="97"/>
+        <v>1.3091842392565981E-2</v>
       </c>
       <c r="S259" s="8">
-        <f t="shared" ref="S259" si="112">+_xlfn.STDEV.S(O240:O259)</f>
-        <v>2.6251398302702858E-2</v>
+        <f t="shared" si="98"/>
+        <v>2.6251393472825839E-2</v>
       </c>
       <c r="T259" s="8">
-        <f t="shared" ref="T259" si="113">+_xlfn.STDEV.S(P240:P259)</f>
+        <f t="shared" si="99"/>
         <v>1.3899563933030349E-2</v>
       </c>
     </row>
     <row r="260" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="14"/>
+      <c r="A260" s="14">
+        <v>45672</v>
+      </c>
+      <c r="B260">
+        <v>100504.49</v>
+      </c>
+      <c r="C260">
+        <v>1240</v>
+      </c>
+      <c r="D260">
+        <v>2704474</v>
+      </c>
+      <c r="E260">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="F260">
+        <v>214.01133880604806</v>
+      </c>
+      <c r="G260" s="6">
+        <f t="shared" si="86"/>
+        <v>2.1401133880604806</v>
+      </c>
+      <c r="H260" s="2">
+        <f t="shared" si="87"/>
+        <v>46962.226656169914</v>
+      </c>
+      <c r="I260">
+        <f t="shared" si="88"/>
+        <v>579.40855233085301</v>
+      </c>
+      <c r="J260">
+        <f t="shared" si="89"/>
+        <v>12637.059396422832</v>
+      </c>
+      <c r="K260">
+        <f t="shared" si="90"/>
+        <v>1019.117693259906</v>
+      </c>
+      <c r="L260">
+        <f t="shared" si="91"/>
+        <v>31.872143027812481</v>
+      </c>
+      <c r="M260" s="8">
+        <f t="shared" si="92"/>
+        <v>4.0306607269032693E-2</v>
+      </c>
+      <c r="N260" s="8">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="O260" s="8">
+        <f t="shared" si="94"/>
+        <v>-1.0592353511567803E-2</v>
+      </c>
+      <c r="P260" s="8">
+        <f t="shared" si="95"/>
+        <v>-5.9928557636758041E-3</v>
+      </c>
+      <c r="Q260" s="8">
+        <f t="shared" si="96"/>
+        <v>2.7019947433498035E-2</v>
+      </c>
+      <c r="R260" s="8">
+        <f t="shared" si="97"/>
+        <v>1.3091842392565981E-2</v>
+      </c>
+      <c r="S260" s="8">
+        <f t="shared" si="98"/>
+        <v>2.5468377815451554E-2</v>
+      </c>
+      <c r="T260" s="8">
+        <f t="shared" si="99"/>
+        <v>1.1463795611681479E-2</v>
+      </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A261" s="14"/>
+      <c r="A261" s="14">
+        <v>45673</v>
+      </c>
+      <c r="B261">
+        <v>101001.76</v>
+      </c>
+      <c r="C261">
+        <v>1225</v>
+      </c>
+      <c r="D261">
+        <v>2629377</v>
+      </c>
+      <c r="E261">
+        <v>67.64</v>
+      </c>
+      <c r="F261">
+        <v>214.20394901097347</v>
+      </c>
+      <c r="G261" s="6">
+        <f t="shared" si="86"/>
+        <v>2.1420394901097346</v>
+      </c>
+      <c r="H261" s="2">
+        <f t="shared" si="87"/>
+        <v>47152.146571688914</v>
+      </c>
+      <c r="I261">
+        <f t="shared" si="88"/>
+        <v>571.88488151413321</v>
+      </c>
+      <c r="J261">
+        <f t="shared" si="89"/>
+        <v>12275.109829395813</v>
+      </c>
+      <c r="K261">
+        <f t="shared" si="90"/>
+        <v>1002.049781991495</v>
+      </c>
+      <c r="L261">
+        <f t="shared" si="91"/>
+        <v>31.577382355604875</v>
+      </c>
+      <c r="M261" s="8">
+        <f t="shared" si="92"/>
+        <v>4.9355393139315328E-3</v>
+      </c>
+      <c r="N261" s="8">
+        <f t="shared" si="93"/>
+        <v>-1.2170535620255179E-2</v>
+      </c>
+      <c r="O261" s="8">
+        <f t="shared" si="94"/>
+        <v>-2.8160502676789722E-2</v>
+      </c>
+      <c r="P261" s="8">
+        <f t="shared" si="95"/>
+        <v>-8.3916576362482887E-3</v>
+      </c>
+      <c r="Q261" s="8">
+        <f t="shared" si="96"/>
+        <v>2.6915535000064807E-2</v>
+      </c>
+      <c r="R261" s="8">
+        <f t="shared" si="97"/>
+        <v>1.1346448844561962E-2</v>
+      </c>
+      <c r="S261" s="8">
+        <f t="shared" si="98"/>
+        <v>2.4433845574869256E-2</v>
+      </c>
+      <c r="T261" s="8">
+        <f t="shared" si="99"/>
+        <v>1.0820780183787572E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U261"/>
+  <dimension ref="A1:U263"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="E261" sqref="E261"/>
+      <selection activeCell="B264" sqref="B264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20044,59 +20044,59 @@
         <v>212.81792172243311</v>
       </c>
       <c r="G258" s="6">
-        <f t="shared" ref="G258:G261" si="86">+F258/$U$1</f>
+        <f t="shared" ref="G258:G262" si="86">+F258/$U$1</f>
         <v>2.1281792172243312</v>
       </c>
       <c r="H258" s="2">
-        <f t="shared" ref="H258:H261" si="87">+B258/G258</f>
+        <f t="shared" ref="H258:H262" si="87">+B258/G258</f>
         <v>44411.917584306073</v>
       </c>
       <c r="I258">
-        <f t="shared" ref="I258:I261" si="88">+C258/G258</f>
+        <f t="shared" ref="I258:I262" si="88">+C258/G258</f>
         <v>587.35654867934818</v>
       </c>
       <c r="J258">
-        <f t="shared" ref="J258:J261" si="89">+D258/F258</f>
+        <f t="shared" ref="J258:J262" si="89">+D258/F258</f>
         <v>12476.294188527065</v>
       </c>
       <c r="K258">
-        <f t="shared" ref="K258:K261" si="90">+D258/C258/G258</f>
+        <f t="shared" ref="K258:K262" si="90">+D258/C258/G258</f>
         <v>998.10353508216508</v>
       </c>
       <c r="L258">
-        <f t="shared" ref="L258:L261" si="91">+E258/G258</f>
+        <f t="shared" ref="L258:L262" si="91">+E258/G258</f>
         <v>32.215331981964887</v>
       </c>
       <c r="M258" s="8">
-        <f t="shared" ref="M258:M261" si="92">+LN(B258/B257)</f>
+        <f t="shared" ref="M258:M262" si="92">+LN(B258/B257)</f>
         <v>-1.9546775486614684E-3</v>
       </c>
       <c r="N258" s="8">
-        <f t="shared" ref="N258:N261" si="93">+LN(C258/C257)</f>
+        <f t="shared" ref="N258:N262" si="93">+LN(C258/C257)</f>
         <v>2.0202707317519469E-2</v>
       </c>
       <c r="O258" s="8">
-        <f t="shared" ref="O258:O261" si="94">+LN(D258/D257)</f>
+        <f t="shared" ref="O258:O262" si="94">+LN(D258/D257)</f>
         <v>-5.4941376218979834E-2</v>
       </c>
       <c r="P258" s="8">
-        <f t="shared" ref="P258:P261" si="95">+LN(E258/E257)</f>
+        <f t="shared" ref="P258:P262" si="95">+LN(E258/E257)</f>
         <v>1.3135811565527494E-3</v>
       </c>
       <c r="Q258" s="8">
-        <f t="shared" ref="Q258:Q261" si="96">+_xlfn.STDEV.S(M239:M258)</f>
+        <f t="shared" ref="Q258:Q262" si="96">+_xlfn.STDEV.S(M239:M258)</f>
         <v>2.8417511554841141E-2</v>
       </c>
       <c r="R258" s="8">
-        <f t="shared" ref="R258:R261" si="97">+_xlfn.STDEV.S(N239:N258)</f>
+        <f t="shared" ref="R258:R262" si="97">+_xlfn.STDEV.S(N239:N258)</f>
         <v>1.6893419308479745E-2</v>
       </c>
       <c r="S258" s="8">
-        <f t="shared" ref="S258:S261" si="98">+_xlfn.STDEV.S(O239:O258)</f>
+        <f t="shared" ref="S258:S262" si="98">+_xlfn.STDEV.S(O239:O258)</f>
         <v>2.5818237743090586E-2</v>
       </c>
       <c r="T258" s="8">
-        <f t="shared" ref="T258:T261" si="99">+_xlfn.STDEV.S(P239:P258)</f>
+        <f t="shared" ref="T258:T262" si="99">+_xlfn.STDEV.S(P239:P258)</f>
         <v>1.4835431534097953E-2</v>
       </c>
     </row>
@@ -20252,12 +20252,12 @@
         <v>1.1463795611681479E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="14">
         <v>45673</v>
       </c>
       <c r="B261">
-        <v>101001.76</v>
+        <v>99756.91</v>
       </c>
       <c r="C261">
         <v>1225</v>
@@ -20277,7 +20277,7 @@
       </c>
       <c r="H261" s="2">
         <f t="shared" si="87"/>
-        <v>47152.146571688914</v>
+        <v>46570.994820870248</v>
       </c>
       <c r="I261">
         <f t="shared" si="88"/>
@@ -20297,7 +20297,7 @@
       </c>
       <c r="M261" s="8">
         <f t="shared" si="92"/>
-        <v>4.9355393139315328E-3</v>
+        <v>-7.4660765644215012E-3</v>
       </c>
       <c r="N261" s="8">
         <f t="shared" si="93"/>
@@ -20313,7 +20313,7 @@
       </c>
       <c r="Q261" s="8">
         <f t="shared" si="96"/>
-        <v>2.6915535000064807E-2</v>
+        <v>2.6992304079782821E-2</v>
       </c>
       <c r="R261" s="8">
         <f t="shared" si="97"/>
@@ -20327,6 +20327,85 @@
         <f t="shared" si="99"/>
         <v>1.0820780183787572E-2</v>
       </c>
+    </row>
+    <row r="262" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="14">
+        <v>45674</v>
+      </c>
+      <c r="B262">
+        <v>104462.04</v>
+      </c>
+      <c r="C262">
+        <v>1235</v>
+      </c>
+      <c r="D262">
+        <v>2510886</v>
+      </c>
+      <c r="E262">
+        <v>66.930000000000007</v>
+      </c>
+      <c r="F262">
+        <v>215.20484901097348</v>
+      </c>
+      <c r="G262" s="6">
+        <f t="shared" si="86"/>
+        <v>2.1520484901097348</v>
+      </c>
+      <c r="H262" s="2">
+        <f t="shared" si="87"/>
+        <v>48540.746400502059</v>
+      </c>
+      <c r="I262">
+        <f t="shared" si="88"/>
+        <v>573.87182755209494</v>
+      </c>
+      <c r="J262">
+        <f t="shared" si="89"/>
+        <v>11667.422976477486</v>
+      </c>
+      <c r="K262">
+        <f t="shared" si="90"/>
+        <v>944.73060538279242</v>
+      </c>
+      <c r="L262">
+        <f t="shared" si="91"/>
+        <v>31.100600338511512</v>
+      </c>
+      <c r="M262" s="8">
+        <f t="shared" si="92"/>
+        <v>4.6087425270128053E-2</v>
+      </c>
+      <c r="N262" s="8">
+        <f t="shared" si="93"/>
+        <v>8.1301260832503091E-3</v>
+      </c>
+      <c r="O262" s="8">
+        <f t="shared" si="94"/>
+        <v>-4.6111257093515268E-2</v>
+      </c>
+      <c r="P262" s="8">
+        <f t="shared" si="95"/>
+        <v>-1.0552226917828606E-2</v>
+      </c>
+      <c r="Q262" s="8">
+        <f t="shared" si="96"/>
+        <v>2.8711391881087452E-2</v>
+      </c>
+      <c r="R262" s="8">
+        <f t="shared" si="97"/>
+        <v>9.6412273641909123E-3</v>
+      </c>
+      <c r="S262" s="8">
+        <f t="shared" si="98"/>
+        <v>2.6575086047616093E-2</v>
+      </c>
+      <c r="T262" s="8">
+        <f t="shared" si="99"/>
+        <v>1.1036153548877603E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A263" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="B264" sqref="B264"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263:AD263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20044,59 +20044,59 @@
         <v>212.81792172243311</v>
       </c>
       <c r="G258" s="6">
-        <f t="shared" ref="G258:G262" si="86">+F258/$U$1</f>
+        <f t="shared" ref="G258:G263" si="86">+F258/$U$1</f>
         <v>2.1281792172243312</v>
       </c>
       <c r="H258" s="2">
-        <f t="shared" ref="H258:H262" si="87">+B258/G258</f>
+        <f t="shared" ref="H258:H263" si="87">+B258/G258</f>
         <v>44411.917584306073</v>
       </c>
       <c r="I258">
-        <f t="shared" ref="I258:I262" si="88">+C258/G258</f>
+        <f t="shared" ref="I258:I263" si="88">+C258/G258</f>
         <v>587.35654867934818</v>
       </c>
       <c r="J258">
-        <f t="shared" ref="J258:J262" si="89">+D258/F258</f>
+        <f t="shared" ref="J258:J263" si="89">+D258/F258</f>
         <v>12476.294188527065</v>
       </c>
       <c r="K258">
-        <f t="shared" ref="K258:K262" si="90">+D258/C258/G258</f>
+        <f t="shared" ref="K258:K263" si="90">+D258/C258/G258</f>
         <v>998.10353508216508</v>
       </c>
       <c r="L258">
-        <f t="shared" ref="L258:L262" si="91">+E258/G258</f>
+        <f t="shared" ref="L258:L263" si="91">+E258/G258</f>
         <v>32.215331981964887</v>
       </c>
       <c r="M258" s="8">
-        <f t="shared" ref="M258:M262" si="92">+LN(B258/B257)</f>
+        <f t="shared" ref="M258:M263" si="92">+LN(B258/B257)</f>
         <v>-1.9546775486614684E-3</v>
       </c>
       <c r="N258" s="8">
-        <f t="shared" ref="N258:N262" si="93">+LN(C258/C257)</f>
+        <f t="shared" ref="N258:N263" si="93">+LN(C258/C257)</f>
         <v>2.0202707317519469E-2</v>
       </c>
       <c r="O258" s="8">
-        <f t="shared" ref="O258:O262" si="94">+LN(D258/D257)</f>
+        <f t="shared" ref="O258:O263" si="94">+LN(D258/D257)</f>
         <v>-5.4941376218979834E-2</v>
       </c>
       <c r="P258" s="8">
-        <f t="shared" ref="P258:P262" si="95">+LN(E258/E257)</f>
+        <f t="shared" ref="P258:P263" si="95">+LN(E258/E257)</f>
         <v>1.3135811565527494E-3</v>
       </c>
       <c r="Q258" s="8">
-        <f t="shared" ref="Q258:Q262" si="96">+_xlfn.STDEV.S(M239:M258)</f>
+        <f t="shared" ref="Q258:Q263" si="96">+_xlfn.STDEV.S(M239:M258)</f>
         <v>2.8417511554841141E-2</v>
       </c>
       <c r="R258" s="8">
-        <f t="shared" ref="R258:R262" si="97">+_xlfn.STDEV.S(N239:N258)</f>
+        <f t="shared" ref="R258:R263" si="97">+_xlfn.STDEV.S(N239:N258)</f>
         <v>1.6893419308479745E-2</v>
       </c>
       <c r="S258" s="8">
-        <f t="shared" ref="S258:S262" si="98">+_xlfn.STDEV.S(O239:O258)</f>
+        <f t="shared" ref="S258:S263" si="98">+_xlfn.STDEV.S(O239:O258)</f>
         <v>2.5818237743090586E-2</v>
       </c>
       <c r="T258" s="8">
-        <f t="shared" ref="T258:T262" si="99">+_xlfn.STDEV.S(P239:P258)</f>
+        <f t="shared" ref="T258:T263" si="99">+_xlfn.STDEV.S(P239:P258)</f>
         <v>1.4835431534097953E-2</v>
       </c>
     </row>
@@ -20405,7 +20405,80 @@
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A263" s="14"/>
+      <c r="A263" s="14">
+        <v>45677</v>
+      </c>
+      <c r="B263">
+        <v>102270.69</v>
+      </c>
+      <c r="C263">
+        <v>1235</v>
+      </c>
+      <c r="D263">
+        <v>2536837.5</v>
+      </c>
+      <c r="E263">
+        <v>67.03</v>
+      </c>
+      <c r="F263">
+        <v>215.39853337508333</v>
+      </c>
+      <c r="G263" s="6">
+        <f t="shared" si="86"/>
+        <v>2.1539853337508332</v>
+      </c>
+      <c r="H263" s="2">
+        <f t="shared" si="87"/>
+        <v>47479.752251567734</v>
+      </c>
+      <c r="I263">
+        <f t="shared" si="88"/>
+        <v>573.35580732550204</v>
+      </c>
+      <c r="J263">
+        <f t="shared" si="89"/>
+        <v>11777.413059644601</v>
+      </c>
+      <c r="K263">
+        <f t="shared" si="90"/>
+        <v>953.63668499146581</v>
+      </c>
+      <c r="L263">
+        <f t="shared" si="91"/>
+        <v>31.119060538484536</v>
+      </c>
+      <c r="M263" s="8">
+        <f t="shared" si="92"/>
+        <v>-2.1200630182038091E-2</v>
+      </c>
+      <c r="N263" s="8">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="O263" s="8">
+        <f t="shared" si="94"/>
+        <v>1.0282547629892043E-2</v>
+      </c>
+      <c r="P263" s="8">
+        <f t="shared" si="95"/>
+        <v>1.4929832573154871E-3</v>
+      </c>
+      <c r="Q263" s="8">
+        <f t="shared" si="96"/>
+        <v>2.8113760988270418E-2</v>
+      </c>
+      <c r="R263" s="8">
+        <f t="shared" si="97"/>
+        <v>8.6009657229332952E-3</v>
+      </c>
+      <c r="S263" s="8">
+        <f t="shared" si="98"/>
+        <v>2.6503712729378816E-2</v>
+      </c>
+      <c r="T263" s="8">
+        <f t="shared" si="99"/>
+        <v>1.1047869898804852E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U263"/>
+  <dimension ref="A1:U264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="B263" sqref="B263:AD263"/>
+    <sheetView tabSelected="1" topLeftCell="L261" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263:W264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20404,12 +20404,12 @@
         <v>1.1036153548877603E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="14">
         <v>45677</v>
       </c>
       <c r="B263">
-        <v>102270.69</v>
+        <v>102016.66</v>
       </c>
       <c r="C263">
         <v>1235</v>
@@ -20429,7 +20429,7 @@
       </c>
       <c r="H263" s="2">
         <f t="shared" si="87"/>
-        <v>47479.752251567734</v>
+        <v>47361.817372430167</v>
       </c>
       <c r="I263">
         <f t="shared" si="88"/>
@@ -20449,7 +20449,7 @@
       </c>
       <c r="M263" s="8">
         <f t="shared" si="92"/>
-        <v>-2.1200630182038091E-2</v>
+        <v>-2.3687618543614401E-2</v>
       </c>
       <c r="N263" s="8">
         <f t="shared" si="93"/>
@@ -20465,7 +20465,7 @@
       </c>
       <c r="Q263" s="8">
         <f t="shared" si="96"/>
-        <v>2.8113760988270418E-2</v>
+        <v>2.8235642113433688E-2</v>
       </c>
       <c r="R263" s="8">
         <f t="shared" si="97"/>
@@ -20478,6 +20478,82 @@
       <c r="T263" s="8">
         <f t="shared" si="99"/>
         <v>1.1047869898804852E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A264" s="14">
+        <v>45678</v>
+      </c>
+      <c r="B264">
+        <v>105970.23</v>
+      </c>
+      <c r="C264">
+        <v>1235</v>
+      </c>
+      <c r="D264">
+        <v>2619719.2000000002</v>
+      </c>
+      <c r="E264">
+        <v>67.06</v>
+      </c>
+      <c r="F264">
+        <v>215.59239205512088</v>
+      </c>
+      <c r="G264" s="6">
+        <f t="shared" ref="G264" si="100">+F264/$U$1</f>
+        <v>2.1559239205512086</v>
+      </c>
+      <c r="H264" s="2">
+        <f t="shared" ref="H264" si="101">+B264/G264</f>
+        <v>49153.047094957976</v>
+      </c>
+      <c r="I264">
+        <f t="shared" ref="I264" si="102">+C264/G264</f>
+        <v>572.84025109951256</v>
+      </c>
+      <c r="J264">
+        <f t="shared" ref="J264" si="103">+D264/F264</f>
+        <v>12151.259954155581</v>
+      </c>
+      <c r="K264">
+        <f t="shared" ref="K264" si="104">+D264/C264/G264</f>
+        <v>983.90768859559364</v>
+      </c>
+      <c r="L264">
+        <f t="shared" ref="L264" si="105">+E264/G264</f>
+        <v>31.104993715573535</v>
+      </c>
+      <c r="M264" s="8">
+        <f t="shared" ref="M264" si="106">+LN(B264/B263)</f>
+        <v>3.8022072329813437E-2</v>
+      </c>
+      <c r="N264" s="8">
+        <f t="shared" ref="N264" si="107">+LN(C264/C263)</f>
+        <v>0</v>
+      </c>
+      <c r="O264" s="8">
+        <f t="shared" ref="O264" si="108">+LN(D264/D263)</f>
+        <v>3.2148909921005039E-2</v>
+      </c>
+      <c r="P264" s="8">
+        <f t="shared" ref="P264" si="109">+LN(E264/E263)</f>
+        <v>4.474606682161615E-4</v>
+      </c>
+      <c r="Q264" s="8">
+        <f t="shared" ref="Q264" si="110">+_xlfn.STDEV.S(M245:M264)</f>
+        <v>2.801656910783254E-2</v>
+      </c>
+      <c r="R264" s="8">
+        <f t="shared" ref="R264" si="111">+_xlfn.STDEV.S(N245:N264)</f>
+        <v>8.6009657229332952E-3</v>
+      </c>
+      <c r="S264" s="8">
+        <f t="shared" ref="S264" si="112">+_xlfn.STDEV.S(O245:O264)</f>
+        <v>2.7110924433475184E-2</v>
+      </c>
+      <c r="T264" s="8">
+        <f t="shared" ref="T264" si="113">+_xlfn.STDEV.S(P245:P264)</f>
+        <v>1.1051310383238458E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U264"/>
+  <dimension ref="A1:U265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L261" workbookViewId="0">
-      <selection activeCell="B263" sqref="B263:W264"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20480,7 +20480,7 @@
         <v>1.1047869898804852E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="14">
         <v>45678</v>
       </c>
@@ -20554,6 +20554,82 @@
       <c r="T264" s="8">
         <f t="shared" ref="T264" si="113">+_xlfn.STDEV.S(P245:P264)</f>
         <v>1.1051310383238458E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A265" s="14">
+        <v>45679</v>
+      </c>
+      <c r="B265">
+        <v>103409.91</v>
+      </c>
+      <c r="C265">
+        <v>1235</v>
+      </c>
+      <c r="D265">
+        <v>2680945.7999999998</v>
+      </c>
+      <c r="E265">
+        <v>66.02</v>
+      </c>
+      <c r="F265">
+        <v>215.78642520797047</v>
+      </c>
+      <c r="G265" s="6">
+        <f t="shared" ref="G265" si="114">+F265/$U$1</f>
+        <v>2.1578642520797047</v>
+      </c>
+      <c r="H265" s="2">
+        <f t="shared" ref="H265" si="115">+B265/G265</f>
+        <v>47922.342612764303</v>
+      </c>
+      <c r="I265">
+        <f t="shared" ref="I265" si="116">+C265/G265</f>
+        <v>572.32515845690136</v>
+      </c>
+      <c r="J265">
+        <f t="shared" ref="J265" si="117">+D265/F265</f>
+        <v>12424.070686634528</v>
+      </c>
+      <c r="K265">
+        <f t="shared" ref="K265" si="118">+D265/C265/G265</f>
+        <v>1005.9976264481398</v>
+      </c>
+      <c r="L265">
+        <f t="shared" ref="L265" si="119">+E265/G265</f>
+        <v>30.595066365445042</v>
+      </c>
+      <c r="M265" s="8">
+        <f t="shared" ref="M265" si="120">+LN(B265/B264)</f>
+        <v>-2.4457406735495485E-2</v>
+      </c>
+      <c r="N265" s="8">
+        <f t="shared" ref="N265" si="121">+LN(C265/C264)</f>
+        <v>0</v>
+      </c>
+      <c r="O265" s="8">
+        <f t="shared" ref="O265" si="122">+LN(D265/D264)</f>
+        <v>2.3102506255507291E-2</v>
+      </c>
+      <c r="P265" s="8">
+        <f t="shared" ref="P265" si="123">+LN(E265/E264)</f>
+        <v>-1.5630014613035596E-2</v>
+      </c>
+      <c r="Q265" s="8">
+        <f t="shared" ref="Q265" si="124">+_xlfn.STDEV.S(M246:M265)</f>
+        <v>2.8694581085776542E-2</v>
+      </c>
+      <c r="R265" s="8">
+        <f t="shared" ref="R265" si="125">+_xlfn.STDEV.S(N246:N265)</f>
+        <v>8.6009657229332952E-3</v>
+      </c>
+      <c r="S265" s="8">
+        <f t="shared" ref="S265" si="126">+_xlfn.STDEV.S(O246:O265)</f>
+        <v>2.7540104235045146E-2</v>
+      </c>
+      <c r="T265" s="8">
+        <f t="shared" ref="T265" si="127">+_xlfn.STDEV.S(P246:P265)</f>
+        <v>1.1514662178500935E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U265"/>
+  <dimension ref="A1:U267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="A264" sqref="A264"/>
+    <sheetView tabSelected="1" topLeftCell="X261" workbookViewId="0">
+      <selection activeCell="B265" sqref="B265:AG267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20556,12 +20556,12 @@
         <v>1.1051310383238458E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="14">
         <v>45679</v>
       </c>
       <c r="B265">
-        <v>103409.91</v>
+        <v>103653.07</v>
       </c>
       <c r="C265">
         <v>1235</v>
@@ -20581,14 +20581,14 @@
       </c>
       <c r="H265" s="2">
         <f t="shared" ref="H265" si="115">+B265/G265</f>
-        <v>47922.342612764303</v>
+        <v>48035.028107120888</v>
       </c>
       <c r="I265">
         <f t="shared" ref="I265" si="116">+C265/G265</f>
         <v>572.32515845690136</v>
       </c>
       <c r="J265">
-        <f t="shared" ref="J265" si="117">+D265/F265</f>
+        <f t="shared" ref="J265:J267" si="117">+D265/F265</f>
         <v>12424.070686634528</v>
       </c>
       <c r="K265">
@@ -20601,7 +20601,7 @@
       </c>
       <c r="M265" s="8">
         <f t="shared" ref="M265" si="120">+LN(B265/B264)</f>
-        <v>-2.4457406735495485E-2</v>
+        <v>-2.2108748257031394E-2</v>
       </c>
       <c r="N265" s="8">
         <f t="shared" ref="N265" si="121">+LN(C265/C264)</f>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="Q265" s="8">
         <f t="shared" ref="Q265" si="124">+_xlfn.STDEV.S(M246:M265)</f>
-        <v>2.8694581085776542E-2</v>
+        <v>2.8585080719773948E-2</v>
       </c>
       <c r="R265" s="8">
         <f t="shared" ref="R265" si="125">+_xlfn.STDEV.S(N246:N265)</f>
@@ -20630,6 +20630,158 @@
       <c r="T265" s="8">
         <f t="shared" ref="T265" si="127">+_xlfn.STDEV.S(P246:P265)</f>
         <v>1.1514662178500935E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="14">
+        <v>45680</v>
+      </c>
+      <c r="B266">
+        <v>103960.17</v>
+      </c>
+      <c r="C266">
+        <v>1240</v>
+      </c>
+      <c r="D266">
+        <v>2625050</v>
+      </c>
+      <c r="E266">
+        <v>65.790000000000006</v>
+      </c>
+      <c r="F266">
+        <v>215.98063299065763</v>
+      </c>
+      <c r="G266" s="6">
+        <f t="shared" ref="G266:G267" si="128">+F266/$U$1</f>
+        <v>2.1598063299065764</v>
+      </c>
+      <c r="H266" s="2">
+        <f t="shared" ref="H266:H267" si="129">+B266/G266</f>
+        <v>48134.024130069498</v>
+      </c>
+      <c r="I266">
+        <f t="shared" ref="I266:I267" si="130">+C266/G266</f>
+        <v>574.12555136535639</v>
+      </c>
+      <c r="J266">
+        <f t="shared" ref="J266:J267" si="131">+D266/F266</f>
+        <v>12154.099021061524</v>
+      </c>
+      <c r="K266">
+        <f t="shared" ref="K266:K267" si="132">+D266/C266/G266</f>
+        <v>980.16927589205818</v>
+      </c>
+      <c r="L266">
+        <f t="shared" ref="L266:L267" si="133">+E266/G266</f>
+        <v>30.461064535747418</v>
+      </c>
+      <c r="M266" s="8">
+        <f t="shared" ref="M266:M267" si="134">+LN(B266/B265)</f>
+        <v>2.958387663327274E-3</v>
+      </c>
+      <c r="N266" s="8">
+        <f t="shared" ref="N266:N267" si="135">+LN(C266/C265)</f>
+        <v>4.0404095370049058E-3</v>
+      </c>
+      <c r="O266" s="8">
+        <f t="shared" ref="O266:O267" si="136">+LN(D266/D265)</f>
+        <v>-2.1069699231050589E-2</v>
+      </c>
+      <c r="P266" s="8">
+        <f t="shared" ref="P266:P267" si="137">+LN(E266/E265)</f>
+        <v>-3.4898753271403187E-3</v>
+      </c>
+      <c r="Q266" s="8">
+        <f t="shared" ref="Q266:Q267" si="138">+_xlfn.STDEV.S(M247:M266)</f>
+        <v>2.7198513953495634E-2</v>
+      </c>
+      <c r="R266" s="8">
+        <f t="shared" ref="R266:R267" si="139">+_xlfn.STDEV.S(N247:N266)</f>
+        <v>8.6128677887320395E-3</v>
+      </c>
+      <c r="S266" s="8">
+        <f t="shared" ref="S266:S267" si="140">+_xlfn.STDEV.S(O247:O266)</f>
+        <v>2.7765864111903484E-2</v>
+      </c>
+      <c r="T266" s="8">
+        <f t="shared" ref="T266:T267" si="141">+_xlfn.STDEV.S(P247:P266)</f>
+        <v>1.1029651527722778E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A267" s="14">
+        <v>45681</v>
+      </c>
+      <c r="B267">
+        <v>104555.74</v>
+      </c>
+      <c r="C267">
+        <v>1240</v>
+      </c>
+      <c r="D267">
+        <v>2566082</v>
+      </c>
+      <c r="E267">
+        <v>65.94</v>
+      </c>
+      <c r="F267">
+        <v>216.17501556034921</v>
+      </c>
+      <c r="G267" s="6">
+        <f t="shared" si="128"/>
+        <v>2.1617501556034919</v>
+      </c>
+      <c r="H267" s="2">
+        <f t="shared" si="129"/>
+        <v>48366.246084904924</v>
+      </c>
+      <c r="I267">
+        <f t="shared" si="130"/>
+        <v>573.60930299266306</v>
+      </c>
+      <c r="J267">
+        <f t="shared" si="131"/>
+        <v>11870.391189048538</v>
+      </c>
+      <c r="K267">
+        <f t="shared" si="132"/>
+        <v>957.28961202004348</v>
+      </c>
+      <c r="L267">
+        <f t="shared" si="133"/>
+        <v>30.503062451077582</v>
+      </c>
+      <c r="M267" s="8">
+        <f t="shared" si="134"/>
+        <v>5.7124813120923261E-3</v>
+      </c>
+      <c r="N267" s="8">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="O267" s="8">
+        <f t="shared" si="136"/>
+        <v>-2.2719721446080469E-2</v>
+      </c>
+      <c r="P267" s="8">
+        <f t="shared" si="137"/>
+        <v>2.2773865456783243E-3</v>
+      </c>
+      <c r="Q267" s="8">
+        <f t="shared" si="138"/>
+        <v>2.6723716360308177E-2</v>
+      </c>
+      <c r="R267" s="8">
+        <f t="shared" si="139"/>
+        <v>8.4739425119039567E-3</v>
+      </c>
+      <c r="S267" s="8">
+        <f t="shared" si="140"/>
+        <v>2.8200329308289574E-2</v>
+      </c>
+      <c r="T267" s="8">
+        <f t="shared" si="141"/>
+        <v>1.10647785273127E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U267"/>
+  <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X261" workbookViewId="0">
-      <selection activeCell="B265" sqref="B265:AG267"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20588,7 +20588,7 @@
         <v>572.32515845690136</v>
       </c>
       <c r="J265">
-        <f t="shared" ref="J265:J267" si="117">+D265/F265</f>
+        <f t="shared" ref="J265" si="117">+D265/F265</f>
         <v>12424.070686634528</v>
       </c>
       <c r="K265">
@@ -20708,7 +20708,7 @@
         <v>1.1029651527722778E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="14">
         <v>45681</v>
       </c>
@@ -20783,6 +20783,167 @@
         <f t="shared" si="141"/>
         <v>1.10647785273127E-2</v>
       </c>
+    </row>
+    <row r="268" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="14">
+        <v>45684</v>
+      </c>
+      <c r="B268">
+        <v>102682.5</v>
+      </c>
+      <c r="C268">
+        <v>1225</v>
+      </c>
+      <c r="D268">
+        <v>2439099</v>
+      </c>
+      <c r="E268">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="F268">
+        <v>216.3695730743535</v>
+      </c>
+      <c r="G268" s="6">
+        <f t="shared" ref="G268:G269" si="142">+F268/$U$1</f>
+        <v>2.1636957307435352</v>
+      </c>
+      <c r="H268" s="2">
+        <f t="shared" ref="H268:H269" si="143">+B268/G268</f>
+        <v>47456.996166791927</v>
+      </c>
+      <c r="I268">
+        <f t="shared" ref="I268:I269" si="144">+C268/G268</f>
+        <v>566.16093593669916</v>
+      </c>
+      <c r="J268">
+        <f t="shared" ref="J268:J269" si="145">+D268/F268</f>
+        <v>11272.837328018506</v>
+      </c>
+      <c r="K268">
+        <f t="shared" ref="K268:K269" si="146">+D268/C268/G268</f>
+        <v>920.23161861375547</v>
+      </c>
+      <c r="L268">
+        <f t="shared" ref="L268:L269" si="147">+E268/G268</f>
+        <v>30.34160444428106</v>
+      </c>
+      <c r="M268" s="8">
+        <f t="shared" ref="M268:M269" si="148">+LN(B268/B267)</f>
+        <v>-1.8078623134485796E-2</v>
+      </c>
+      <c r="N268" s="8">
+        <f t="shared" ref="N268:N269" si="149">+LN(C268/C267)</f>
+        <v>-1.2170535620255179E-2</v>
+      </c>
+      <c r="O268" s="8">
+        <f t="shared" ref="O268:O269" si="150">+LN(D268/D267)</f>
+        <v>-5.0751513219231631E-2</v>
+      </c>
+      <c r="P268" s="8">
+        <f t="shared" ref="P268:P269" si="151">+LN(E268/E267)</f>
+        <v>-4.4076368947796258E-3</v>
+      </c>
+      <c r="Q268" s="8">
+        <f t="shared" ref="Q268:Q269" si="152">+_xlfn.STDEV.S(M249:M268)</f>
+        <v>2.67849598584501E-2</v>
+      </c>
+      <c r="R268" s="8">
+        <f t="shared" ref="R268:R269" si="153">+_xlfn.STDEV.S(N249:N268)</f>
+        <v>8.9504318610885512E-3</v>
+      </c>
+      <c r="S268" s="8">
+        <f t="shared" ref="S268:S269" si="154">+_xlfn.STDEV.S(O249:O268)</f>
+        <v>3.0191563617746983E-2</v>
+      </c>
+      <c r="T268" s="8">
+        <f t="shared" ref="T268:T269" si="155">+_xlfn.STDEV.S(P249:P268)</f>
+        <v>1.0962515199686683E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="14">
+        <v>45685</v>
+      </c>
+      <c r="B269">
+        <v>102076.91</v>
+      </c>
+      <c r="C269">
+        <v>1225</v>
+      </c>
+      <c r="D269">
+        <v>2395910</v>
+      </c>
+      <c r="E269">
+        <v>66.52</v>
+      </c>
+      <c r="F269">
+        <v>216.56430569012039</v>
+      </c>
+      <c r="G269" s="6">
+        <f t="shared" si="142"/>
+        <v>2.165643056901204</v>
+      </c>
+      <c r="H269" s="2">
+        <f t="shared" si="143"/>
+        <v>47134.688089394003</v>
+      </c>
+      <c r="I269">
+        <f t="shared" si="144"/>
+        <v>565.65184927235407</v>
+      </c>
+      <c r="J269">
+        <f t="shared" si="145"/>
+        <v>11063.27283420511</v>
+      </c>
+      <c r="K269">
+        <f t="shared" si="146"/>
+        <v>903.12431299633556</v>
+      </c>
+      <c r="L269">
+        <f t="shared" si="147"/>
+        <v>30.716049807017953</v>
+      </c>
+      <c r="M269" s="8">
+        <f t="shared" si="148"/>
+        <v>-5.9151544317365273E-3</v>
+      </c>
+      <c r="N269" s="8">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="O269" s="8">
+        <f t="shared" si="150"/>
+        <v>-1.7865591872549044E-2</v>
+      </c>
+      <c r="P269" s="8">
+        <f t="shared" si="151"/>
+        <v>1.3165053575921508E-2</v>
+      </c>
+      <c r="Q269" s="8">
+        <f t="shared" si="152"/>
+        <v>2.6884085898773204E-2</v>
+      </c>
+      <c r="R269" s="8">
+        <f t="shared" si="153"/>
+        <v>8.5040824806998944E-3</v>
+      </c>
+      <c r="S269" s="8">
+        <f t="shared" si="154"/>
+        <v>3.0395951851298824E-2</v>
+      </c>
+      <c r="T269" s="8">
+        <f t="shared" si="155"/>
+        <v>1.1530316104970236E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="14"/>
+    </row>
+    <row r="271" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="14"/>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A272" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -20713,7 +20713,7 @@
         <v>45681</v>
       </c>
       <c r="B267">
-        <v>104555.74</v>
+        <v>104819.48</v>
       </c>
       <c r="C267">
         <v>1240</v>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="H267" s="2">
         <f t="shared" si="129"/>
-        <v>48366.246084904924</v>
+        <v>48488.249082946277</v>
       </c>
       <c r="I267">
         <f t="shared" si="130"/>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="M267" s="8">
         <f t="shared" si="134"/>
-        <v>5.7124813120923261E-3</v>
+        <v>8.2317874601104332E-3</v>
       </c>
       <c r="N267" s="8">
         <f t="shared" si="135"/>
@@ -20769,7 +20769,7 @@
       </c>
       <c r="Q267" s="8">
         <f t="shared" si="138"/>
-        <v>2.6723716360308177E-2</v>
+        <v>2.6732129457943867E-2</v>
       </c>
       <c r="R267" s="8">
         <f t="shared" si="139"/>
@@ -20789,10 +20789,10 @@
         <v>45684</v>
       </c>
       <c r="B268">
-        <v>102682.5</v>
+        <v>102087.69</v>
       </c>
       <c r="C268">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="D268">
         <v>2439099</v>
@@ -20809,11 +20809,11 @@
       </c>
       <c r="H268" s="2">
         <f t="shared" ref="H268:H269" si="143">+B268/G268</f>
-        <v>47456.996166791927</v>
+        <v>47182.091524910691</v>
       </c>
       <c r="I268">
         <f t="shared" ref="I268:I269" si="144">+C268/G268</f>
-        <v>566.16093593669916</v>
+        <v>568.47179689970608</v>
       </c>
       <c r="J268">
         <f t="shared" ref="J268:J269" si="145">+D268/F268</f>
@@ -20821,7 +20821,7 @@
       </c>
       <c r="K268">
         <f t="shared" ref="K268:K269" si="146">+D268/C268/G268</f>
-        <v>920.23161861375547</v>
+        <v>916.49083967630122</v>
       </c>
       <c r="L268">
         <f t="shared" ref="L268:L269" si="147">+E268/G268</f>
@@ -20829,11 +20829,11 @@
       </c>
       <c r="M268" s="8">
         <f t="shared" ref="M268:M269" si="148">+LN(B268/B267)</f>
-        <v>-1.8078623134485796E-2</v>
+        <v>-2.6407482645200955E-2</v>
       </c>
       <c r="N268" s="8">
         <f t="shared" ref="N268:N269" si="149">+LN(C268/C267)</f>
-        <v>-1.2170535620255179E-2</v>
+        <v>-8.0972102326193618E-3</v>
       </c>
       <c r="O268" s="8">
         <f t="shared" ref="O268:O269" si="150">+LN(D268/D267)</f>
@@ -20845,11 +20845,11 @@
       </c>
       <c r="Q268" s="8">
         <f t="shared" ref="Q268:Q269" si="152">+_xlfn.STDEV.S(M249:M268)</f>
-        <v>2.67849598584501E-2</v>
+        <v>2.7236759674058402E-2</v>
       </c>
       <c r="R268" s="8">
         <f t="shared" ref="R268:R269" si="153">+_xlfn.STDEV.S(N249:N268)</f>
-        <v>8.9504318610885512E-3</v>
+        <v>8.6917045956611851E-3</v>
       </c>
       <c r="S268" s="8">
         <f t="shared" ref="S268:S269" si="154">+_xlfn.STDEV.S(O249:O268)</f>
@@ -20865,79 +20865,152 @@
         <v>45685</v>
       </c>
       <c r="B269">
-        <v>102076.91</v>
+        <v>101332.48</v>
       </c>
       <c r="C269">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="D269">
-        <v>2395910</v>
+        <v>2435629</v>
       </c>
       <c r="E269">
-        <v>66.52</v>
+        <v>66.489999999999995</v>
       </c>
       <c r="F269">
         <v>216.56430569012039</v>
       </c>
       <c r="G269" s="6">
-        <f t="shared" si="142"/>
+        <f t="shared" ref="G269:G270" si="156">+F269/$U$1</f>
         <v>2.165643056901204</v>
       </c>
       <c r="H269" s="2">
-        <f t="shared" si="143"/>
-        <v>47134.688089394003</v>
+        <f t="shared" ref="H269:H270" si="157">+B269/G269</f>
+        <v>46790.94261498272</v>
       </c>
       <c r="I269">
-        <f t="shared" si="144"/>
-        <v>565.65184927235407</v>
+        <f t="shared" ref="I269:I270" si="158">+C269/G269</f>
+        <v>567.96063233060863</v>
       </c>
       <c r="J269">
-        <f t="shared" si="145"/>
-        <v>11063.27283420511</v>
+        <f t="shared" ref="J269:J270" si="159">+D269/F269</f>
+        <v>11246.677942786731</v>
       </c>
       <c r="K269">
-        <f t="shared" si="146"/>
-        <v>903.12431299633556</v>
+        <f t="shared" ref="K269:K270" si="160">+D269/C269/G269</f>
+        <v>914.36406038916516</v>
       </c>
       <c r="L269">
-        <f t="shared" si="147"/>
-        <v>30.716049807017953</v>
+        <f t="shared" ref="L269:L270" si="161">+E269/G269</f>
+        <v>30.702197108668425</v>
       </c>
       <c r="M269" s="8">
-        <f t="shared" si="148"/>
-        <v>-5.9151544317365273E-3</v>
+        <f t="shared" ref="M269:M270" si="162">+LN(B269/B268)</f>
+        <v>-7.4251581811635974E-3</v>
       </c>
       <c r="N269" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" ref="N269:N270" si="163">+LN(C269/C268)</f>
         <v>0</v>
       </c>
       <c r="O269" s="8">
-        <f t="shared" si="150"/>
-        <v>-1.7865591872549044E-2</v>
+        <f t="shared" ref="O269:O270" si="164">+LN(D269/D268)</f>
+        <v>-1.4236694174907284E-3</v>
       </c>
       <c r="P269" s="8">
-        <f t="shared" si="151"/>
-        <v>1.3165053575921508E-2</v>
+        <f t="shared" ref="P269:P270" si="165">+LN(E269/E268)</f>
+        <v>1.2713959665558314E-2</v>
       </c>
       <c r="Q269" s="8">
-        <f t="shared" si="152"/>
-        <v>2.6884085898773204E-2</v>
+        <f t="shared" ref="Q269:Q270" si="166">+_xlfn.STDEV.S(M250:M269)</f>
+        <v>2.7357511801461759E-2</v>
       </c>
       <c r="R269" s="8">
-        <f t="shared" si="153"/>
-        <v>8.5040824806998944E-3</v>
+        <f t="shared" ref="R269:R270" si="167">+_xlfn.STDEV.S(N250:N269)</f>
+        <v>8.24730078071928E-3</v>
       </c>
       <c r="S269" s="8">
-        <f t="shared" si="154"/>
-        <v>3.0395951851298824E-2</v>
+        <f t="shared" ref="S269:S270" si="168">+_xlfn.STDEV.S(O250:O269)</f>
+        <v>3.0188523056011128E-2</v>
       </c>
       <c r="T269" s="8">
-        <f t="shared" si="155"/>
-        <v>1.1530316104970236E-2</v>
+        <f t="shared" ref="T269:T270" si="169">+_xlfn.STDEV.S(P250:P269)</f>
+        <v>1.1498861800611637E-2</v>
       </c>
     </row>
     <row r="270" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="14"/>
+      <c r="A270" s="14">
+        <v>45686</v>
+      </c>
+      <c r="B270">
+        <v>104332.38</v>
+      </c>
+      <c r="C270">
+        <v>1220</v>
+      </c>
+      <c r="D270">
+        <v>2545356</v>
+      </c>
+      <c r="E270">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F270">
+        <v>216.75921356524148</v>
+      </c>
+      <c r="G270" s="6">
+        <f t="shared" si="156"/>
+        <v>2.1675921356524146</v>
+      </c>
+      <c r="H270" s="2">
+        <f t="shared" si="157"/>
+        <v>48132.846712233266</v>
+      </c>
+      <c r="I270">
+        <f t="shared" si="158"/>
+        <v>562.83651335208287</v>
+      </c>
+      <c r="J270">
+        <f t="shared" si="159"/>
+        <v>11742.781117047574</v>
+      </c>
+      <c r="K270">
+        <f t="shared" si="160"/>
+        <v>962.52304238094871</v>
+      </c>
+      <c r="L270">
+        <f t="shared" si="161"/>
+        <v>30.725337532171078</v>
+      </c>
+      <c r="M270" s="8">
+        <f t="shared" si="162"/>
+        <v>2.9174772800082568E-2</v>
+      </c>
+      <c r="N270" s="8">
+        <f t="shared" si="163"/>
+        <v>-8.1633106391609811E-3</v>
+      </c>
+      <c r="O270" s="8">
+        <f t="shared" si="164"/>
+        <v>4.406548294327356E-2</v>
+      </c>
+      <c r="P270" s="8">
+        <f t="shared" si="165"/>
+        <v>1.6530171319798143E-3</v>
+      </c>
+      <c r="Q270" s="8">
+        <f t="shared" si="166"/>
+        <v>2.7901666635812786E-2</v>
+      </c>
+      <c r="R270" s="8">
+        <f t="shared" si="167"/>
+        <v>8.4468900902772964E-3</v>
+      </c>
+      <c r="S270" s="8">
+        <f t="shared" si="168"/>
+        <v>3.1899602621149069E-2</v>
+      </c>
+      <c r="T270" s="8">
+        <f t="shared" si="169"/>
+        <v>1.1522383708074097E-2</v>
+      </c>
     </row>
     <row r="271" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="14"/>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U272"/>
+  <dimension ref="A1:U277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20652,59 +20652,59 @@
         <v>215.98063299065763</v>
       </c>
       <c r="G266" s="6">
-        <f t="shared" ref="G266:G267" si="128">+F266/$U$1</f>
+        <f t="shared" ref="G266:G272" si="128">+F266/$U$1</f>
         <v>2.1598063299065764</v>
       </c>
       <c r="H266" s="2">
-        <f t="shared" ref="H266:H267" si="129">+B266/G266</f>
+        <f t="shared" ref="H266:H272" si="129">+B266/G266</f>
         <v>48134.024130069498</v>
       </c>
       <c r="I266">
-        <f t="shared" ref="I266:I267" si="130">+C266/G266</f>
+        <f t="shared" ref="I266:I272" si="130">+C266/G266</f>
         <v>574.12555136535639</v>
       </c>
       <c r="J266">
-        <f t="shared" ref="J266:J267" si="131">+D266/F266</f>
+        <f t="shared" ref="J266:J272" si="131">+D266/F266</f>
         <v>12154.099021061524</v>
       </c>
       <c r="K266">
-        <f t="shared" ref="K266:K267" si="132">+D266/C266/G266</f>
+        <f t="shared" ref="K266:K272" si="132">+D266/C266/G266</f>
         <v>980.16927589205818</v>
       </c>
       <c r="L266">
-        <f t="shared" ref="L266:L267" si="133">+E266/G266</f>
+        <f t="shared" ref="L266:L272" si="133">+E266/G266</f>
         <v>30.461064535747418</v>
       </c>
       <c r="M266" s="8">
-        <f t="shared" ref="M266:M267" si="134">+LN(B266/B265)</f>
+        <f t="shared" ref="M266:M272" si="134">+LN(B266/B265)</f>
         <v>2.958387663327274E-3</v>
       </c>
       <c r="N266" s="8">
-        <f t="shared" ref="N266:N267" si="135">+LN(C266/C265)</f>
+        <f t="shared" ref="N266:N272" si="135">+LN(C266/C265)</f>
         <v>4.0404095370049058E-3</v>
       </c>
       <c r="O266" s="8">
-        <f t="shared" ref="O266:O267" si="136">+LN(D266/D265)</f>
+        <f t="shared" ref="O266:O272" si="136">+LN(D266/D265)</f>
         <v>-2.1069699231050589E-2</v>
       </c>
       <c r="P266" s="8">
-        <f t="shared" ref="P266:P267" si="137">+LN(E266/E265)</f>
+        <f t="shared" ref="P266:P272" si="137">+LN(E266/E265)</f>
         <v>-3.4898753271403187E-3</v>
       </c>
       <c r="Q266" s="8">
-        <f t="shared" ref="Q266:Q267" si="138">+_xlfn.STDEV.S(M247:M266)</f>
+        <f t="shared" ref="Q266:Q272" si="138">+_xlfn.STDEV.S(M247:M266)</f>
         <v>2.7198513953495634E-2</v>
       </c>
       <c r="R266" s="8">
-        <f t="shared" ref="R266:R267" si="139">+_xlfn.STDEV.S(N247:N266)</f>
+        <f t="shared" ref="R266:R272" si="139">+_xlfn.STDEV.S(N247:N266)</f>
         <v>8.6128677887320395E-3</v>
       </c>
       <c r="S266" s="8">
-        <f t="shared" ref="S266:S267" si="140">+_xlfn.STDEV.S(O247:O266)</f>
+        <f t="shared" ref="S266:S272" si="140">+_xlfn.STDEV.S(O247:O266)</f>
         <v>2.7765864111903484E-2</v>
       </c>
       <c r="T266" s="8">
-        <f t="shared" ref="T266:T267" si="141">+_xlfn.STDEV.S(P247:P266)</f>
+        <f t="shared" ref="T266:T272" si="141">+_xlfn.STDEV.S(P247:P266)</f>
         <v>1.1029651527722778E-2</v>
       </c>
     </row>
@@ -20804,59 +20804,59 @@
         <v>216.3695730743535</v>
       </c>
       <c r="G268" s="6">
-        <f t="shared" ref="G268:G269" si="142">+F268/$U$1</f>
+        <f t="shared" si="128"/>
         <v>2.1636957307435352</v>
       </c>
       <c r="H268" s="2">
-        <f t="shared" ref="H268:H269" si="143">+B268/G268</f>
+        <f t="shared" si="129"/>
         <v>47182.091524910691</v>
       </c>
       <c r="I268">
-        <f t="shared" ref="I268:I269" si="144">+C268/G268</f>
+        <f t="shared" si="130"/>
         <v>568.47179689970608</v>
       </c>
       <c r="J268">
-        <f t="shared" ref="J268:J269" si="145">+D268/F268</f>
+        <f t="shared" si="131"/>
         <v>11272.837328018506</v>
       </c>
       <c r="K268">
-        <f t="shared" ref="K268:K269" si="146">+D268/C268/G268</f>
+        <f t="shared" si="132"/>
         <v>916.49083967630122</v>
       </c>
       <c r="L268">
-        <f t="shared" ref="L268:L269" si="147">+E268/G268</f>
+        <f t="shared" si="133"/>
         <v>30.34160444428106</v>
       </c>
       <c r="M268" s="8">
-        <f t="shared" ref="M268:M269" si="148">+LN(B268/B267)</f>
+        <f t="shared" si="134"/>
         <v>-2.6407482645200955E-2</v>
       </c>
       <c r="N268" s="8">
-        <f t="shared" ref="N268:N269" si="149">+LN(C268/C267)</f>
+        <f t="shared" si="135"/>
         <v>-8.0972102326193618E-3</v>
       </c>
       <c r="O268" s="8">
-        <f t="shared" ref="O268:O269" si="150">+LN(D268/D267)</f>
+        <f t="shared" si="136"/>
         <v>-5.0751513219231631E-2</v>
       </c>
       <c r="P268" s="8">
-        <f t="shared" ref="P268:P269" si="151">+LN(E268/E267)</f>
+        <f t="shared" si="137"/>
         <v>-4.4076368947796258E-3</v>
       </c>
       <c r="Q268" s="8">
-        <f t="shared" ref="Q268:Q269" si="152">+_xlfn.STDEV.S(M249:M268)</f>
+        <f t="shared" si="138"/>
         <v>2.7236759674058402E-2</v>
       </c>
       <c r="R268" s="8">
-        <f t="shared" ref="R268:R269" si="153">+_xlfn.STDEV.S(N249:N268)</f>
+        <f t="shared" si="139"/>
         <v>8.6917045956611851E-3</v>
       </c>
       <c r="S268" s="8">
-        <f t="shared" ref="S268:S269" si="154">+_xlfn.STDEV.S(O249:O268)</f>
+        <f t="shared" si="140"/>
         <v>3.0191563617746983E-2</v>
       </c>
       <c r="T268" s="8">
-        <f t="shared" ref="T268:T269" si="155">+_xlfn.STDEV.S(P249:P268)</f>
+        <f t="shared" si="141"/>
         <v>1.0962515199686683E-2</v>
       </c>
     </row>
@@ -20880,59 +20880,59 @@
         <v>216.56430569012039</v>
       </c>
       <c r="G269" s="6">
-        <f t="shared" ref="G269:G270" si="156">+F269/$U$1</f>
+        <f t="shared" si="128"/>
         <v>2.165643056901204</v>
       </c>
       <c r="H269" s="2">
-        <f t="shared" ref="H269:H270" si="157">+B269/G269</f>
+        <f t="shared" si="129"/>
         <v>46790.94261498272</v>
       </c>
       <c r="I269">
-        <f t="shared" ref="I269:I270" si="158">+C269/G269</f>
+        <f t="shared" si="130"/>
         <v>567.96063233060863</v>
       </c>
       <c r="J269">
-        <f t="shared" ref="J269:J270" si="159">+D269/F269</f>
+        <f t="shared" si="131"/>
         <v>11246.677942786731</v>
       </c>
       <c r="K269">
-        <f t="shared" ref="K269:K270" si="160">+D269/C269/G269</f>
+        <f t="shared" si="132"/>
         <v>914.36406038916516</v>
       </c>
       <c r="L269">
-        <f t="shared" ref="L269:L270" si="161">+E269/G269</f>
+        <f t="shared" si="133"/>
         <v>30.702197108668425</v>
       </c>
       <c r="M269" s="8">
-        <f t="shared" ref="M269:M270" si="162">+LN(B269/B268)</f>
+        <f t="shared" si="134"/>
         <v>-7.4251581811635974E-3</v>
       </c>
       <c r="N269" s="8">
-        <f t="shared" ref="N269:N270" si="163">+LN(C269/C268)</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="O269" s="8">
-        <f t="shared" ref="O269:O270" si="164">+LN(D269/D268)</f>
+        <f t="shared" si="136"/>
         <v>-1.4236694174907284E-3</v>
       </c>
       <c r="P269" s="8">
-        <f t="shared" ref="P269:P270" si="165">+LN(E269/E268)</f>
+        <f t="shared" si="137"/>
         <v>1.2713959665558314E-2</v>
       </c>
       <c r="Q269" s="8">
-        <f t="shared" ref="Q269:Q270" si="166">+_xlfn.STDEV.S(M250:M269)</f>
+        <f t="shared" si="138"/>
         <v>2.7357511801461759E-2</v>
       </c>
       <c r="R269" s="8">
-        <f t="shared" ref="R269:R270" si="167">+_xlfn.STDEV.S(N250:N269)</f>
+        <f t="shared" si="139"/>
         <v>8.24730078071928E-3</v>
       </c>
       <c r="S269" s="8">
-        <f t="shared" ref="S269:S270" si="168">+_xlfn.STDEV.S(O250:O269)</f>
+        <f t="shared" si="140"/>
         <v>3.0188523056011128E-2</v>
       </c>
       <c r="T269" s="8">
-        <f t="shared" ref="T269:T270" si="169">+_xlfn.STDEV.S(P250:P269)</f>
+        <f t="shared" si="141"/>
         <v>1.1498861800611637E-2</v>
       </c>
     </row>
@@ -20941,7 +20941,7 @@
         <v>45686</v>
       </c>
       <c r="B270">
-        <v>104332.38</v>
+        <v>103703.21</v>
       </c>
       <c r="C270">
         <v>1220</v>
@@ -20956,67 +20956,593 @@
         <v>216.75921356524148</v>
       </c>
       <c r="G270" s="6">
+        <f t="shared" si="128"/>
+        <v>2.1675921356524146</v>
+      </c>
+      <c r="H270" s="2">
+        <f t="shared" si="129"/>
+        <v>47842.584540835123</v>
+      </c>
+      <c r="I270">
+        <f t="shared" si="130"/>
+        <v>562.83651335208287</v>
+      </c>
+      <c r="J270">
+        <f t="shared" si="131"/>
+        <v>11742.781117047574</v>
+      </c>
+      <c r="K270">
+        <f t="shared" si="132"/>
+        <v>962.52304238094871</v>
+      </c>
+      <c r="L270">
+        <f t="shared" si="133"/>
+        <v>30.725337532171078</v>
+      </c>
+      <c r="M270" s="8">
+        <f t="shared" si="134"/>
+        <v>2.312607778332515E-2</v>
+      </c>
+      <c r="N270" s="8">
+        <f t="shared" si="135"/>
+        <v>-8.1633106391609811E-3</v>
+      </c>
+      <c r="O270" s="8">
+        <f t="shared" si="136"/>
+        <v>4.406548294327356E-2</v>
+      </c>
+      <c r="P270" s="8">
+        <f t="shared" si="137"/>
+        <v>1.6530171319798143E-3</v>
+      </c>
+      <c r="Q270" s="8">
+        <f t="shared" si="138"/>
+        <v>2.7657454266937023E-2</v>
+      </c>
+      <c r="R270" s="8">
+        <f t="shared" si="139"/>
+        <v>8.4468900902772964E-3</v>
+      </c>
+      <c r="S270" s="8">
+        <f t="shared" si="140"/>
+        <v>3.1899602621149069E-2</v>
+      </c>
+      <c r="T270" s="8">
+        <f t="shared" si="141"/>
+        <v>1.1522383708074097E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="14">
+        <v>45687</v>
+      </c>
+      <c r="B271">
+        <v>104735.3</v>
+      </c>
+      <c r="C271">
+        <v>1220</v>
+      </c>
+      <c r="D271">
+        <v>2599329</v>
+      </c>
+      <c r="E271">
+        <v>66.709999999999994</v>
+      </c>
+      <c r="F271">
+        <v>216.95429685745017</v>
+      </c>
+      <c r="G271" s="6">
+        <f t="shared" si="128"/>
+        <v>2.1695429685745018</v>
+      </c>
+      <c r="H271" s="2">
+        <f t="shared" si="129"/>
+        <v>48275.282636515993</v>
+      </c>
+      <c r="I271">
+        <f t="shared" si="130"/>
+        <v>562.33041597770284</v>
+      </c>
+      <c r="J271">
+        <f t="shared" si="131"/>
+        <v>11980.998015023824</v>
+      </c>
+      <c r="K271">
+        <f t="shared" si="132"/>
+        <v>982.04901762490351</v>
+      </c>
+      <c r="L271">
+        <f t="shared" si="133"/>
+        <v>30.748411516288982</v>
+      </c>
+      <c r="M271" s="8">
+        <f t="shared" si="134"/>
+        <v>9.90314539226529E-3</v>
+      </c>
+      <c r="N271" s="8">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="O271" s="8">
+        <f t="shared" si="136"/>
+        <v>2.0982812455077736E-2</v>
+      </c>
+      <c r="P271" s="8">
+        <f t="shared" si="137"/>
+        <v>1.650289175080543E-3</v>
+      </c>
+      <c r="Q271" s="8">
+        <f t="shared" si="138"/>
+        <v>2.7244426555315889E-2</v>
+      </c>
+      <c r="R271" s="8">
+        <f t="shared" si="139"/>
+        <v>8.4468900902772964E-3</v>
+      </c>
+      <c r="S271" s="8">
+        <f t="shared" si="140"/>
+        <v>2.8898539956395932E-2</v>
+      </c>
+      <c r="T271" s="8">
+        <f t="shared" si="141"/>
+        <v>1.013324379078628E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="14">
+        <v>45688</v>
+      </c>
+      <c r="B272">
+        <v>102405.42</v>
+      </c>
+      <c r="C272">
+        <v>1220</v>
+      </c>
+      <c r="D272">
+        <v>2564659</v>
+      </c>
+      <c r="E272">
+        <v>66.45</v>
+      </c>
+      <c r="F272">
+        <v>217.14955572462185</v>
+      </c>
+      <c r="G272" s="6">
+        <f t="shared" si="128"/>
+        <v>2.1714955572462187</v>
+      </c>
+      <c r="H272" s="2">
+        <f t="shared" si="129"/>
+        <v>47158.935996104636</v>
+      </c>
+      <c r="I272">
+        <f t="shared" si="130"/>
+        <v>561.82477368138973</v>
+      </c>
+      <c r="J272">
+        <f t="shared" si="131"/>
+        <v>11810.565264302781</v>
+      </c>
+      <c r="K272">
+        <f t="shared" si="132"/>
+        <v>968.07912002481794</v>
+      </c>
+      <c r="L272">
+        <f t="shared" si="133"/>
+        <v>30.601029681252744</v>
+      </c>
+      <c r="M272" s="8">
+        <f t="shared" si="134"/>
+        <v>-2.2496573933432754E-2</v>
+      </c>
+      <c r="N272" s="8">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="O272" s="8">
+        <f t="shared" si="136"/>
+        <v>-1.3427808481598708E-2</v>
+      </c>
+      <c r="P272" s="8">
+        <f t="shared" si="137"/>
+        <v>-3.9050815621696142E-3</v>
+      </c>
+      <c r="Q272" s="8">
+        <f t="shared" si="138"/>
+        <v>2.7780840247965493E-2</v>
+      </c>
+      <c r="R272" s="8">
+        <f t="shared" si="139"/>
+        <v>6.9949558265587656E-3</v>
+      </c>
+      <c r="S272" s="8">
+        <f t="shared" si="140"/>
+        <v>2.8810434875523906E-2</v>
+      </c>
+      <c r="T272" s="8">
+        <f t="shared" si="141"/>
+        <v>1.0074045462583243E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="14">
+        <v>45691</v>
+      </c>
+      <c r="B273">
+        <v>101405.42</v>
+      </c>
+      <c r="C273">
+        <v>1220</v>
+      </c>
+      <c r="D273">
+        <v>2484136</v>
+      </c>
+      <c r="E273">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="F273">
+        <v>217.34499032477399</v>
+      </c>
+      <c r="G273" s="6">
+        <f t="shared" ref="G273" si="142">+F273/$U$1</f>
+        <v>2.1734499032477399</v>
+      </c>
+      <c r="H273" s="2">
+        <f t="shared" ref="H273" si="143">+B273/G273</f>
+        <v>46656.433096742665</v>
+      </c>
+      <c r="I273">
+        <f t="shared" ref="I273" si="144">+C273/G273</f>
+        <v>561.31958605394129</v>
+      </c>
+      <c r="J273">
+        <f t="shared" ref="J273" si="145">+D273/F273</f>
+        <v>11429.460583784372</v>
+      </c>
+      <c r="K273">
+        <f t="shared" ref="K273" si="146">+D273/C273/G273</f>
+        <v>936.84103145773543</v>
+      </c>
+      <c r="L273">
+        <f t="shared" ref="L273" si="147">+E273/G273</f>
+        <v>30.233040983282358</v>
+      </c>
+      <c r="M273" s="8">
+        <f t="shared" ref="M273" si="148">+LN(B273/B272)</f>
+        <v>-9.8130994870594748E-3</v>
+      </c>
+      <c r="N273" s="8">
+        <f t="shared" ref="N273" si="149">+LN(C273/C272)</f>
+        <v>0</v>
+      </c>
+      <c r="O273" s="8">
+        <f t="shared" ref="O273" si="150">+LN(D273/D272)</f>
+        <v>-3.1900613340120697E-2</v>
+      </c>
+      <c r="P273" s="8">
+        <f t="shared" ref="P273" si="151">+LN(E273/E272)</f>
+        <v>-1.1198664249477939E-2</v>
+      </c>
+      <c r="Q273" s="8">
+        <f t="shared" ref="Q273" si="152">+_xlfn.STDEV.S(M254:M273)</f>
+        <v>2.643328412134412E-2</v>
+      </c>
+      <c r="R273" s="8">
+        <f t="shared" ref="R273" si="153">+_xlfn.STDEV.S(N254:N273)</f>
+        <v>6.9949558265587656E-3</v>
+      </c>
+      <c r="S273" s="8">
+        <f t="shared" ref="S273" si="154">+_xlfn.STDEV.S(O254:O273)</f>
+        <v>2.8631575982280826E-2</v>
+      </c>
+      <c r="T273" s="8">
+        <f t="shared" ref="T273" si="155">+_xlfn.STDEV.S(P254:P273)</f>
+        <v>9.7751765864891402E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="14">
+        <v>45692</v>
+      </c>
+      <c r="B274">
+        <v>97871.82</v>
+      </c>
+      <c r="C274">
+        <v>1220</v>
+      </c>
+      <c r="D274">
+        <v>2523647</v>
+      </c>
+      <c r="E274">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="F274">
+        <v>217.54060081606627</v>
+      </c>
+      <c r="G274" s="6">
+        <f t="shared" ref="G274:G277" si="156">+F274/$U$1</f>
+        <v>2.1754060081606625</v>
+      </c>
+      <c r="H274" s="2">
+        <f t="shared" ref="H274:H277" si="157">+B274/G274</f>
+        <v>44990.139602837662</v>
+      </c>
+      <c r="I274">
+        <f t="shared" ref="I274:I277" si="158">+C274/G274</f>
+        <v>560.81485268652341</v>
+      </c>
+      <c r="J274">
+        <f t="shared" ref="J274:J277" si="159">+D274/F274</f>
+        <v>11600.809184735957</v>
+      </c>
+      <c r="K274">
+        <f t="shared" ref="K274:K277" si="160">+D274/C274/G274</f>
+        <v>950.88599874884903</v>
+      </c>
+      <c r="L274">
+        <f t="shared" ref="L274:L277" si="161">+E274/G274</f>
+        <v>30.02657883400304</v>
+      </c>
+      <c r="M274" s="8">
+        <f t="shared" ref="M274:M277" si="162">+LN(B274/B273)</f>
+        <v>-3.5467878043435243E-2</v>
+      </c>
+      <c r="N274" s="8">
+        <f t="shared" ref="N274:N277" si="163">+LN(C274/C273)</f>
+        <v>0</v>
+      </c>
+      <c r="O274" s="8">
+        <f t="shared" ref="O274:O277" si="164">+LN(D274/D273)</f>
+        <v>1.5780164553697403E-2</v>
+      </c>
+      <c r="P274" s="8">
+        <f t="shared" ref="P274:P277" si="165">+LN(E274/E273)</f>
+        <v>-5.9528528075121056E-3</v>
+      </c>
+      <c r="Q274" s="8">
+        <f t="shared" ref="Q274:Q277" si="166">+_xlfn.STDEV.S(M255:M274)</f>
+        <v>2.4821879372159711E-2</v>
+      </c>
+      <c r="R274" s="8">
+        <f t="shared" ref="R274:R277" si="167">+_xlfn.STDEV.S(N255:N274)</f>
+        <v>6.9949558265587656E-3</v>
+      </c>
+      <c r="S274" s="8">
+        <f t="shared" ref="S274:S277" si="168">+_xlfn.STDEV.S(O255:O274)</f>
+        <v>2.8896938536318677E-2</v>
+      </c>
+      <c r="T274" s="8">
+        <f t="shared" ref="T274:T277" si="169">+_xlfn.STDEV.S(P255:P274)</f>
+        <v>9.7703974103127006E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="14">
+        <v>45693</v>
+      </c>
+      <c r="B275">
+        <v>96615.45</v>
+      </c>
+      <c r="C275">
+        <v>1215</v>
+      </c>
+      <c r="D275">
+        <v>2477714</v>
+      </c>
+      <c r="E275">
+        <v>65.02</v>
+      </c>
+      <c r="F275">
+        <v>217.73638735680072</v>
+      </c>
+      <c r="G275" s="6">
         <f t="shared" si="156"/>
-        <v>2.1675921356524146</v>
-      </c>
-      <c r="H270" s="2">
+        <v>2.177363873568007</v>
+      </c>
+      <c r="H275" s="2">
         <f t="shared" si="157"/>
-        <v>48132.846712233266</v>
-      </c>
-      <c r="I270">
+        <v>44372.670628395244</v>
+      </c>
+      <c r="I275">
         <f t="shared" si="158"/>
-        <v>562.83651335208287</v>
-      </c>
-      <c r="J270">
+        <v>558.0142183625934</v>
+      </c>
+      <c r="J275">
         <f t="shared" si="159"/>
-        <v>11742.781117047574</v>
-      </c>
-      <c r="K270">
+        <v>11379.420913876993</v>
+      </c>
+      <c r="K275">
         <f t="shared" si="160"/>
-        <v>962.52304238094871</v>
-      </c>
-      <c r="L270">
+        <v>936.5778529939912</v>
+      </c>
+      <c r="L275">
         <f t="shared" si="161"/>
-        <v>30.725337532171078</v>
-      </c>
-      <c r="M270" s="8">
+        <v>29.861797924227012</v>
+      </c>
+      <c r="M275" s="8">
         <f t="shared" si="162"/>
-        <v>2.9174772800082568E-2</v>
-      </c>
-      <c r="N270" s="8">
+        <v>-1.2919997043715541E-2</v>
+      </c>
+      <c r="N275" s="8">
         <f t="shared" si="163"/>
-        <v>-8.1633106391609811E-3</v>
-      </c>
-      <c r="O270" s="8">
+        <v>-4.1067819526533593E-3</v>
+      </c>
+      <c r="O275" s="8">
         <f t="shared" si="164"/>
-        <v>4.406548294327356E-2</v>
-      </c>
-      <c r="P270" s="8">
+        <v>-1.8368716640495109E-2</v>
+      </c>
+      <c r="P275" s="8">
         <f t="shared" si="165"/>
-        <v>1.6530171319798143E-3</v>
-      </c>
-      <c r="Q270" s="8">
+        <v>-4.6033532265050163E-3</v>
+      </c>
+      <c r="Q275" s="8">
         <f t="shared" si="166"/>
-        <v>2.7901666635812786E-2</v>
-      </c>
-      <c r="R270" s="8">
+        <v>2.4636554845545593E-2</v>
+      </c>
+      <c r="R275" s="8">
         <f t="shared" si="167"/>
-        <v>8.4468900902772964E-3</v>
-      </c>
-      <c r="S270" s="8">
+        <v>6.8282490291801832E-3</v>
+      </c>
+      <c r="S275" s="8">
         <f t="shared" si="168"/>
-        <v>3.1899602621149069E-2</v>
-      </c>
-      <c r="T270" s="8">
+        <v>2.897774933328754E-2</v>
+      </c>
+      <c r="T275" s="8">
         <f t="shared" si="169"/>
-        <v>1.1522383708074097E-2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="14"/>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A272" s="14"/>
+        <v>6.1829176419892417E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="14">
+        <v>45694</v>
+      </c>
+      <c r="B276">
+        <v>96593.3</v>
+      </c>
+      <c r="C276">
+        <v>1215</v>
+      </c>
+      <c r="D276">
+        <v>2503483</v>
+      </c>
+      <c r="E276">
+        <v>65.44</v>
+      </c>
+      <c r="F276">
+        <v>217.93235010542182</v>
+      </c>
+      <c r="G276" s="6">
+        <f t="shared" si="156"/>
+        <v>2.1793235010542182</v>
+      </c>
+      <c r="H276" s="2">
+        <f t="shared" si="157"/>
+        <v>44322.607429908545</v>
+      </c>
+      <c r="I276">
+        <f t="shared" si="158"/>
+        <v>557.51245715115726</v>
+      </c>
+      <c r="J276">
+        <f t="shared" si="159"/>
+        <v>11487.431759392188</v>
+      </c>
+      <c r="K276">
+        <f t="shared" si="160"/>
+        <v>945.46763451787547</v>
+      </c>
+      <c r="L276">
+        <f t="shared" si="161"/>
+        <v>30.027666827960275</v>
+      </c>
+      <c r="M276" s="8">
+        <f t="shared" si="162"/>
+        <v>-2.2928568294175298E-4</v>
+      </c>
+      <c r="N276" s="8">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="O276" s="8">
+        <f t="shared" si="164"/>
+        <v>1.0346601383235001E-2</v>
+      </c>
+      <c r="P276" s="8">
+        <f t="shared" si="165"/>
+        <v>6.4387774187324642E-3</v>
+      </c>
+      <c r="Q276" s="8">
+        <f t="shared" si="166"/>
+        <v>2.3737625727949192E-2</v>
+      </c>
+      <c r="R276" s="8">
+        <f t="shared" si="167"/>
+        <v>6.759654967753939E-3</v>
+      </c>
+      <c r="S276" s="8">
+        <f t="shared" si="168"/>
+        <v>2.8746195758183293E-2</v>
+      </c>
+      <c r="T276" s="8">
+        <f t="shared" si="169"/>
+        <v>6.5063101207080837E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A277" s="14">
+        <v>45695</v>
+      </c>
+      <c r="B277">
+        <v>96529.09</v>
+      </c>
+      <c r="C277">
+        <v>1215</v>
+      </c>
+      <c r="D277">
+        <v>2416382</v>
+      </c>
+      <c r="E277">
+        <v>65.44</v>
+      </c>
+      <c r="F277">
+        <v>218.12848922051668</v>
+      </c>
+      <c r="G277" s="6">
+        <f t="shared" si="156"/>
+        <v>2.1812848922051669</v>
+      </c>
+      <c r="H277" s="2">
+        <f t="shared" si="157"/>
+        <v>44253.316173851112</v>
+      </c>
+      <c r="I277">
+        <f t="shared" si="158"/>
+        <v>557.0111471187505</v>
+      </c>
+      <c r="J277">
+        <f t="shared" si="159"/>
+        <v>11077.791849358853</v>
+      </c>
+      <c r="K277">
+        <f t="shared" si="160"/>
+        <v>911.75241558509072</v>
+      </c>
+      <c r="L277">
+        <f t="shared" si="161"/>
+        <v>30.000666228354756</v>
+      </c>
+      <c r="M277" s="8">
+        <f t="shared" si="162"/>
+        <v>-6.6496694004302488E-4</v>
+      </c>
+      <c r="N277" s="8">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="O277" s="8">
+        <f t="shared" si="164"/>
+        <v>-3.5411582114624529E-2</v>
+      </c>
+      <c r="P277" s="8">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="Q277" s="8">
+        <f t="shared" si="166"/>
+        <v>2.3194058920723779E-2</v>
+      </c>
+      <c r="R277" s="8">
+        <f t="shared" si="167"/>
+        <v>6.6843167752709117E-3</v>
+      </c>
+      <c r="S277" s="8">
+        <f t="shared" si="168"/>
+        <v>2.9483147777733337E-2</v>
+      </c>
+      <c r="T277" s="8">
+        <f t="shared" si="169"/>
+        <v>6.5176164744013788E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U277"/>
+  <dimension ref="A1:U281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A272" sqref="A272"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="D280" sqref="D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21260,59 +21260,59 @@
         <v>217.54060081606627</v>
       </c>
       <c r="G274" s="6">
-        <f t="shared" ref="G274:G277" si="156">+F274/$U$1</f>
+        <f t="shared" ref="G274:G279" si="156">+F274/$U$1</f>
         <v>2.1754060081606625</v>
       </c>
       <c r="H274" s="2">
-        <f t="shared" ref="H274:H277" si="157">+B274/G274</f>
+        <f t="shared" ref="H274:H279" si="157">+B274/G274</f>
         <v>44990.139602837662</v>
       </c>
       <c r="I274">
-        <f t="shared" ref="I274:I277" si="158">+C274/G274</f>
+        <f t="shared" ref="I274:I279" si="158">+C274/G274</f>
         <v>560.81485268652341</v>
       </c>
       <c r="J274">
-        <f t="shared" ref="J274:J277" si="159">+D274/F274</f>
+        <f t="shared" ref="J274:J279" si="159">+D274/F274</f>
         <v>11600.809184735957</v>
       </c>
       <c r="K274">
-        <f t="shared" ref="K274:K277" si="160">+D274/C274/G274</f>
+        <f t="shared" ref="K274:K279" si="160">+D274/C274/G274</f>
         <v>950.88599874884903</v>
       </c>
       <c r="L274">
-        <f t="shared" ref="L274:L277" si="161">+E274/G274</f>
+        <f t="shared" ref="L274:L279" si="161">+E274/G274</f>
         <v>30.02657883400304</v>
       </c>
       <c r="M274" s="8">
-        <f t="shared" ref="M274:M277" si="162">+LN(B274/B273)</f>
+        <f t="shared" ref="M274:M279" si="162">+LN(B274/B273)</f>
         <v>-3.5467878043435243E-2</v>
       </c>
       <c r="N274" s="8">
-        <f t="shared" ref="N274:N277" si="163">+LN(C274/C273)</f>
+        <f t="shared" ref="N274:N279" si="163">+LN(C274/C273)</f>
         <v>0</v>
       </c>
       <c r="O274" s="8">
-        <f t="shared" ref="O274:O277" si="164">+LN(D274/D273)</f>
+        <f t="shared" ref="O274:O279" si="164">+LN(D274/D273)</f>
         <v>1.5780164553697403E-2</v>
       </c>
       <c r="P274" s="8">
-        <f t="shared" ref="P274:P277" si="165">+LN(E274/E273)</f>
+        <f t="shared" ref="P274:P279" si="165">+LN(E274/E273)</f>
         <v>-5.9528528075121056E-3</v>
       </c>
       <c r="Q274" s="8">
-        <f t="shared" ref="Q274:Q277" si="166">+_xlfn.STDEV.S(M255:M274)</f>
+        <f t="shared" ref="Q274:Q279" si="166">+_xlfn.STDEV.S(M255:M274)</f>
         <v>2.4821879372159711E-2</v>
       </c>
       <c r="R274" s="8">
-        <f t="shared" ref="R274:R277" si="167">+_xlfn.STDEV.S(N255:N274)</f>
+        <f t="shared" ref="R274:R279" si="167">+_xlfn.STDEV.S(N255:N274)</f>
         <v>6.9949558265587656E-3</v>
       </c>
       <c r="S274" s="8">
-        <f t="shared" ref="S274:S277" si="168">+_xlfn.STDEV.S(O255:O274)</f>
+        <f t="shared" ref="S274:S279" si="168">+_xlfn.STDEV.S(O255:O274)</f>
         <v>2.8896938536318677E-2</v>
       </c>
       <c r="T274" s="8">
-        <f t="shared" ref="T274:T277" si="169">+_xlfn.STDEV.S(P255:P274)</f>
+        <f t="shared" ref="T274:T279" si="169">+_xlfn.STDEV.S(P255:P274)</f>
         <v>9.7703974103127006E-3</v>
       </c>
     </row>
@@ -21468,7 +21468,7 @@
         <v>6.5063101207080837E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="14">
         <v>45695</v>
       </c>
@@ -21482,7 +21482,7 @@
         <v>2416382</v>
       </c>
       <c r="E277">
-        <v>65.44</v>
+        <v>65.05</v>
       </c>
       <c r="F277">
         <v>218.12848922051668</v>
@@ -21509,7 +21509,7 @@
       </c>
       <c r="L277">
         <f t="shared" si="161"/>
-        <v>30.000666228354756</v>
+        <v>29.821872526810466</v>
       </c>
       <c r="M277" s="8">
         <f t="shared" si="162"/>
@@ -21525,7 +21525,7 @@
       </c>
       <c r="P277" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>-5.9774873359773164E-3</v>
       </c>
       <c r="Q277" s="8">
         <f t="shared" si="166"/>
@@ -21541,8 +21541,166 @@
       </c>
       <c r="T277" s="8">
         <f t="shared" si="169"/>
-        <v>6.5176164744013788E-3</v>
-      </c>
+        <v>6.5453707991472345E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="14">
+        <v>45698</v>
+      </c>
+      <c r="B278">
+        <v>97437.55</v>
+      </c>
+      <c r="C278">
+        <v>1205</v>
+      </c>
+      <c r="D278">
+        <v>2391368</v>
+      </c>
+      <c r="E278">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="F278">
+        <v>218.32480486081514</v>
+      </c>
+      <c r="G278" s="6">
+        <f t="shared" si="156"/>
+        <v>2.1832480486081511</v>
+      </c>
+      <c r="H278" s="2">
+        <f t="shared" si="157"/>
+        <v>44629.628805630993</v>
+      </c>
+      <c r="I278">
+        <f t="shared" si="158"/>
+        <v>551.92995627235439</v>
+      </c>
+      <c r="J278">
+        <f t="shared" si="159"/>
+        <v>10953.258387312097</v>
+      </c>
+      <c r="K278">
+        <f t="shared" si="160"/>
+        <v>908.98409853212422</v>
+      </c>
+      <c r="L278">
+        <f t="shared" si="161"/>
+        <v>29.611843712039601</v>
+      </c>
+      <c r="M278" s="8">
+        <f t="shared" si="162"/>
+        <v>9.367246272332614E-3</v>
+      </c>
+      <c r="N278" s="8">
+        <f t="shared" si="163"/>
+        <v>-8.2645098498934245E-3</v>
+      </c>
+      <c r="O278" s="8">
+        <f t="shared" si="164"/>
+        <v>-1.0405793025991133E-2</v>
+      </c>
+      <c r="P278" s="8">
+        <f t="shared" si="165"/>
+        <v>-6.1680997406476611E-3</v>
+      </c>
+      <c r="Q278" s="8">
+        <f t="shared" si="166"/>
+        <v>2.3257365876333091E-2</v>
+      </c>
+      <c r="R278" s="8">
+        <f t="shared" si="167"/>
+        <v>4.8407341033250258E-3</v>
+      </c>
+      <c r="S278" s="8">
+        <f t="shared" si="168"/>
+        <v>2.7309926762754757E-2</v>
+      </c>
+      <c r="T278" s="8">
+        <f t="shared" si="169"/>
+        <v>6.5259850258142784E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="14">
+        <v>45699</v>
+      </c>
+      <c r="B279">
+        <v>95747.43</v>
+      </c>
+      <c r="C279">
+        <v>1205</v>
+      </c>
+      <c r="D279">
+        <v>2273568</v>
+      </c>
+      <c r="E279">
+        <v>64.64</v>
+      </c>
+      <c r="F279">
+        <v>218.52129718518984</v>
+      </c>
+      <c r="G279" s="6">
+        <f t="shared" si="156"/>
+        <v>2.1852129718518984</v>
+      </c>
+      <c r="H279" s="2">
+        <f t="shared" si="157"/>
+        <v>43816.063346382703</v>
+      </c>
+      <c r="I279">
+        <f t="shared" si="158"/>
+        <v>551.4336659729787</v>
+      </c>
+      <c r="J279">
+        <f t="shared" si="159"/>
+        <v>10404.331428040277</v>
+      </c>
+      <c r="K279">
+        <f t="shared" si="160"/>
+        <v>863.42999402823875</v>
+      </c>
+      <c r="L279">
+        <f t="shared" si="161"/>
+        <v>29.580640803728919</v>
+      </c>
+      <c r="M279" s="8">
+        <f t="shared" si="162"/>
+        <v>-1.7497872997852448E-2</v>
+      </c>
+      <c r="N279" s="8">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="O279" s="8">
+        <f t="shared" si="164"/>
+        <v>-5.0515183464586236E-2</v>
+      </c>
+      <c r="P279" s="8">
+        <f t="shared" si="165"/>
+        <v>-1.5469100502658059E-4</v>
+      </c>
+      <c r="Q279" s="8">
+        <f t="shared" si="166"/>
+        <v>2.3147401502046725E-2</v>
+      </c>
+      <c r="R279" s="8">
+        <f t="shared" si="167"/>
+        <v>4.6278845741279584E-3</v>
+      </c>
+      <c r="S279" s="8">
+        <f t="shared" si="168"/>
+        <v>2.7847611856520946E-2</v>
+      </c>
+      <c r="T279" s="8">
+        <f t="shared" si="169"/>
+        <v>6.4983470993695419E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="14"/>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A281" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -90,11 +90,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0000%"/>
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -180,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,6 +213,8 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U281"/>
+  <dimension ref="A1:U295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="D280" sqref="D280"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="A280" sqref="A280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19433,31 +19437,31 @@
         <v>69.657407407407405</v>
       </c>
       <c r="F250">
-        <v>212.68176727270713</v>
+        <v>212.66631363383883</v>
       </c>
       <c r="G250" s="6">
         <f t="shared" si="65"/>
-        <v>2.1268176727270713</v>
+        <v>2.1266631363383883</v>
       </c>
       <c r="H250" s="2">
         <f t="shared" si="66"/>
-        <v>44394.853969278927</v>
+        <v>44398.079971691484</v>
       </c>
       <c r="I250">
         <f t="shared" si="67"/>
-        <v>578.32884114737305</v>
+        <v>578.37086606850653</v>
       </c>
       <c r="J250">
         <f t="shared" si="68"/>
-        <v>11912.798320653857</v>
+        <v>11913.663977654312</v>
       </c>
       <c r="K250">
         <f t="shared" si="69"/>
-        <v>968.52018867104539</v>
+        <v>968.5905672889686</v>
       </c>
       <c r="L250">
         <f t="shared" si="70"/>
-        <v>32.751941222159644</v>
+        <v>32.754321179113028</v>
       </c>
       <c r="M250" s="8">
         <f t="shared" si="71"/>
@@ -19509,31 +19513,31 @@
         <v>71.175925925925924</v>
       </c>
       <c r="F251">
-        <v>212.69878181408896</v>
+        <v>212.66787318673457</v>
       </c>
       <c r="G251" s="6">
         <f t="shared" si="65"/>
-        <v>2.1269878181408894</v>
+        <v>2.1266787318673455</v>
       </c>
       <c r="H251" s="2">
         <f t="shared" si="66"/>
-        <v>45551.215279025317</v>
+        <v>45557.835580989609</v>
       </c>
       <c r="I251">
         <f t="shared" si="67"/>
-        <v>578.28257854108972</v>
+        <v>578.36662471345153</v>
       </c>
       <c r="J251">
         <f t="shared" si="68"/>
-        <v>12673.537558650198</v>
+        <v>12675.379499531029</v>
       </c>
       <c r="K251">
         <f t="shared" si="69"/>
-        <v>1030.3689072073332</v>
+        <v>1030.5186584984576</v>
       </c>
       <c r="L251">
         <f t="shared" si="70"/>
-        <v>33.463250385767516</v>
+        <v>33.468113852546686</v>
       </c>
       <c r="M251" s="8">
         <f t="shared" si="71"/>
@@ -19585,31 +19589,31 @@
         <v>70.611111111111114</v>
       </c>
       <c r="F252">
-        <v>212.71579771663411</v>
+        <v>212.66943275106703</v>
       </c>
       <c r="G252" s="6">
         <f t="shared" si="65"/>
-        <v>2.1271579771663411</v>
+        <v>2.1266943275106702</v>
       </c>
       <c r="H252" s="2">
         <f t="shared" si="66"/>
-        <v>46121.365245609173</v>
+        <v>46131.420360177624</v>
       </c>
       <c r="I252">
         <f t="shared" si="67"/>
-        <v>566.4835489112196</v>
+        <v>566.60705039377797</v>
       </c>
       <c r="J252">
         <f t="shared" si="68"/>
-        <v>12828.906124007181</v>
+        <v>12831.703008274979</v>
       </c>
       <c r="K252">
         <f t="shared" si="69"/>
-        <v>1064.6395123657412</v>
+        <v>1064.8716189439817</v>
       </c>
       <c r="L252">
         <f t="shared" si="70"/>
-        <v>33.19504797907608</v>
+        <v>33.202284972360154</v>
       </c>
       <c r="M252" s="8">
         <f t="shared" si="71"/>
@@ -19661,31 +19665,31 @@
         <v>71.287037037037024</v>
       </c>
       <c r="F253">
-        <v>212.73281498045145</v>
+        <v>212.67099232683631</v>
       </c>
       <c r="G253" s="6">
         <f t="shared" si="65"/>
-        <v>2.1273281498045145</v>
+        <v>2.1267099232683631</v>
       </c>
       <c r="H253" s="2">
         <f t="shared" si="66"/>
-        <v>47984.17677563295</v>
+        <v>47998.125594450932</v>
       </c>
       <c r="I253">
         <f t="shared" si="67"/>
-        <v>566.43823385251142</v>
+        <v>566.60289530606792</v>
       </c>
       <c r="J253">
         <f t="shared" si="68"/>
-        <v>13167.789841249509</v>
+        <v>13171.617667984719</v>
       </c>
       <c r="K253">
         <f t="shared" si="69"/>
-        <v>1092.7626424273453</v>
+        <v>1093.0803043970723</v>
       </c>
       <c r="L253">
         <f t="shared" si="70"/>
-        <v>33.510127266255452</v>
+        <v>33.519868533590099</v>
       </c>
       <c r="M253" s="8">
         <f t="shared" si="71"/>
@@ -19737,31 +19741,31 @@
         <v>71.148148148148152</v>
       </c>
       <c r="F254">
-        <v>212.74983360564991</v>
+        <v>212.67255191404249</v>
       </c>
       <c r="G254" s="6">
         <f t="shared" si="65"/>
-        <v>2.1274983360564992</v>
+        <v>2.1267255191404248</v>
       </c>
       <c r="H254" s="2">
         <f t="shared" ref="H254:H257" si="80">+B254/G254</f>
-        <v>45497.459790929504</v>
+        <v>45513.992816112303</v>
       </c>
       <c r="I254">
         <f t="shared" ref="I254:I257" si="81">+C254/G254</f>
-        <v>566.39292241871783</v>
+        <v>566.59874024882822</v>
       </c>
       <c r="J254">
         <f t="shared" ref="J254:J257" si="82">+D254/F254</f>
-        <v>13265.225416021442</v>
+        <v>13270.045779770679</v>
       </c>
       <c r="K254">
         <f t="shared" ref="K254:K257" si="83">+D254/C254/G254</f>
-        <v>1100.8485822424434</v>
+        <v>1101.248612429102</v>
       </c>
       <c r="L254">
         <f t="shared" ref="L254:L257" si="84">+E254/G254</f>
-        <v>33.442163945485078</v>
+        <v>33.454316275334229</v>
       </c>
       <c r="M254" s="8">
         <f t="shared" ref="M254:P257" si="85">+LN(B254/B253)</f>
@@ -19813,31 +19817,31 @@
         <v>68.599999999999994</v>
       </c>
       <c r="F255">
-        <v>212.76685359233838</v>
+        <v>212.67411151268561</v>
       </c>
       <c r="G255" s="6">
         <f t="shared" si="65"/>
-        <v>2.1276685359233838</v>
+        <v>2.126741115126856</v>
       </c>
       <c r="H255" s="2">
         <f t="shared" si="80"/>
-        <v>44670.266254020724</v>
+        <v>44689.745885846023</v>
       </c>
       <c r="I255">
         <f t="shared" si="81"/>
-        <v>571.04759481377766</v>
+        <v>571.29661497493908</v>
       </c>
       <c r="J255">
         <f t="shared" si="82"/>
-        <v>13077.586818721446</v>
+        <v>13083.289640704719</v>
       </c>
       <c r="K255">
         <f t="shared" si="83"/>
-        <v>1076.3445941334523</v>
+        <v>1076.8139621979194</v>
       </c>
       <c r="L255">
         <f t="shared" si="84"/>
-        <v>32.241864201008347</v>
+        <v>32.255924104757874</v>
       </c>
       <c r="M255" s="8">
         <f t="shared" si="85"/>
@@ -19889,31 +19893,31 @@
         <v>68.52</v>
       </c>
       <c r="F256">
-        <v>212.78387494062576</v>
+        <v>212.67567112276581</v>
       </c>
       <c r="G256" s="6">
         <f t="shared" si="65"/>
-        <v>2.1278387494062576</v>
+        <v>2.126756711227658</v>
       </c>
       <c r="H256" s="2">
         <f t="shared" si="80"/>
-        <v>43463.838613619722</v>
+        <v>43485.951877689913</v>
       </c>
       <c r="I256">
         <f t="shared" si="81"/>
-        <v>573.35171677854964</v>
+        <v>573.64342313313409</v>
       </c>
       <c r="J256">
         <f t="shared" si="82"/>
-        <v>13298.611094424306</v>
+        <v>13305.377079856749</v>
       </c>
       <c r="K256">
         <f t="shared" si="83"/>
-        <v>1090.0500897069105</v>
+        <v>1090.6046786767829</v>
       </c>
       <c r="L256">
         <f t="shared" si="84"/>
-        <v>32.201688224316577</v>
+        <v>32.218071600887164</v>
       </c>
       <c r="M256" s="8">
         <f t="shared" si="85"/>
@@ -19965,31 +19969,31 @@
         <v>68.47</v>
       </c>
       <c r="F257">
-        <v>212.80089765062104</v>
+        <v>212.67723074428315</v>
       </c>
       <c r="G257" s="6">
         <f t="shared" si="65"/>
-        <v>2.1280089765062105</v>
+        <v>2.1267723074428315</v>
       </c>
       <c r="H257" s="2">
         <f t="shared" si="80"/>
-        <v>44502.373366620814</v>
+        <v>44528.250470717401</v>
       </c>
       <c r="I257">
         <f t="shared" si="81"/>
-        <v>575.65546645917777</v>
+        <v>575.99019684100733</v>
       </c>
       <c r="J257">
         <f t="shared" si="82"/>
-        <v>13181.993266802432</v>
+        <v>13189.65829197211</v>
       </c>
       <c r="K257">
         <f t="shared" si="83"/>
-        <v>1076.0810830042801</v>
+        <v>1076.7067993446622</v>
       </c>
       <c r="L257">
         <f t="shared" si="84"/>
-        <v>32.175616153844814</v>
+        <v>32.194325532819406</v>
       </c>
       <c r="M257" s="8">
         <f t="shared" si="85"/>
@@ -20041,31 +20045,31 @@
         <v>68.56</v>
       </c>
       <c r="F258">
-        <v>212.81792172243311</v>
+        <v>212.6787903772377</v>
       </c>
       <c r="G258" s="6">
         <f t="shared" ref="G258:G263" si="86">+F258/$U$1</f>
-        <v>2.1281792172243312</v>
+        <v>2.1267879037723771</v>
       </c>
       <c r="H258" s="2">
         <f t="shared" ref="H258:H263" si="87">+B258/G258</f>
-        <v>44411.917584306073</v>
+        <v>44440.971209377247</v>
       </c>
       <c r="I258">
         <f t="shared" ref="I258:I263" si="88">+C258/G258</f>
-        <v>587.35654867934818</v>
+        <v>587.74078871843312</v>
       </c>
       <c r="J258">
         <f t="shared" ref="J258:J263" si="89">+D258/F258</f>
-        <v>12476.294188527065</v>
+        <v>12484.455997188965</v>
       </c>
       <c r="K258">
         <f t="shared" ref="K258:K263" si="90">+D258/C258/G258</f>
-        <v>998.10353508216508</v>
+        <v>998.7564797751171</v>
       </c>
       <c r="L258">
         <f t="shared" ref="L258:L263" si="91">+E258/G258</f>
-        <v>32.215331981964887</v>
+        <v>32.236406779628624</v>
       </c>
       <c r="M258" s="8">
         <f t="shared" ref="M258:M263" si="92">+LN(B258/B257)</f>
@@ -20117,31 +20121,31 @@
         <v>68.62</v>
       </c>
       <c r="F259">
-        <v>213.81890179443309</v>
+        <v>212.68035002162958</v>
       </c>
       <c r="G259" s="6">
         <f t="shared" si="86"/>
-        <v>2.138189017944331</v>
+        <v>2.1268035002162957</v>
       </c>
       <c r="H259" s="2">
         <f t="shared" si="87"/>
-        <v>45147.575443450958</v>
+        <v>45389.266093544844</v>
       </c>
       <c r="I259">
         <f t="shared" si="88"/>
-        <v>579.9300200279506</v>
+        <v>583.03458682191001</v>
       </c>
       <c r="J259">
         <f t="shared" si="89"/>
-        <v>12783.121497031103</v>
+        <v>12851.553985697439</v>
       </c>
       <c r="K259">
         <f t="shared" si="90"/>
-        <v>1030.8968949218631</v>
+        <v>1036.415644007858</v>
       </c>
       <c r="L259">
         <f t="shared" si="91"/>
-        <v>32.092579011546754</v>
+        <v>32.264381732031829</v>
       </c>
       <c r="M259" s="8">
         <f t="shared" si="92"/>
@@ -20193,31 +20197,31 @@
         <v>68.209999999999994</v>
       </c>
       <c r="F260">
-        <v>214.01133880604806</v>
+        <v>212.68190967745883</v>
       </c>
       <c r="G260" s="6">
         <f t="shared" si="86"/>
-        <v>2.1401133880604806</v>
+        <v>2.1268190967745881</v>
       </c>
       <c r="H260" s="2">
         <f t="shared" si="87"/>
-        <v>46962.226656169914</v>
+        <v>47255.777490628774</v>
       </c>
       <c r="I260">
         <f t="shared" si="88"/>
-        <v>579.40855233085301</v>
+        <v>583.03031126648852</v>
       </c>
       <c r="J260">
         <f t="shared" si="89"/>
-        <v>12637.059396422832</v>
+        <v>12716.050951871975</v>
       </c>
       <c r="K260">
         <f t="shared" si="90"/>
-        <v>1019.117693259906</v>
+        <v>1025.4879799896758</v>
       </c>
       <c r="L260">
         <f t="shared" si="91"/>
-        <v>31.872143027812481</v>
+        <v>32.07136897700579</v>
       </c>
       <c r="M260" s="8">
         <f t="shared" si="92"/>
@@ -20269,31 +20273,31 @@
         <v>67.64</v>
       </c>
       <c r="F261">
-        <v>214.20394901097347</v>
+        <v>212.68346934472555</v>
       </c>
       <c r="G261" s="6">
         <f t="shared" si="86"/>
-        <v>2.1420394901097346</v>
+        <v>2.1268346934472557</v>
       </c>
       <c r="H261" s="2">
         <f t="shared" si="87"/>
-        <v>46570.994820870248</v>
+        <v>46903.932076785037</v>
       </c>
       <c r="I261">
         <f t="shared" si="88"/>
-        <v>571.88488151413321</v>
+        <v>575.97330143908493</v>
       </c>
       <c r="J261">
         <f t="shared" si="89"/>
-        <v>12275.109829395813</v>
+        <v>12362.864909534668</v>
       </c>
       <c r="K261">
         <f t="shared" si="90"/>
-        <v>1002.049781991495</v>
+        <v>1009.2134620028301</v>
       </c>
       <c r="L261">
         <f t="shared" si="91"/>
-        <v>31.577382355604875</v>
+        <v>31.80312988517527</v>
       </c>
       <c r="M261" s="8">
         <f t="shared" si="92"/>
@@ -20345,31 +20349,31 @@
         <v>66.930000000000007</v>
       </c>
       <c r="F262">
-        <v>215.20484901097348</v>
+        <v>212.68502902342985</v>
       </c>
       <c r="G262" s="6">
         <f t="shared" si="86"/>
-        <v>2.1520484901097348</v>
+        <v>2.1268502902342985</v>
       </c>
       <c r="H262" s="2">
         <f t="shared" si="87"/>
-        <v>48540.746400502059</v>
+        <v>49115.840677480046</v>
       </c>
       <c r="I262">
         <f t="shared" si="88"/>
-        <v>573.87182755209494</v>
+        <v>580.67086605515135</v>
       </c>
       <c r="J262">
         <f t="shared" si="89"/>
-        <v>11667.422976477486</v>
+        <v>11805.654641180199</v>
       </c>
       <c r="K262">
         <f t="shared" si="90"/>
-        <v>944.73060538279242</v>
+        <v>955.92345272714169</v>
       </c>
       <c r="L262">
         <f t="shared" si="91"/>
-        <v>31.100600338511512</v>
+        <v>31.469069688316825</v>
       </c>
       <c r="M262" s="8">
         <f t="shared" si="92"/>
@@ -20421,31 +20425,31 @@
         <v>67.03</v>
       </c>
       <c r="F263">
-        <v>215.39853337508333</v>
+        <v>212.68658871357178</v>
       </c>
       <c r="G263" s="6">
         <f t="shared" si="86"/>
-        <v>2.1539853337508332</v>
+        <v>2.1268658871357178</v>
       </c>
       <c r="H263" s="2">
         <f t="shared" si="87"/>
-        <v>47361.817372430167</v>
+        <v>47965.722999764395</v>
       </c>
       <c r="I263">
         <f t="shared" si="88"/>
-        <v>573.35580732550204</v>
+        <v>580.66660783355417</v>
       </c>
       <c r="J263">
         <f t="shared" si="89"/>
-        <v>11777.413059644601</v>
+        <v>11927.585633602865</v>
       </c>
       <c r="K263">
         <f t="shared" si="90"/>
-        <v>953.63668499146581</v>
+        <v>965.79640757917934</v>
       </c>
       <c r="L263">
         <f t="shared" si="91"/>
-        <v>31.119060538484536</v>
+        <v>31.515856455937758</v>
       </c>
       <c r="M263" s="8">
         <f t="shared" si="92"/>
@@ -20497,31 +20501,31 @@
         <v>67.06</v>
       </c>
       <c r="F264">
-        <v>215.59239205512088</v>
+        <v>212.68814841515143</v>
       </c>
       <c r="G264" s="6">
         <f t="shared" ref="G264" si="100">+F264/$U$1</f>
-        <v>2.1559239205512086</v>
+        <v>2.1268814841515145</v>
       </c>
       <c r="H264" s="2">
         <f t="shared" ref="H264" si="101">+B264/G264</f>
-        <v>49153.047094957976</v>
+        <v>49824.228942533264</v>
       </c>
       <c r="I264">
         <f t="shared" ref="I264" si="102">+C264/G264</f>
-        <v>572.84025109951256</v>
+        <v>580.66234964318357</v>
       </c>
       <c r="J264">
         <f t="shared" ref="J264" si="103">+D264/F264</f>
-        <v>12151.259954155581</v>
+        <v>12317.18466459402</v>
       </c>
       <c r="K264">
         <f t="shared" ref="K264" si="104">+D264/C264/G264</f>
-        <v>983.90768859559364</v>
+        <v>997.3428878213781</v>
       </c>
       <c r="L264">
         <f t="shared" ref="L264" si="105">+E264/G264</f>
-        <v>31.104993715573535</v>
+        <v>31.529730499653358</v>
       </c>
       <c r="M264" s="8">
         <f t="shared" ref="M264" si="106">+LN(B264/B263)</f>
@@ -20573,31 +20577,31 @@
         <v>66.02</v>
       </c>
       <c r="F265">
-        <v>215.78642520797047</v>
+        <v>212.68970812816892</v>
       </c>
       <c r="G265" s="6">
         <f t="shared" ref="G265" si="114">+F265/$U$1</f>
-        <v>2.1578642520797047</v>
+        <v>2.126897081281689</v>
       </c>
       <c r="H265" s="2">
         <f t="shared" ref="H265" si="115">+B265/G265</f>
-        <v>48035.028107120888</v>
+        <v>48734.407937377793</v>
       </c>
       <c r="I265">
         <f t="shared" ref="I265" si="116">+C265/G265</f>
-        <v>572.32515845690136</v>
+        <v>580.65809148403969</v>
       </c>
       <c r="J265">
         <f t="shared" ref="J265" si="117">+D265/F265</f>
-        <v>12424.070686634528</v>
+        <v>12604.962523078151</v>
       </c>
       <c r="K265">
         <f t="shared" ref="K265" si="118">+D265/C265/G265</f>
-        <v>1005.9976264481398</v>
+        <v>1020.6447387107817</v>
       </c>
       <c r="L265">
         <f t="shared" ref="L265" si="119">+E265/G265</f>
-        <v>30.595066365445042</v>
+        <v>31.040524048401863</v>
       </c>
       <c r="M265" s="8">
         <f t="shared" ref="M265" si="120">+LN(B265/B264)</f>
@@ -20649,31 +20653,31 @@
         <v>65.790000000000006</v>
       </c>
       <c r="F266">
-        <v>215.98063299065763</v>
+        <v>212.69126785262429</v>
       </c>
       <c r="G266" s="6">
         <f t="shared" ref="G266:G272" si="128">+F266/$U$1</f>
-        <v>2.1598063299065764</v>
+        <v>2.1269126785262431</v>
       </c>
       <c r="H266" s="2">
         <f t="shared" ref="H266:H272" si="129">+B266/G266</f>
-        <v>48134.024130069498</v>
+        <v>48878.438240367694</v>
       </c>
       <c r="I266">
         <f t="shared" ref="I266:I272" si="130">+C266/G266</f>
-        <v>574.12555136535639</v>
+        <v>583.00465859238147</v>
       </c>
       <c r="J266">
         <f t="shared" ref="J266:J272" si="131">+D266/F266</f>
-        <v>12154.099021061524</v>
+        <v>12342.067572886541</v>
       </c>
       <c r="K266">
         <f t="shared" ref="K266:K272" si="132">+D266/C266/G266</f>
-        <v>980.16927589205818</v>
+        <v>995.32803007149505</v>
       </c>
       <c r="L266">
         <f t="shared" ref="L266:L272" si="133">+E266/G266</f>
-        <v>30.461064535747418</v>
+        <v>30.932158458703856</v>
       </c>
       <c r="M266" s="8">
         <f t="shared" ref="M266:M272" si="134">+LN(B266/B265)</f>
@@ -20725,31 +20729,31 @@
         <v>65.94</v>
       </c>
       <c r="F267">
-        <v>216.17501556034921</v>
+        <v>212.69282758851764</v>
       </c>
       <c r="G267" s="6">
         <f t="shared" si="128"/>
-        <v>2.1617501556034919</v>
+        <v>2.1269282758851764</v>
       </c>
       <c r="H267" s="2">
         <f t="shared" si="129"/>
-        <v>48488.249082946277</v>
+        <v>49282.094365112825</v>
       </c>
       <c r="I267">
         <f t="shared" si="130"/>
-        <v>573.60930299266306</v>
+        <v>583.00038325643197</v>
       </c>
       <c r="J267">
         <f t="shared" si="131"/>
-        <v>11870.391189048538</v>
+        <v>12064.732173124448</v>
       </c>
       <c r="K267">
         <f t="shared" si="132"/>
-        <v>957.28961202004348</v>
+        <v>972.96227202616512</v>
       </c>
       <c r="L267">
         <f t="shared" si="133"/>
-        <v>30.503062451077582</v>
+        <v>31.002455864458973</v>
       </c>
       <c r="M267" s="8">
         <f t="shared" si="134"/>
@@ -20801,31 +20805,31 @@
         <v>65.650000000000006</v>
       </c>
       <c r="F268">
-        <v>216.3695730743535</v>
+        <v>212.69438733584906</v>
       </c>
       <c r="G268" s="6">
         <f t="shared" si="128"/>
-        <v>2.1636957307435352</v>
+        <v>2.1269438733584907</v>
       </c>
       <c r="H268" s="2">
         <f t="shared" si="129"/>
-        <v>47182.091524910691</v>
+        <v>47997.35962886567</v>
       </c>
       <c r="I268">
         <f t="shared" si="130"/>
-        <v>568.47179689970608</v>
+        <v>578.29452643609409</v>
       </c>
       <c r="J268">
         <f t="shared" si="131"/>
-        <v>11272.837328018506</v>
+        <v>11467.622773461388</v>
       </c>
       <c r="K268">
         <f t="shared" si="132"/>
-        <v>916.49083967630122</v>
+        <v>932.32705475295825</v>
       </c>
       <c r="L268">
         <f t="shared" si="133"/>
-        <v>30.34160444428106</v>
+        <v>30.865882650837055</v>
       </c>
       <c r="M268" s="8">
         <f t="shared" si="134"/>
@@ -20877,31 +20881,31 @@
         <v>66.489999999999995</v>
       </c>
       <c r="F269">
-        <v>216.56430569012039</v>
+        <v>212.69594709461862</v>
       </c>
       <c r="G269" s="6">
         <f t="shared" si="128"/>
-        <v>2.165643056901204</v>
+        <v>2.1269594709461863</v>
       </c>
       <c r="H269" s="2">
         <f t="shared" si="129"/>
-        <v>46790.94261498272</v>
+        <v>47641.942116989114</v>
       </c>
       <c r="I269">
         <f t="shared" si="130"/>
-        <v>567.96063233060863</v>
+        <v>578.29028564085877</v>
       </c>
       <c r="J269">
         <f t="shared" si="131"/>
-        <v>11246.677942786731</v>
+        <v>11451.224309960646</v>
       </c>
       <c r="K269">
         <f t="shared" si="132"/>
-        <v>914.36406038916516</v>
+        <v>930.99384633826378</v>
       </c>
       <c r="L269">
         <f t="shared" si="133"/>
-        <v>30.702197108668425</v>
+        <v>31.260586253870486</v>
       </c>
       <c r="M269" s="8">
         <f t="shared" si="134"/>
@@ -20953,31 +20957,31 @@
         <v>66.599999999999994</v>
       </c>
       <c r="F270">
-        <v>216.75921356524148</v>
+        <v>212.69750686482641</v>
       </c>
       <c r="G270" s="6">
         <f t="shared" si="128"/>
-        <v>2.1675921356524146</v>
+        <v>2.1269750686482642</v>
       </c>
       <c r="H270" s="2">
         <f t="shared" si="129"/>
-        <v>47842.584540835123</v>
+        <v>48756.194432455428</v>
       </c>
       <c r="I270">
         <f t="shared" si="130"/>
-        <v>562.83651335208287</v>
+        <v>573.58453231674912</v>
       </c>
       <c r="J270">
         <f t="shared" si="131"/>
-        <v>11742.781117047574</v>
+        <v>11967.023203603536</v>
       </c>
       <c r="K270">
         <f t="shared" si="132"/>
-        <v>962.52304238094871</v>
+        <v>980.90354127897831</v>
       </c>
       <c r="L270">
         <f t="shared" si="133"/>
-        <v>30.725337532171078</v>
+        <v>31.31207364942253</v>
       </c>
       <c r="M270" s="8">
         <f t="shared" si="134"/>
@@ -21029,31 +21033,31 @@
         <v>66.709999999999994</v>
       </c>
       <c r="F271">
-        <v>216.95429685745017</v>
+        <v>212.69906664647252</v>
       </c>
       <c r="G271" s="6">
         <f t="shared" si="128"/>
-        <v>2.1695429685745018</v>
+        <v>2.1269906664647253</v>
       </c>
       <c r="H271" s="2">
         <f t="shared" si="129"/>
-        <v>48275.282636515993</v>
+        <v>49241.071741081367</v>
       </c>
       <c r="I271">
         <f t="shared" si="130"/>
-        <v>562.33041597770284</v>
+        <v>573.58032606121583</v>
       </c>
       <c r="J271">
         <f t="shared" si="131"/>
-        <v>11980.998015023824</v>
+        <v>12220.688322626018</v>
       </c>
       <c r="K271">
         <f t="shared" si="132"/>
-        <v>982.04901762490351</v>
+        <v>1001.6957641496736</v>
       </c>
       <c r="L271">
         <f t="shared" si="133"/>
-        <v>30.748411516288982</v>
+        <v>31.36356028815058</v>
       </c>
       <c r="M271" s="8">
         <f t="shared" si="134"/>
@@ -21105,31 +21109,31 @@
         <v>66.45</v>
       </c>
       <c r="F272">
-        <v>217.14955572462185</v>
+        <v>212.70062643955703</v>
       </c>
       <c r="G272" s="6">
         <f t="shared" si="128"/>
-        <v>2.1714955572462187</v>
+        <v>2.1270062643955701</v>
       </c>
       <c r="H272" s="2">
         <f t="shared" si="129"/>
-        <v>47158.935996104636</v>
+        <v>48145.330699860671</v>
       </c>
       <c r="I272">
         <f t="shared" si="130"/>
-        <v>561.82477368138973</v>
+        <v>573.57611983652839</v>
       </c>
       <c r="J272">
         <f t="shared" si="131"/>
-        <v>11810.565264302781</v>
+        <v>12057.599655113367</v>
       </c>
       <c r="K272">
         <f t="shared" si="132"/>
-        <v>968.07912002481794</v>
+        <v>988.32784058306288</v>
       </c>
       <c r="L272">
         <f t="shared" si="133"/>
-        <v>30.601029681252744</v>
+        <v>31.241092756669925</v>
       </c>
       <c r="M272" s="8">
         <f t="shared" si="134"/>
@@ -21181,31 +21185,31 @@
         <v>65.709999999999994</v>
       </c>
       <c r="F273">
-        <v>217.34499032477399</v>
+        <v>212.70218624408</v>
       </c>
       <c r="G273" s="6">
         <f t="shared" ref="G273" si="142">+F273/$U$1</f>
-        <v>2.1734499032477399</v>
+        <v>2.1270218624408002</v>
       </c>
       <c r="H273" s="2">
         <f t="shared" ref="H273" si="143">+B273/G273</f>
-        <v>46656.433096742665</v>
+        <v>47674.836723885506</v>
       </c>
       <c r="I273">
         <f t="shared" ref="I273" si="144">+C273/G273</f>
-        <v>561.31958605394129</v>
+        <v>573.57191364268613</v>
       </c>
       <c r="J273">
         <f t="shared" ref="J273" si="145">+D273/F273</f>
-        <v>11429.460583784372</v>
+        <v>11678.939666136785</v>
       </c>
       <c r="K273">
         <f t="shared" ref="K273" si="146">+D273/C273/G273</f>
-        <v>936.84103145773543</v>
+        <v>957.29013656858888</v>
       </c>
       <c r="L273">
         <f t="shared" ref="L273" si="147">+E273/G273</f>
-        <v>30.233040983282358</v>
+        <v>30.89295938152533</v>
       </c>
       <c r="M273" s="8">
         <f t="shared" ref="M273" si="148">+LN(B273/B272)</f>
@@ -21257,31 +21261,31 @@
         <v>65.319999999999993</v>
       </c>
       <c r="F274">
-        <v>217.54060081606627</v>
+        <v>212.70374606004154</v>
       </c>
       <c r="G274" s="6">
         <f t="shared" ref="G274:G279" si="156">+F274/$U$1</f>
-        <v>2.1754060081606625</v>
+        <v>2.1270374606004152</v>
       </c>
       <c r="H274" s="2">
         <f t="shared" ref="H274:H279" si="157">+B274/G274</f>
-        <v>44990.139602837662</v>
+        <v>46013.20936415148</v>
       </c>
       <c r="I274">
         <f t="shared" ref="I274:I279" si="158">+C274/G274</f>
-        <v>560.81485268652341</v>
+        <v>573.56770747968926</v>
       </c>
       <c r="J274">
         <f t="shared" ref="J274:J279" si="159">+D274/F274</f>
-        <v>11600.809184735957</v>
+        <v>11864.610035065534</v>
       </c>
       <c r="K274">
         <f t="shared" ref="K274:K279" si="160">+D274/C274/G274</f>
-        <v>950.88599874884903</v>
+        <v>972.50901926766687</v>
       </c>
       <c r="L274">
         <f t="shared" ref="L274:L279" si="161">+E274/G274</f>
-        <v>30.02657883400304</v>
+        <v>30.709379223420736</v>
       </c>
       <c r="M274" s="8">
         <f t="shared" ref="M274:M279" si="162">+LN(B274/B273)</f>
@@ -21333,31 +21337,31 @@
         <v>65.02</v>
       </c>
       <c r="F275">
-        <v>217.73638735680072</v>
+        <v>212.70530588744174</v>
       </c>
       <c r="G275" s="6">
         <f t="shared" si="156"/>
-        <v>2.177363873568007</v>
+        <v>2.1270530588744174</v>
       </c>
       <c r="H275" s="2">
         <f t="shared" si="157"/>
-        <v>44372.670628395244</v>
+        <v>45422.209660875335</v>
       </c>
       <c r="I275">
         <f t="shared" si="158"/>
-        <v>558.0142183625934</v>
+        <v>571.21283126004732</v>
       </c>
       <c r="J275">
         <f t="shared" si="159"/>
-        <v>11379.420913876993</v>
+        <v>11648.576370309933</v>
       </c>
       <c r="K275">
         <f t="shared" si="160"/>
-        <v>936.5778529939912</v>
+        <v>958.73056545760755</v>
       </c>
       <c r="L275">
         <f t="shared" si="161"/>
-        <v>29.861797924227012</v>
+        <v>30.568113817718743</v>
       </c>
       <c r="M275" s="8">
         <f t="shared" si="162"/>
@@ -21409,31 +21413,31 @@
         <v>65.44</v>
       </c>
       <c r="F276">
-        <v>217.93235010542182</v>
+        <v>212.70686572628068</v>
       </c>
       <c r="G276" s="6">
         <f t="shared" si="156"/>
-        <v>2.1793235010542182</v>
+        <v>2.1270686572628068</v>
       </c>
       <c r="H276" s="2">
         <f t="shared" si="157"/>
-        <v>44322.607429908545</v>
+        <v>45411.463175006276</v>
       </c>
       <c r="I276">
         <f t="shared" si="158"/>
-        <v>557.51245715115726</v>
+        <v>571.20864239686011</v>
       </c>
       <c r="J276">
         <f t="shared" si="159"/>
-        <v>11487.431759392188</v>
+        <v>11769.638894597683</v>
       </c>
       <c r="K276">
         <f t="shared" si="160"/>
-        <v>945.46763451787547</v>
+        <v>968.69455922614668</v>
       </c>
       <c r="L276">
         <f t="shared" si="161"/>
-        <v>30.027666827960275</v>
+        <v>30.765344492551872</v>
       </c>
       <c r="M276" s="8">
         <f t="shared" si="162"/>
@@ -21485,31 +21489,31 @@
         <v>65.05</v>
       </c>
       <c r="F277">
-        <v>218.12848922051668</v>
+        <v>212.70842557655843</v>
       </c>
       <c r="G277" s="6">
         <f t="shared" si="156"/>
-        <v>2.1812848922051669</v>
+        <v>2.1270842557655842</v>
       </c>
       <c r="H277" s="2">
         <f t="shared" si="157"/>
-        <v>44253.316173851112</v>
+        <v>45380.943297545615</v>
       </c>
       <c r="I277">
         <f t="shared" si="158"/>
-        <v>557.0111471187505</v>
+        <v>571.20445356439109</v>
       </c>
       <c r="J277">
         <f t="shared" si="159"/>
-        <v>11077.791849358853</v>
+        <v>11360.067159776381</v>
       </c>
       <c r="K277">
         <f t="shared" si="160"/>
-        <v>911.75241558509072</v>
+        <v>934.98495142192451</v>
       </c>
       <c r="L277">
         <f t="shared" si="161"/>
-        <v>29.821872526810466</v>
+        <v>30.581769304002993</v>
       </c>
       <c r="M277" s="8">
         <f t="shared" si="162"/>
@@ -21561,31 +21565,31 @@
         <v>64.650000000000006</v>
       </c>
       <c r="F278">
-        <v>218.32480486081514</v>
+        <v>212.70998543827508</v>
       </c>
       <c r="G278" s="6">
         <f t="shared" si="156"/>
-        <v>2.1832480486081511</v>
+        <v>2.1270998543827506</v>
       </c>
       <c r="H278" s="2">
         <f t="shared" si="157"/>
-        <v>44629.628805630993</v>
+        <v>45807.699059936596</v>
       </c>
       <c r="I278">
         <f t="shared" si="158"/>
-        <v>551.92995627235439</v>
+        <v>566.49902801562234</v>
       </c>
       <c r="J278">
         <f t="shared" si="159"/>
-        <v>10953.258387312097</v>
+        <v>11242.387117242013</v>
       </c>
       <c r="K278">
         <f t="shared" si="160"/>
-        <v>908.98409853212422</v>
+        <v>932.9781840034866</v>
       </c>
       <c r="L278">
         <f t="shared" si="161"/>
-        <v>29.611843712039601</v>
+        <v>30.393495569468868</v>
       </c>
       <c r="M278" s="8">
         <f t="shared" si="162"/>
@@ -21637,31 +21641,31 @@
         <v>64.64</v>
       </c>
       <c r="F279">
-        <v>218.52129718518984</v>
+        <v>212.71154531143071</v>
       </c>
       <c r="G279" s="6">
         <f t="shared" si="156"/>
-        <v>2.1852129718518984</v>
+        <v>2.1271154531143073</v>
       </c>
       <c r="H279" s="2">
         <f t="shared" si="157"/>
-        <v>43816.063346382703</v>
+        <v>45012.803540972018</v>
       </c>
       <c r="I279">
         <f t="shared" si="158"/>
-        <v>551.4336659729787</v>
+        <v>566.49487372007047</v>
       </c>
       <c r="J279">
         <f t="shared" si="159"/>
-        <v>10404.331428040277</v>
+        <v>10688.503046091231</v>
       </c>
       <c r="K279">
         <f t="shared" si="160"/>
-        <v>863.42999402823875</v>
+        <v>887.01270092043399</v>
       </c>
       <c r="L279">
         <f t="shared" si="161"/>
-        <v>29.580640803728919</v>
+        <v>30.388571483207766</v>
       </c>
       <c r="M279" s="8">
         <f t="shared" si="162"/>
@@ -21697,10 +21701,332 @@
       </c>
     </row>
     <row r="280" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="14"/>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A281" s="14"/>
+      <c r="A280" s="14">
+        <v>45700</v>
+      </c>
+      <c r="B280">
+        <v>97885.86</v>
+      </c>
+      <c r="C280">
+        <v>1210</v>
+      </c>
+      <c r="D280">
+        <v>2285846</v>
+      </c>
+      <c r="E280">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="F280">
+        <v>212.71154531143071</v>
+      </c>
+      <c r="G280" s="6">
+        <f t="shared" ref="G280:G283" si="170">+F280/$U$1</f>
+        <v>2.1271154531143073</v>
+      </c>
+      <c r="H280" s="2">
+        <f t="shared" ref="H280:H283" si="171">+B280/G280</f>
+        <v>46018.122738324062</v>
+      </c>
+      <c r="I280">
+        <f t="shared" ref="I280:I283" si="172">+C280/G280</f>
+        <v>568.84547485583846</v>
+      </c>
+      <c r="J280">
+        <f t="shared" ref="J280:J283" si="173">+D280/F280</f>
+        <v>10746.224407581149</v>
+      </c>
+      <c r="K280">
+        <f t="shared" ref="K280:K283" si="174">+D280/C280/G280</f>
+        <v>888.11771963480555</v>
+      </c>
+      <c r="L280">
+        <f t="shared" ref="L280:L283" si="175">+E280/G280</f>
+        <v>30.524906349082308</v>
+      </c>
+      <c r="M280" s="8">
+        <f t="shared" ref="M280:M283" si="176">+LN(B280/B279)</f>
+        <v>2.208831904054007E-2</v>
+      </c>
+      <c r="N280" s="8">
+        <f t="shared" ref="N280:N283" si="177">+LN(C280/C279)</f>
+        <v>4.1407926660313871E-3</v>
+      </c>
+      <c r="O280" s="8">
+        <f t="shared" ref="O280:O283" si="178">+LN(D280/D279)</f>
+        <v>5.3857928579157327E-3</v>
+      </c>
+      <c r="P280" s="8">
+        <f t="shared" ref="P280:P283" si="179">+LN(E280/E279)</f>
+        <v>4.4763523075555455E-3</v>
+      </c>
+      <c r="Q280" s="8">
+        <f t="shared" ref="Q280:Q283" si="180">+_xlfn.STDEV.S(M261:M280)</f>
+        <v>2.1778806039037545E-2</v>
+      </c>
+      <c r="R280" s="8">
+        <f t="shared" ref="R280:R283" si="181">+_xlfn.STDEV.S(N261:N280)</f>
+        <v>4.7852497745907129E-3</v>
+      </c>
+      <c r="S280" s="8">
+        <f t="shared" ref="S280:S283" si="182">+_xlfn.STDEV.S(O261:O280)</f>
+        <v>2.8034359161389855E-2</v>
+      </c>
+      <c r="T280" s="8">
+        <f t="shared" ref="T280:T283" si="183">+_xlfn.STDEV.S(P261:P280)</f>
+        <v>6.6630921778261087E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="14">
+        <v>45701</v>
+      </c>
+      <c r="B281">
+        <v>96623.87</v>
+      </c>
+      <c r="C281">
+        <v>1220</v>
+      </c>
+      <c r="D281">
+        <v>2353744</v>
+      </c>
+      <c r="E281">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="F281">
+        <v>212.71154531143071</v>
+      </c>
+      <c r="G281" s="6">
+        <f t="shared" si="170"/>
+        <v>2.1271154531143073</v>
+      </c>
+      <c r="H281" s="2">
+        <f t="shared" si="171"/>
+        <v>45424.835712858512</v>
+      </c>
+      <c r="I281">
+        <f t="shared" si="172"/>
+        <v>573.54667712737421</v>
+      </c>
+      <c r="J281">
+        <f t="shared" si="173"/>
+        <v>11065.426639413889</v>
+      </c>
+      <c r="K281">
+        <f t="shared" si="174"/>
+        <v>907.00218355851541</v>
+      </c>
+      <c r="L281">
+        <f t="shared" si="175"/>
+        <v>30.825783294460596</v>
+      </c>
+      <c r="M281" s="8">
+        <f t="shared" si="176"/>
+        <v>-1.2976293866793016E-2</v>
+      </c>
+      <c r="N281" s="8">
+        <f t="shared" si="177"/>
+        <v>8.2304991365154435E-3</v>
+      </c>
+      <c r="O281" s="8">
+        <f t="shared" si="178"/>
+        <v>2.9271055338025896E-2</v>
+      </c>
+      <c r="P281" s="8">
+        <f t="shared" si="179"/>
+        <v>9.8085077551323518E-3</v>
+      </c>
+      <c r="Q281" s="8">
+        <f t="shared" si="180"/>
+        <v>2.1895190649953825E-2</v>
+      </c>
+      <c r="R281" s="8">
+        <f t="shared" si="181"/>
+        <v>4.4947160529478954E-3</v>
+      </c>
+      <c r="S281" s="8">
+        <f t="shared" si="182"/>
+        <v>2.8834624471654646E-2</v>
+      </c>
+      <c r="T281" s="8">
+        <f t="shared" si="183"/>
+        <v>7.0429387786522168E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="14">
+        <v>45702</v>
+      </c>
+      <c r="B282">
+        <v>97508.97</v>
+      </c>
+      <c r="C282">
+        <v>1225</v>
+      </c>
+      <c r="D282">
+        <v>2387386</v>
+      </c>
+      <c r="E282">
+        <v>65.75</v>
+      </c>
+      <c r="F282">
+        <v>212.71154531143071</v>
+      </c>
+      <c r="G282" s="6">
+        <f t="shared" si="170"/>
+        <v>2.1271154531143073</v>
+      </c>
+      <c r="H282" s="2">
+        <f t="shared" si="171"/>
+        <v>45840.939125912148</v>
+      </c>
+      <c r="I282">
+        <f t="shared" si="172"/>
+        <v>575.8972782631422</v>
+      </c>
+      <c r="J282">
+        <f t="shared" si="173"/>
+        <v>11223.5844862329</v>
+      </c>
+      <c r="K282">
+        <f t="shared" si="174"/>
+        <v>916.21097846799171</v>
+      </c>
+      <c r="L282">
+        <f t="shared" si="175"/>
+        <v>30.910404935348243</v>
+      </c>
+      <c r="M282" s="8">
+        <f t="shared" si="176"/>
+        <v>9.1185616288482069E-3</v>
+      </c>
+      <c r="N282" s="8">
+        <f t="shared" si="177"/>
+        <v>4.0899852515250664E-3</v>
+      </c>
+      <c r="O282" s="8">
+        <f t="shared" si="178"/>
+        <v>1.4191791679406436E-2</v>
+      </c>
+      <c r="P282" s="8">
+        <f t="shared" si="179"/>
+        <v>2.7413967823459559E-3</v>
+      </c>
+      <c r="Q282" s="8">
+        <f t="shared" si="180"/>
+        <v>1.9030973516827358E-2</v>
+      </c>
+      <c r="R282" s="8">
+        <f t="shared" si="181"/>
+        <v>4.1802005506250631E-3</v>
+      </c>
+      <c r="S282" s="8">
+        <f t="shared" si="182"/>
+        <v>2.7490099550976695E-2</v>
+      </c>
+      <c r="T282" s="8">
+        <f t="shared" si="183"/>
+        <v>6.7710868747120267E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="14">
+        <v>45705</v>
+      </c>
+      <c r="B283">
+        <v>96167.31</v>
+      </c>
+      <c r="C283">
+        <v>1220</v>
+      </c>
+      <c r="D283">
+        <v>2254189</v>
+      </c>
+      <c r="E283">
+        <v>65.75</v>
+      </c>
+      <c r="F283">
+        <v>212.71154531143071</v>
+      </c>
+      <c r="G283" s="6">
+        <f t="shared" si="170"/>
+        <v>2.1271154531143073</v>
+      </c>
+      <c r="H283" s="2">
+        <f t="shared" si="171"/>
+        <v>45210.197621949272</v>
+      </c>
+      <c r="I283">
+        <f t="shared" si="172"/>
+        <v>573.54667712737421</v>
+      </c>
+      <c r="J283">
+        <f t="shared" si="173"/>
+        <v>10597.398447271138</v>
+      </c>
+      <c r="K283">
+        <f t="shared" si="174"/>
+        <v>868.6392169894375</v>
+      </c>
+      <c r="L283">
+        <f t="shared" si="175"/>
+        <v>30.910404935348243</v>
+      </c>
+      <c r="M283" s="8">
+        <f t="shared" si="176"/>
+        <v>-1.3854886739696197E-2</v>
+      </c>
+      <c r="N283" s="8">
+        <f t="shared" si="177"/>
+        <v>-4.0899852515251661E-3</v>
+      </c>
+      <c r="O283" s="8">
+        <f t="shared" si="178"/>
+        <v>-5.7408780507675013E-2</v>
+      </c>
+      <c r="P283" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="Q283" s="8">
+        <f t="shared" si="180"/>
+        <v>1.8602672184466096E-2</v>
+      </c>
+      <c r="R283" s="8">
+        <f t="shared" si="181"/>
+        <v>4.2585754168434926E-3</v>
+      </c>
+      <c r="S283" s="8">
+        <f t="shared" si="182"/>
+        <v>2.9892724962540789E-2</v>
+      </c>
+      <c r="T283" s="8">
+        <f t="shared" si="183"/>
+        <v>6.7516415940959149E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="14"/>
+    </row>
+    <row r="285" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="14"/>
+    </row>
+    <row r="286" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="14"/>
+    </row>
+    <row r="287" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="14"/>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A288" s="14"/>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D291" s="18"/>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D294" s="19"/>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D295" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -95,8 +95,8 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0000%"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -213,8 +213,8 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="A280" sqref="A280"/>
+    <sheetView tabSelected="1" topLeftCell="K264" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283:Y285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21933,7 +21933,7 @@
         <v>45705</v>
       </c>
       <c r="B283">
-        <v>96167.31</v>
+        <v>95773.38</v>
       </c>
       <c r="C283">
         <v>1220</v>
@@ -21942,7 +21942,7 @@
         <v>2254189</v>
       </c>
       <c r="E283">
-        <v>65.75</v>
+        <v>64.83</v>
       </c>
       <c r="F283">
         <v>212.71154531143071</v>
@@ -21953,7 +21953,7 @@
       </c>
       <c r="H283" s="2">
         <f t="shared" si="171"/>
-        <v>45210.197621949272</v>
+        <v>45025.003160866661</v>
       </c>
       <c r="I283">
         <f t="shared" si="172"/>
@@ -21969,11 +21969,11 @@
       </c>
       <c r="L283">
         <f t="shared" si="175"/>
-        <v>30.910404935348243</v>
+        <v>30.477894326366943</v>
       </c>
       <c r="M283" s="8">
         <f t="shared" si="176"/>
-        <v>-1.3854886739696197E-2</v>
+        <v>-1.7959597972098652E-2</v>
       </c>
       <c r="N283" s="8">
         <f t="shared" si="177"/>
@@ -21985,11 +21985,11 @@
       </c>
       <c r="P283" s="8">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>-1.409121187096966E-2</v>
       </c>
       <c r="Q283" s="8">
         <f t="shared" si="180"/>
-        <v>1.8602672184466096E-2</v>
+        <v>1.8751335015598627E-2</v>
       </c>
       <c r="R283" s="8">
         <f t="shared" si="181"/>
@@ -22001,14 +22001,160 @@
       </c>
       <c r="T283" s="8">
         <f t="shared" si="183"/>
-        <v>6.7516415940959149E-3</v>
+        <v>7.3541039183597683E-3</v>
       </c>
     </row>
     <row r="284" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A284" s="14"/>
+      <c r="A284" s="14">
+        <v>45706</v>
+      </c>
+      <c r="B284">
+        <v>95539.55</v>
+      </c>
+      <c r="C284">
+        <v>1235</v>
+      </c>
+      <c r="D284">
+        <v>2391725</v>
+      </c>
+      <c r="E284">
+        <v>65.12</v>
+      </c>
+      <c r="F284">
+        <v>212.71310519602542</v>
+      </c>
+      <c r="G284" s="6">
+        <f t="shared" ref="G284:G285" si="184">+F284/$U$1</f>
+        <v>2.1271310519602542</v>
+      </c>
+      <c r="H284" s="2">
+        <f t="shared" ref="H284:H285" si="185">+B284/G284</f>
+        <v>44914.745573365442</v>
+      </c>
+      <c r="I284">
+        <f t="shared" ref="I284:I285" si="186">+C284/G284</f>
+        <v>580.59422284390416</v>
+      </c>
+      <c r="J284">
+        <f t="shared" ref="J284:J285" si="187">+D284/F284</f>
+        <v>11243.900547622157</v>
+      </c>
+      <c r="K284">
+        <f t="shared" ref="K284:K285" si="188">+D284/C284/G284</f>
+        <v>910.43729130543795</v>
+      </c>
+      <c r="L284">
+        <f t="shared" ref="L284:L285" si="189">+E284/G284</f>
+        <v>30.614004689550637</v>
+      </c>
+      <c r="M284" s="8">
+        <f t="shared" ref="M284:M285" si="190">+LN(B284/B283)</f>
+        <v>-2.444477918319947E-3</v>
+      </c>
+      <c r="N284" s="8">
+        <f t="shared" ref="N284:N285" si="191">+LN(C284/C283)</f>
+        <v>1.2220111334775397E-2</v>
+      </c>
+      <c r="O284" s="8">
+        <f t="shared" ref="O284:O285" si="192">+LN(D284/D283)</f>
+        <v>5.9224599890071714E-2</v>
+      </c>
+      <c r="P284" s="8">
+        <f t="shared" ref="P284:P285" si="193">+LN(E284/E283)</f>
+        <v>4.4632625073807632E-3</v>
+      </c>
+      <c r="Q284" s="8">
+        <f t="shared" ref="Q284:Q285" si="194">+_xlfn.STDEV.S(M265:M284)</f>
+        <v>1.6064847826357406E-2</v>
+      </c>
+      <c r="R284" s="8">
+        <f t="shared" ref="R284:R285" si="195">+_xlfn.STDEV.S(N265:N284)</f>
+        <v>5.1369226100127941E-3</v>
+      </c>
+      <c r="S284" s="8">
+        <f t="shared" ref="S284:S285" si="196">+_xlfn.STDEV.S(O265:O284)</f>
+        <v>3.2228714634906439E-2</v>
+      </c>
+      <c r="T284" s="8">
+        <f t="shared" ref="T284:T285" si="197">+_xlfn.STDEV.S(P265:P284)</f>
+        <v>7.4688464001320884E-3</v>
+      </c>
     </row>
     <row r="285" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="14"/>
+      <c r="A285" s="14">
+        <v>45707</v>
+      </c>
+      <c r="B285">
+        <v>96555.79</v>
+      </c>
+      <c r="C285">
+        <v>1235</v>
+      </c>
+      <c r="D285">
+        <v>2401579</v>
+      </c>
+      <c r="E285">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="F285">
+        <v>212.71466509205928</v>
+      </c>
+      <c r="G285" s="6">
+        <f t="shared" si="184"/>
+        <v>2.1271466509205927</v>
+      </c>
+      <c r="H285" s="2">
+        <f t="shared" si="185"/>
+        <v>45392.164173641861</v>
+      </c>
+      <c r="I285">
+        <f t="shared" si="186"/>
+        <v>580.58996518435299</v>
+      </c>
+      <c r="J285">
+        <f t="shared" si="187"/>
+        <v>11290.143060708286</v>
+      </c>
+      <c r="K285">
+        <f t="shared" si="188"/>
+        <v>914.18162434884903</v>
+      </c>
+      <c r="L285">
+        <f t="shared" si="189"/>
+        <v>30.392826922403582</v>
+      </c>
+      <c r="M285" s="8">
+        <f t="shared" si="190"/>
+        <v>1.0580678122833191E-2</v>
+      </c>
+      <c r="N285" s="8">
+        <f t="shared" si="191"/>
+        <v>0</v>
+      </c>
+      <c r="O285" s="8">
+        <f t="shared" si="192"/>
+        <v>4.1115747642365653E-3</v>
+      </c>
+      <c r="P285" s="8">
+        <f t="shared" si="193"/>
+        <v>-7.2436164764183315E-3</v>
+      </c>
+      <c r="Q285" s="8">
+        <f t="shared" si="194"/>
+        <v>1.5914165230719986E-2</v>
+      </c>
+      <c r="R285" s="8">
+        <f t="shared" si="195"/>
+        <v>5.1369226100127941E-3</v>
+      </c>
+      <c r="S285" s="8">
+        <f t="shared" si="196"/>
+        <v>3.1645520695983767E-2</v>
+      </c>
+      <c r="T285" s="8">
+        <f t="shared" si="197"/>
+        <v>6.8409172599314307E-3</v>
+      </c>
     </row>
     <row r="286" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="14"/>
@@ -22019,13 +22165,16 @@
     <row r="288" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A288" s="14"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F289" s="7"/>
+    </row>
+    <row r="291" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D291" s="18"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D294" s="19"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D295" s="19"/>
     </row>
   </sheetData>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U295"/>
+  <dimension ref="A1:U297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K264" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283:Y285"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="K271" sqref="K271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22157,25 +22157,336 @@
       </c>
     </row>
     <row r="286" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="14"/>
+      <c r="A286" s="14">
+        <v>45708</v>
+      </c>
+      <c r="B286">
+        <v>98333.94</v>
+      </c>
+      <c r="C286">
+        <v>1225</v>
+      </c>
+      <c r="D286">
+        <v>2410221</v>
+      </c>
+      <c r="E286">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="F286">
+        <v>212.71622499953239</v>
+      </c>
+      <c r="G286" s="6">
+        <f t="shared" ref="G286:G289" si="198">+F286/$U$1</f>
+        <v>2.1271622499953238</v>
+      </c>
+      <c r="H286" s="2">
+        <f t="shared" ref="H286:H289" si="199">+B286/G286</f>
+        <v>46227.757191636971</v>
+      </c>
+      <c r="I286">
+        <f t="shared" ref="I286:I289" si="200">+C286/G286</f>
+        <v>575.88460870941697</v>
+      </c>
+      <c r="J286">
+        <f t="shared" ref="J286:J289" si="201">+D286/F286</f>
+        <v>11330.687163169139</v>
+      </c>
+      <c r="K286">
+        <f t="shared" ref="K286:K289" si="202">+D286/C286/G286</f>
+        <v>924.95405413625633</v>
+      </c>
+      <c r="L286">
+        <f t="shared" ref="L286:L289" si="203">+E286/G286</f>
+        <v>30.486626020249538</v>
+      </c>
+      <c r="M286" s="8">
+        <f t="shared" ref="M286:M289" si="204">+LN(B286/B285)</f>
+        <v>1.8248261139728605E-2</v>
+      </c>
+      <c r="N286" s="8">
+        <f t="shared" ref="N286:N289" si="205">+LN(C286/C285)</f>
+        <v>-8.1301260832501755E-3</v>
+      </c>
+      <c r="O286" s="8">
+        <f t="shared" ref="O286:O289" si="206">+LN(D286/D285)</f>
+        <v>3.5920068547978545E-3</v>
+      </c>
+      <c r="P286" s="8">
+        <f t="shared" ref="P286:P289" si="207">+LN(E286/E285)</f>
+        <v>3.0888055445861999E-3</v>
+      </c>
+      <c r="Q286" s="8">
+        <f t="shared" ref="Q286:Q289" si="208">+_xlfn.STDEV.S(M267:M286)</f>
+        <v>1.65957495523824E-2</v>
+      </c>
+      <c r="R286" s="8">
+        <f t="shared" ref="R286:R289" si="209">+_xlfn.STDEV.S(N267:N286)</f>
+        <v>5.3495668696416417E-3</v>
+      </c>
+      <c r="S286" s="8">
+        <f t="shared" ref="S286:S289" si="210">+_xlfn.STDEV.S(O267:O286)</f>
+        <v>3.1487078586543552E-2</v>
+      </c>
+      <c r="T286" s="8">
+        <f t="shared" ref="T286:T289" si="211">+_xlfn.STDEV.S(P267:P286)</f>
+        <v>6.8754238628087223E-3</v>
+      </c>
     </row>
     <row r="287" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="14"/>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A288" s="14"/>
-    </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F289" s="7"/>
-    </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="14">
+        <v>45709</v>
+      </c>
+      <c r="B287">
+        <v>96125.55</v>
+      </c>
+      <c r="C287">
+        <v>1225</v>
+      </c>
+      <c r="D287">
+        <v>2364529</v>
+      </c>
+      <c r="E287">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="F287">
+        <v>212.71778491844481</v>
+      </c>
+      <c r="G287" s="6">
+        <f t="shared" si="198"/>
+        <v>2.1271778491844482</v>
+      </c>
+      <c r="H287" s="2">
+        <f t="shared" si="199"/>
+        <v>45189.239835707282</v>
+      </c>
+      <c r="I287">
+        <f t="shared" si="200"/>
+        <v>575.88038558678124</v>
+      </c>
+      <c r="J287">
+        <f t="shared" si="201"/>
+        <v>11115.803038784705</v>
+      </c>
+      <c r="K287">
+        <f t="shared" si="202"/>
+        <v>907.4124929620167</v>
+      </c>
+      <c r="L287">
+        <f t="shared" si="203"/>
+        <v>30.39238116586564</v>
+      </c>
+      <c r="M287" s="8">
+        <f t="shared" si="204"/>
+        <v>-2.2714087618250247E-2</v>
+      </c>
+      <c r="N287" s="8">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+      <c r="O287" s="8">
+        <f t="shared" si="206"/>
+        <v>-1.913959676707435E-2</v>
+      </c>
+      <c r="P287" s="8">
+        <f t="shared" si="207"/>
+        <v>-3.0888055445862563E-3</v>
+      </c>
+      <c r="Q287" s="8">
+        <f t="shared" si="208"/>
+        <v>1.6953598767706409E-2</v>
+      </c>
+      <c r="R287" s="8">
+        <f t="shared" si="209"/>
+        <v>5.3495668696416417E-3</v>
+      </c>
+      <c r="S287" s="8">
+        <f t="shared" si="210"/>
+        <v>3.1386681250692584E-2</v>
+      </c>
+      <c r="T287" s="8">
+        <f t="shared" si="211"/>
+        <v>6.8569963766894155E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="14">
+        <v>45710</v>
+      </c>
+      <c r="B288">
+        <v>96577.76</v>
+      </c>
+      <c r="C288">
+        <v>1230</v>
+      </c>
+      <c r="D288">
+        <v>2348398</v>
+      </c>
+      <c r="E288">
+        <v>64.7</v>
+      </c>
+      <c r="F288">
+        <v>212.71934484879662</v>
+      </c>
+      <c r="G288" s="6">
+        <f t="shared" si="198"/>
+        <v>2.1271934484879664</v>
+      </c>
+      <c r="H288" s="2">
+        <f t="shared" si="199"/>
+        <v>45401.493723407511</v>
+      </c>
+      <c r="I288">
+        <f t="shared" si="200"/>
+        <v>578.22667744407454</v>
+      </c>
+      <c r="J288">
+        <f t="shared" si="201"/>
+        <v>11039.889210213902</v>
+      </c>
+      <c r="K288">
+        <f t="shared" si="202"/>
+        <v>897.55196831007322</v>
+      </c>
+      <c r="L288">
+        <f t="shared" si="203"/>
+        <v>30.415663439537909</v>
+      </c>
+      <c r="M288" s="8">
+        <f t="shared" si="204"/>
+        <v>4.6933374427716298E-3</v>
+      </c>
+      <c r="N288" s="8">
+        <f t="shared" si="205"/>
+        <v>4.0733253876358688E-3</v>
+      </c>
+      <c r="O288" s="8">
+        <f t="shared" si="206"/>
+        <v>-6.8454542121415898E-3</v>
+      </c>
+      <c r="P288" s="8">
+        <f t="shared" si="207"/>
+        <v>7.7309628898845494E-4</v>
+      </c>
+      <c r="Q288" s="8">
+        <f t="shared" si="208"/>
+        <v>1.6232942109705925E-2</v>
+      </c>
+      <c r="R288" s="8">
+        <f t="shared" si="209"/>
+        <v>5.1410254516159682E-3</v>
+      </c>
+      <c r="S288" s="8">
+        <f t="shared" si="210"/>
+        <v>2.942543304128812E-2</v>
+      </c>
+      <c r="T288" s="8">
+        <f t="shared" si="211"/>
+        <v>6.8187575851889346E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="14">
+        <v>45713</v>
+      </c>
+      <c r="B289">
+        <v>88685.65</v>
+      </c>
+      <c r="C289">
+        <v>1240</v>
+      </c>
+      <c r="D289">
+        <v>2282898.75</v>
+      </c>
+      <c r="E289">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F289">
+        <v>212.72090479058792</v>
+      </c>
+      <c r="G289" s="6">
+        <f t="shared" si="198"/>
+        <v>2.1272090479058794</v>
+      </c>
+      <c r="H289" s="2">
+        <f t="shared" si="199"/>
+        <v>41691.083482042421</v>
+      </c>
+      <c r="I289">
+        <f t="shared" si="200"/>
+        <v>582.92343257034941</v>
+      </c>
+      <c r="J289">
+        <f t="shared" si="201"/>
+        <v>10731.89657710129</v>
+      </c>
+      <c r="K289">
+        <f t="shared" si="202"/>
+        <v>865.47553041139429</v>
+      </c>
+      <c r="L289">
+        <f t="shared" si="203"/>
+        <v>30.274410530266536</v>
+      </c>
+      <c r="M289" s="8">
+        <f t="shared" si="204"/>
+        <v>-8.5250392026426827E-2</v>
+      </c>
+      <c r="N289" s="8">
+        <f t="shared" si="205"/>
+        <v>8.0972102326193028E-3</v>
+      </c>
+      <c r="O289" s="8">
+        <f t="shared" si="206"/>
+        <v>-2.8287376539749224E-2</v>
+      </c>
+      <c r="P289" s="8">
+        <f t="shared" si="207"/>
+        <v>-4.6475683965468513E-3</v>
+      </c>
+      <c r="Q289" s="8">
+        <f t="shared" si="208"/>
+        <v>2.4585527292771463E-2</v>
+      </c>
+      <c r="R289" s="8">
+        <f t="shared" si="209"/>
+        <v>5.4505397321480843E-3</v>
+      </c>
+      <c r="S289" s="8">
+        <f t="shared" si="210"/>
+        <v>3.0010113310725697E-2</v>
+      </c>
+      <c r="T289" s="8">
+        <f t="shared" si="211"/>
+        <v>6.0827226307411438E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="14"/>
+    </row>
+    <row r="291" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="14"/>
       <c r="D291" s="18"/>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="14"/>
+    </row>
+    <row r="293" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="14"/>
+    </row>
+    <row r="294" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="14"/>
       <c r="D294" s="19"/>
-    </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="H294" s="7"/>
+    </row>
+    <row r="295" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="14"/>
       <c r="D295" s="19"/>
+    </row>
+    <row r="296" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="14"/>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A297" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -90,12 +90,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
     <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -134,7 +133,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,8 +218,13 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U297"/>
+  <dimension ref="A1:AC301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="K271" sqref="K271"/>
+    <sheetView tabSelected="1" topLeftCell="J273" workbookViewId="0">
+      <selection activeCell="J294" sqref="J294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,6 +520,7 @@
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.5546875" style="21"/>
     <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -550,16 +561,16 @@
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="20" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -621,16 +632,16 @@
         <f t="shared" ref="L2:L65" si="5">+E2/G2</f>
         <v>31.399019709243237</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="21">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="21">
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="21">
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="21">
         <v>0</v>
       </c>
       <c r="Q2">
@@ -689,19 +700,19 @@
         <f t="shared" si="5"/>
         <v>30.273877018042057</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="22">
         <f t="shared" ref="M3:M66" si="6">+LN(B3/B2)</f>
         <v>1.8528157200100568E-2</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="22">
         <f t="shared" ref="N3:N66" si="7">+LN(C3/C2)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="22">
         <f t="shared" ref="O3:O66" si="8">+LN(D3/D2)</f>
         <v>4.414350036627316E-2</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="22">
         <f t="shared" ref="P3:P66" si="9">+LN(E3/E2)</f>
         <v>-6.5187968657545777E-3</v>
       </c>
@@ -766,19 +777,19 @@
         <f t="shared" si="5"/>
         <v>29.843644322698687</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="22">
         <f t="shared" si="6"/>
         <v>-4.950243423034302E-2</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="22">
         <f t="shared" si="7"/>
         <v>1.4815085785140682E-2</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="22">
         <f t="shared" si="8"/>
         <v>3.2754333026364331E-2</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="22">
         <f t="shared" si="9"/>
         <v>-7.867451566035976E-3</v>
       </c>
@@ -842,19 +853,19 @@
         <f t="shared" si="5"/>
         <v>29.465909112789781</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="22">
         <f t="shared" si="6"/>
         <v>3.1583061082349879E-2</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="22">
         <f t="shared" si="7"/>
         <v>4.8899852941917702E-3</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="22">
         <f t="shared" si="8"/>
         <v>4.9123641970255628E-2</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="22">
         <f t="shared" si="9"/>
         <v>-6.2920770375988694E-3</v>
       </c>
@@ -918,19 +929,19 @@
         <f t="shared" si="5"/>
         <v>28.577631218115407</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="22">
         <f t="shared" si="6"/>
         <v>-1.8543657756421444E-3</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="22">
         <f t="shared" si="7"/>
         <v>2.4097551579060524E-2</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="22">
         <f t="shared" si="8"/>
         <v>4.5864867485576617E-2</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="22">
         <f t="shared" si="9"/>
         <v>-2.416383742288734E-2</v>
       </c>
@@ -994,19 +1005,19 @@
         <f t="shared" si="5"/>
         <v>27.691901321939138</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="22">
         <f t="shared" si="6"/>
         <v>6.2018539337498256E-2</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="22">
         <f t="shared" si="7"/>
         <v>6.4538521137571164E-2</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="22">
         <f t="shared" si="8"/>
         <v>-4.0949836068300119E-2</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="22">
         <f t="shared" si="9"/>
         <v>-2.5038439355569705E-2</v>
       </c>
@@ -1070,19 +1081,19 @@
         <f t="shared" si="5"/>
         <v>28.753787251016476</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="22">
         <f t="shared" si="6"/>
         <v>-1.7847001249706614E-2</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="22">
         <f t="shared" si="7"/>
         <v>2.6433257068155431E-2</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="22">
         <f t="shared" si="8"/>
         <v>9.2390103937434551E-3</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="22">
         <f t="shared" si="9"/>
         <v>4.4075337456965444E-2</v>
       </c>
@@ -1146,19 +1157,19 @@
         <f t="shared" si="5"/>
         <v>29.061610446379753</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="22">
         <f t="shared" si="6"/>
         <v>1.1351792164029527E-2</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="22">
         <f t="shared" si="7"/>
         <v>-2.6433257068155483E-2</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="22">
         <f t="shared" si="8"/>
         <v>-2.5069309550254472E-2</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="22">
         <f t="shared" si="9"/>
         <v>1.709443335930004E-2</v>
       </c>
@@ -1222,19 +1233,19 @@
         <f t="shared" si="5"/>
         <v>28.769001307421167</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="22">
         <f t="shared" si="6"/>
         <v>-6.8417480952335519E-3</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="22">
         <f t="shared" si="9"/>
         <v>-3.673762792006667E-3</v>
       </c>
@@ -1298,19 +1309,19 @@
         <f t="shared" si="5"/>
         <v>28.735751029409752</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="22">
         <f t="shared" si="6"/>
         <v>-0.10253331233342021</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="22">
         <f t="shared" si="7"/>
         <v>8.8889474172459942E-3</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="22">
         <f t="shared" si="8"/>
         <v>1.317575593042636E-2</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="22">
         <f t="shared" si="9"/>
         <v>5.2894118552621336E-3</v>
       </c>
@@ -1374,19 +1385,19 @@
         <f t="shared" si="5"/>
         <v>28.248234444837156</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="22">
         <f t="shared" si="6"/>
         <v>1.8638277389134816E-2</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="22">
         <f t="shared" si="7"/>
         <v>4.3296805753324258E-2</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="22">
         <f t="shared" si="9"/>
         <v>-1.0665222090524997E-2</v>
       </c>
@@ -1450,19 +1461,19 @@
         <f t="shared" si="5"/>
         <v>28.05283409222751</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="22">
         <f t="shared" si="6"/>
         <v>1.3079171616269652E-2</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="22">
         <f t="shared" si="7"/>
         <v>3.7426405519116815E-2</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="22">
         <f t="shared" si="8"/>
         <v>6.0920233546858542E-2</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="22">
         <f t="shared" si="9"/>
         <v>-4.9544627607256658E-4</v>
       </c>
@@ -1526,19 +1537,19 @@
         <f t="shared" si="5"/>
         <v>28.109846359136494</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="22">
         <f t="shared" si="6"/>
         <v>-1.0112665905860494E-2</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="22">
         <f t="shared" si="7"/>
         <v>1.2170535620255114E-2</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="22">
         <f t="shared" si="8"/>
         <v>8.3490304748303056E-3</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="22">
         <f t="shared" si="9"/>
         <v>8.4761029959286062E-3</v>
       </c>
@@ -1602,19 +1613,19 @@
         <f t="shared" si="5"/>
         <v>27.707230684411567</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="22">
         <f t="shared" si="6"/>
         <v>-3.4596126533815746E-2</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="22">
         <f t="shared" si="7"/>
         <v>-1.6260520871780291E-2</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="22">
         <f t="shared" si="8"/>
         <v>3.5730368313298497E-2</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="22">
         <f t="shared" si="9"/>
         <v>-7.9806567198560125E-3</v>
       </c>
@@ -1678,19 +1689,19 @@
         <f t="shared" si="5"/>
         <v>28.744404719889577</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="22">
         <f t="shared" si="6"/>
         <v>6.7752312174019771E-3</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="22">
         <f t="shared" si="8"/>
         <v>3.7655788256475697E-2</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="22">
         <f t="shared" si="9"/>
         <v>4.3195563010922457E-2</v>
       </c>
@@ -1754,19 +1765,19 @@
         <f t="shared" si="5"/>
         <v>28.669698471302727</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="22">
         <f t="shared" si="6"/>
         <v>-5.0282130347958746E-2</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="22">
         <f t="shared" si="7"/>
         <v>1.2220111334775397E-2</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="22">
         <f t="shared" si="8"/>
         <v>-1.1120369234063449E-2</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="22">
         <f t="shared" si="9"/>
         <v>3.8434805704470523E-3</v>
       </c>
@@ -1830,19 +1841,19 @@
         <f t="shared" si="5"/>
         <v>28.775304091769556</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="22">
         <f t="shared" si="6"/>
         <v>8.2867015928850662E-3</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="22">
         <f t="shared" si="7"/>
         <v>1.6064602503806622E-2</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="22">
         <f t="shared" si="8"/>
         <v>3.6772973403759047E-2</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="22">
         <f t="shared" si="9"/>
         <v>1.0122607662246404E-2</v>
       </c>
@@ -1906,19 +1917,19 @@
         <f t="shared" si="5"/>
         <v>29.240273151265637</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="22">
         <f t="shared" si="6"/>
         <v>7.2593462396211136E-3</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="22">
         <f t="shared" si="8"/>
         <v>2.6241067678552141E-2</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="22">
         <f t="shared" si="9"/>
         <v>2.2475301883433638E-2</v>
       </c>
@@ -1982,19 +1993,19 @@
         <f t="shared" si="5"/>
         <v>28.72956175188315</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="22">
         <f t="shared" si="6"/>
         <v>-4.6310371122968786E-3</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="22">
         <f t="shared" si="7"/>
         <v>-2.8284713838581992E-2</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="22">
         <f t="shared" si="8"/>
         <v>-2.4676471394907536E-2</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="22">
         <f t="shared" si="9"/>
         <v>-1.1174509871315718E-2</v>
       </c>
@@ -2058,19 +2069,19 @@
         <f t="shared" si="5"/>
         <v>28.509244087297002</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="22">
         <f t="shared" si="6"/>
         <v>5.0966817296491579E-2</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="22">
         <f t="shared" si="7"/>
         <v>4.0899852515250664E-3</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="22">
         <f t="shared" si="8"/>
         <v>-9.2731907420253433E-6</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="22">
         <f t="shared" si="9"/>
         <v>-1.252382412535617E-3</v>
       </c>
@@ -2134,19 +2145,19 @@
         <f t="shared" si="5"/>
         <v>27.979584377294909</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="22">
         <f t="shared" si="6"/>
         <v>2.9102060365808473E-2</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="22">
         <f t="shared" si="7"/>
         <v>-8.196767204178515E-3</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="22">
         <f t="shared" si="8"/>
         <v>1.0731567784576073E-2</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="22">
         <f t="shared" si="9"/>
         <v>-1.2307425960130968E-2</v>
       </c>
@@ -2210,19 +2221,19 @@
         <f t="shared" si="5"/>
         <v>27.862683466327223</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="22">
         <f t="shared" si="6"/>
         <v>-8.7181680074343501E-3</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="22">
         <f t="shared" si="7"/>
         <v>-1.6597891409037828E-2</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="22">
         <f t="shared" si="8"/>
         <v>-5.1992123675157166E-3</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="22">
         <f t="shared" si="9"/>
         <v>2.2590163605487423E-3</v>
       </c>
@@ -2286,19 +2297,19 @@
         <f t="shared" si="5"/>
         <v>27.718705050670948</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="22">
         <f t="shared" si="6"/>
         <v>-7.224831818399979E-3</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="22">
         <f t="shared" si="8"/>
         <v>3.270210532632456E-2</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="22">
         <f t="shared" si="9"/>
         <v>1.2650223065867022E-3</v>
       </c>
@@ -2362,19 +2373,19 @@
         <f t="shared" si="5"/>
         <v>27.693503156349145</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="22">
         <f t="shared" si="6"/>
         <v>1.1343187362493901E-2</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="22">
         <f t="shared" si="7"/>
         <v>-1.6878037787351748E-2</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="22">
         <f t="shared" si="8"/>
         <v>1.0491961563701808E-2</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="22">
         <f t="shared" si="9"/>
         <v>5.536232519506256E-3</v>
       </c>
@@ -2438,19 +2449,19 @@
         <f t="shared" si="5"/>
         <v>28.640618095501825</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="22">
         <f t="shared" si="6"/>
         <v>-1.0965259953053801E-2</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="22">
         <f t="shared" si="7"/>
         <v>-1.2848142477849024E-2</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="22">
         <f t="shared" si="8"/>
         <v>-5.4213654695365987E-2</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="22">
         <f t="shared" si="9"/>
         <v>4.0073928629326863E-2</v>
       </c>
@@ -2514,19 +2525,19 @@
         <f t="shared" si="5"/>
         <v>29.210529745668559</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="22">
         <f t="shared" si="6"/>
         <v>1.1518642422440944E-3</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="22">
         <f t="shared" si="7"/>
         <v>-1.3015368112070361E-2</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="22">
         <f t="shared" si="8"/>
         <v>-2.4446422330252439E-2</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="22">
         <f t="shared" si="9"/>
         <v>2.6149176407433548E-2</v>
       </c>
@@ -2590,19 +2601,19 @@
         <f t="shared" si="5"/>
         <v>27.728836287965052</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="22">
         <f t="shared" si="6"/>
         <v>1.0248508918232709E-2</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="22">
         <f t="shared" si="7"/>
         <v>2.9261984549030798E-2</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="22">
         <f t="shared" si="8"/>
         <v>-5.2160640390372E-2</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="22">
         <f t="shared" si="9"/>
         <v>-4.5610511252052295E-2</v>
       </c>
@@ -2666,19 +2677,19 @@
         <f t="shared" si="5"/>
         <v>27.550675245527088</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="22">
         <f t="shared" si="6"/>
         <v>2.6557358900665077E-2</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="22">
         <f t="shared" si="7"/>
         <v>-2.926198454903094E-2</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="22">
         <f t="shared" si="8"/>
         <v>-3.2472417007643771E-2</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -2742,19 +2753,19 @@
         <f t="shared" si="5"/>
         <v>27.441085324310649</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="22">
         <f t="shared" si="6"/>
         <v>2.43545533820544E-2</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="22">
         <f t="shared" si="8"/>
         <v>2.7659175449600559E-2</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="22">
         <f t="shared" si="9"/>
         <v>2.4601574072502515E-3</v>
       </c>
@@ -2818,19 +2829,19 @@
         <f t="shared" si="5"/>
         <v>28.534002845475552</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="22">
         <f t="shared" si="6"/>
         <v>9.2499997704694401E-2</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="22">
         <f t="shared" si="7"/>
         <v>-3.5559302036486801E-2</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="22">
         <f t="shared" si="8"/>
         <v>-3.8748512039222978E-2</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="22">
         <f t="shared" si="9"/>
         <v>4.5500951518751345E-2</v>
       </c>
@@ -2894,19 +2905,19 @@
         <f t="shared" si="5"/>
         <v>29.434483784952207</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="22">
         <f t="shared" si="6"/>
         <v>4.0548837208437667E-2</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="22">
         <f t="shared" si="7"/>
         <v>-2.7524673390090033E-2</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="22">
         <f t="shared" si="8"/>
         <v>-1.0756100551204179E-2</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="22">
         <f t="shared" si="9"/>
         <v>3.7516294269090117E-2</v>
       </c>
@@ -2970,19 +2981,19 @@
         <f t="shared" si="5"/>
         <v>29.758629486944034</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="22">
         <f t="shared" si="6"/>
         <v>3.239782805237987E-3</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="22">
         <f t="shared" si="7"/>
         <v>1.8433701688837966E-2</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="22">
         <f t="shared" si="8"/>
         <v>-2.6292778368965725E-2</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="22">
         <f t="shared" si="9"/>
         <v>1.7398099663608932E-2</v>
       </c>
@@ -3046,19 +3057,19 @@
         <f t="shared" si="5"/>
         <v>29.908119649936776</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="22">
         <f t="shared" si="6"/>
         <v>3.46323466552179E-3</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="22">
         <f t="shared" si="7"/>
         <v>1.3605652055778678E-2</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="22">
         <f t="shared" si="8"/>
         <v>6.4486371299137092E-3</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="22">
         <f t="shared" si="9"/>
         <v>1.145669482554266E-2</v>
       </c>
@@ -3122,19 +3133,19 @@
         <f t="shared" si="5"/>
         <v>29.207845817764778</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="22">
         <f t="shared" si="6"/>
         <v>-7.2023896264663805E-3</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="22">
         <f t="shared" si="7"/>
         <v>4.4943895878392674E-3</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="22">
         <f t="shared" si="8"/>
         <v>-1.1769027290969717E-2</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="22">
         <f t="shared" si="9"/>
         <v>-1.724679034271227E-2</v>
       </c>
@@ -3198,19 +3209,19 @@
         <f t="shared" si="5"/>
         <v>28.444121692957644</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="22">
         <f t="shared" si="6"/>
         <v>1.0042851959245886E-2</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="22">
         <f t="shared" si="8"/>
         <v>-1.9249344109497586E-2</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="22">
         <f t="shared" si="9"/>
         <v>-2.0049997410514678E-2</v>
       </c>
@@ -3274,19 +3285,19 @@
         <f t="shared" si="5"/>
         <v>29.450918847889668</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="22">
         <f t="shared" si="6"/>
         <v>-8.5286001655502063E-3</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="22">
         <f t="shared" si="7"/>
         <v>-2.7274417919659174E-2</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="22">
         <f t="shared" si="8"/>
         <v>3.45272106284659E-2</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P37" s="22">
         <f t="shared" si="9"/>
         <v>4.1229437346347798E-2</v>
       </c>
@@ -3350,19 +3361,19 @@
         <f t="shared" si="5"/>
         <v>28.738255621098354</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="22">
         <f t="shared" si="6"/>
         <v>-1.0144429632461092E-2</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="22">
         <f t="shared" si="8"/>
         <v>2.7119102580558264E-2</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P38" s="22">
         <f t="shared" si="9"/>
         <v>-1.805007841545726E-2</v>
       </c>
@@ -3426,19 +3437,19 @@
         <f t="shared" si="5"/>
         <v>28.432580976071279</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="22">
         <f t="shared" si="6"/>
         <v>8.3900389823531926E-3</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="22">
         <f t="shared" si="7"/>
         <v>-4.6189458562945285E-3</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39" s="22">
         <f t="shared" si="8"/>
         <v>-2.3025145821824494E-2</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P39" s="22">
         <f t="shared" si="9"/>
         <v>-4.2476307508046299E-3</v>
       </c>
@@ -3502,19 +3513,19 @@
         <f t="shared" si="5"/>
         <v>27.43013450768623</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="22">
         <f t="shared" si="6"/>
         <v>5.1339619628539862E-2</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="22">
         <f t="shared" si="7"/>
         <v>-9.3023926623135612E-3</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="22">
         <f t="shared" si="8"/>
         <v>-4.3613591009853563E-2</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="22">
         <f t="shared" si="9"/>
         <v>-2.9447648660624576E-2</v>
       </c>
@@ -3578,19 +3589,19 @@
         <f t="shared" si="5"/>
         <v>28.068389363797241</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="22">
         <f t="shared" si="6"/>
         <v>4.5312680534919637E-2</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="22">
         <f t="shared" si="7"/>
         <v>-2.3641763057040424E-2</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="22">
         <f t="shared" si="8"/>
         <v>-2.459476314052151E-2</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="22">
         <f t="shared" si="9"/>
         <v>2.9447648660624649E-2</v>
       </c>
@@ -3654,19 +3665,19 @@
         <f t="shared" si="5"/>
         <v>28.479561944729095</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="22">
         <f t="shared" si="6"/>
         <v>9.2990291621617177E-2</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="22">
         <f t="shared" si="8"/>
         <v>5.4408217944776523E-3</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="22">
         <f t="shared" si="9"/>
         <v>2.0988543631695378E-2</v>
       </c>
@@ -3730,19 +3741,19 @@
         <f t="shared" si="5"/>
         <v>28.726528788216466</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="22">
         <f t="shared" si="6"/>
         <v>-2.0352676333313589E-2</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="22">
         <f t="shared" si="7"/>
         <v>-1.4458083175229888E-2</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O43" s="22">
         <f t="shared" si="8"/>
         <v>3.8897136818966963E-2</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="22">
         <f t="shared" si="9"/>
         <v>1.4096066143709535E-2</v>
       </c>
@@ -3806,19 +3817,19 @@
         <f t="shared" si="5"/>
         <v>29.186013851132056</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="22">
         <f t="shared" si="6"/>
         <v>2.8226560998236921E-2</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="22">
         <f t="shared" si="7"/>
         <v>1.9231361927887592E-2</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O44" s="22">
         <f t="shared" si="8"/>
         <v>1.3735172911194641E-3</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="22">
         <f t="shared" si="9"/>
         <v>2.1330300560835416E-2</v>
       </c>
@@ -3882,19 +3893,19 @@
         <f t="shared" si="5"/>
         <v>28.567926840040755</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="22">
         <f t="shared" si="6"/>
         <v>7.8271423470596124E-2</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="22">
         <f t="shared" si="7"/>
         <v>-3.3901551675681339E-2</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O45" s="22">
         <f t="shared" si="8"/>
         <v>-4.8651827700038432E-2</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P45" s="22">
         <f t="shared" si="9"/>
         <v>-1.5943239869314108E-2</v>
       </c>
@@ -3958,19 +3969,19 @@
         <f t="shared" si="5"/>
         <v>29.173567741853834</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M46" s="22">
         <f t="shared" si="6"/>
         <v>-5.8820739980755356E-2</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="22">
         <f t="shared" si="7"/>
         <v>-4.9382816405825663E-3</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O46" s="22">
         <f t="shared" si="8"/>
         <v>8.9664516862525533E-3</v>
       </c>
-      <c r="P46" s="8">
+      <c r="P46" s="22">
         <f t="shared" si="9"/>
         <v>2.644016319179503E-2</v>
       </c>
@@ -4034,19 +4045,19 @@
         <f t="shared" si="5"/>
         <v>28.742055401894945</v>
       </c>
-      <c r="M47" s="8">
+      <c r="M47" s="22">
         <f t="shared" si="6"/>
         <v>2.843520146542864E-2</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N47" s="22">
         <f t="shared" si="7"/>
         <v>-2.0000666706669543E-2</v>
       </c>
-      <c r="O47" s="8">
+      <c r="O47" s="22">
         <f t="shared" si="8"/>
         <v>-2.5591957691902138E-2</v>
       </c>
-      <c r="P47" s="8">
+      <c r="P47" s="22">
         <f t="shared" si="9"/>
         <v>-9.4399622167508912E-3</v>
       </c>
@@ -4110,19 +4121,19 @@
         <f t="shared" si="5"/>
         <v>28.162732811286702</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="22">
         <f t="shared" si="6"/>
         <v>1.2006340567854578E-2</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="22">
         <f t="shared" si="7"/>
         <v>-5.063301956546762E-3</v>
       </c>
-      <c r="O48" s="8">
+      <c r="O48" s="22">
         <f t="shared" si="8"/>
         <v>2.7688549955259805E-3</v>
       </c>
-      <c r="P48" s="8">
+      <c r="P48" s="22">
         <f t="shared" si="9"/>
         <v>-1.4900095197927602E-2</v>
       </c>
@@ -4186,19 +4197,19 @@
         <f t="shared" si="5"/>
         <v>28.070707362476519</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M49" s="22">
         <f t="shared" si="6"/>
         <v>3.1332984910258099E-2</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N49" s="22">
         <f t="shared" si="7"/>
         <v>5.0633019565466345E-3</v>
       </c>
-      <c r="O49" s="8">
+      <c r="O49" s="22">
         <f t="shared" si="8"/>
         <v>-2.8450182367658203E-2</v>
       </c>
-      <c r="P49" s="8">
+      <c r="P49" s="22">
         <f t="shared" si="9"/>
         <v>2.1887451399726994E-3</v>
       </c>
@@ -4262,19 +4273,19 @@
         <f t="shared" si="5"/>
         <v>28.400271845452842</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M50" s="22">
         <f t="shared" si="6"/>
         <v>4.3275188080431966E-2</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="22">
         <f t="shared" si="7"/>
         <v>2.9852963149681128E-2</v>
       </c>
-      <c r="O50" s="8">
+      <c r="O50" s="22">
         <f t="shared" si="8"/>
         <v>7.4747067525014088E-2</v>
       </c>
-      <c r="P50" s="8">
+      <c r="P50" s="22">
         <f t="shared" si="9"/>
         <v>1.7133854716850666E-2</v>
       </c>
@@ -4338,19 +4349,19 @@
         <f t="shared" si="5"/>
         <v>28.914634266153605</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M51" s="22">
         <f t="shared" si="6"/>
         <v>-9.2394808718787563E-3</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="22">
         <f t="shared" si="7"/>
         <v>9.7561749453646558E-3</v>
       </c>
-      <c r="O51" s="8">
+      <c r="O51" s="22">
         <f t="shared" si="8"/>
         <v>1.1885740539617664E-2</v>
       </c>
-      <c r="P51" s="8">
+      <c r="P51" s="22">
         <f t="shared" si="9"/>
         <v>2.3410853374984681E-2</v>
       </c>
@@ -4414,19 +4425,19 @@
         <f t="shared" si="5"/>
         <v>28.174586078984831</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="22">
         <f t="shared" si="6"/>
         <v>2.2559587028748947E-2</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="22">
         <f t="shared" si="7"/>
         <v>4.8426244757879908E-3</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O52" s="22">
         <f t="shared" si="8"/>
         <v>-1.3521641754797925E-2</v>
       </c>
-      <c r="P52" s="8">
+      <c r="P52" s="22">
         <f t="shared" si="9"/>
         <v>-2.0465746626545264E-2</v>
       </c>
@@ -4490,19 +4501,19 @@
         <f t="shared" si="5"/>
         <v>28.43122624823846</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M53" s="22">
         <f t="shared" si="6"/>
         <v>-2.3219432022538435E-2</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="22">
         <f t="shared" si="7"/>
         <v>-1.4598799421152636E-2</v>
       </c>
-      <c r="O53" s="8">
+      <c r="O53" s="22">
         <f t="shared" si="8"/>
         <v>2.357128359209238E-2</v>
       </c>
-      <c r="P53" s="8">
+      <c r="P53" s="22">
         <f t="shared" si="9"/>
         <v>1.4529415756220014E-2</v>
       </c>
@@ -4566,19 +4577,19 @@
         <f t="shared" si="5"/>
         <v>28.920569999987308</v>
       </c>
-      <c r="M54" s="8">
+      <c r="M54" s="22">
         <f t="shared" si="6"/>
         <v>-4.2834057903118249E-2</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N54" s="22">
         <f t="shared" si="7"/>
         <v>4.8899852941917702E-3</v>
       </c>
-      <c r="O54" s="8">
+      <c r="O54" s="22">
         <f t="shared" si="8"/>
         <v>5.6416420436141437E-2</v>
       </c>
-      <c r="P54" s="8">
+      <c r="P54" s="22">
         <f t="shared" si="9"/>
         <v>2.2526777288538701E-2</v>
       </c>
@@ -4642,19 +4653,19 @@
         <f t="shared" si="5"/>
         <v>29.20660251391962</v>
       </c>
-      <c r="M55" s="8">
+      <c r="M55" s="22">
         <f t="shared" si="6"/>
         <v>-1.0526051854464483E-2</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N55" s="22">
         <f t="shared" si="7"/>
         <v>9.7088141269609032E-3</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O55" s="22">
         <f t="shared" si="8"/>
         <v>5.1462487926612916E-3</v>
       </c>
-      <c r="P55" s="8">
+      <c r="P55" s="22">
         <f t="shared" si="9"/>
         <v>1.5303418139886706E-2</v>
       </c>
@@ -4718,19 +4729,19 @@
         <f t="shared" si="5"/>
         <v>30.039146234381651</v>
       </c>
-      <c r="M56" s="8">
+      <c r="M56" s="22">
         <f t="shared" si="6"/>
         <v>-8.5948796501336799E-2</v>
       </c>
-      <c r="N56" s="8">
+      <c r="N56" s="22">
         <f t="shared" si="7"/>
         <v>-4.8426244757880151E-3</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O56" s="22">
         <f t="shared" si="8"/>
         <v>4.7730251563901704E-2</v>
       </c>
-      <c r="P56" s="8">
+      <c r="P56" s="22">
         <f t="shared" si="9"/>
         <v>3.3568335902404461E-2</v>
       </c>
@@ -4794,19 +4805,19 @@
         <f t="shared" si="5"/>
         <v>30.064898249798041</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M57" s="22">
         <f t="shared" si="6"/>
         <v>8.7573731899425272E-2</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N57" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O57" s="22">
         <f t="shared" si="8"/>
         <v>3.3451897491663329E-2</v>
       </c>
-      <c r="P57" s="8">
+      <c r="P57" s="22">
         <f t="shared" si="9"/>
         <v>6.3186421869441001E-3</v>
       </c>
@@ -4870,19 +4881,19 @@
         <f t="shared" si="5"/>
         <v>30.443157946158095</v>
       </c>
-      <c r="M58" s="8">
+      <c r="M58" s="22">
         <f t="shared" si="6"/>
         <v>-3.4243931953273528E-2</v>
       </c>
-      <c r="N58" s="8">
+      <c r="N58" s="22">
         <f t="shared" si="7"/>
         <v>-9.7561749453646852E-3</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O58" s="22">
         <f t="shared" si="8"/>
         <v>1.557341875633721E-3</v>
       </c>
-      <c r="P58" s="8">
+      <c r="P58" s="22">
         <f t="shared" si="9"/>
         <v>1.7964678345379431E-2</v>
       </c>
@@ -4946,19 +4957,19 @@
         <f t="shared" si="5"/>
         <v>30.691529635579702</v>
       </c>
-      <c r="M59" s="8">
+      <c r="M59" s="22">
         <f t="shared" si="6"/>
         <v>-3.1416944974476023E-2</v>
       </c>
-      <c r="N59" s="8">
+      <c r="N59" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O59" s="8">
+      <c r="O59" s="22">
         <f t="shared" si="8"/>
         <v>-1.1889656970040964E-2</v>
       </c>
-      <c r="P59" s="8">
+      <c r="P59" s="22">
         <f t="shared" si="9"/>
         <v>1.3587165546308356E-2</v>
       </c>
@@ -5022,19 +5033,19 @@
         <f t="shared" si="5"/>
         <v>30.411229478276535</v>
       </c>
-      <c r="M60" s="8">
+      <c r="M60" s="22">
         <f t="shared" si="6"/>
         <v>9.6440315329204773E-2</v>
       </c>
-      <c r="N60" s="8">
+      <c r="N60" s="22">
         <f t="shared" si="7"/>
         <v>-4.9140148024290403E-3</v>
       </c>
-      <c r="O60" s="8">
+      <c r="O60" s="22">
         <f t="shared" si="8"/>
         <v>1.4491962135120861E-3</v>
       </c>
-      <c r="P60" s="8">
+      <c r="P60" s="22">
         <f t="shared" si="9"/>
         <v>-3.7130503762824708E-3</v>
       </c>
@@ -5098,19 +5109,19 @@
         <f t="shared" si="5"/>
         <v>30.346478423980862</v>
       </c>
-      <c r="M61" s="8">
+      <c r="M61" s="22">
         <f t="shared" si="6"/>
         <v>2.0440644779690042E-3</v>
       </c>
-      <c r="N61" s="8">
+      <c r="N61" s="22">
         <f t="shared" si="7"/>
         <v>-4.9382816405825663E-3</v>
       </c>
-      <c r="O61" s="8">
+      <c r="O61" s="22">
         <f t="shared" si="8"/>
         <v>-9.6452396362681366E-4</v>
       </c>
-      <c r="P61" s="8">
+      <c r="P61" s="22">
         <f t="shared" si="9"/>
         <v>3.3302752519917237E-3</v>
       </c>
@@ -5174,19 +5185,19 @@
         <f t="shared" si="5"/>
         <v>31.290398567842963</v>
       </c>
-      <c r="M62" s="8">
+      <c r="M62" s="22">
         <f t="shared" si="6"/>
         <v>-6.8526617422191377E-2</v>
       </c>
-      <c r="N62" s="8">
+      <c r="N62" s="22">
         <f t="shared" si="7"/>
         <v>-4.9627893421290139E-3</v>
       </c>
-      <c r="O62" s="8">
+      <c r="O62" s="22">
         <f t="shared" si="8"/>
         <v>-6.9740873449970948E-4</v>
       </c>
-      <c r="P62" s="8">
+      <c r="P62" s="22">
         <f t="shared" si="9"/>
         <v>3.4888410423513053E-2</v>
       </c>
@@ -5250,19 +5261,19 @@
         <f t="shared" si="5"/>
         <v>31.157459968120776</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M63" s="22">
         <f t="shared" si="6"/>
         <v>1.039073917318107E-2</v>
       </c>
-      <c r="N63" s="8">
+      <c r="N63" s="22">
         <f t="shared" si="7"/>
         <v>-4.9875415110390512E-3</v>
       </c>
-      <c r="O63" s="8">
+      <c r="O63" s="22">
         <f t="shared" si="8"/>
         <v>-2.4637831711284312E-2</v>
       </c>
-      <c r="P63" s="8">
+      <c r="P63" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5326,19 +5337,19 @@
         <f t="shared" si="5"/>
         <v>31.523757523365866</v>
       </c>
-      <c r="M64" s="8">
+      <c r="M64" s="22">
         <f t="shared" si="6"/>
         <v>3.591844293524718E-2</v>
       </c>
-      <c r="N64" s="8">
+      <c r="N64" s="22">
         <f t="shared" si="7"/>
         <v>-1.5113637810048184E-2</v>
       </c>
-      <c r="O64" s="8">
+      <c r="O64" s="22">
         <f t="shared" si="8"/>
         <v>2.6065205479727304E-2</v>
       </c>
-      <c r="P64" s="8">
+      <c r="P64" s="22">
         <f t="shared" si="9"/>
         <v>1.5945360328778135E-2</v>
       </c>
@@ -5402,19 +5413,19 @@
         <f t="shared" si="5"/>
         <v>32.382932954073354</v>
       </c>
-      <c r="M65" s="8">
+      <c r="M65" s="22">
         <f t="shared" si="6"/>
         <v>1.2466024634290673E-2</v>
       </c>
-      <c r="N65" s="8">
+      <c r="N65" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O65" s="8">
+      <c r="O65" s="22">
         <f t="shared" si="8"/>
         <v>1.2493568577155726E-2</v>
       </c>
-      <c r="P65" s="8">
+      <c r="P65" s="22">
         <f t="shared" si="9"/>
         <v>3.1147648254879121E-2</v>
       </c>
@@ -5478,19 +5489,19 @@
         <f t="shared" ref="L66:L129" si="39">+E66/G66</f>
         <v>31.6796762387368</v>
       </c>
-      <c r="M66" s="8">
+      <c r="M66" s="22">
         <f t="shared" si="6"/>
         <v>3.1517489060040996E-2</v>
       </c>
-      <c r="N66" s="8">
+      <c r="N66" s="22">
         <f t="shared" si="7"/>
         <v>5.0633019565466345E-3</v>
       </c>
-      <c r="O66" s="8">
+      <c r="O66" s="22">
         <f t="shared" si="8"/>
         <v>1.8988440600420924E-2</v>
       </c>
-      <c r="P66" s="8">
+      <c r="P66" s="22">
         <f t="shared" si="9"/>
         <v>-1.7698582605417013E-2</v>
       </c>
@@ -5554,19 +5565,19 @@
         <f t="shared" si="39"/>
         <v>30.303498652363654</v>
       </c>
-      <c r="M67" s="8">
+      <c r="M67" s="22">
         <f t="shared" ref="M67:M130" si="40">+LN(B67/B66)</f>
         <v>-3.5029743143535422E-2</v>
       </c>
-      <c r="N67" s="8">
+      <c r="N67" s="22">
         <f t="shared" ref="N67:N130" si="41">+LN(C67/C66)</f>
         <v>1.0050335853501506E-2</v>
       </c>
-      <c r="O67" s="8">
+      <c r="O67" s="22">
         <f t="shared" ref="O67:O130" si="42">+LN(D67/D66)</f>
         <v>-1.548785205579473E-2</v>
       </c>
-      <c r="P67" s="8">
+      <c r="P67" s="22">
         <f t="shared" ref="P67:P130" si="43">+LN(E67/E66)</f>
         <v>-4.015458066112506E-2</v>
       </c>
@@ -5630,19 +5641,19 @@
         <f t="shared" si="39"/>
         <v>30.752251653046066</v>
       </c>
-      <c r="M68" s="8">
+      <c r="M68" s="22">
         <f t="shared" si="40"/>
         <v>1.960518288514209E-2</v>
       </c>
-      <c r="N68" s="8">
+      <c r="N68" s="22">
         <f t="shared" si="41"/>
         <v>-5.0125418235442863E-3</v>
       </c>
-      <c r="O68" s="8">
+      <c r="O68" s="22">
         <f t="shared" si="42"/>
         <v>2.0338183762007224E-2</v>
       </c>
-      <c r="P68" s="8">
+      <c r="P68" s="22">
         <f t="shared" si="43"/>
         <v>1.8957636708638547E-2</v>
       </c>
@@ -5706,19 +5717,19 @@
         <f t="shared" si="39"/>
         <v>29.728003996980267</v>
       </c>
-      <c r="M69" s="8">
+      <c r="M69" s="22">
         <f t="shared" si="40"/>
         <v>-5.9903785009938664E-3</v>
       </c>
-      <c r="N69" s="8">
+      <c r="N69" s="22">
         <f t="shared" si="41"/>
         <v>1.0000083334583399E-2</v>
       </c>
-      <c r="O69" s="8">
+      <c r="O69" s="22">
         <f t="shared" si="42"/>
         <v>-1.1805764473544601E-2</v>
       </c>
-      <c r="P69" s="8">
+      <c r="P69" s="22">
         <f t="shared" si="43"/>
         <v>-2.9616125406111613E-2</v>
       </c>
@@ -5782,19 +5793,19 @@
         <f t="shared" si="39"/>
         <v>29.324523872646544</v>
       </c>
-      <c r="M70" s="8">
+      <c r="M70" s="22">
         <f t="shared" si="40"/>
         <v>-6.411772834816884E-2</v>
       </c>
-      <c r="N70" s="8">
+      <c r="N70" s="22">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O70" s="8">
+      <c r="O70" s="22">
         <f t="shared" si="42"/>
         <v>-2.3498412844936384E-3</v>
       </c>
-      <c r="P70" s="8">
+      <c r="P70" s="22">
         <f t="shared" si="43"/>
         <v>-9.4077453304672615E-3</v>
       </c>
@@ -5858,19 +5869,19 @@
         <f t="shared" si="39"/>
         <v>28.904597852716023</v>
       </c>
-      <c r="M71" s="8">
+      <c r="M71" s="22">
         <f t="shared" si="40"/>
         <v>-3.5954182367180058E-2</v>
       </c>
-      <c r="N71" s="8">
+      <c r="N71" s="22">
         <f t="shared" si="41"/>
         <v>3.4233171642242176E-2</v>
       </c>
-      <c r="O71" s="8">
+      <c r="O71" s="22">
         <f t="shared" si="42"/>
         <v>-3.1387036939568048E-2</v>
       </c>
-      <c r="P71" s="8">
+      <c r="P71" s="22">
         <f t="shared" si="43"/>
         <v>-1.0165886895261853E-2</v>
       </c>
@@ -5934,19 +5945,19 @@
         <f t="shared" si="39"/>
         <v>30.361334014290968</v>
       </c>
-      <c r="M72" s="8">
+      <c r="M72" s="22">
         <f t="shared" si="40"/>
         <v>4.5604118888128344E-3</v>
       </c>
-      <c r="N72" s="8">
+      <c r="N72" s="22">
         <f t="shared" si="41"/>
         <v>-4.8192864359488828E-3</v>
       </c>
-      <c r="O72" s="8">
+      <c r="O72" s="22">
         <f t="shared" si="42"/>
         <v>-2.6002994798387472E-2</v>
       </c>
-      <c r="P72" s="8">
+      <c r="P72" s="22">
         <f t="shared" si="43"/>
         <v>5.3426807284801967E-2</v>
       </c>
@@ -6010,19 +6021,19 @@
         <f t="shared" si="39"/>
         <v>30.89877536714096</v>
       </c>
-      <c r="M73" s="8">
+      <c r="M73" s="22">
         <f t="shared" si="40"/>
         <v>-3.8255205831288795E-2</v>
       </c>
-      <c r="N73" s="8">
+      <c r="N73" s="22">
         <f t="shared" si="41"/>
         <v>-4.8426244757880151E-3</v>
       </c>
-      <c r="O73" s="8">
+      <c r="O73" s="22">
         <f t="shared" si="42"/>
         <v>4.0615172233115766E-4</v>
       </c>
-      <c r="P73" s="8">
+      <c r="P73" s="22">
         <f t="shared" si="43"/>
         <v>2.1804253132020352E-2</v>
       </c>
@@ -6086,19 +6097,19 @@
         <f t="shared" si="39"/>
         <v>30.48053782186485</v>
       </c>
-      <c r="M74" s="8">
+      <c r="M74" s="22">
         <f t="shared" si="40"/>
         <v>3.418373253949953E-2</v>
       </c>
-      <c r="N74" s="8">
+      <c r="N74" s="22">
         <f t="shared" si="41"/>
         <v>-1.4670189747793742E-2</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O74" s="22">
         <f t="shared" si="42"/>
         <v>1.3869910696350492E-2</v>
       </c>
-      <c r="P74" s="8">
+      <c r="P74" s="22">
         <f t="shared" si="43"/>
         <v>-9.3705816780737666E-3</v>
       </c>
@@ -6162,19 +6173,19 @@
         <f t="shared" si="39"/>
         <v>31.773420893926172</v>
       </c>
-      <c r="M75" s="8">
+      <c r="M75" s="22">
         <f t="shared" si="40"/>
         <v>2.2973765536552247E-2</v>
       </c>
-      <c r="N75" s="8">
+      <c r="N75" s="22">
         <f t="shared" si="41"/>
         <v>9.8040000966208348E-3</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O75" s="22">
         <f t="shared" si="42"/>
         <v>6.4448028915599753E-2</v>
       </c>
-      <c r="P75" s="8">
+      <c r="P75" s="22">
         <f t="shared" si="43"/>
         <v>4.5799337182064227E-2</v>
       </c>
@@ -6238,19 +6249,19 @@
         <f t="shared" si="39"/>
         <v>31.369962702386367</v>
       </c>
-      <c r="M76" s="8">
+      <c r="M76" s="22">
         <f t="shared" si="40"/>
         <v>2.8917992359811153E-2</v>
       </c>
-      <c r="N76" s="8">
+      <c r="N76" s="22">
         <f t="shared" si="41"/>
         <v>4.8661896511729063E-3</v>
       </c>
-      <c r="O76" s="8">
+      <c r="O76" s="22">
         <f t="shared" si="42"/>
         <v>-1.799858401637653E-2</v>
       </c>
-      <c r="P76" s="8">
+      <c r="P76" s="22">
         <f t="shared" si="43"/>
         <v>-8.5216925316751874E-3</v>
       </c>
@@ -6314,19 +6325,19 @@
         <f t="shared" si="39"/>
         <v>30.355878355538533</v>
       </c>
-      <c r="M77" s="8">
+      <c r="M77" s="22">
         <f t="shared" si="40"/>
         <v>-6.5248848767270311E-3</v>
       </c>
-      <c r="N77" s="8">
+      <c r="N77" s="22">
         <f t="shared" si="41"/>
         <v>4.8426244757879908E-3</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O77" s="22">
         <f t="shared" si="42"/>
         <v>-3.5195307244911142E-2</v>
       </c>
-      <c r="P77" s="8">
+      <c r="P77" s="22">
         <f t="shared" si="43"/>
         <v>-2.860305540092592E-2</v>
       </c>
@@ -6390,19 +6401,19 @@
         <f t="shared" si="39"/>
         <v>30.034092188707145</v>
       </c>
-      <c r="M78" s="8">
+      <c r="M78" s="22">
         <f t="shared" si="40"/>
         <v>-3.2560712084839731E-2</v>
       </c>
-      <c r="N78" s="8">
+      <c r="N78" s="22">
         <f t="shared" si="41"/>
         <v>9.6154586994419734E-3</v>
       </c>
-      <c r="O78" s="8">
+      <c r="O78" s="22">
         <f t="shared" si="42"/>
         <v>3.4707731435431169E-2</v>
       </c>
-      <c r="P78" s="8">
+      <c r="P78" s="22">
         <f t="shared" si="43"/>
         <v>-6.3994479677500233E-3</v>
       </c>
@@ -6466,19 +6477,19 @@
         <f t="shared" si="39"/>
         <v>30.233851711826642</v>
       </c>
-      <c r="M79" s="8">
+      <c r="M79" s="22">
         <f t="shared" si="40"/>
         <v>3.2099449721218671E-3</v>
       </c>
-      <c r="N79" s="8">
+      <c r="N79" s="22">
         <f t="shared" si="41"/>
         <v>9.523881511255541E-3</v>
       </c>
-      <c r="O79" s="8">
+      <c r="O79" s="22">
         <f t="shared" si="42"/>
         <v>5.2715150282785488E-3</v>
       </c>
-      <c r="P79" s="8">
+      <c r="P79" s="22">
         <f t="shared" si="43"/>
         <v>1.0886665072171915E-2</v>
       </c>
@@ -6542,19 +6553,19 @@
         <f t="shared" si="39"/>
         <v>30.555443309806154</v>
       </c>
-      <c r="M80" s="8">
+      <c r="M80" s="22">
         <f t="shared" si="40"/>
         <v>-2.2833306339397348E-2</v>
       </c>
-      <c r="N80" s="8">
+      <c r="N80" s="22">
         <f t="shared" si="41"/>
         <v>-9.5238815112554786E-3</v>
       </c>
-      <c r="O80" s="8">
+      <c r="O80" s="22">
         <f t="shared" si="42"/>
         <v>4.4029312688664134E-2</v>
       </c>
-      <c r="P80" s="8">
+      <c r="P80" s="22">
         <f t="shared" si="43"/>
         <v>1.4838226166263917E-2</v>
       </c>
@@ -6618,19 +6629,19 @@
         <f t="shared" si="39"/>
         <v>30.250418714581027</v>
       </c>
-      <c r="M81" s="8">
+      <c r="M81" s="22">
         <f t="shared" si="40"/>
         <v>1.2099137316238306E-2</v>
       </c>
-      <c r="N81" s="8">
+      <c r="N81" s="22">
         <f t="shared" si="41"/>
         <v>-4.7961722634930551E-3</v>
       </c>
-      <c r="O81" s="8">
+      <c r="O81" s="22">
         <f t="shared" si="42"/>
         <v>1.179281253951308E-2</v>
       </c>
-      <c r="P81" s="8">
+      <c r="P81" s="22">
         <f t="shared" si="43"/>
         <v>-5.7752270691536316E-3</v>
       </c>
@@ -6694,19 +6705,19 @@
         <f t="shared" si="39"/>
         <v>30.117996930532925</v>
       </c>
-      <c r="M82" s="8">
+      <c r="M82" s="22">
         <f t="shared" si="40"/>
         <v>-9.0156338913311054E-2</v>
       </c>
-      <c r="N82" s="8">
+      <c r="N82" s="22">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O82" s="8">
+      <c r="O82" s="22">
         <f t="shared" si="42"/>
         <v>3.422812996427424E-2</v>
       </c>
-      <c r="P82" s="8">
+      <c r="P82" s="22">
         <f t="shared" si="43"/>
         <v>-2.5464934438579694E-3</v>
       </c>
@@ -6770,19 +6781,19 @@
         <f t="shared" si="39"/>
         <v>29.898118037988674</v>
       </c>
-      <c r="M83" s="8">
+      <c r="M83" s="22">
         <f t="shared" si="40"/>
         <v>1.4265415876255384E-2</v>
       </c>
-      <c r="N83" s="8">
+      <c r="N83" s="22">
         <f t="shared" si="41"/>
         <v>-4.8192864359488828E-3</v>
       </c>
-      <c r="O83" s="8">
+      <c r="O83" s="22">
         <f t="shared" si="42"/>
         <v>5.837036631645353E-2</v>
       </c>
-      <c r="P83" s="8">
+      <c r="P83" s="22">
         <f t="shared" si="43"/>
         <v>-5.4867262158790541E-3</v>
       </c>
@@ -6846,19 +6857,19 @@
         <f t="shared" si="39"/>
         <v>30.365868129431753</v>
       </c>
-      <c r="M84" s="8">
+      <c r="M84" s="22">
         <f t="shared" si="40"/>
         <v>7.9213559012938362E-2</v>
       </c>
-      <c r="N84" s="8">
+      <c r="N84" s="22">
         <f t="shared" si="41"/>
         <v>9.6154586994419734E-3</v>
       </c>
-      <c r="O84" s="8">
+      <c r="O84" s="22">
         <f t="shared" si="42"/>
         <v>2.97358588205279E-2</v>
       </c>
-      <c r="P84" s="8">
+      <c r="P84" s="22">
         <f t="shared" si="43"/>
         <v>1.7364317195134392E-2</v>
       </c>
@@ -6922,19 +6933,19 @@
         <f t="shared" si="39"/>
         <v>30.381380182241141</v>
       </c>
-      <c r="M85" s="8">
+      <c r="M85" s="22">
         <f t="shared" si="40"/>
         <v>-1.3170672532446118E-2</v>
       </c>
-      <c r="N85" s="8">
+      <c r="N85" s="22">
         <f t="shared" si="41"/>
         <v>-4.7961722634930551E-3</v>
       </c>
-      <c r="O85" s="8">
+      <c r="O85" s="22">
         <f t="shared" si="42"/>
         <v>-2.1763599314076464E-2</v>
       </c>
-      <c r="P85" s="8">
+      <c r="P85" s="22">
         <f t="shared" si="43"/>
         <v>2.3513430015247917E-3</v>
       </c>
@@ -6998,19 +7009,19 @@
         <f t="shared" si="39"/>
         <v>30.029494517999808</v>
       </c>
-      <c r="M86" s="8">
+      <c r="M86" s="22">
         <f t="shared" si="40"/>
         <v>-1.2895715918401891E-2</v>
       </c>
-      <c r="N86" s="8">
+      <c r="N86" s="22">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O86" s="8">
+      <c r="O86" s="22">
         <f t="shared" si="42"/>
         <v>-9.0079183353416574E-3</v>
       </c>
-      <c r="P86" s="8">
+      <c r="P86" s="22">
         <f t="shared" si="43"/>
         <v>-9.8092424781298666E-3</v>
       </c>
@@ -7074,19 +7085,19 @@
         <f t="shared" si="39"/>
         <v>29.678800307502772</v>
       </c>
-      <c r="M87" s="8">
+      <c r="M87" s="22">
         <f t="shared" si="40"/>
         <v>-1.8572576959370989E-2</v>
       </c>
-      <c r="N87" s="8">
+      <c r="N87" s="22">
         <f t="shared" si="41"/>
         <v>4.7961722634930135E-3</v>
       </c>
-      <c r="O87" s="8">
+      <c r="O87" s="22">
         <f t="shared" si="42"/>
         <v>-1.0796970473568299E-2</v>
       </c>
-      <c r="P87" s="8">
+      <c r="P87" s="22">
         <f t="shared" si="43"/>
         <v>-9.9064177185293843E-3</v>
       </c>
@@ -7150,19 +7161,19 @@
         <f t="shared" si="39"/>
         <v>29.608700168293762</v>
       </c>
-      <c r="M88" s="8">
+      <c r="M88" s="22">
         <f t="shared" si="40"/>
         <v>3.1090187300044241E-2</v>
       </c>
-      <c r="N88" s="8">
+      <c r="N88" s="22">
         <f t="shared" si="41"/>
         <v>-4.7961722634930551E-3</v>
       </c>
-      <c r="O88" s="8">
+      <c r="O88" s="22">
         <f t="shared" si="42"/>
         <v>-1.9287951294172836E-2</v>
       </c>
-      <c r="P88" s="8">
+      <c r="P88" s="22">
         <f t="shared" si="43"/>
         <v>-5.2411883722308574E-4</v>
       </c>
@@ -7226,19 +7237,19 @@
         <f t="shared" si="39"/>
         <v>30.128082838218464</v>
       </c>
-      <c r="M89" s="8">
+      <c r="M89" s="22">
         <f t="shared" si="40"/>
         <v>-2.6338810722795619E-2</v>
       </c>
-      <c r="N89" s="8">
+      <c r="N89" s="22">
         <f t="shared" si="41"/>
         <v>4.7961722634930135E-3</v>
       </c>
-      <c r="O89" s="8">
+      <c r="O89" s="22">
         <f t="shared" si="42"/>
         <v>-2.1959439913159524E-2</v>
       </c>
-      <c r="P89" s="8">
+      <c r="P89" s="22">
         <f t="shared" si="43"/>
         <v>1.9230113698033513E-2</v>
       </c>
@@ -7302,19 +7313,19 @@
         <f t="shared" si="39"/>
         <v>30.057765871643248</v>
       </c>
-      <c r="M90" s="8">
+      <c r="M90" s="22">
         <f t="shared" si="40"/>
         <v>2.2056930901616773E-2</v>
       </c>
-      <c r="N90" s="8">
+      <c r="N90" s="22">
         <f t="shared" si="41"/>
         <v>1.4252022707201413E-2</v>
       </c>
-      <c r="O90" s="8">
+      <c r="O90" s="22">
         <f t="shared" si="42"/>
         <v>2.3645394292711879E-2</v>
       </c>
-      <c r="P90" s="8">
+      <c r="P90" s="22">
         <f t="shared" si="43"/>
         <v>-4.9602719980885654E-4</v>
       </c>
@@ -7378,19 +7389,19 @@
         <f t="shared" si="39"/>
         <v>30.356441279104068</v>
       </c>
-      <c r="M91" s="8">
+      <c r="M91" s="22">
         <f t="shared" si="40"/>
         <v>-2.1048465844258943E-2</v>
       </c>
-      <c r="N91" s="8">
+      <c r="N91" s="22">
         <f t="shared" si="41"/>
         <v>1.8692133012152546E-2</v>
       </c>
-      <c r="O91" s="8">
+      <c r="O91" s="22">
         <f t="shared" si="42"/>
         <v>4.7043208638146851E-2</v>
       </c>
-      <c r="P91" s="8">
+      <c r="P91" s="22">
         <f t="shared" si="43"/>
         <v>1.1728303965559404E-2</v>
       </c>
@@ -7454,19 +7465,19 @@
         <f t="shared" si="39"/>
         <v>29.856517392431584</v>
       </c>
-      <c r="M92" s="8">
+      <c r="M92" s="22">
         <f t="shared" si="40"/>
         <v>7.2830026698965808E-2</v>
       </c>
-      <c r="N92" s="8">
+      <c r="N92" s="22">
         <f t="shared" si="41"/>
         <v>1.8349138668196617E-2</v>
       </c>
-      <c r="O92" s="8">
+      <c r="O92" s="22">
         <f t="shared" si="42"/>
         <v>2.3975734492026331E-3</v>
       </c>
-      <c r="P92" s="8">
+      <c r="P92" s="22">
         <f t="shared" si="43"/>
         <v>-1.4764939133279774E-2</v>
       </c>
@@ -7530,19 +7541,19 @@
         <f t="shared" si="39"/>
         <v>29.483569452303804</v>
       </c>
-      <c r="M93" s="8">
+      <c r="M93" s="22">
         <f t="shared" si="40"/>
         <v>-1.4597586660987405E-2</v>
       </c>
-      <c r="N93" s="8">
+      <c r="N93" s="22">
         <f t="shared" si="41"/>
         <v>4.5351551653913628E-3</v>
       </c>
-      <c r="O93" s="8">
+      <c r="O93" s="22">
         <f t="shared" si="42"/>
         <v>-5.3336952392955056E-3</v>
       </c>
-      <c r="P93" s="8">
+      <c r="P93" s="22">
         <f t="shared" si="43"/>
         <v>-1.072937865649491E-2</v>
       </c>
@@ -7606,19 +7617,19 @@
         <f t="shared" si="39"/>
         <v>29.701301654778888</v>
       </c>
-      <c r="M94" s="8">
+      <c r="M94" s="22">
         <f t="shared" si="40"/>
         <v>1.5083636287777698E-2</v>
       </c>
-      <c r="N94" s="8">
+      <c r="N94" s="22">
         <f t="shared" si="41"/>
         <v>6.5669103507857235E-2</v>
       </c>
-      <c r="O94" s="8">
+      <c r="O94" s="22">
         <f t="shared" si="42"/>
         <v>3.9944621461908934E-2</v>
       </c>
-      <c r="P94" s="8">
+      <c r="P94" s="22">
         <f t="shared" si="43"/>
         <v>9.1983661370084405E-3</v>
       </c>
@@ -7682,19 +7693,19 @@
         <f t="shared" si="39"/>
         <v>29.199555256662858</v>
       </c>
-      <c r="M95" s="8">
+      <c r="M95" s="22">
         <f t="shared" si="40"/>
         <v>7.5245698233062444E-2</v>
       </c>
-      <c r="N95" s="8">
+      <c r="N95" s="22">
         <f t="shared" si="41"/>
         <v>4.1499730906752838E-2</v>
       </c>
-      <c r="O95" s="8">
+      <c r="O95" s="22">
         <f t="shared" si="42"/>
         <v>3.0565109951221404E-2</v>
       </c>
-      <c r="P95" s="8">
+      <c r="P95" s="22">
         <f t="shared" si="43"/>
         <v>-1.5196758394871421E-2</v>
       </c>
@@ -7758,19 +7769,19 @@
         <f t="shared" si="39"/>
         <v>27.977926918669827</v>
       </c>
-      <c r="M96" s="8">
+      <c r="M96" s="22">
         <f t="shared" si="40"/>
         <v>-1.7518595478006632E-2</v>
       </c>
-      <c r="N96" s="8">
+      <c r="N96" s="22">
         <f t="shared" si="41"/>
         <v>3.593200922606337E-2</v>
       </c>
-      <c r="O96" s="8">
+      <c r="O96" s="22">
         <f t="shared" si="42"/>
         <v>-1.1614636046477712E-2</v>
       </c>
-      <c r="P96" s="8">
+      <c r="P96" s="22">
         <f t="shared" si="43"/>
         <v>-4.0896968279474512E-2</v>
       </c>
@@ -7834,19 +7845,19 @@
         <f t="shared" si="39"/>
         <v>27.346311330967453</v>
       </c>
-      <c r="M97" s="8">
+      <c r="M97" s="22">
         <f t="shared" si="40"/>
         <v>-1.447434983028143E-2</v>
       </c>
-      <c r="N97" s="8">
+      <c r="N97" s="22">
         <f t="shared" si="41"/>
         <v>3.9138993211363148E-3</v>
       </c>
-      <c r="O97" s="8">
+      <c r="O97" s="22">
         <f t="shared" si="42"/>
         <v>-3.1902577684107286E-2</v>
       </c>
-      <c r="P97" s="8">
+      <c r="P97" s="22">
         <f t="shared" si="43"/>
         <v>-2.0993589255839752E-2</v>
       </c>
@@ -7910,19 +7921,19 @@
         <f t="shared" si="39"/>
         <v>27.190979731539997</v>
       </c>
-      <c r="M98" s="8">
+      <c r="M98" s="22">
         <f t="shared" si="40"/>
         <v>-1.8597913167892444E-2</v>
       </c>
-      <c r="N98" s="8">
+      <c r="N98" s="22">
         <f t="shared" si="41"/>
         <v>-3.1748698314580298E-2</v>
       </c>
-      <c r="O98" s="8">
+      <c r="O98" s="22">
         <f t="shared" si="42"/>
         <v>4.6342479698413402E-3</v>
       </c>
-      <c r="P98" s="8">
+      <c r="P98" s="22">
         <f t="shared" si="43"/>
         <v>-3.8557249274237329E-3</v>
       </c>
@@ -7986,19 +7997,19 @@
         <f t="shared" si="39"/>
         <v>27.420215315087223</v>
       </c>
-      <c r="M99" s="8">
+      <c r="M99" s="22">
         <f t="shared" si="40"/>
         <v>8.8314096252547752E-3</v>
       </c>
-      <c r="N99" s="8">
+      <c r="N99" s="22">
         <f t="shared" si="41"/>
         <v>-2.4491020008295755E-2</v>
       </c>
-      <c r="O99" s="8">
+      <c r="O99" s="22">
         <f t="shared" si="42"/>
         <v>3.5268209230558352E-2</v>
       </c>
-      <c r="P99" s="8">
+      <c r="P99" s="22">
         <f t="shared" si="43"/>
         <v>1.0235870793595029E-2</v>
       </c>
@@ -8062,19 +8073,19 @@
         <f t="shared" si="39"/>
         <v>27.792758597132515</v>
       </c>
-      <c r="M100" s="8">
+      <c r="M100" s="22">
         <f t="shared" si="40"/>
         <v>1.2452033212410804E-2</v>
       </c>
-      <c r="N100" s="8">
+      <c r="N100" s="22">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O100" s="8">
+      <c r="O100" s="22">
         <f t="shared" si="42"/>
         <v>9.5213332215558771E-6</v>
       </c>
-      <c r="P100" s="8">
+      <c r="P100" s="22">
         <f t="shared" si="43"/>
         <v>1.533561305284541E-2</v>
       </c>
@@ -8138,19 +8149,19 @@
         <f t="shared" si="39"/>
         <v>28.208223021825166</v>
       </c>
-      <c r="M101" s="8">
+      <c r="M101" s="22">
         <f t="shared" si="40"/>
         <v>-1.5261383823780427E-2</v>
       </c>
-      <c r="N101" s="8">
+      <c r="N101" s="22">
         <f t="shared" si="41"/>
         <v>8.2304991365154435E-3</v>
       </c>
-      <c r="O101" s="8">
+      <c r="O101" s="22">
         <f t="shared" si="42"/>
         <v>-4.8904084626322083E-3</v>
       </c>
-      <c r="P101" s="8">
+      <c r="P101" s="22">
         <f t="shared" si="43"/>
         <v>1.6678662300601339E-2</v>
       </c>
@@ -8214,19 +8225,19 @@
         <f t="shared" si="39"/>
         <v>28.682035780094736</v>
       </c>
-      <c r="M102" s="8">
+      <c r="M102" s="22">
         <f t="shared" si="40"/>
         <v>-1.0881688998970681E-2</v>
       </c>
-      <c r="N102" s="8">
+      <c r="N102" s="22">
         <f t="shared" si="41"/>
         <v>8.1633106391608354E-3</v>
       </c>
-      <c r="O102" s="8">
+      <c r="O102" s="22">
         <f t="shared" si="42"/>
         <v>4.6900635842645443E-2</v>
       </c>
-      <c r="P102" s="8">
+      <c r="P102" s="22">
         <f t="shared" si="43"/>
         <v>1.8498098816748375E-2</v>
       </c>
@@ -8290,19 +8301,19 @@
         <f t="shared" si="39"/>
         <v>27.961123385552266</v>
       </c>
-      <c r="M103" s="8">
+      <c r="M103" s="22">
         <f t="shared" si="40"/>
         <v>1.1698974286526468E-2</v>
       </c>
-      <c r="N103" s="8">
+      <c r="N103" s="22">
         <f t="shared" si="41"/>
         <v>-4.0733253876357864E-3</v>
       </c>
-      <c r="O103" s="8">
+      <c r="O103" s="22">
         <f t="shared" si="42"/>
         <v>5.1036284584515396E-3</v>
       </c>
-      <c r="P103" s="8">
+      <c r="P103" s="22">
         <f t="shared" si="43"/>
         <v>-2.3615265921568609E-2</v>
       </c>
@@ -8366,19 +8377,19 @@
         <f t="shared" si="39"/>
         <v>27.08279896727198</v>
       </c>
-      <c r="M104" s="8">
+      <c r="M104" s="22">
         <f t="shared" si="40"/>
         <v>-9.2934960246930653E-3</v>
       </c>
-      <c r="N104" s="8">
+      <c r="N104" s="22">
         <f t="shared" si="41"/>
         <v>8.1301260832503091E-3</v>
       </c>
-      <c r="O104" s="8">
+      <c r="O104" s="22">
         <f t="shared" si="42"/>
         <v>4.7303273516339497E-3</v>
       </c>
-      <c r="P104" s="8">
+      <c r="P104" s="22">
         <f t="shared" si="43"/>
         <v>-2.9277447777322614E-2</v>
       </c>
@@ -8442,19 +8453,19 @@
         <f t="shared" si="39"/>
         <v>26.209446209336875</v>
       </c>
-      <c r="M105" s="8">
+      <c r="M105" s="22">
         <f t="shared" si="40"/>
         <v>1.5647188528488291E-2</v>
       </c>
-      <c r="N105" s="8">
+      <c r="N105" s="22">
         <f t="shared" si="41"/>
         <v>2.4001152099543045E-2</v>
       </c>
-      <c r="O105" s="8">
+      <c r="O105" s="22">
         <f t="shared" si="42"/>
         <v>-4.820273984338827E-2</v>
       </c>
-      <c r="P105" s="8">
+      <c r="P105" s="22">
         <f t="shared" si="43"/>
         <v>-3.0140068596093614E-2</v>
       </c>
@@ -8518,19 +8529,19 @@
         <f t="shared" si="39"/>
         <v>25.70325722682594</v>
       </c>
-      <c r="M106" s="8">
+      <c r="M106" s="22">
         <f t="shared" si="40"/>
         <v>2.5706017234355574E-2</v>
       </c>
-      <c r="N106" s="8">
+      <c r="N106" s="22">
         <f t="shared" si="41"/>
         <v>-7.9365495957363034E-3</v>
       </c>
-      <c r="O106" s="8">
+      <c r="O106" s="22">
         <f t="shared" si="42"/>
         <v>-3.5729092960663497E-2</v>
       </c>
-      <c r="P106" s="8">
+      <c r="P106" s="22">
         <f t="shared" si="43"/>
         <v>-1.6863318731238326E-2</v>
       </c>
@@ -8594,19 +8605,19 @@
         <f t="shared" si="39"/>
         <v>24.753983565628129</v>
       </c>
-      <c r="M107" s="8">
+      <c r="M107" s="22">
         <f t="shared" si="40"/>
         <v>8.246192220944604E-3</v>
       </c>
-      <c r="N107" s="8">
+      <c r="N107" s="22">
         <f t="shared" si="41"/>
         <v>-3.9920212695374498E-3</v>
       </c>
-      <c r="O107" s="8">
+      <c r="O107" s="22">
         <f t="shared" si="42"/>
         <v>-1.4484821380757804E-2</v>
       </c>
-      <c r="P107" s="8">
+      <c r="P107" s="22">
         <f t="shared" si="43"/>
         <v>-3.4992450820407743E-2</v>
       </c>
@@ -8670,19 +8681,19 @@
         <f t="shared" si="39"/>
         <v>25.152835958120406</v>
       </c>
-      <c r="M108" s="8">
+      <c r="M108" s="22">
         <f t="shared" si="40"/>
         <v>-5.9884453857574774E-3</v>
       </c>
-      <c r="N108" s="8">
+      <c r="N108" s="22">
         <f t="shared" si="41"/>
         <v>7.9681696491768813E-3</v>
       </c>
-      <c r="O108" s="8">
+      <c r="O108" s="22">
         <f t="shared" si="42"/>
         <v>1.0242279460195302E-2</v>
       </c>
-      <c r="P108" s="8">
+      <c r="P108" s="22">
         <f t="shared" si="43"/>
         <v>1.8623068916452563E-2</v>
       </c>
@@ -8746,19 +8757,19 @@
         <f t="shared" si="39"/>
         <v>26.425779316246466</v>
       </c>
-      <c r="M109" s="8">
+      <c r="M109" s="22">
         <f t="shared" si="40"/>
         <v>-1.5745613264590112E-2</v>
       </c>
-      <c r="N109" s="8">
+      <c r="N109" s="22">
         <f t="shared" si="41"/>
         <v>1.9646997383796421E-2</v>
       </c>
-      <c r="O109" s="8">
+      <c r="O109" s="22">
         <f t="shared" si="42"/>
         <v>3.7098740122802308E-2</v>
       </c>
-      <c r="P109" s="8">
+      <c r="P109" s="22">
         <f t="shared" si="43"/>
         <v>5.200821618906093E-2</v>
       </c>
@@ -8822,19 +8833,19 @@
         <f t="shared" si="39"/>
         <v>25.967550906470596</v>
       </c>
-      <c r="M110" s="8">
+      <c r="M110" s="22">
         <f t="shared" si="40"/>
         <v>-2.3138523838659637E-3</v>
       </c>
-      <c r="N110" s="8">
+      <c r="N110" s="22">
         <f t="shared" si="41"/>
         <v>7.7519768043179237E-3</v>
       </c>
-      <c r="O110" s="8">
+      <c r="O110" s="22">
         <f t="shared" si="42"/>
         <v>-2.0349348134609598E-2</v>
       </c>
-      <c r="P110" s="8">
+      <c r="P110" s="22">
         <f t="shared" si="43"/>
         <v>-1.4853461255544648E-2</v>
       </c>
@@ -8898,19 +8909,19 @@
         <f t="shared" si="39"/>
         <v>26.073889730679323</v>
       </c>
-      <c r="M111" s="8">
+      <c r="M111" s="22">
         <f t="shared" si="40"/>
         <v>-3.1635271200017079E-2</v>
       </c>
-      <c r="N111" s="8">
+      <c r="N111" s="22">
         <f t="shared" si="41"/>
         <v>-7.7519768043179359E-3</v>
       </c>
-      <c r="O111" s="8">
+      <c r="O111" s="22">
         <f t="shared" si="42"/>
         <v>1.4923104750506198E-2</v>
       </c>
-      <c r="P111" s="8">
+      <c r="P111" s="22">
         <f t="shared" si="43"/>
         <v>6.7255488144216989E-3</v>
       </c>
@@ -8974,19 +8985,19 @@
         <f t="shared" si="39"/>
         <v>26.106813734346591</v>
       </c>
-      <c r="M112" s="8">
+      <c r="M112" s="22">
         <f t="shared" si="40"/>
         <v>1.3210713606790055E-2</v>
       </c>
-      <c r="N112" s="8">
+      <c r="N112" s="22">
         <f t="shared" si="41"/>
         <v>-3.1623188430512185E-2</v>
       </c>
-      <c r="O112" s="8">
+      <c r="O112" s="22">
         <f t="shared" si="42"/>
         <v>2.3391193128041415E-2</v>
       </c>
-      <c r="P112" s="8">
+      <c r="P112" s="22">
         <f t="shared" si="43"/>
         <v>3.9007679192315757E-3</v>
       </c>
@@ -9050,19 +9061,19 @@
         <f t="shared" si="39"/>
         <v>27.208762103743144</v>
       </c>
-      <c r="M113" s="8">
+      <c r="M113" s="22">
         <f t="shared" si="40"/>
         <v>-2.2594321243214654E-2</v>
       </c>
-      <c r="N113" s="8">
+      <c r="N113" s="22">
         <f t="shared" si="41"/>
         <v>2.7724548014854768E-2</v>
       </c>
-      <c r="O113" s="8">
+      <c r="O113" s="22">
         <f t="shared" si="42"/>
         <v>-1.4327957764248379E-2</v>
       </c>
-      <c r="P113" s="8">
+      <c r="P113" s="22">
         <f t="shared" si="43"/>
         <v>4.3981559901315005E-2</v>
       </c>
@@ -9126,19 +9137,19 @@
         <f t="shared" si="39"/>
         <v>27.473893282616363</v>
       </c>
-      <c r="M114" s="8">
+      <c r="M114" s="22">
         <f t="shared" si="40"/>
         <v>-3.6035892792982277E-3</v>
       </c>
-      <c r="N114" s="8">
+      <c r="N114" s="22">
         <f t="shared" si="41"/>
         <v>1.9342962843130935E-2</v>
       </c>
-      <c r="O114" s="8">
+      <c r="O114" s="22">
         <f t="shared" si="42"/>
         <v>-1.5888832983229236E-2</v>
       </c>
-      <c r="P114" s="8">
+      <c r="P114" s="22">
         <f t="shared" si="43"/>
         <v>1.2336006180065648E-2</v>
       </c>
@@ -9202,19 +9213,19 @@
         <f t="shared" si="39"/>
         <v>26.984035550035145</v>
       </c>
-      <c r="M115" s="8">
+      <c r="M115" s="22">
         <f t="shared" si="40"/>
         <v>-2.0538492088048688E-2</v>
       </c>
-      <c r="N115" s="8">
+      <c r="N115" s="22">
         <f t="shared" si="41"/>
         <v>-3.8387763071657129E-3</v>
       </c>
-      <c r="O115" s="8">
+      <c r="O115" s="22">
         <f t="shared" si="42"/>
         <v>1.2146547491037203E-2</v>
       </c>
-      <c r="P115" s="8">
+      <c r="P115" s="22">
         <f t="shared" si="43"/>
         <v>-1.5351958200317928E-2</v>
       </c>
@@ -9278,19 +9289,19 @@
         <f t="shared" si="39"/>
         <v>26.516370474226228</v>
       </c>
-      <c r="M116" s="8">
+      <c r="M116" s="22">
         <f t="shared" si="40"/>
         <v>-2.9425446288257114E-2</v>
       </c>
-      <c r="N116" s="8">
+      <c r="N116" s="22">
         <f t="shared" si="41"/>
         <v>2.2814677766171264E-2</v>
       </c>
-      <c r="O116" s="8">
+      <c r="O116" s="22">
         <f t="shared" si="42"/>
         <v>-3.1893697093804414E-2</v>
       </c>
-      <c r="P116" s="8">
+      <c r="P116" s="22">
         <f t="shared" si="43"/>
         <v>-1.4844274018469871E-2</v>
       </c>
@@ -9354,19 +9365,19 @@
         <f t="shared" si="39"/>
         <v>26.379446193849084</v>
       </c>
-      <c r="M117" s="8">
+      <c r="M117" s="22">
         <f t="shared" si="40"/>
         <v>-4.6261950212971761E-2</v>
       </c>
-      <c r="N117" s="8">
+      <c r="N117" s="22">
         <f t="shared" si="41"/>
         <v>2.2305757514298186E-2</v>
       </c>
-      <c r="O117" s="8">
+      <c r="O117" s="22">
         <f t="shared" si="42"/>
         <v>3.4909752310958587E-2</v>
       </c>
-      <c r="P117" s="8">
+      <c r="P117" s="22">
         <f t="shared" si="43"/>
         <v>-2.5382971628491184E-3</v>
       </c>
@@ -9430,19 +9441,19 @@
         <f t="shared" si="39"/>
         <v>26.409968371151702</v>
       </c>
-      <c r="M118" s="8">
+      <c r="M118" s="22">
         <f t="shared" si="40"/>
         <v>2.3044282714662839E-2</v>
       </c>
-      <c r="N118" s="8">
+      <c r="N118" s="22">
         <f t="shared" si="41"/>
         <v>3.6697288889624017E-3</v>
       </c>
-      <c r="O118" s="8">
+      <c r="O118" s="22">
         <f t="shared" si="42"/>
         <v>-8.7354177421318652E-3</v>
       </c>
-      <c r="P118" s="8">
+      <c r="P118" s="22">
         <f t="shared" si="43"/>
         <v>3.7952202239648894E-3</v>
       </c>
@@ -9506,19 +9517,19 @@
         <f t="shared" si="39"/>
         <v>26.468580621122538</v>
       </c>
-      <c r="M119" s="8">
+      <c r="M119" s="22">
         <f t="shared" si="40"/>
         <v>-1.665913638619311E-2</v>
       </c>
-      <c r="N119" s="8">
+      <c r="N119" s="22">
         <f t="shared" si="41"/>
         <v>-7.352974305258806E-3</v>
       </c>
-      <c r="O119" s="8">
+      <c r="O119" s="22">
         <f t="shared" si="42"/>
         <v>2.135666811824442E-2</v>
       </c>
-      <c r="P119" s="8">
+      <c r="P119" s="22">
         <f t="shared" si="43"/>
         <v>4.8557091137688517E-3</v>
       </c>
@@ -9582,19 +9593,19 @@
         <f t="shared" si="39"/>
         <v>26.095640347700485</v>
       </c>
-      <c r="M120" s="8">
+      <c r="M120" s="22">
         <f t="shared" si="40"/>
         <v>1.3289906067993908E-2</v>
       </c>
-      <c r="N120" s="8">
+      <c r="N120" s="22">
         <f t="shared" si="41"/>
         <v>7.3529743052587332E-3</v>
       </c>
-      <c r="O120" s="8">
+      <c r="O120" s="22">
         <f t="shared" si="42"/>
         <v>7.53798967623979E-3</v>
       </c>
-      <c r="P120" s="8">
+      <c r="P120" s="22">
         <f t="shared" si="43"/>
         <v>-1.1551283556516113E-2</v>
       </c>
@@ -9658,19 +9669,19 @@
         <f t="shared" si="39"/>
         <v>25.412253767531411</v>
       </c>
-      <c r="M121" s="8">
+      <c r="M121" s="22">
         <f t="shared" si="40"/>
         <v>1.8854563779500594E-2</v>
       </c>
-      <c r="N121" s="8">
+      <c r="N121" s="22">
         <f t="shared" si="41"/>
         <v>2.8882874148785931E-2</v>
       </c>
-      <c r="O121" s="8">
+      <c r="O121" s="22">
         <f t="shared" si="42"/>
         <v>-1.4764087731339477E-2</v>
       </c>
-      <c r="P121" s="8">
+      <c r="P121" s="22">
         <f t="shared" si="43"/>
         <v>-2.4785977944631079E-2</v>
       </c>
@@ -9734,19 +9745,19 @@
         <f t="shared" si="39"/>
         <v>25.046654772896375</v>
       </c>
-      <c r="M122" s="8">
+      <c r="M122" s="22">
         <f t="shared" si="40"/>
         <v>1.3608215732451865E-3</v>
       </c>
-      <c r="N122" s="8">
+      <c r="N122" s="22">
         <f t="shared" si="41"/>
         <v>1.4134510934904716E-2</v>
       </c>
-      <c r="O122" s="8">
+      <c r="O122" s="22">
         <f t="shared" si="42"/>
         <v>2.0770083028382791E-2</v>
       </c>
-      <c r="P122" s="8">
+      <c r="P122" s="22">
         <f t="shared" si="43"/>
         <v>-1.2719550192606692E-2</v>
       </c>
@@ -9810,19 +9821,19 @@
         <f t="shared" si="39"/>
         <v>25.115670659640511</v>
       </c>
-      <c r="M123" s="8">
+      <c r="M123" s="22">
         <f t="shared" si="40"/>
         <v>-1.2449982553843159E-2</v>
       </c>
-      <c r="N123" s="8">
+      <c r="N123" s="22">
         <f t="shared" si="41"/>
         <v>-1.0582109330536972E-2</v>
       </c>
-      <c r="O123" s="8">
+      <c r="O123" s="22">
         <f t="shared" si="42"/>
         <v>1.3350455820303562E-2</v>
       </c>
-      <c r="P123" s="8">
+      <c r="P123" s="22">
         <f t="shared" si="43"/>
         <v>4.5233664600199449E-3</v>
       </c>
@@ -9886,19 +9897,19 @@
         <f t="shared" si="39"/>
         <v>24.995950764531969</v>
       </c>
-      <c r="M124" s="8">
+      <c r="M124" s="22">
         <f t="shared" si="40"/>
         <v>-2.9406399941557863E-2</v>
       </c>
-      <c r="N124" s="8">
+      <c r="N124" s="22">
         <f t="shared" si="41"/>
         <v>-1.0695289116747919E-2</v>
       </c>
-      <c r="O124" s="8">
+      <c r="O124" s="22">
         <f t="shared" si="42"/>
         <v>-1.8461473329249467E-2</v>
       </c>
-      <c r="P124" s="8">
+      <c r="P124" s="22">
         <f t="shared" si="43"/>
         <v>-3.0064753852979301E-3</v>
       </c>
@@ -9962,19 +9973,19 @@
         <f t="shared" si="39"/>
         <v>24.928195643437643</v>
       </c>
-      <c r="M125" s="8">
+      <c r="M125" s="22">
         <f t="shared" si="40"/>
         <v>-5.2049665495911536E-2</v>
       </c>
-      <c r="N125" s="8">
+      <c r="N125" s="22">
         <f t="shared" si="41"/>
         <v>1.7762456339840468E-2</v>
       </c>
-      <c r="O125" s="8">
+      <c r="O125" s="22">
         <f t="shared" si="42"/>
         <v>3.158807965503749E-3</v>
       </c>
-      <c r="P125" s="8">
+      <c r="P125" s="22">
         <f t="shared" si="43"/>
         <v>-9.4266165429607947E-4</v>
       </c>
@@ -10038,19 +10049,19 @@
         <f t="shared" si="39"/>
         <v>25.213647210199486</v>
       </c>
-      <c r="M126" s="8">
+      <c r="M126" s="22">
         <f t="shared" si="40"/>
         <v>-2.3151364974531196E-2</v>
       </c>
-      <c r="N126" s="8">
+      <c r="N126" s="22">
         <f t="shared" si="41"/>
         <v>1.398624197473987E-2</v>
       </c>
-      <c r="O126" s="8">
+      <c r="O126" s="22">
         <f t="shared" si="42"/>
         <v>1.6206838635886373E-2</v>
       </c>
-      <c r="P126" s="8">
+      <c r="P126" s="22">
         <f t="shared" si="43"/>
         <v>1.3157548569354204E-2</v>
       </c>
@@ -10114,19 +10125,19 @@
         <f t="shared" si="39"/>
         <v>26.125949609383362</v>
       </c>
-      <c r="M127" s="8">
+      <c r="M127" s="22">
         <f t="shared" si="40"/>
         <v>3.702807469114365E-2</v>
       </c>
-      <c r="N127" s="8">
+      <c r="N127" s="22">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O127" s="8">
+      <c r="O127" s="22">
         <f t="shared" si="42"/>
         <v>1.5487382137972494E-2</v>
       </c>
-      <c r="P127" s="8">
+      <c r="P127" s="22">
         <f t="shared" si="43"/>
         <v>3.7315317098194842E-2</v>
       </c>
@@ -10190,19 +10201,19 @@
         <f t="shared" si="39"/>
         <v>25.927191327075853</v>
       </c>
-      <c r="M128" s="8">
+      <c r="M128" s="22">
         <f t="shared" si="40"/>
         <v>-4.9113258760323528E-3</v>
       </c>
-      <c r="N128" s="8">
+      <c r="N128" s="22">
         <f t="shared" si="41"/>
         <v>1.7212128881121426E-2</v>
       </c>
-      <c r="O128" s="8">
+      <c r="O128" s="22">
         <f t="shared" si="42"/>
         <v>9.4732311603189148E-3</v>
       </c>
-      <c r="P128" s="8">
+      <c r="P128" s="22">
         <f t="shared" si="43"/>
         <v>-5.865119452397911E-3</v>
       </c>
@@ -10266,19 +10277,19 @@
         <f t="shared" si="39"/>
         <v>25.262176515379259</v>
       </c>
-      <c r="M129" s="8">
+      <c r="M129" s="22">
         <f t="shared" si="40"/>
         <v>-5.4914245214982274E-3</v>
       </c>
-      <c r="N129" s="8">
+      <c r="N129" s="22">
         <f t="shared" si="41"/>
         <v>2.3609865639133667E-2</v>
       </c>
-      <c r="O129" s="8">
+      <c r="O129" s="22">
         <f t="shared" si="42"/>
         <v>1.6188253108662475E-2</v>
       </c>
-      <c r="P129" s="8">
+      <c r="P129" s="22">
         <f t="shared" si="43"/>
         <v>-2.4212335784879944E-2</v>
       </c>
@@ -10342,19 +10353,19 @@
         <f t="shared" ref="L130:L193" si="55">+E130/G130</f>
         <v>24.872986944044015</v>
       </c>
-      <c r="M130" s="8">
+      <c r="M130" s="22">
         <f t="shared" si="40"/>
         <v>6.0089393843354433E-2</v>
       </c>
-      <c r="N130" s="8">
+      <c r="N130" s="22">
         <f t="shared" si="41"/>
         <v>-5.4808236494995027E-2</v>
       </c>
-      <c r="O130" s="8">
+      <c r="O130" s="22">
         <f t="shared" si="42"/>
         <v>-0.13098651716893242</v>
       </c>
-      <c r="P130" s="8">
+      <c r="P130" s="22">
         <f t="shared" si="43"/>
         <v>-1.3754262138971003E-2</v>
       </c>
@@ -10418,19 +10429,19 @@
         <f t="shared" si="55"/>
         <v>24.854243486578572</v>
       </c>
-      <c r="M131" s="8">
+      <c r="M131" s="22">
         <f t="shared" ref="M131:M194" si="56">+LN(B131/B130)</f>
         <v>6.1925164433188608E-2</v>
       </c>
-      <c r="N131" s="8">
+      <c r="N131" s="22">
         <f t="shared" ref="N131:N194" si="57">+LN(C131/C130)</f>
         <v>-1.7762456339840388E-2</v>
       </c>
-      <c r="O131" s="8">
+      <c r="O131" s="22">
         <f t="shared" ref="O131:O194" si="58">+LN(D131/D130)</f>
         <v>1.4043937529047713E-2</v>
       </c>
-      <c r="P131" s="8">
+      <c r="P131" s="22">
         <f t="shared" ref="P131:P194" si="59">+LN(E131/E130)</f>
         <v>1.0178117927006245E-3</v>
       </c>
@@ -10494,19 +10505,19 @@
         <f t="shared" si="55"/>
         <v>24.583095276286713</v>
       </c>
-      <c r="M132" s="8">
+      <c r="M132" s="22">
         <f t="shared" si="56"/>
         <v>5.0269680447920439E-3</v>
       </c>
-      <c r="N132" s="8">
+      <c r="N132" s="22">
         <f t="shared" si="57"/>
         <v>4.8960827195701703E-2</v>
       </c>
-      <c r="O132" s="8">
+      <c r="O132" s="22">
         <f t="shared" si="58"/>
         <v>-1.161676353382286E-3</v>
       </c>
-      <c r="P132" s="8">
+      <c r="P132" s="22">
         <f t="shared" si="59"/>
         <v>-9.1978165046312406E-3</v>
       </c>
@@ -10570,19 +10581,19 @@
         <f t="shared" si="55"/>
         <v>24.292673394350832</v>
       </c>
-      <c r="M133" s="8">
+      <c r="M133" s="22">
         <f t="shared" si="56"/>
         <v>-1.5869380412084893E-2</v>
       </c>
-      <c r="N133" s="8">
+      <c r="N133" s="22">
         <f t="shared" si="57"/>
         <v>-6.849341845574783E-3</v>
       </c>
-      <c r="O133" s="8">
+      <c r="O133" s="22">
         <f t="shared" si="58"/>
         <v>2.8127092129189373E-3</v>
       </c>
-      <c r="P133" s="8">
+      <c r="P133" s="22">
         <f t="shared" si="59"/>
         <v>-1.0112561671013364E-2</v>
       </c>
@@ -10646,19 +10657,19 @@
         <f t="shared" si="55"/>
         <v>23.641041992727757</v>
       </c>
-      <c r="M134" s="8">
+      <c r="M134" s="22">
         <f t="shared" si="56"/>
         <v>-2.759572653564316E-3</v>
       </c>
-      <c r="N134" s="8">
+      <c r="N134" s="22">
         <f t="shared" si="57"/>
         <v>-1.0362787035546547E-2</v>
       </c>
-      <c r="O134" s="8">
+      <c r="O134" s="22">
         <f t="shared" si="58"/>
         <v>2.4076520486621893E-2</v>
       </c>
-      <c r="P134" s="8">
+      <c r="P134" s="22">
         <f t="shared" si="59"/>
         <v>-2.5418866707472197E-2</v>
       </c>
@@ -10722,19 +10733,19 @@
         <f t="shared" si="55"/>
         <v>24.477888556528008</v>
       </c>
-      <c r="M135" s="8">
+      <c r="M135" s="22">
         <f t="shared" si="56"/>
         <v>6.2551892312363078E-2</v>
       </c>
-      <c r="N135" s="8">
+      <c r="N135" s="22">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O135" s="8">
+      <c r="O135" s="22">
         <f t="shared" si="58"/>
         <v>7.1918624675289125E-3</v>
       </c>
-      <c r="P135" s="8">
+      <c r="P135" s="22">
         <f t="shared" si="59"/>
         <v>3.6557595733797514E-2</v>
       </c>
@@ -10798,19 +10809,19 @@
         <f t="shared" si="55"/>
         <v>24.331809928641778</v>
       </c>
-      <c r="M136" s="8">
+      <c r="M136" s="22">
         <f t="shared" si="56"/>
         <v>-7.0809617174405299E-3</v>
       </c>
-      <c r="N136" s="8">
+      <c r="N136" s="22">
         <f t="shared" si="57"/>
         <v>3.4662079764863291E-3</v>
       </c>
-      <c r="O136" s="8">
+      <c r="O136" s="22">
         <f t="shared" si="58"/>
         <v>3.6841134403331727E-2</v>
       </c>
-      <c r="P136" s="8">
+      <c r="P136" s="22">
         <f t="shared" si="59"/>
         <v>-4.2139946217478446E-3</v>
       </c>
@@ -10874,19 +10885,19 @@
         <f t="shared" si="55"/>
         <v>23.941007826188923</v>
       </c>
-      <c r="M137" s="8">
+      <c r="M137" s="22">
         <f t="shared" si="56"/>
         <v>-2.4940181516589995E-2</v>
       </c>
-      <c r="N137" s="8">
+      <c r="N137" s="22">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O137" s="8">
+      <c r="O137" s="22">
         <f t="shared" si="58"/>
         <v>-1.7792700196624961E-2</v>
       </c>
-      <c r="P137" s="8">
+      <c r="P137" s="22">
         <f t="shared" si="59"/>
         <v>-1.4420084923145003E-2</v>
       </c>
@@ -10950,19 +10961,19 @@
         <f t="shared" si="55"/>
         <v>23.57898268921182</v>
       </c>
-      <c r="M138" s="8">
+      <c r="M138" s="22">
         <f t="shared" si="56"/>
         <v>-8.205587580048853E-3</v>
       </c>
-      <c r="N138" s="8">
+      <c r="N138" s="22">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O138" s="8">
+      <c r="O138" s="22">
         <f t="shared" si="58"/>
         <v>-2.14019828153399E-2</v>
       </c>
-      <c r="P138" s="8">
+      <c r="P138" s="22">
         <f t="shared" si="59"/>
         <v>-1.3465383340767936E-2</v>
       </c>
@@ -11026,19 +11037,19 @@
         <f t="shared" si="55"/>
         <v>23.881753966639803</v>
       </c>
-      <c r="M139" s="8">
+      <c r="M139" s="22">
         <f t="shared" si="56"/>
         <v>5.282806763193813E-3</v>
       </c>
-      <c r="N139" s="8">
+      <c r="N139" s="22">
         <f t="shared" si="57"/>
         <v>-6.9444723528110461E-3</v>
       </c>
-      <c r="O139" s="8">
+      <c r="O139" s="22">
         <f t="shared" si="58"/>
         <v>-1.5476534072030897E-2</v>
       </c>
-      <c r="P139" s="8">
+      <c r="P139" s="22">
         <f t="shared" si="59"/>
         <v>1.4530646467478769E-2</v>
       </c>
@@ -11102,19 +11113,19 @@
         <f t="shared" si="55"/>
         <v>23.913635678514062</v>
       </c>
-      <c r="M140" s="8">
+      <c r="M140" s="22">
         <f t="shared" si="56"/>
         <v>3.7204719305329266E-2</v>
       </c>
-      <c r="N140" s="8">
+      <c r="N140" s="22">
         <f t="shared" si="57"/>
         <v>-1.4035318116383481E-2</v>
       </c>
-      <c r="O140" s="8">
+      <c r="O140" s="22">
         <f t="shared" si="58"/>
         <v>-4.0272701205951576E-2</v>
       </c>
-      <c r="P140" s="8">
+      <c r="P140" s="22">
         <f t="shared" si="59"/>
         <v>3.1057543906272962E-3</v>
       </c>
@@ -11178,19 +11189,19 @@
         <f t="shared" si="55"/>
         <v>23.971163367749124</v>
       </c>
-      <c r="M141" s="8">
+      <c r="M141" s="22">
         <f t="shared" si="56"/>
         <v>-2.1805152864123319E-2</v>
       </c>
-      <c r="N141" s="8">
+      <c r="N141" s="22">
         <f t="shared" si="57"/>
         <v>-2.1429391455899165E-2</v>
       </c>
-      <c r="O141" s="8">
+      <c r="O141" s="22">
         <f t="shared" si="58"/>
         <v>-2.9867594949741567E-2</v>
       </c>
-      <c r="P141" s="8">
+      <c r="P141" s="22">
         <f t="shared" si="59"/>
         <v>4.1744175425266067E-3</v>
       </c>
@@ -11254,19 +11265,19 @@
         <f t="shared" si="55"/>
         <v>24.920080216993842</v>
       </c>
-      <c r="M142" s="8">
+      <c r="M142" s="22">
         <f t="shared" si="56"/>
         <v>-8.2904828116381959E-3</v>
       </c>
-      <c r="N142" s="8">
+      <c r="N142" s="22">
         <f t="shared" si="57"/>
         <v>-1.8215439891341216E-2</v>
       </c>
-      <c r="O142" s="8">
+      <c r="O142" s="22">
         <f t="shared" si="58"/>
         <v>1.7381525661830776E-2</v>
       </c>
-      <c r="P142" s="8">
+      <c r="P142" s="22">
         <f t="shared" si="59"/>
         <v>4.05939939803572E-2</v>
       </c>
@@ -11330,19 +11341,19 @@
         <f t="shared" si="55"/>
         <v>24.011873705148908</v>
       </c>
-      <c r="M143" s="8">
+      <c r="M143" s="22">
         <f t="shared" si="56"/>
         <v>-2.3519588949377675E-2</v>
       </c>
-      <c r="N143" s="8">
+      <c r="N143" s="22">
         <f t="shared" si="57"/>
         <v>1.4598799421152631E-2</v>
       </c>
-      <c r="O143" s="8">
+      <c r="O143" s="22">
         <f t="shared" si="58"/>
         <v>1.8428571909787042E-2</v>
       </c>
-      <c r="P143" s="8">
+      <c r="P143" s="22">
         <f t="shared" si="59"/>
         <v>-3.5240584682059921E-2</v>
       </c>
@@ -11406,19 +11417,19 @@
         <f t="shared" si="55"/>
         <v>23.220632205868466</v>
       </c>
-      <c r="M144" s="8">
+      <c r="M144" s="22">
         <f t="shared" si="56"/>
         <v>1.0424040712571206E-2</v>
       </c>
-      <c r="N144" s="8">
+      <c r="N144" s="22">
         <f t="shared" si="57"/>
         <v>1.0810916104215676E-2</v>
       </c>
-      <c r="O144" s="8">
+      <c r="O144" s="22">
         <f t="shared" si="58"/>
         <v>-2.9747497839458459E-2</v>
       </c>
-      <c r="P144" s="8">
+      <c r="P144" s="22">
         <f t="shared" si="59"/>
         <v>-3.1622360547066568E-2</v>
       </c>
@@ -11482,19 +11493,19 @@
         <f t="shared" si="55"/>
         <v>23.068417624110115</v>
       </c>
-      <c r="M145" s="8">
+      <c r="M145" s="22">
         <f t="shared" si="56"/>
         <v>-0.11932263820068142</v>
       </c>
-      <c r="N145" s="8">
+      <c r="N145" s="22">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O145" s="8">
+      <c r="O145" s="22">
         <f t="shared" si="58"/>
         <v>-2.2812063031619246E-2</v>
       </c>
-      <c r="P145" s="8">
+      <c r="P145" s="22">
         <f t="shared" si="59"/>
         <v>-4.6918405540257047E-3</v>
       </c>
@@ -11558,19 +11569,19 @@
         <f t="shared" si="55"/>
         <v>23.52701829660246</v>
       </c>
-      <c r="M146" s="8">
+      <c r="M146" s="22">
         <f t="shared" si="56"/>
         <v>-7.2376262468224942E-2</v>
       </c>
-      <c r="N146" s="8">
+      <c r="N146" s="22">
         <f t="shared" si="57"/>
         <v>-1.8083675433295351E-2</v>
       </c>
-      <c r="O146" s="8">
+      <c r="O146" s="22">
         <f t="shared" si="58"/>
         <v>2.5746237943746725E-2</v>
       </c>
-      <c r="P146" s="8">
+      <c r="P146" s="22">
         <f t="shared" si="59"/>
         <v>2.1569878341377351E-2</v>
       </c>
@@ -11634,19 +11645,19 @@
         <f t="shared" si="55"/>
         <v>23.590793837309992</v>
       </c>
-      <c r="M147" s="8">
+      <c r="M147" s="22">
         <f t="shared" si="56"/>
         <v>3.6460557331974827E-2</v>
       </c>
-      <c r="N147" s="8">
+      <c r="N147" s="22">
         <f t="shared" si="57"/>
         <v>7.2727593290798781E-3</v>
       </c>
-      <c r="O147" s="8">
+      <c r="O147" s="22">
         <f t="shared" si="58"/>
         <v>-3.7187319654784171E-3</v>
       </c>
-      <c r="P147" s="8">
+      <c r="P147" s="22">
         <f t="shared" si="59"/>
         <v>4.5919512956969976E-3</v>
       </c>
@@ -11710,19 +11721,19 @@
         <f t="shared" si="55"/>
         <v>23.928838990988432</v>
       </c>
-      <c r="M148" s="8">
+      <c r="M148" s="22">
         <f t="shared" si="56"/>
         <v>-1.5485468206829301E-2</v>
       </c>
-      <c r="N148" s="8">
+      <c r="N148" s="22">
         <f t="shared" si="57"/>
         <v>-3.6297680505787237E-3</v>
       </c>
-      <c r="O148" s="8">
+      <c r="O148" s="22">
         <f t="shared" si="58"/>
         <v>5.2454139482314706E-2</v>
       </c>
-      <c r="P148" s="8">
+      <c r="P148" s="22">
         <f t="shared" si="59"/>
         <v>1.6112722065994216E-2</v>
       </c>
@@ -11786,19 +11797,19 @@
         <f t="shared" si="55"/>
         <v>23.825047818915507</v>
       </c>
-      <c r="M149" s="8">
+      <c r="M149" s="22">
         <f t="shared" si="56"/>
         <v>0.11570927082127064</v>
       </c>
-      <c r="N149" s="8">
+      <c r="N149" s="22">
         <f t="shared" si="57"/>
         <v>-1.4652276786870375E-2</v>
       </c>
-      <c r="O149" s="8">
+      <c r="O149" s="22">
         <f t="shared" si="58"/>
         <v>3.4380165273451321E-2</v>
       </c>
-      <c r="P149" s="8">
+      <c r="P149" s="22">
         <f t="shared" si="59"/>
         <v>-2.4620447397749276E-3</v>
       </c>
@@ -11862,19 +11873,19 @@
         <f t="shared" si="55"/>
         <v>24.034202728259075</v>
       </c>
-      <c r="M150" s="8">
+      <c r="M150" s="22">
         <f t="shared" si="56"/>
         <v>-5.064424479826217E-2</v>
       </c>
-      <c r="N150" s="8">
+      <c r="N150" s="22">
         <f t="shared" si="57"/>
         <v>-3.6968618813260916E-3</v>
       </c>
-      <c r="O150" s="8">
+      <c r="O150" s="22">
         <f t="shared" si="58"/>
         <v>3.1582540119700388E-3</v>
       </c>
-      <c r="P150" s="8">
+      <c r="P150" s="22">
         <f t="shared" si="59"/>
         <v>1.0625355378936246E-2</v>
       </c>
@@ -11938,19 +11949,19 @@
         <f t="shared" si="55"/>
         <v>23.940185731900883</v>
       </c>
-      <c r="M151" s="8">
+      <c r="M151" s="22">
         <f t="shared" si="56"/>
         <v>9.2395058850468243E-3</v>
       </c>
-      <c r="N151" s="8">
+      <c r="N151" s="22">
         <f t="shared" si="57"/>
         <v>3.6968618813262026E-3</v>
       </c>
-      <c r="O151" s="8">
+      <c r="O151" s="22">
         <f t="shared" si="58"/>
         <v>1.755485733173616E-3</v>
       </c>
-      <c r="P151" s="8">
+      <c r="P151" s="22">
         <f t="shared" si="59"/>
         <v>-2.0345886977875742E-3</v>
       </c>
@@ -12014,19 +12025,19 @@
         <f t="shared" si="55"/>
         <v>24.260100289193662</v>
       </c>
-      <c r="M152" s="8">
+      <c r="M152" s="22">
         <f t="shared" si="56"/>
         <v>2.0861703823796863E-2</v>
       </c>
-      <c r="N152" s="8">
+      <c r="N152" s="22">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O152" s="8">
+      <c r="O152" s="22">
         <f t="shared" si="58"/>
         <v>9.7613878151020187E-3</v>
       </c>
-      <c r="P152" s="8">
+      <c r="P152" s="22">
         <f t="shared" si="59"/>
         <v>1.5159461607372518E-2</v>
       </c>
@@ -12090,19 +12101,19 @@
         <f t="shared" si="55"/>
         <v>24.428143963477552</v>
       </c>
-      <c r="M153" s="8">
+      <c r="M153" s="22">
         <f t="shared" si="56"/>
         <v>-3.1207876158552788E-2</v>
       </c>
-      <c r="N153" s="8">
+      <c r="N153" s="22">
         <f t="shared" si="57"/>
         <v>-3.6968618813260916E-3</v>
       </c>
-      <c r="O153" s="8">
+      <c r="O153" s="22">
         <f t="shared" si="58"/>
         <v>2.2494207722814442E-2</v>
       </c>
-      <c r="P153" s="8">
+      <c r="P153" s="22">
         <f t="shared" si="59"/>
         <v>8.7877537760259385E-3</v>
       </c>
@@ -12166,19 +12177,19 @@
         <f t="shared" si="55"/>
         <v>24.217300662292942</v>
       </c>
-      <c r="M154" s="8">
+      <c r="M154" s="22">
         <f t="shared" si="56"/>
         <v>-1.9166024418177777E-2</v>
       </c>
-      <c r="N154" s="8">
+      <c r="N154" s="22">
         <f t="shared" si="57"/>
         <v>-3.7105793965356015E-3</v>
       </c>
-      <c r="O154" s="8">
+      <c r="O154" s="22">
         <f t="shared" si="58"/>
         <v>3.3125062196803249E-3</v>
       </c>
-      <c r="P154" s="8">
+      <c r="P154" s="22">
         <f t="shared" si="59"/>
         <v>-6.7837450893107271E-3</v>
       </c>
@@ -12242,19 +12253,19 @@
         <f t="shared" si="55"/>
         <v>24.287837173991843</v>
       </c>
-      <c r="M155" s="8">
+      <c r="M155" s="22">
         <f t="shared" si="56"/>
         <v>1.4030212970604158E-2</v>
       </c>
-      <c r="N155" s="8">
+      <c r="N155" s="22">
         <f t="shared" si="57"/>
         <v>3.7105793965355534E-3</v>
       </c>
-      <c r="O155" s="8">
+      <c r="O155" s="22">
         <f t="shared" si="58"/>
         <v>4.6850077406721613E-3</v>
       </c>
-      <c r="P155" s="8">
+      <c r="P155" s="22">
         <f t="shared" si="59"/>
         <v>4.7932985722795741E-3</v>
       </c>
@@ -12318,19 +12329,19 @@
         <f t="shared" si="55"/>
         <v>24.266250901846789</v>
       </c>
-      <c r="M156" s="8">
+      <c r="M156" s="22">
         <f t="shared" si="56"/>
         <v>1.9263723704837948E-2</v>
       </c>
-      <c r="N156" s="8">
+      <c r="N156" s="22">
         <f t="shared" si="57"/>
         <v>3.6968618813262026E-3</v>
       </c>
-      <c r="O156" s="8">
+      <c r="O156" s="22">
         <f t="shared" si="58"/>
         <v>1.3268356701865006E-3</v>
       </c>
-      <c r="P156" s="8">
+      <c r="P156" s="22">
         <f t="shared" si="59"/>
         <v>9.9571849310114177E-4</v>
       </c>
@@ -12394,19 +12405,19 @@
         <f t="shared" si="55"/>
         <v>23.960222551699463</v>
       </c>
-      <c r="M157" s="8">
+      <c r="M157" s="22">
         <f t="shared" si="56"/>
         <v>-8.6791019811486986E-3</v>
       </c>
-      <c r="N157" s="8">
+      <c r="N157" s="22">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O157" s="8">
+      <c r="O157" s="22">
         <f t="shared" si="58"/>
         <v>-2.329071434479129E-2</v>
       </c>
-      <c r="P157" s="8">
+      <c r="P157" s="22">
         <f t="shared" si="59"/>
         <v>-1.0806589057360177E-2</v>
       </c>
@@ -12470,19 +12481,19 @@
         <f t="shared" si="55"/>
         <v>23.818865045126742</v>
       </c>
-      <c r="M158" s="8">
+      <c r="M158" s="22">
         <f t="shared" si="56"/>
         <v>3.4686972487494874E-2</v>
       </c>
-      <c r="N158" s="8">
+      <c r="N158" s="22">
         <f t="shared" si="57"/>
         <v>-3.6968618813260916E-3</v>
       </c>
-      <c r="O158" s="8">
+      <c r="O158" s="22">
         <f t="shared" si="58"/>
         <v>-2.7299373215512575E-2</v>
       </c>
-      <c r="P158" s="8">
+      <c r="P158" s="22">
         <f t="shared" si="59"/>
         <v>-4.032263527938563E-3</v>
       </c>
@@ -12546,19 +12557,19 @@
         <f t="shared" si="55"/>
         <v>24.124618203713037</v>
       </c>
-      <c r="M159" s="8">
+      <c r="M159" s="22">
         <f t="shared" si="56"/>
         <v>-1.2460181341082262E-2</v>
       </c>
-      <c r="N159" s="8">
+      <c r="N159" s="22">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O159" s="8">
+      <c r="O159" s="22">
         <f t="shared" si="58"/>
         <v>1.8558262994459236E-2</v>
       </c>
-      <c r="P159" s="8">
+      <c r="P159" s="22">
         <f t="shared" si="59"/>
         <v>1.4639788187308711E-2</v>
       </c>
@@ -12622,19 +12633,19 @@
         <f t="shared" si="55"/>
         <v>24.280527988813091</v>
       </c>
-      <c r="M160" s="8">
+      <c r="M160" s="22">
         <f t="shared" si="56"/>
         <v>6.2245059183102233E-2</v>
       </c>
-      <c r="N160" s="8">
+      <c r="N160" s="22">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O160" s="8">
+      <c r="O160" s="22">
         <f t="shared" si="58"/>
         <v>-8.7281844520301268E-3</v>
       </c>
-      <c r="P160" s="8">
+      <c r="P160" s="22">
         <f t="shared" si="59"/>
         <v>8.3267729327391373E-3</v>
       </c>
@@ -12698,19 +12709,19 @@
         <f t="shared" si="55"/>
         <v>24.459688831901278</v>
       </c>
-      <c r="M161" s="8">
+      <c r="M161" s="22">
         <f t="shared" si="56"/>
         <v>-2.1122679106657882E-2</v>
       </c>
-      <c r="N161" s="8">
+      <c r="N161" s="22">
         <f t="shared" si="57"/>
         <v>-7.4349784875180902E-3</v>
       </c>
-      <c r="O161" s="8">
+      <c r="O161" s="22">
         <f t="shared" si="58"/>
         <v>1.4416354505656551E-2</v>
       </c>
-      <c r="P161" s="8">
+      <c r="P161" s="22">
         <f t="shared" si="59"/>
         <v>9.2365793745868875E-3</v>
       </c>
@@ -12774,19 +12785,19 @@
         <f t="shared" si="55"/>
         <v>24.991494237884009</v>
       </c>
-      <c r="M162" s="8">
+      <c r="M162" s="22">
         <f t="shared" si="56"/>
         <v>-5.5482568383918074E-2</v>
       </c>
-      <c r="N162" s="8">
+      <c r="N162" s="22">
         <f t="shared" si="57"/>
         <v>-7.4906717291576257E-3</v>
       </c>
-      <c r="O162" s="8">
+      <c r="O162" s="22">
         <f t="shared" si="58"/>
         <v>8.7222653050226162E-4</v>
       </c>
-      <c r="P162" s="8">
+      <c r="P162" s="22">
         <f t="shared" si="59"/>
         <v>2.3394010314837226E-2</v>
       </c>
@@ -12850,19 +12861,19 @@
         <f t="shared" si="55"/>
         <v>25.649912418227064</v>
       </c>
-      <c r="M163" s="8">
+      <c r="M163" s="22">
         <f t="shared" si="56"/>
         <v>-8.6259439971546926E-3</v>
       </c>
-      <c r="N163" s="8">
+      <c r="N163" s="22">
         <f t="shared" si="57"/>
         <v>-1.1342276603934495E-2</v>
       </c>
-      <c r="O163" s="8">
+      <c r="O163" s="22">
         <f t="shared" si="58"/>
         <v>2.5995164265286405E-2</v>
       </c>
-      <c r="P163" s="8">
+      <c r="P163" s="22">
         <f t="shared" si="59"/>
         <v>2.7889503117212E-2</v>
       </c>
@@ -12926,19 +12937,19 @@
         <f t="shared" si="55"/>
         <v>25.882319866888913</v>
       </c>
-      <c r="M164" s="8">
+      <c r="M164" s="22">
         <f t="shared" si="56"/>
         <v>5.6820635756649482E-3</v>
       </c>
-      <c r="N164" s="8">
+      <c r="N164" s="22">
         <f t="shared" si="57"/>
         <v>-7.633624855071095E-3</v>
       </c>
-      <c r="O164" s="8">
+      <c r="O164" s="22">
         <f t="shared" si="58"/>
         <v>3.4002953400263179E-2</v>
       </c>
-      <c r="P164" s="8">
+      <c r="P164" s="22">
         <f t="shared" si="59"/>
         <v>1.0904830360568538E-2</v>
       </c>
@@ -13002,19 +13013,19 @@
         <f t="shared" si="55"/>
         <v>26.04825014623621</v>
       </c>
-      <c r="M165" s="8">
+      <c r="M165" s="22">
         <f t="shared" si="56"/>
         <v>-3.4171354037669383E-2</v>
       </c>
-      <c r="N165" s="8">
+      <c r="N165" s="22">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O165" s="8">
+      <c r="O165" s="22">
         <f t="shared" si="58"/>
         <v>2.1466396700622455E-2</v>
       </c>
-      <c r="P165" s="8">
+      <c r="P165" s="22">
         <f t="shared" si="59"/>
         <v>8.0557008322168899E-3</v>
       </c>
@@ -13078,19 +13089,19 @@
         <f t="shared" si="55"/>
         <v>25.70142490252227</v>
       </c>
-      <c r="M166" s="8">
+      <c r="M166" s="22">
         <f t="shared" si="56"/>
         <v>3.0071289319904396E-2</v>
       </c>
-      <c r="N166" s="8">
+      <c r="N166" s="22">
         <f t="shared" si="57"/>
         <v>3.8240964384034758E-3</v>
       </c>
-      <c r="O166" s="8">
+      <c r="O166" s="22">
         <f t="shared" si="58"/>
         <v>-1.1220471601412058E-2</v>
       </c>
-      <c r="P166" s="8">
+      <c r="P166" s="22">
         <f t="shared" si="59"/>
         <v>-1.1738946248513125E-2</v>
       </c>
@@ -13154,19 +13165,19 @@
         <f t="shared" si="55"/>
         <v>25.900099772261857</v>
       </c>
-      <c r="M167" s="8">
+      <c r="M167" s="22">
         <f t="shared" si="56"/>
         <v>-2.7514792519953923E-2</v>
       </c>
-      <c r="N167" s="8">
+      <c r="N167" s="22">
         <f t="shared" si="57"/>
         <v>-3.8240964384033942E-3</v>
       </c>
-      <c r="O167" s="8">
+      <c r="O167" s="22">
         <f t="shared" si="58"/>
         <v>3.4920933638154454E-2</v>
       </c>
-      <c r="P167" s="8">
+      <c r="P167" s="22">
         <f t="shared" si="59"/>
         <v>9.3655996301339577E-3</v>
       </c>
@@ -13230,19 +13241,19 @@
         <f t="shared" si="55"/>
         <v>26.13112572783162</v>
       </c>
-      <c r="M168" s="8">
+      <c r="M168" s="22">
         <f t="shared" si="56"/>
         <v>8.3695604838183446E-3</v>
       </c>
-      <c r="N168" s="8">
+      <c r="N168" s="22">
         <f t="shared" si="57"/>
         <v>-3.1130918595173213E-2</v>
       </c>
-      <c r="O168" s="8">
+      <c r="O168" s="22">
         <f t="shared" si="58"/>
         <v>-1.7660045954279311E-2</v>
       </c>
-      <c r="P168" s="8">
+      <c r="P168" s="22">
         <f t="shared" si="59"/>
         <v>1.0545552274106994E-2</v>
       </c>
@@ -13306,19 +13317,19 @@
         <f t="shared" si="55"/>
         <v>25.983844787682298</v>
       </c>
-      <c r="M169" s="8">
+      <c r="M169" s="22">
         <f t="shared" si="56"/>
         <v>-3.2520166880651201E-2</v>
       </c>
-      <c r="N169" s="8">
+      <c r="N169" s="22">
         <f t="shared" si="57"/>
         <v>-1.9960742562538058E-2</v>
       </c>
-      <c r="O169" s="8">
+      <c r="O169" s="22">
         <f t="shared" si="58"/>
         <v>-2.5120523430888903E-2</v>
       </c>
-      <c r="P169" s="8">
+      <c r="P169" s="22">
         <f t="shared" si="59"/>
         <v>-3.9869570754514196E-3</v>
       </c>
@@ -13382,19 +13393,19 @@
         <f t="shared" si="55"/>
         <v>26.670736529772611</v>
       </c>
-      <c r="M170" s="8">
+      <c r="M170" s="22">
         <f t="shared" si="56"/>
         <v>-2.4161634087901448E-2</v>
       </c>
-      <c r="N170" s="8">
+      <c r="N170" s="22">
         <f t="shared" si="57"/>
         <v>1.9960742562538152E-2</v>
       </c>
-      <c r="O170" s="8">
+      <c r="O170" s="22">
         <f t="shared" si="58"/>
         <v>9.7611514796592073E-3</v>
       </c>
-      <c r="P170" s="8">
+      <c r="P170" s="22">
         <f t="shared" si="59"/>
         <v>2.7757176409363257E-2</v>
       </c>
@@ -13458,19 +13469,19 @@
         <f t="shared" si="55"/>
         <v>26.447660626828501</v>
       </c>
-      <c r="M171" s="8">
+      <c r="M171" s="22">
         <f t="shared" si="56"/>
         <v>4.0360993094607653E-2</v>
       </c>
-      <c r="N171" s="8">
+      <c r="N171" s="22">
         <f t="shared" si="57"/>
         <v>3.9447782910163251E-3</v>
       </c>
-      <c r="O171" s="8">
+      <c r="O171" s="22">
         <f t="shared" si="58"/>
         <v>-3.2289379322584869E-2</v>
       </c>
-      <c r="P171" s="8">
+      <c r="P171" s="22">
         <f t="shared" si="59"/>
         <v>-6.7340321813439564E-3</v>
       </c>
@@ -13534,19 +13545,19 @@
         <f t="shared" si="55"/>
         <v>26.27220138994096</v>
       </c>
-      <c r="M172" s="8">
+      <c r="M172" s="22">
         <f t="shared" si="56"/>
         <v>1.0029325919728663E-2</v>
       </c>
-      <c r="N172" s="8">
+      <c r="N172" s="22">
         <f t="shared" si="57"/>
         <v>7.8431774610258787E-3</v>
       </c>
-      <c r="O172" s="8">
+      <c r="O172" s="22">
         <f t="shared" si="58"/>
         <v>4.6891440232826063E-2</v>
       </c>
-      <c r="P172" s="8">
+      <c r="P172" s="22">
         <f t="shared" si="59"/>
         <v>-4.991097705129087E-3</v>
       </c>
@@ -13610,19 +13621,19 @@
         <f t="shared" si="55"/>
         <v>26.167557904258445</v>
       </c>
-      <c r="M173" s="8">
+      <c r="M173" s="22">
         <f t="shared" si="56"/>
         <v>-4.2153948974877741E-3</v>
       </c>
-      <c r="N173" s="8">
+      <c r="N173" s="22">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O173" s="8">
+      <c r="O173" s="22">
         <f t="shared" si="58"/>
         <v>1.4591290656035164E-2</v>
       </c>
-      <c r="P173" s="8">
+      <c r="P173" s="22">
         <f t="shared" si="59"/>
         <v>-2.3257904750112637E-3</v>
       </c>
@@ -13686,19 +13697,19 @@
         <f t="shared" si="55"/>
         <v>26.460922606570435</v>
       </c>
-      <c r="M174" s="8">
+      <c r="M174" s="22">
         <f t="shared" si="56"/>
         <v>1.2558738956277236E-2</v>
       </c>
-      <c r="N174" s="8">
+      <c r="N174" s="22">
         <f t="shared" si="57"/>
         <v>-7.8431774610258926E-3</v>
       </c>
-      <c r="O174" s="8">
+      <c r="O174" s="22">
         <f t="shared" si="58"/>
         <v>1.5342579026297442E-2</v>
       </c>
-      <c r="P174" s="8">
+      <c r="P174" s="22">
         <f t="shared" si="59"/>
         <v>1.2813843239860234E-2</v>
       </c>
@@ -13762,19 +13773,19 @@
         <f t="shared" si="55"/>
         <v>26.972795526303486</v>
       </c>
-      <c r="M175" s="8">
+      <c r="M175" s="22">
         <f t="shared" si="56"/>
         <v>1.8886249735710188E-2</v>
       </c>
-      <c r="N175" s="8">
+      <c r="N175" s="22">
         <f t="shared" si="57"/>
         <v>3.929278139889557E-3</v>
       </c>
-      <c r="O175" s="8">
+      <c r="O175" s="22">
         <f t="shared" si="58"/>
         <v>-2.6781354978460989E-3</v>
       </c>
-      <c r="P175" s="8">
+      <c r="P175" s="22">
         <f t="shared" si="59"/>
         <v>2.082497167265962E-2</v>
       </c>
@@ -13838,19 +13849,19 @@
         <f t="shared" si="55"/>
         <v>26.90926285743193</v>
       </c>
-      <c r="M176" s="8">
+      <c r="M176" s="22">
         <f t="shared" si="56"/>
         <v>-1.709509165809547E-2</v>
       </c>
-      <c r="N176" s="8">
+      <c r="N176" s="22">
         <f t="shared" si="57"/>
         <v>-3.9292781398895501E-3</v>
       </c>
-      <c r="O176" s="8">
+      <c r="O176" s="22">
         <f t="shared" si="58"/>
         <v>2.3475179483524352E-4</v>
       </c>
-      <c r="P176" s="8">
+      <c r="P176" s="22">
         <f t="shared" si="59"/>
         <v>-6.9300072073520268E-4</v>
       </c>
@@ -13914,19 +13925,19 @@
         <f t="shared" si="55"/>
         <v>27.027446679096393</v>
       </c>
-      <c r="M177" s="8">
+      <c r="M177" s="22">
         <f t="shared" si="56"/>
         <v>3.5538060616005396E-2</v>
       </c>
-      <c r="N177" s="8">
+      <c r="N177" s="22">
         <f t="shared" si="57"/>
         <v>-7.9051795071132611E-3</v>
       </c>
-      <c r="O177" s="8">
+      <c r="O177" s="22">
         <f t="shared" si="58"/>
         <v>9.9265610125779248E-4</v>
       </c>
-      <c r="P177" s="8">
+      <c r="P177" s="22">
         <f t="shared" si="59"/>
         <v>6.0475346298465762E-3</v>
       </c>
@@ -13990,19 +14001,19 @@
         <f t="shared" si="55"/>
         <v>27.196292319752715</v>
       </c>
-      <c r="M178" s="8">
+      <c r="M178" s="22">
         <f t="shared" si="56"/>
         <v>1.8453278024043066E-2</v>
       </c>
-      <c r="N178" s="8">
+      <c r="N178" s="22">
         <f t="shared" si="57"/>
         <v>-1.6000341346441189E-2</v>
       </c>
-      <c r="O178" s="8">
+      <c r="O178" s="22">
         <f t="shared" si="58"/>
         <v>1.7451520845108644E-2</v>
       </c>
-      <c r="P178" s="8">
+      <c r="P178" s="22">
         <f t="shared" si="59"/>
         <v>7.8929716562444116E-3</v>
       </c>
@@ -14066,19 +14077,19 @@
         <f t="shared" si="55"/>
         <v>27.016470485240639</v>
       </c>
-      <c r="M179" s="8">
+      <c r="M179" s="22">
         <f t="shared" si="56"/>
         <v>2.453550863417632E-2</v>
       </c>
-      <c r="N179" s="8">
+      <c r="N179" s="22">
         <f t="shared" si="57"/>
         <v>8.0321716972642527E-3</v>
       </c>
-      <c r="O179" s="8">
+      <c r="O179" s="22">
         <f t="shared" si="58"/>
         <v>-1.3147326940945919E-2</v>
       </c>
-      <c r="P179" s="8">
+      <c r="P179" s="22">
         <f t="shared" si="59"/>
         <v>-4.9687414826675939E-3</v>
       </c>
@@ -14142,19 +14153,19 @@
         <f t="shared" si="55"/>
         <v>26.97151975042458</v>
       </c>
-      <c r="M180" s="8">
+      <c r="M180" s="22">
         <f t="shared" si="56"/>
         <v>9.7365366717193629E-3</v>
       </c>
-      <c r="N180" s="8">
+      <c r="N180" s="22">
         <f t="shared" si="57"/>
         <v>-4.0080213975388218E-3</v>
       </c>
-      <c r="O180" s="8">
+      <c r="O180" s="22">
         <f t="shared" si="58"/>
         <v>-1.810108085477562E-2</v>
       </c>
-      <c r="P180" s="8">
+      <c r="P180" s="22">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
@@ -14218,19 +14229,19 @@
         <f t="shared" si="55"/>
         <v>26.931268787617583</v>
       </c>
-      <c r="M181" s="8">
+      <c r="M181" s="22">
         <f t="shared" si="56"/>
         <v>-4.0276435769673411E-3</v>
       </c>
-      <c r="N181" s="8">
+      <c r="N181" s="22">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O181" s="8">
+      <c r="O181" s="22">
         <f t="shared" si="58"/>
         <v>-8.729692687153956E-3</v>
       </c>
-      <c r="P181" s="8">
+      <c r="P181" s="22">
         <f t="shared" si="59"/>
         <v>1.717475315512285E-4</v>
       </c>
@@ -14294,19 +14305,19 @@
         <f t="shared" si="55"/>
         <v>26.784879508711626</v>
       </c>
-      <c r="M182" s="8">
+      <c r="M182" s="22">
         <f t="shared" si="56"/>
         <v>1.5778284086999279E-2</v>
       </c>
-      <c r="N182" s="8">
+      <c r="N182" s="22">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O182" s="8">
+      <c r="O182" s="22">
         <f t="shared" si="58"/>
         <v>-1.735678249670668E-2</v>
       </c>
-      <c r="P182" s="8">
+      <c r="P182" s="22">
         <f t="shared" si="59"/>
         <v>-3.7852763710555779E-3</v>
       </c>
@@ -14370,19 +14381,19 @@
         <f t="shared" si="55"/>
         <v>26.528272306943904</v>
       </c>
-      <c r="M183" s="8">
+      <c r="M183" s="22">
         <f t="shared" si="56"/>
         <v>-1.8547552735211931E-2</v>
       </c>
-      <c r="N183" s="8">
+      <c r="N183" s="22">
         <f t="shared" si="57"/>
         <v>-2.0284671171505776E-2</v>
       </c>
-      <c r="O183" s="8">
+      <c r="O183" s="22">
         <f t="shared" si="58"/>
         <v>-1.6452541513496427E-2</v>
       </c>
-      <c r="P183" s="8">
+      <c r="P183" s="22">
         <f t="shared" si="59"/>
         <v>-7.9612743100812722E-3</v>
       </c>
@@ -14446,19 +14457,19 @@
         <f t="shared" si="55"/>
         <v>26.493337718749078</v>
       </c>
-      <c r="M184" s="8">
+      <c r="M184" s="22">
         <f t="shared" si="56"/>
         <v>3.085414818111817E-2</v>
       </c>
-      <c r="N184" s="8">
+      <c r="N184" s="22">
         <f t="shared" si="57"/>
         <v>2.0284671171505717E-2</v>
       </c>
-      <c r="O184" s="8">
+      <c r="O184" s="22">
         <f t="shared" si="58"/>
         <v>7.0312825698400621E-3</v>
       </c>
-      <c r="P184" s="8">
+      <c r="P184" s="22">
         <f t="shared" si="59"/>
         <v>3.4746351982665525E-4</v>
       </c>
@@ -14522,19 +14533,19 @@
         <f t="shared" si="55"/>
         <v>26.770856833504997</v>
       </c>
-      <c r="M185" s="8">
+      <c r="M185" s="22">
         <f t="shared" si="56"/>
         <v>8.1490298715000079E-3</v>
       </c>
-      <c r="N185" s="8">
+      <c r="N185" s="22">
         <f t="shared" si="57"/>
         <v>-1.212136053234485E-2</v>
       </c>
-      <c r="O185" s="8">
+      <c r="O185" s="22">
         <f t="shared" si="58"/>
         <v>-1.7737284975335534E-2</v>
       </c>
-      <c r="P185" s="8">
+      <c r="P185" s="22">
         <f t="shared" si="59"/>
         <v>1.2085782467264564E-2</v>
       </c>
@@ -14598,19 +14609,19 @@
         <f t="shared" si="55"/>
         <v>26.788979224618593</v>
       </c>
-      <c r="M186" s="8">
+      <c r="M186" s="22">
         <f t="shared" si="56"/>
         <v>-3.7557304084587136E-2</v>
       </c>
-      <c r="N186" s="8">
+      <c r="N186" s="22">
         <f t="shared" si="57"/>
         <v>-8.1633106391609811E-3</v>
       </c>
-      <c r="O186" s="8">
+      <c r="O186" s="22">
         <f t="shared" si="58"/>
         <v>1.8307002498160068E-2</v>
       </c>
-      <c r="P186" s="8">
+      <c r="P186" s="22">
         <f t="shared" si="59"/>
         <v>1.8859842709859063E-3</v>
       </c>
@@ -14674,19 +14685,19 @@
         <f t="shared" si="55"/>
         <v>26.967430005386497</v>
       </c>
-      <c r="M187" s="8">
+      <c r="M187" s="22">
         <f t="shared" si="56"/>
         <v>-3.8204521384450026E-2</v>
       </c>
-      <c r="N187" s="8">
+      <c r="N187" s="22">
         <f t="shared" si="57"/>
         <v>-4.1067819526533593E-3</v>
       </c>
-      <c r="O187" s="8">
+      <c r="O187" s="22">
         <f t="shared" si="58"/>
         <v>-7.8992515710033743E-3</v>
       </c>
-      <c r="P187" s="8">
+      <c r="P187" s="22">
         <f t="shared" si="59"/>
         <v>7.8485303072679934E-3</v>
       </c>
@@ -14750,19 +14761,19 @@
         <f t="shared" si="55"/>
         <v>27.145410330173146</v>
       </c>
-      <c r="M188" s="8">
+      <c r="M188" s="22">
         <f t="shared" si="56"/>
         <v>-3.5729802976995511E-3</v>
       </c>
-      <c r="N188" s="8">
+      <c r="N188" s="22">
         <f t="shared" si="57"/>
         <v>-8.2645098498934245E-3</v>
       </c>
-      <c r="O188" s="8">
+      <c r="O188" s="22">
         <f t="shared" si="58"/>
         <v>2.2958724488313941E-2</v>
       </c>
-      <c r="P188" s="8">
+      <c r="P188" s="22">
         <f t="shared" si="59"/>
         <v>7.7874102704427392E-3</v>
       </c>
@@ -14826,19 +14837,19 @@
         <f t="shared" si="55"/>
         <v>27.185757817056459</v>
       </c>
-      <c r="M189" s="8">
+      <c r="M189" s="22">
         <f t="shared" si="56"/>
         <v>1.1913351270983778E-3</v>
       </c>
-      <c r="N189" s="8">
+      <c r="N189" s="22">
         <f t="shared" si="57"/>
         <v>-8.3333815591442994E-3</v>
       </c>
-      <c r="O189" s="8">
+      <c r="O189" s="22">
         <f t="shared" si="58"/>
         <v>8.6750487240237512E-4</v>
       </c>
-      <c r="P189" s="8">
+      <c r="P189" s="22">
         <f t="shared" si="59"/>
         <v>2.6945115662719396E-3</v>
       </c>
@@ -14902,19 +14913,19 @@
         <f t="shared" si="55"/>
         <v>27.477130201085807</v>
       </c>
-      <c r="M190" s="8">
+      <c r="M190" s="22">
         <f t="shared" si="56"/>
         <v>3.3740313161737673E-2</v>
       </c>
-      <c r="N190" s="8">
+      <c r="N190" s="22">
         <f t="shared" si="57"/>
         <v>-4.1928782600359274E-3</v>
       </c>
-      <c r="O190" s="8">
+      <c r="O190" s="22">
         <f t="shared" si="58"/>
         <v>-2.4155917864195992E-2</v>
       </c>
-      <c r="P190" s="8">
+      <c r="P190" s="22">
         <f t="shared" si="59"/>
         <v>1.1870071662308754E-2</v>
       </c>
@@ -14978,19 +14989,19 @@
         <f t="shared" si="55"/>
         <v>27.763197545430607</v>
       </c>
-      <c r="M191" s="8">
+      <c r="M191" s="22">
         <f t="shared" si="56"/>
         <v>-8.3839502950916363E-3</v>
       </c>
-      <c r="N191" s="8">
+      <c r="N191" s="22">
         <f t="shared" si="57"/>
         <v>-1.2685159527315687E-2</v>
       </c>
-      <c r="O191" s="8">
+      <c r="O191" s="22">
         <f t="shared" si="58"/>
         <v>9.7366868520630482E-3</v>
       </c>
-      <c r="P191" s="8">
+      <c r="P191" s="22">
         <f t="shared" si="59"/>
         <v>1.1566553273572526E-2</v>
       </c>
@@ -15054,19 +15065,19 @@
         <f t="shared" si="55"/>
         <v>28.248977596844178</v>
       </c>
-      <c r="M192" s="8">
+      <c r="M192" s="22">
         <f t="shared" si="56"/>
         <v>-1.6414807350197886E-3</v>
       </c>
-      <c r="N192" s="8">
+      <c r="N192" s="22">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O192" s="8">
+      <c r="O192" s="22">
         <f t="shared" si="58"/>
         <v>2.3157549600466856E-2</v>
       </c>
-      <c r="P192" s="8">
+      <c r="P192" s="22">
         <f t="shared" si="59"/>
         <v>1.8555219855953643E-2</v>
       </c>
@@ -15130,19 +15141,19 @@
         <f t="shared" si="55"/>
         <v>28.14203690111022</v>
       </c>
-      <c r="M193" s="8">
+      <c r="M193" s="22">
         <f t="shared" si="56"/>
         <v>-2.5869648759487395E-2</v>
       </c>
-      <c r="N193" s="8">
+      <c r="N193" s="22">
         <f t="shared" si="57"/>
         <v>4.246290881451004E-3</v>
       </c>
-      <c r="O193" s="8">
+      <c r="O193" s="22">
         <f t="shared" si="58"/>
         <v>6.2209039517287373E-3</v>
       </c>
-      <c r="P193" s="8">
+      <c r="P193" s="22">
         <f t="shared" si="59"/>
         <v>-2.58356352328963E-3</v>
       </c>
@@ -15206,19 +15217,19 @@
         <f t="shared" ref="L194:L253" si="70">+E194/G194</f>
         <v>28.426144513310991</v>
       </c>
-      <c r="M194" s="8">
+      <c r="M194" s="22">
         <f t="shared" si="56"/>
         <v>3.6177374757534436E-2</v>
       </c>
-      <c r="N194" s="8">
+      <c r="N194" s="22">
         <f t="shared" si="57"/>
         <v>8.4388686458646035E-3</v>
       </c>
-      <c r="O194" s="8">
+      <c r="O194" s="22">
         <f t="shared" si="58"/>
         <v>8.2890729601210536E-3</v>
       </c>
-      <c r="P194" s="8">
+      <c r="P194" s="22">
         <f t="shared" si="59"/>
         <v>1.1254138074423114E-2</v>
       </c>
@@ -15282,19 +15293,19 @@
         <f t="shared" si="70"/>
         <v>29.004562902558131</v>
       </c>
-      <c r="M195" s="8">
+      <c r="M195" s="22">
         <f t="shared" ref="M195:M253" si="71">+LN(B195/B194)</f>
         <v>4.9986709612064119E-2</v>
       </c>
-      <c r="N195" s="8">
+      <c r="N195" s="22">
         <f t="shared" ref="N195:N253" si="72">+LN(C195/C194)</f>
         <v>3.7117662956502588E-2</v>
       </c>
-      <c r="O195" s="8">
+      <c r="O195" s="22">
         <f t="shared" ref="O195:O253" si="73">+LN(D195/D194)</f>
         <v>1.0193898643183956E-2</v>
       </c>
-      <c r="P195" s="8">
+      <c r="P195" s="22">
         <f t="shared" ref="P195:P253" si="74">+LN(E195/E194)</f>
         <v>2.1353124470569061E-2</v>
       </c>
@@ -15358,19 +15369,19 @@
         <f t="shared" si="70"/>
         <v>28.516152834896168</v>
       </c>
-      <c r="M196" s="8">
+      <c r="M196" s="22">
         <f t="shared" si="71"/>
         <v>1.371662476756931E-2</v>
       </c>
-      <c r="N196" s="8">
+      <c r="N196" s="22">
         <f t="shared" si="72"/>
         <v>-1.2220111334775333E-2</v>
       </c>
-      <c r="O196" s="8">
+      <c r="O196" s="22">
         <f t="shared" si="73"/>
         <v>-2.2376501889732062E-2</v>
       </c>
-      <c r="P196" s="8">
+      <c r="P196" s="22">
         <f t="shared" si="74"/>
         <v>-1.5773197677094397E-2</v>
       </c>
@@ -15434,19 +15445,19 @@
         <f t="shared" si="70"/>
         <v>28.200948371664783</v>
       </c>
-      <c r="M197" s="8">
+      <c r="M197" s="22">
         <f t="shared" si="71"/>
         <v>1.0182472700528833E-2</v>
       </c>
-      <c r="N197" s="8">
+      <c r="N197" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O197" s="8">
+      <c r="O197" s="22">
         <f t="shared" si="73"/>
         <v>1.4895112439814763E-2</v>
       </c>
-      <c r="P197" s="8">
+      <c r="P197" s="22">
         <f t="shared" si="74"/>
         <v>-9.9058167405971908E-3</v>
       </c>
@@ -15510,19 +15521,19 @@
         <f t="shared" si="70"/>
         <v>28.094504571238492</v>
       </c>
-      <c r="M198" s="8">
+      <c r="M198" s="22">
         <f t="shared" si="71"/>
         <v>-4.7332904180906448E-3</v>
       </c>
-      <c r="N198" s="8">
+      <c r="N198" s="22">
         <f t="shared" si="72"/>
         <v>4.0899852515250664E-3</v>
       </c>
-      <c r="O198" s="8">
+      <c r="O198" s="22">
         <f t="shared" si="73"/>
         <v>1.591471105705974E-3</v>
       </c>
-      <c r="P198" s="8">
+      <c r="P198" s="22">
         <f t="shared" si="74"/>
         <v>-2.5723486853113579E-3</v>
       </c>
@@ -15586,19 +15597,19 @@
         <f t="shared" si="70"/>
         <v>27.870830899335164</v>
       </c>
-      <c r="M199" s="8">
+      <c r="M199" s="22">
         <f t="shared" si="71"/>
         <v>2.3989890698516814E-2</v>
       </c>
-      <c r="N199" s="8">
+      <c r="N199" s="22">
         <f t="shared" si="72"/>
         <v>1.2170535620255114E-2</v>
       </c>
-      <c r="O199" s="8">
+      <c r="O199" s="22">
         <f t="shared" si="73"/>
         <v>8.339701834076587E-3</v>
       </c>
-      <c r="P199" s="8">
+      <c r="P199" s="22">
         <f t="shared" si="74"/>
         <v>-6.7840673691440846E-3</v>
       </c>
@@ -15662,19 +15673,19 @@
         <f t="shared" si="70"/>
         <v>27.882264883784188</v>
       </c>
-      <c r="M200" s="8">
+      <c r="M200" s="22">
         <f t="shared" si="71"/>
         <v>-2.2998931306167186E-2</v>
       </c>
-      <c r="N200" s="8">
+      <c r="N200" s="22">
         <f t="shared" si="72"/>
         <v>4.024150299725548E-3</v>
       </c>
-      <c r="O200" s="8">
+      <c r="O200" s="22">
         <f t="shared" si="73"/>
         <v>-7.2576047935953491E-3</v>
       </c>
-      <c r="P200" s="8">
+      <c r="P200" s="22">
         <f t="shared" si="74"/>
         <v>1.6194335523029759E-3</v>
       </c>
@@ -15738,19 +15749,19 @@
         <f t="shared" si="70"/>
         <v>27.929680450682898</v>
       </c>
-      <c r="M201" s="8">
+      <c r="M201" s="22">
         <f t="shared" si="71"/>
         <v>-6.5025832955080973E-4</v>
       </c>
-      <c r="N201" s="8">
+      <c r="N201" s="22">
         <f t="shared" si="72"/>
         <v>-4.0241502997254907E-3</v>
       </c>
-      <c r="O201" s="8">
+      <c r="O201" s="22">
         <f t="shared" si="73"/>
         <v>-1.8549913901336344E-2</v>
       </c>
-      <c r="P201" s="8">
+      <c r="P201" s="22">
         <f t="shared" si="74"/>
         <v>2.9083878959572235E-3</v>
       </c>
@@ -15814,19 +15825,19 @@
         <f t="shared" si="70"/>
         <v>28.692567065342303</v>
       </c>
-      <c r="M202" s="8">
+      <c r="M202" s="22">
         <f t="shared" si="71"/>
         <v>-9.9538970853710138E-3</v>
       </c>
-      <c r="N202" s="8">
+      <c r="N202" s="22">
         <f t="shared" si="72"/>
         <v>-8.0972102326193618E-3</v>
       </c>
-      <c r="O202" s="8">
+      <c r="O202" s="22">
         <f t="shared" si="73"/>
         <v>4.1766325258619438E-2</v>
       </c>
-      <c r="P202" s="8">
+      <c r="P202" s="22">
         <f t="shared" si="74"/>
         <v>2.8157431678933389E-2</v>
       </c>
@@ -15890,19 +15901,19 @@
         <f t="shared" si="70"/>
         <v>29.512008553410723</v>
       </c>
-      <c r="M203" s="8">
+      <c r="M203" s="22">
         <f t="shared" si="71"/>
         <v>2.2686020246125666E-2</v>
       </c>
-      <c r="N203" s="8">
+      <c r="N203" s="22">
         <f t="shared" si="72"/>
         <v>-1.2270092591814359E-2</v>
       </c>
-      <c r="O203" s="8">
+      <c r="O203" s="22">
         <f t="shared" si="73"/>
         <v>1.2243626279860068E-2</v>
       </c>
-      <c r="P203" s="8">
+      <c r="P203" s="22">
         <f t="shared" si="74"/>
         <v>2.9368416710269865E-2</v>
       </c>
@@ -15966,19 +15977,19 @@
         <f t="shared" si="70"/>
         <v>30.082481736756073</v>
       </c>
-      <c r="M204" s="8">
+      <c r="M204" s="22">
         <f t="shared" si="71"/>
         <v>-4.0469045204705473E-3</v>
       </c>
-      <c r="N204" s="8">
+      <c r="N204" s="22">
         <f t="shared" si="72"/>
         <v>8.1967672041784907E-3</v>
       </c>
-      <c r="O204" s="8">
+      <c r="O204" s="22">
         <f t="shared" si="73"/>
         <v>-1.120686366301496E-2</v>
       </c>
-      <c r="P204" s="8">
+      <c r="P204" s="22">
         <f t="shared" si="74"/>
         <v>2.0355018642160851E-2</v>
       </c>
@@ -16042,19 +16053,19 @@
         <f t="shared" si="70"/>
         <v>29.337575492140822</v>
       </c>
-      <c r="M205" s="8">
+      <c r="M205" s="22">
         <f t="shared" si="71"/>
         <v>2.7679180352604381E-2</v>
       </c>
-      <c r="N205" s="8">
+      <c r="N205" s="22">
         <f t="shared" si="72"/>
         <v>-4.0899852515251661E-3</v>
       </c>
-      <c r="O205" s="8">
+      <c r="O205" s="22">
         <f t="shared" si="73"/>
         <v>-3.3938694172366631E-3</v>
       </c>
-      <c r="P205" s="8">
+      <c r="P205" s="22">
         <f t="shared" si="74"/>
         <v>-2.3864597280728241E-2</v>
       </c>
@@ -16118,19 +16129,19 @@
         <f t="shared" si="70"/>
         <v>28.885565791716715</v>
       </c>
-      <c r="M206" s="8">
+      <c r="M206" s="22">
         <f t="shared" si="71"/>
         <v>4.1173624581023617E-2</v>
       </c>
-      <c r="N206" s="8">
+      <c r="N206" s="22">
         <f t="shared" si="72"/>
         <v>-2.0704673361691166E-2</v>
       </c>
-      <c r="O206" s="8">
+      <c r="O206" s="22">
         <f t="shared" si="73"/>
         <v>-4.4005588536576426E-3</v>
       </c>
-      <c r="P206" s="8">
+      <c r="P206" s="22">
         <f t="shared" si="74"/>
         <v>-1.4317849087951936E-2</v>
       </c>
@@ -16194,19 +16205,19 @@
         <f t="shared" si="70"/>
         <v>28.586710345495106</v>
       </c>
-      <c r="M207" s="8">
+      <c r="M207" s="22">
         <f t="shared" si="71"/>
         <v>-6.0430184673931145E-3</v>
       </c>
-      <c r="N207" s="8">
+      <c r="N207" s="22">
         <f t="shared" si="72"/>
         <v>-1.2631746905900574E-2</v>
       </c>
-      <c r="O207" s="8">
+      <c r="O207" s="22">
         <f t="shared" si="73"/>
         <v>6.0814892341149018E-3</v>
       </c>
-      <c r="P207" s="8">
+      <c r="P207" s="22">
         <f t="shared" si="74"/>
         <v>-9.1908116387967986E-3</v>
       </c>
@@ -16270,19 +16281,19 @@
         <f t="shared" si="70"/>
         <v>29.168053267878722</v>
       </c>
-      <c r="M208" s="8">
+      <c r="M208" s="22">
         <f t="shared" si="71"/>
         <v>-2.9139696463485895E-2</v>
       </c>
-      <c r="N208" s="8">
+      <c r="N208" s="22">
         <f t="shared" si="72"/>
         <v>8.4388686458646035E-3</v>
       </c>
-      <c r="O208" s="8">
+      <c r="O208" s="22">
         <f t="shared" si="73"/>
         <v>1.6700588759048268E-2</v>
       </c>
-      <c r="P208" s="8">
+      <c r="P208" s="22">
         <f t="shared" si="74"/>
         <v>2.014010754911822E-2</v>
       </c>
@@ -16346,19 +16357,19 @@
         <f t="shared" si="70"/>
         <v>29.043438151678753</v>
       </c>
-      <c r="M209" s="8">
+      <c r="M209" s="22">
         <f t="shared" si="71"/>
         <v>-2.1019064157479724E-2</v>
       </c>
-      <c r="N209" s="8">
+      <c r="N209" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O209" s="8">
+      <c r="O209" s="22">
         <f t="shared" si="73"/>
         <v>2.0631395759632784E-2</v>
       </c>
-      <c r="P209" s="8">
+      <c r="P209" s="22">
         <f t="shared" si="74"/>
         <v>-3.0721990369701403E-3</v>
       </c>
@@ -16422,19 +16433,19 @@
         <f t="shared" si="70"/>
         <v>29.36536376185526</v>
       </c>
-      <c r="M210" s="8">
+      <c r="M210" s="22">
         <f t="shared" si="71"/>
         <v>-1.4791368810730373E-2</v>
       </c>
-      <c r="N210" s="8">
+      <c r="N210" s="22">
         <f t="shared" si="72"/>
         <v>-1.694955831377332E-2</v>
       </c>
-      <c r="O210" s="8">
+      <c r="O210" s="22">
         <f t="shared" si="73"/>
         <v>6.3449686917877602E-3</v>
       </c>
-      <c r="P210" s="8">
+      <c r="P210" s="22">
         <f t="shared" si="74"/>
         <v>1.2232568435634231E-2</v>
       </c>
@@ -16498,19 +16509,19 @@
         <f t="shared" si="70"/>
         <v>29.708755972562766</v>
       </c>
-      <c r="M211" s="8">
+      <c r="M211" s="22">
         <f t="shared" si="71"/>
         <v>2.2492628558961971E-2</v>
       </c>
-      <c r="N211" s="8">
+      <c r="N211" s="22">
         <f t="shared" si="72"/>
         <v>-3.0371097876298759E-2</v>
       </c>
-      <c r="O211" s="8">
+      <c r="O211" s="22">
         <f t="shared" si="73"/>
         <v>2.3201195849733732E-2</v>
       </c>
-      <c r="P211" s="8">
+      <c r="P211" s="22">
         <f t="shared" si="74"/>
         <v>1.2835208293446291E-2</v>
       </c>
@@ -16574,19 +16585,19 @@
         <f t="shared" si="70"/>
         <v>30.020111002969347</v>
       </c>
-      <c r="M212" s="8">
+      <c r="M212" s="22">
         <f t="shared" si="71"/>
         <v>8.6776549281392085E-2</v>
       </c>
-      <c r="N212" s="8">
+      <c r="N212" s="22">
         <f t="shared" si="72"/>
         <v>-1.3303965626362815E-2</v>
       </c>
-      <c r="O212" s="8">
+      <c r="O212" s="22">
         <f t="shared" si="73"/>
         <v>2.6813259697933037E-2</v>
       </c>
-      <c r="P212" s="8">
+      <c r="P212" s="22">
         <f t="shared" si="74"/>
         <v>1.1634976121772986E-2</v>
       </c>
@@ -16650,19 +16661,19 @@
         <f t="shared" si="70"/>
         <v>29.952703945710709</v>
       </c>
-      <c r="M213" s="8">
+      <c r="M213" s="22">
         <f t="shared" si="71"/>
         <v>4.8329391287038614E-3</v>
       </c>
-      <c r="N213" s="8">
+      <c r="N213" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O213" s="8">
+      <c r="O213" s="22">
         <f t="shared" si="73"/>
         <v>-3.2966763792323245E-2</v>
       </c>
-      <c r="P213" s="8">
+      <c r="P213" s="22">
         <f t="shared" si="74"/>
         <v>-1.0386528124194305E-3</v>
       </c>
@@ -16726,19 +16737,19 @@
         <f t="shared" si="70"/>
         <v>30.222953734081731</v>
       </c>
-      <c r="M214" s="8">
+      <c r="M214" s="22">
         <f t="shared" si="71"/>
         <v>5.7278184979092768E-2</v>
       </c>
-      <c r="N214" s="8">
+      <c r="N214" s="22">
         <f t="shared" si="72"/>
         <v>1.3303965626362886E-2</v>
       </c>
-      <c r="O214" s="8">
+      <c r="O214" s="22">
         <f t="shared" si="73"/>
         <v>1.1820307768714441E-2</v>
       </c>
-      <c r="P214" s="8">
+      <c r="P214" s="22">
         <f t="shared" si="74"/>
         <v>1.0191359163403838E-2</v>
       </c>
@@ -16802,19 +16813,19 @@
         <f t="shared" si="70"/>
         <v>30.310633885383766</v>
       </c>
-      <c r="M215" s="8">
+      <c r="M215" s="22">
         <f t="shared" si="71"/>
         <v>9.6710476213733299E-2</v>
       </c>
-      <c r="N215" s="8">
+      <c r="N215" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O215" s="8">
+      <c r="O215" s="22">
         <f t="shared" si="73"/>
         <v>1.2097990074533972E-2</v>
       </c>
-      <c r="P215" s="8">
+      <c r="P215" s="22">
         <f t="shared" si="74"/>
         <v>4.1061796952117794E-3</v>
       </c>
@@ -16878,19 +16889,19 @@
         <f t="shared" si="70"/>
         <v>30.473377449444456</v>
       </c>
-      <c r="M216" s="8">
+      <c r="M216" s="22">
         <f t="shared" si="71"/>
         <v>-4.2149977699010976E-3</v>
       </c>
-      <c r="N216" s="8">
+      <c r="N216" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O216" s="8">
+      <c r="O216" s="22">
         <f t="shared" si="73"/>
         <v>1.5049949203039998E-2</v>
       </c>
-      <c r="P216" s="8">
+      <c r="P216" s="22">
         <f t="shared" si="74"/>
         <v>6.5640962114333718E-3</v>
       </c>
@@ -16954,19 +16965,19 @@
         <f t="shared" si="70"/>
         <v>30.436549224882352</v>
       </c>
-      <c r="M217" s="8">
+      <c r="M217" s="22">
         <f t="shared" si="71"/>
         <v>2.4879232832270774E-2</v>
       </c>
-      <c r="N217" s="8">
+      <c r="N217" s="22">
         <f t="shared" si="72"/>
         <v>4.3956114730381293E-3</v>
       </c>
-      <c r="O217" s="8">
+      <c r="O217" s="22">
         <f t="shared" si="73"/>
         <v>2.18378979566165E-2</v>
       </c>
-      <c r="P217" s="8">
+      <c r="P217" s="22">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -17030,19 +17041,19 @@
         <f t="shared" si="70"/>
         <v>30.841751049597107</v>
       </c>
-      <c r="M218" s="8">
+      <c r="M218" s="22">
         <f t="shared" si="71"/>
         <v>-3.463711411826996E-2</v>
       </c>
-      <c r="N218" s="8">
+      <c r="N218" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O218" s="8">
+      <c r="O218" s="22">
         <f t="shared" si="73"/>
         <v>-9.9801363894819733E-3</v>
       </c>
-      <c r="P218" s="8">
+      <c r="P218" s="22">
         <f t="shared" si="74"/>
         <v>1.443443075450792E-2</v>
       </c>
@@ -17106,19 +17117,19 @@
         <f t="shared" si="70"/>
         <v>31.320975751884145</v>
       </c>
-      <c r="M219" s="8">
+      <c r="M219" s="22">
         <f t="shared" si="71"/>
         <v>5.3338762547763041E-2</v>
       </c>
-      <c r="N219" s="8">
+      <c r="N219" s="22">
         <f t="shared" si="72"/>
         <v>-4.3956114730381093E-3</v>
       </c>
-      <c r="O219" s="8">
+      <c r="O219" s="22">
         <f t="shared" si="73"/>
         <v>2.7438015155436205E-2</v>
       </c>
-      <c r="P219" s="8">
+      <c r="P219" s="22">
         <f t="shared" si="74"/>
         <v>1.6627967847423496E-2</v>
       </c>
@@ -17182,19 +17193,19 @@
         <f t="shared" si="70"/>
         <v>31.55208307609286</v>
       </c>
-      <c r="M220" s="8">
+      <c r="M220" s="22">
         <f t="shared" si="71"/>
         <v>1.5778851001684855E-3</v>
       </c>
-      <c r="N220" s="8">
+      <c r="N220" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O220" s="8">
+      <c r="O220" s="22">
         <f t="shared" si="73"/>
         <v>1.0097186532658977E-2</v>
       </c>
-      <c r="P220" s="8">
+      <c r="P220" s="22">
         <f t="shared" si="74"/>
         <v>8.560855034466637E-3</v>
       </c>
@@ -17258,19 +17269,19 @@
         <f t="shared" si="70"/>
         <v>31.069162336746807</v>
       </c>
-      <c r="M221" s="8">
+      <c r="M221" s="22">
         <f t="shared" si="71"/>
         <v>6.4890182118088002E-2</v>
       </c>
-      <c r="N221" s="8">
+      <c r="N221" s="22">
         <f t="shared" si="72"/>
         <v>-4.4150182091168312E-3</v>
       </c>
-      <c r="O221" s="8">
+      <c r="O221" s="22">
         <f t="shared" si="73"/>
         <v>-2.7416754379095787E-3</v>
       </c>
-      <c r="P221" s="8">
+      <c r="P221" s="22">
         <f t="shared" si="74"/>
         <v>-1.4214580341695478E-2</v>
       </c>
@@ -17334,19 +17345,19 @@
         <f t="shared" si="70"/>
         <v>30.965636165738761</v>
       </c>
-      <c r="M222" s="8">
+      <c r="M222" s="22">
         <f t="shared" si="71"/>
         <v>1.0475860527438808E-2</v>
       </c>
-      <c r="N222" s="8">
+      <c r="N222" s="22">
         <f t="shared" si="72"/>
         <v>4.4150182091166933E-3</v>
       </c>
-      <c r="O222" s="8">
+      <c r="O222" s="22">
         <f t="shared" si="73"/>
         <v>3.3040854032725699E-2</v>
       </c>
-      <c r="P222" s="8">
+      <c r="P222" s="22">
         <f t="shared" si="74"/>
         <v>-2.1284151348260651E-3</v>
       </c>
@@ -17410,19 +17421,19 @@
         <f t="shared" si="70"/>
         <v>31.200592176800825</v>
       </c>
-      <c r="M223" s="8">
+      <c r="M223" s="22">
         <f t="shared" si="71"/>
         <v>-5.090575654881066E-2</v>
       </c>
-      <c r="N223" s="8">
+      <c r="N223" s="22">
         <f t="shared" si="72"/>
         <v>-4.4150182091168312E-3</v>
       </c>
-      <c r="O223" s="8">
+      <c r="O223" s="22">
         <f t="shared" si="73"/>
         <v>2.9626213877614466E-3</v>
       </c>
-      <c r="P223" s="8">
+      <c r="P223" s="22">
         <f t="shared" si="74"/>
         <v>8.7682643509448821E-3</v>
       </c>
@@ -17486,19 +17497,19 @@
         <f t="shared" si="70"/>
         <v>31.108194736289928</v>
       </c>
-      <c r="M224" s="8">
+      <c r="M224" s="22">
         <f t="shared" si="71"/>
         <v>-2.1299119173623569E-2</v>
       </c>
-      <c r="N224" s="8">
+      <c r="N224" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O224" s="8">
+      <c r="O224" s="22">
         <f t="shared" si="73"/>
         <v>1.5082651452256679E-2</v>
       </c>
-      <c r="P224" s="8">
+      <c r="P224" s="22">
         <f t="shared" si="74"/>
         <v>-2.9612938512592166E-3</v>
       </c>
@@ -17562,19 +17573,19 @@
         <f t="shared" si="70"/>
         <v>31.266208961454595</v>
       </c>
-      <c r="M225" s="8">
+      <c r="M225" s="22">
         <f t="shared" si="71"/>
         <v>3.4215867606338608E-2</v>
       </c>
-      <c r="N225" s="8">
+      <c r="N225" s="22">
         <f t="shared" si="72"/>
         <v>4.4150182091166933E-3</v>
       </c>
-      <c r="O225" s="8">
+      <c r="O225" s="22">
         <f t="shared" si="73"/>
         <v>-2.109831769306119E-2</v>
       </c>
-      <c r="P225" s="8">
+      <c r="P225" s="22">
         <f t="shared" si="74"/>
         <v>5.0711476474972943E-3</v>
       </c>
@@ -17638,19 +17649,19 @@
         <f t="shared" si="70"/>
         <v>31.274854569687417</v>
       </c>
-      <c r="M226" s="8">
+      <c r="M226" s="22">
         <f t="shared" si="71"/>
         <v>7.1994505030727862E-3</v>
       </c>
-      <c r="N226" s="8">
+      <c r="N226" s="22">
         <f t="shared" si="72"/>
         <v>-8.8496152769824993E-3</v>
       </c>
-      <c r="O226" s="8">
+      <c r="O226" s="22">
         <f t="shared" si="73"/>
         <v>1.1523108571118986E-2</v>
       </c>
-      <c r="P226" s="8">
+      <c r="P226" s="22">
         <f t="shared" si="74"/>
         <v>2.8097780460196016E-4</v>
       </c>
@@ -17714,19 +17725,19 @@
         <f t="shared" si="70"/>
         <v>31.195637439458803</v>
       </c>
-      <c r="M227" s="8">
+      <c r="M227" s="22">
         <f t="shared" si="71"/>
         <v>7.5863776275319206E-3</v>
       </c>
-      <c r="N227" s="8">
+      <c r="N227" s="22">
         <f t="shared" si="72"/>
         <v>-4.4543503493803087E-3</v>
       </c>
-      <c r="O227" s="8">
+      <c r="O227" s="22">
         <f t="shared" si="73"/>
         <v>1.2248381375193044E-2</v>
       </c>
-      <c r="P227" s="8">
+      <c r="P227" s="22">
         <f t="shared" si="74"/>
         <v>-2.531646921779508E-3</v>
       </c>
@@ -17746,7 +17757,6 @@
         <f t="shared" si="77"/>
         <v>8.4471996791993589E-3</v>
       </c>
-      <c r="U227" s="7"/>
     </row>
     <row r="228" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="14">
@@ -17791,19 +17801,19 @@
         <f t="shared" si="70"/>
         <v>31.536277961369976</v>
       </c>
-      <c r="M228" s="8">
+      <c r="M228" s="22">
         <f t="shared" si="71"/>
         <v>-1.4716666199494606E-2</v>
       </c>
-      <c r="N228" s="8">
+      <c r="N228" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O228" s="8">
+      <c r="O228" s="22">
         <f t="shared" si="73"/>
         <v>1.7920360512597489E-2</v>
       </c>
-      <c r="P228" s="8">
+      <c r="P228" s="22">
         <f t="shared" si="74"/>
         <v>1.1759900331031605E-2</v>
       </c>
@@ -17823,6 +17833,7 @@
         <f t="shared" si="77"/>
         <v>7.8583536316387519E-3</v>
       </c>
+      <c r="U228" s="8"/>
     </row>
     <row r="229" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="14">
@@ -17867,19 +17878,19 @@
         <f t="shared" si="70"/>
         <v>31.448211272739591</v>
       </c>
-      <c r="M229" s="8">
+      <c r="M229" s="22">
         <f t="shared" si="71"/>
         <v>1.4266100485371307E-3</v>
       </c>
-      <c r="N229" s="8">
+      <c r="N229" s="22">
         <f t="shared" si="72"/>
         <v>-1.8018505502678365E-2</v>
       </c>
-      <c r="O229" s="8">
+      <c r="O229" s="22">
         <f t="shared" si="73"/>
         <v>-2.5760083767486133E-2</v>
       </c>
-      <c r="P229" s="8">
+      <c r="P229" s="22">
         <f t="shared" si="74"/>
         <v>-2.7874582508529058E-3</v>
       </c>
@@ -17943,19 +17954,19 @@
         <f t="shared" si="70"/>
         <v>31.419933332740126</v>
       </c>
-      <c r="M230" s="8">
+      <c r="M230" s="22">
         <f t="shared" si="71"/>
         <v>2.8408340532908631E-2</v>
       </c>
-      <c r="N230" s="8">
+      <c r="N230" s="22">
         <f t="shared" si="72"/>
         <v>-9.1324835632724741E-3</v>
       </c>
-      <c r="O230" s="8">
+      <c r="O230" s="22">
         <f t="shared" si="73"/>
         <v>-1.094126751426854E-2</v>
       </c>
-      <c r="P230" s="8">
+      <c r="P230" s="22">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -18019,19 +18030,19 @@
         <f t="shared" si="70"/>
         <v>31.225193189693663</v>
       </c>
-      <c r="M231" s="8">
+      <c r="M231" s="22">
         <f t="shared" si="71"/>
         <v>-2.0573560541896969E-2</v>
       </c>
-      <c r="N231" s="8">
+      <c r="N231" s="22">
         <f t="shared" si="72"/>
         <v>-2.7908788117076502E-2</v>
       </c>
-      <c r="O231" s="8">
+      <c r="O231" s="22">
         <f t="shared" si="73"/>
         <v>-2.1205643052253169E-3</v>
       </c>
-      <c r="P231" s="8">
+      <c r="P231" s="22">
         <f t="shared" si="74"/>
         <v>-5.3176727604016356E-3</v>
       </c>
@@ -18095,19 +18106,19 @@
         <f t="shared" si="70"/>
         <v>31.411604163975422</v>
       </c>
-      <c r="M232" s="8">
+      <c r="M232" s="22">
         <f t="shared" si="71"/>
         <v>4.5249151173745332E-2</v>
       </c>
-      <c r="N232" s="8">
+      <c r="N232" s="22">
         <f t="shared" si="72"/>
         <v>-4.728141195946012E-3</v>
       </c>
-      <c r="O232" s="8">
+      <c r="O232" s="22">
         <f t="shared" si="73"/>
         <v>-4.1408958571752131E-3</v>
       </c>
-      <c r="P232" s="8">
+      <c r="P232" s="22">
         <f t="shared" si="74"/>
         <v>6.8517362367614765E-3</v>
       </c>
@@ -18171,19 +18182,19 @@
         <f t="shared" si="70"/>
         <v>31.750722876510014</v>
       </c>
-      <c r="M233" s="8">
+      <c r="M233" s="22">
         <f t="shared" si="71"/>
         <v>-4.3470609082203238E-2</v>
       </c>
-      <c r="N233" s="8">
+      <c r="N233" s="22">
         <f t="shared" si="72"/>
         <v>-4.7506027585978647E-3</v>
       </c>
-      <c r="O233" s="8">
+      <c r="O233" s="22">
         <f t="shared" si="73"/>
         <v>1.192203031965775E-2</v>
       </c>
-      <c r="P233" s="8">
+      <c r="P233" s="22">
         <f t="shared" si="74"/>
         <v>1.1637704080209609E-2</v>
       </c>
@@ -18247,19 +18258,19 @@
         <f t="shared" si="70"/>
         <v>31.333292288655546</v>
       </c>
-      <c r="M234" s="8">
+      <c r="M234" s="22">
         <f t="shared" si="71"/>
         <v>-2.8083488236616727E-3</v>
       </c>
-      <c r="N234" s="8">
+      <c r="N234" s="22">
         <f t="shared" si="72"/>
         <v>1.4184634991956381E-2</v>
       </c>
-      <c r="O234" s="8">
+      <c r="O234" s="22">
         <f t="shared" si="73"/>
         <v>-1.2466210352306287E-2</v>
       </c>
-      <c r="P234" s="8">
+      <c r="P234" s="22">
         <f t="shared" si="74"/>
         <v>-1.2334713936266976E-2</v>
       </c>
@@ -18323,19 +18334,19 @@
         <f t="shared" si="70"/>
         <v>31.763496898567027</v>
       </c>
-      <c r="M235" s="8">
+      <c r="M235" s="22">
         <f t="shared" si="71"/>
         <v>4.6388102822716853E-2</v>
       </c>
-      <c r="N235" s="8">
+      <c r="N235" s="22">
         <f t="shared" si="72"/>
         <v>4.6838493124264375E-3</v>
       </c>
-      <c r="O235" s="8">
+      <c r="O235" s="22">
         <f t="shared" si="73"/>
         <v>4.0030074754147278E-2</v>
       </c>
-      <c r="P235" s="8">
+      <c r="P235" s="22">
         <f t="shared" si="74"/>
         <v>1.4536145755438124E-2</v>
       </c>
@@ -18399,19 +18410,19 @@
         <f t="shared" si="70"/>
         <v>31.769828183931079</v>
       </c>
-      <c r="M236" s="8">
+      <c r="M236" s="22">
         <f t="shared" si="71"/>
         <v>-1.808233160870143E-2</v>
       </c>
-      <c r="N236" s="8">
+      <c r="N236" s="22">
         <f t="shared" si="72"/>
         <v>9.3023926623134103E-3</v>
       </c>
-      <c r="O236" s="8">
+      <c r="O236" s="22">
         <f t="shared" si="73"/>
         <v>5.632039991498001E-3</v>
       </c>
-      <c r="P236" s="8">
+      <c r="P236" s="22">
         <f t="shared" si="74"/>
         <v>1.0989012094857913E-3</v>
       </c>
@@ -18475,19 +18486,19 @@
         <f t="shared" si="70"/>
         <v>31.844669039615148</v>
       </c>
-      <c r="M237" s="8">
+      <c r="M237" s="22">
         <f t="shared" si="71"/>
         <v>2.6955892905689265E-2</v>
       </c>
-      <c r="N237" s="8">
+      <c r="N237" s="22">
         <f t="shared" si="72"/>
         <v>1.3793322132335769E-2</v>
       </c>
-      <c r="O237" s="8">
+      <c r="O237" s="22">
         <f t="shared" si="73"/>
         <v>2.8483569107705435E-2</v>
       </c>
-      <c r="P237" s="8">
+      <c r="P237" s="22">
         <f t="shared" si="74"/>
         <v>3.1526309437190625E-3</v>
       </c>
@@ -18551,19 +18562,19 @@
         <f t="shared" si="70"/>
         <v>32.552435866157836</v>
       </c>
-      <c r="M238" s="8">
+      <c r="M238" s="22">
         <f t="shared" si="71"/>
         <v>3.8327301701708852E-2</v>
       </c>
-      <c r="N238" s="8">
+      <c r="N238" s="22">
         <f t="shared" si="72"/>
         <v>9.0909717012521048E-3</v>
       </c>
-      <c r="O238" s="8">
+      <c r="O238" s="22">
         <f t="shared" si="73"/>
         <v>7.025476035197252E-2</v>
       </c>
-      <c r="P238" s="8">
+      <c r="P238" s="22">
         <f t="shared" si="74"/>
         <v>2.206220633564555E-2</v>
       </c>
@@ -18627,19 +18638,19 @@
         <f t="shared" si="70"/>
         <v>31.826502282282863</v>
       </c>
-      <c r="M239" s="8">
+      <c r="M239" s="22">
         <f t="shared" si="71"/>
         <v>-5.9179030603150953E-2</v>
       </c>
-      <c r="N239" s="8">
+      <c r="N239" s="22">
         <f t="shared" si="72"/>
         <v>5.2875752047947776E-2</v>
       </c>
-      <c r="O239" s="8">
+      <c r="O239" s="22">
         <f t="shared" si="73"/>
         <v>1.9083404754798222E-2</v>
       </c>
-      <c r="P239" s="8">
+      <c r="P239" s="22">
         <f t="shared" si="74"/>
         <v>-2.2472855852058628E-2</v>
       </c>
@@ -18703,19 +18714,19 @@
         <f t="shared" si="70"/>
         <v>32.939363379688984</v>
       </c>
-      <c r="M240" s="8">
+      <c r="M240" s="22">
         <f t="shared" si="71"/>
         <v>-2.5826046508979073E-2</v>
       </c>
-      <c r="N240" s="8">
+      <c r="N240" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O240" s="8">
+      <c r="O240" s="22">
         <f t="shared" si="73"/>
         <v>-2.784493024090836E-2</v>
       </c>
-      <c r="P240" s="8">
+      <c r="P240" s="22">
         <f t="shared" si="74"/>
         <v>3.4449046898774045E-2</v>
       </c>
@@ -18736,7 +18747,7 @@
         <v>1.2739193771541894E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="14">
         <v>45645</v>
       </c>
@@ -18779,19 +18790,19 @@
         <f t="shared" si="70"/>
         <v>32.313718895498042</v>
       </c>
-      <c r="M241" s="8">
+      <c r="M241" s="22">
         <f t="shared" si="71"/>
         <v>-8.9205973759661009E-3</v>
       </c>
-      <c r="N241" s="8">
+      <c r="N241" s="22">
         <f t="shared" si="72"/>
         <v>3.3758479924954454E-2</v>
       </c>
-      <c r="O241" s="8">
+      <c r="O241" s="22">
         <f t="shared" si="73"/>
         <v>-4.0938653982475585E-2</v>
       </c>
-      <c r="P241" s="8">
+      <c r="P241" s="22">
         <f t="shared" si="74"/>
         <v>-1.9096527437020467E-2</v>
       </c>
@@ -18812,7 +18823,7 @@
         <v>1.312229352937302E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="14">
         <v>45646</v>
       </c>
@@ -18855,19 +18866,19 @@
         <f t="shared" si="70"/>
         <v>32.228363134332625</v>
       </c>
-      <c r="M242" s="8">
+      <c r="M242" s="22">
         <f t="shared" si="71"/>
         <v>1.163521306684958E-2</v>
       </c>
-      <c r="N242" s="8">
+      <c r="N242" s="22">
         <f t="shared" si="72"/>
         <v>-2.5211419346496056E-2</v>
       </c>
-      <c r="O242" s="8">
+      <c r="O242" s="22">
         <f t="shared" si="73"/>
         <v>1.9506881099851974E-2</v>
       </c>
-      <c r="P242" s="8">
+      <c r="P242" s="22">
         <f t="shared" si="74"/>
         <v>-2.5649693441587313E-3</v>
       </c>
@@ -18888,7 +18899,7 @@
         <v>1.3130761358161313E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="14">
         <v>45649</v>
       </c>
@@ -18931,19 +18942,19 @@
         <f t="shared" si="70"/>
         <v>32.234497097769548</v>
       </c>
-      <c r="M243" s="8">
+      <c r="M243" s="22">
         <f t="shared" si="71"/>
         <v>-3.1905480189316861E-2</v>
       </c>
-      <c r="N243" s="8">
+      <c r="N243" s="22">
         <f t="shared" si="72"/>
         <v>2.1053409197832263E-2</v>
       </c>
-      <c r="O243" s="8">
+      <c r="O243" s="22">
         <f t="shared" si="73"/>
         <v>1.3521206897889699E-2</v>
       </c>
-      <c r="P243" s="8">
+      <c r="P243" s="22">
         <f t="shared" si="74"/>
         <v>2.7030679986176091E-4</v>
       </c>
@@ -18964,7 +18975,7 @@
         <v>1.3053839904637432E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="14">
         <v>45650</v>
       </c>
@@ -19007,19 +19018,19 @@
         <f t="shared" si="70"/>
         <v>32.227562879617849</v>
       </c>
-      <c r="M244" s="8">
+      <c r="M244" s="22">
         <f t="shared" si="71"/>
         <v>4.1273979167770099E-2</v>
       </c>
-      <c r="N244" s="8">
+      <c r="N244" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O244" s="8">
+      <c r="O244" s="22">
         <f t="shared" si="73"/>
         <v>1.9741453637538094E-2</v>
       </c>
-      <c r="P244" s="8">
+      <c r="P244" s="22">
         <f t="shared" si="74"/>
         <v>-1.3514426671023695E-4</v>
       </c>
@@ -19040,7 +19051,7 @@
         <v>1.3011907811446739E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="14">
         <v>45651</v>
       </c>
@@ -19083,19 +19094,19 @@
         <f t="shared" si="70"/>
         <v>32.224984880827371</v>
       </c>
-      <c r="M245" s="8">
+      <c r="M245" s="22">
         <f t="shared" si="71"/>
         <v>6.2948467716832041E-3</v>
       </c>
-      <c r="N245" s="8">
+      <c r="N245" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O245" s="8">
+      <c r="O245" s="22">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="P245" s="8">
+      <c r="P245" s="22">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -19116,7 +19127,7 @@
         <v>1.3002348360400366E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="14">
         <v>45652</v>
       </c>
@@ -19159,19 +19170,19 @@
         <f t="shared" si="70"/>
         <v>32.618709162193511</v>
       </c>
-      <c r="M246" s="8">
+      <c r="M246" s="22">
         <f t="shared" si="71"/>
         <v>-3.5235263857997821E-2</v>
       </c>
-      <c r="N246" s="8">
+      <c r="N246" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O246" s="8">
+      <c r="O246" s="22">
         <f t="shared" si="73"/>
         <v>1.8013237987962227E-2</v>
       </c>
-      <c r="P246" s="8">
+      <c r="P246" s="22">
         <f t="shared" si="74"/>
         <v>1.2223941585714318E-2</v>
       </c>
@@ -19192,7 +19203,7 @@
         <v>1.3194826794129918E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="14">
         <v>45653</v>
       </c>
@@ -19235,19 +19246,19 @@
         <f t="shared" si="70"/>
         <v>32.629163732631163</v>
       </c>
-      <c r="M247" s="8">
+      <c r="M247" s="22">
         <f t="shared" si="71"/>
         <v>-1.7447462563727766E-2</v>
       </c>
-      <c r="N247" s="8">
+      <c r="N247" s="22">
         <f t="shared" si="72"/>
         <v>8.2988028146950641E-3</v>
       </c>
-      <c r="O247" s="8">
+      <c r="O247" s="22">
         <f t="shared" si="73"/>
         <v>-7.6688617079310548E-3</v>
       </c>
-      <c r="P247" s="8">
+      <c r="P247" s="22">
         <f t="shared" si="74"/>
         <v>4.0045385304556604E-4</v>
       </c>
@@ -19268,7 +19279,7 @@
         <v>1.3151728671364585E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="14">
         <v>45656</v>
       </c>
@@ -19311,19 +19322,19 @@
         <f t="shared" si="70"/>
         <v>32.757181742367621</v>
       </c>
-      <c r="M248" s="8">
+      <c r="M248" s="22">
         <f t="shared" si="71"/>
         <v>-1.6699124718738797E-2</v>
       </c>
-      <c r="N248" s="8">
+      <c r="N248" s="22">
         <f t="shared" si="72"/>
         <v>4.1237171838621562E-3</v>
       </c>
-      <c r="O248" s="8">
+      <c r="O248" s="22">
         <f t="shared" si="73"/>
         <v>-1.7182624989483801E-2</v>
       </c>
-      <c r="P248" s="8">
+      <c r="P248" s="22">
         <f t="shared" si="74"/>
         <v>3.9957431959107108E-3</v>
       </c>
@@ -19344,83 +19355,116 @@
         <v>1.2983324550563337E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="14">
+    <row r="249" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="15">
         <v>45657</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="11">
         <v>93429.2</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="11">
         <v>1230</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="11">
         <v>2533635</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="11">
         <v>69.657407407407405</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="11">
         <v>212.66475409237972</v>
       </c>
-      <c r="G249" s="6">
+      <c r="G249" s="12">
         <f t="shared" si="65"/>
         <v>2.126647540923797</v>
       </c>
-      <c r="H249" s="2">
+      <c r="H249" s="13">
         <f t="shared" si="66"/>
         <v>43932.620804392987</v>
       </c>
-      <c r="I249">
+      <c r="I249" s="11">
         <f t="shared" si="67"/>
         <v>578.37510745466489</v>
       </c>
-      <c r="J249">
+      <c r="J249" s="11">
         <f t="shared" si="68"/>
         <v>11913.751344519511</v>
       </c>
-      <c r="K249">
+      <c r="K249" s="11">
         <f t="shared" si="69"/>
         <v>968.59767028613919</v>
       </c>
-      <c r="L249">
+      <c r="L249" s="11">
         <f t="shared" si="70"/>
         <v>32.754561377457421</v>
       </c>
-      <c r="M249" s="8">
+      <c r="M249" s="22">
         <f t="shared" si="71"/>
         <v>8.4482667245536248E-3</v>
       </c>
-      <c r="N249" s="8">
+      <c r="N249" s="22">
         <f t="shared" si="72"/>
         <v>1.2270092591814401E-2</v>
       </c>
-      <c r="O249" s="8">
+      <c r="O249" s="22">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="P249" s="8">
+      <c r="P249" s="22">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="Q249" s="8">
+      <c r="Q249" s="19">
         <f t="shared" si="79"/>
         <v>3.1501290185368465E-2</v>
       </c>
-      <c r="R249" s="8">
+      <c r="R249" s="19">
         <f t="shared" si="79"/>
         <v>1.7942433805614999E-2</v>
       </c>
-      <c r="S249" s="8">
+      <c r="S249" s="19">
         <f t="shared" si="79"/>
         <v>2.4615061076099242E-2</v>
       </c>
-      <c r="T249" s="8">
+      <c r="T249" s="19">
         <f t="shared" si="79"/>
         <v>1.2940746322726342E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U249" s="19">
+        <f>SUM(M228:M249)</f>
+        <v>-4.0456817157672728E-2</v>
+      </c>
+      <c r="V249" s="19">
+        <f t="shared" ref="V249:X249" si="80">SUM(N228:N249)</f>
+        <v>9.3685484077322953E-2</v>
+      </c>
+      <c r="W249" s="19">
+        <f t="shared" si="80"/>
+        <v>0.11504492669835839</v>
+      </c>
+      <c r="X249" s="19">
+        <f t="shared" si="80"/>
+        <v>5.7729375378128042E-2</v>
+      </c>
+      <c r="Y249" s="19">
+        <f t="shared" ref="Y249" si="81">SUM(Q228:Q249)</f>
+        <v>0.74730821071529352</v>
+      </c>
+      <c r="Z249" s="19">
+        <f t="shared" ref="Z249" si="82">SUM(R228:R249)</f>
+        <v>0.29921110350730418</v>
+      </c>
+      <c r="AA249" s="19">
+        <f t="shared" ref="AA249" si="83">SUM(S228:S249)</f>
+        <v>0.46955098168393289</v>
+      </c>
+      <c r="AB249" s="19">
+        <f t="shared" ref="AB249" si="84">SUM(T228:T249)</f>
+        <v>0.2309145656447239</v>
+      </c>
+      <c r="AC249" s="19"/>
+    </row>
+    <row r="250" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="14">
         <v>45658</v>
       </c>
@@ -19463,19 +19507,19 @@
         <f t="shared" si="70"/>
         <v>32.754321179113028</v>
       </c>
-      <c r="M250" s="8">
+      <c r="M250" s="22">
         <f t="shared" si="71"/>
         <v>1.0546443072553259E-2</v>
       </c>
-      <c r="N250" s="8">
+      <c r="N250" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O250" s="8">
+      <c r="O250" s="22">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="P250" s="8">
+      <c r="P250" s="22">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -19495,8 +19539,12 @@
         <f t="shared" si="79"/>
         <v>1.2940746322726342E-2</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U250" s="8"/>
+      <c r="V250" s="8"/>
+      <c r="W250" s="8"/>
+      <c r="X250" s="8"/>
+    </row>
+    <row r="251" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="14">
         <v>45659</v>
       </c>
@@ -19539,19 +19587,19 @@
         <f t="shared" si="70"/>
         <v>33.468113852546686</v>
       </c>
-      <c r="M251" s="8">
+      <c r="M251" s="22">
         <f t="shared" si="71"/>
         <v>2.5793739132302027E-2</v>
       </c>
-      <c r="N251" s="8">
+      <c r="N251" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O251" s="8">
+      <c r="O251" s="22">
         <f t="shared" si="73"/>
         <v>6.1982848308529341E-2</v>
       </c>
-      <c r="P251" s="8">
+      <c r="P251" s="22">
         <f t="shared" si="74"/>
         <v>2.1565595788910402E-2</v>
       </c>
@@ -19572,7 +19620,7 @@
         <v>1.3477823092602346E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="14">
         <v>45660</v>
       </c>
@@ -19615,19 +19663,19 @@
         <f t="shared" si="70"/>
         <v>33.202284972360154</v>
       </c>
-      <c r="M252" s="8">
+      <c r="M252" s="22">
         <f t="shared" si="71"/>
         <v>1.2518990332199975E-2</v>
       </c>
-      <c r="N252" s="8">
+      <c r="N252" s="22">
         <f t="shared" si="72"/>
         <v>-2.0534602441707864E-2</v>
       </c>
-      <c r="O252" s="8">
+      <c r="O252" s="22">
         <f t="shared" si="73"/>
         <v>1.2264749725021248E-2</v>
       </c>
-      <c r="P252" s="8">
+      <c r="P252" s="22">
         <f t="shared" si="74"/>
         <v>-7.9671289316228817E-3</v>
       </c>
@@ -19648,7 +19696,7 @@
         <v>1.3705591832213719E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="14">
         <v>45663</v>
       </c>
@@ -19691,19 +19739,19 @@
         <f t="shared" si="70"/>
         <v>33.519868533590099</v>
       </c>
-      <c r="M253" s="8">
+      <c r="M253" s="22">
         <f t="shared" si="71"/>
         <v>3.9675005861328209E-2</v>
       </c>
-      <c r="N253" s="8">
+      <c r="N253" s="22">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O253" s="8">
+      <c r="O253" s="22">
         <f t="shared" si="73"/>
         <v>2.6152765042456578E-2</v>
       </c>
-      <c r="P253" s="8">
+      <c r="P253" s="22">
         <f t="shared" si="74"/>
         <v>9.5269888605402434E-3</v>
       </c>
@@ -19724,7 +19772,7 @@
         <v>1.3643899655943991E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="14">
         <v>45664</v>
       </c>
@@ -19748,39 +19796,39 @@
         <v>2.1267255191404248</v>
       </c>
       <c r="H254" s="2">
-        <f t="shared" ref="H254:H257" si="80">+B254/G254</f>
+        <f t="shared" ref="H254:H257" si="85">+B254/G254</f>
         <v>45513.992816112303</v>
       </c>
       <c r="I254">
-        <f t="shared" ref="I254:I257" si="81">+C254/G254</f>
+        <f t="shared" ref="I254:I257" si="86">+C254/G254</f>
         <v>566.59874024882822</v>
       </c>
       <c r="J254">
-        <f t="shared" ref="J254:J257" si="82">+D254/F254</f>
+        <f t="shared" ref="J254:J257" si="87">+D254/F254</f>
         <v>13270.045779770679</v>
       </c>
       <c r="K254">
-        <f t="shared" ref="K254:K257" si="83">+D254/C254/G254</f>
+        <f t="shared" ref="K254:K257" si="88">+D254/C254/G254</f>
         <v>1101.248612429102</v>
       </c>
       <c r="L254">
-        <f t="shared" ref="L254:L257" si="84">+E254/G254</f>
+        <f t="shared" ref="L254:L257" si="89">+E254/G254</f>
         <v>33.454316275334229</v>
       </c>
-      <c r="M254" s="8">
-        <f t="shared" ref="M254:P257" si="85">+LN(B254/B253)</f>
+      <c r="M254" s="22">
+        <f t="shared" ref="M254:P257" si="90">+LN(B254/B253)</f>
         <v>-5.3134813625759912E-2</v>
       </c>
-      <c r="N254" s="8">
-        <f t="shared" si="85"/>
+      <c r="N254" s="22">
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="O254" s="8">
-        <f t="shared" si="85"/>
+      <c r="O254" s="22">
+        <f t="shared" si="90"/>
         <v>7.4522935382701477E-3</v>
       </c>
-      <c r="P254" s="8">
-        <f t="shared" si="85"/>
+      <c r="P254" s="22">
+        <f t="shared" si="90"/>
         <v>-1.9502053896020553E-3</v>
       </c>
       <c r="Q254" s="8">
@@ -19800,7 +19848,7 @@
         <v>1.3223308957371435E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="14">
         <v>45665</v>
       </c>
@@ -19824,39 +19872,39 @@
         <v>2.126741115126856</v>
       </c>
       <c r="H255" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>44689.745885846023</v>
       </c>
       <c r="I255">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>571.29661497493908</v>
       </c>
       <c r="J255">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>13083.289640704719</v>
       </c>
       <c r="K255">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1076.8139621979194</v>
       </c>
       <c r="L255">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>32.255924104757874</v>
       </c>
-      <c r="M255" s="8">
-        <f t="shared" si="85"/>
+      <c r="M255" s="22">
+        <f t="shared" si="90"/>
         <v>-1.8268403015105603E-2</v>
       </c>
-      <c r="N255" s="8">
-        <f t="shared" si="85"/>
+      <c r="N255" s="22">
+        <f t="shared" si="90"/>
         <v>8.2645098498934314E-3</v>
       </c>
-      <c r="O255" s="8">
-        <f t="shared" si="85"/>
+      <c r="O255" s="22">
+        <f t="shared" si="90"/>
         <v>-1.4166148910975158E-2</v>
       </c>
-      <c r="P255" s="8">
-        <f t="shared" si="85"/>
+      <c r="P255" s="22">
+        <f t="shared" si="90"/>
         <v>-3.6471762032388146E-2</v>
       </c>
       <c r="Q255" s="8">
@@ -19876,7 +19924,7 @@
         <v>1.5666762432702236E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="14">
         <v>45666</v>
       </c>
@@ -19900,39 +19948,39 @@
         <v>2.126756711227658</v>
       </c>
       <c r="H256" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>43485.951877689913</v>
       </c>
       <c r="I256">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>573.64342313313409</v>
       </c>
       <c r="J256">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>13305.377079856749</v>
       </c>
       <c r="K256">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1090.6046786767829</v>
       </c>
       <c r="L256">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>32.218071600887164</v>
       </c>
-      <c r="M256" s="8">
-        <f t="shared" si="85"/>
+      <c r="M256" s="22">
+        <f t="shared" si="90"/>
         <v>-2.7298802874510277E-2</v>
       </c>
-      <c r="N256" s="8">
-        <f t="shared" si="85"/>
+      <c r="N256" s="22">
+        <f t="shared" si="90"/>
         <v>4.1067819526535024E-3</v>
       </c>
-      <c r="O256" s="8">
-        <f t="shared" si="85"/>
+      <c r="O256" s="22">
+        <f t="shared" si="90"/>
         <v>1.6839762557734811E-2</v>
       </c>
-      <c r="P256" s="8">
-        <f t="shared" si="85"/>
+      <c r="P256" s="22">
+        <f t="shared" si="90"/>
         <v>-1.1668612759203323E-3</v>
       </c>
       <c r="Q256" s="8">
@@ -19952,7 +20000,7 @@
         <v>1.5673472207381387E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="14">
         <v>45667</v>
       </c>
@@ -19976,39 +20024,39 @@
         <v>2.1267723074428315</v>
       </c>
       <c r="H257" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>44528.250470717401</v>
       </c>
       <c r="I257">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>575.99019684100733</v>
       </c>
       <c r="J257">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>13189.65829197211</v>
       </c>
       <c r="K257">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1076.7067993446622</v>
       </c>
       <c r="L257">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>32.194325532819406</v>
       </c>
-      <c r="M257" s="8">
-        <f t="shared" si="85"/>
+      <c r="M257" s="22">
+        <f t="shared" si="90"/>
         <v>2.3693222493836912E-2</v>
       </c>
-      <c r="N257" s="8">
-        <f t="shared" si="85"/>
+      <c r="N257" s="22">
+        <f t="shared" si="90"/>
         <v>4.0899852515250664E-3</v>
       </c>
-      <c r="O257" s="8">
-        <f t="shared" si="85"/>
+      <c r="O257" s="22">
+        <f t="shared" si="90"/>
         <v>-8.7278521406521942E-3</v>
       </c>
-      <c r="P257" s="8">
-        <f t="shared" si="85"/>
+      <c r="P257" s="22">
+        <f t="shared" si="90"/>
         <v>-7.2998032294757935E-4</v>
       </c>
       <c r="Q257" s="8">
@@ -20028,7 +20076,7 @@
         <v>1.5666726060010915E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="14">
         <v>45670</v>
       </c>
@@ -20048,63 +20096,63 @@
         <v>212.6787903772377</v>
       </c>
       <c r="G258" s="6">
-        <f t="shared" ref="G258:G263" si="86">+F258/$U$1</f>
+        <f t="shared" ref="G258:G263" si="91">+F258/$U$1</f>
         <v>2.1267879037723771</v>
       </c>
       <c r="H258" s="2">
-        <f t="shared" ref="H258:H263" si="87">+B258/G258</f>
+        <f t="shared" ref="H258:H263" si="92">+B258/G258</f>
         <v>44440.971209377247</v>
       </c>
       <c r="I258">
-        <f t="shared" ref="I258:I263" si="88">+C258/G258</f>
+        <f t="shared" ref="I258:I263" si="93">+C258/G258</f>
         <v>587.74078871843312</v>
       </c>
       <c r="J258">
-        <f t="shared" ref="J258:J263" si="89">+D258/F258</f>
+        <f t="shared" ref="J258:J263" si="94">+D258/F258</f>
         <v>12484.455997188965</v>
       </c>
       <c r="K258">
-        <f t="shared" ref="K258:K263" si="90">+D258/C258/G258</f>
+        <f t="shared" ref="K258:K263" si="95">+D258/C258/G258</f>
         <v>998.7564797751171</v>
       </c>
       <c r="L258">
-        <f t="shared" ref="L258:L263" si="91">+E258/G258</f>
+        <f t="shared" ref="L258:L263" si="96">+E258/G258</f>
         <v>32.236406779628624</v>
       </c>
-      <c r="M258" s="8">
-        <f t="shared" ref="M258:M263" si="92">+LN(B258/B257)</f>
+      <c r="M258" s="22">
+        <f t="shared" ref="M258:M263" si="97">+LN(B258/B257)</f>
         <v>-1.9546775486614684E-3</v>
       </c>
-      <c r="N258" s="8">
-        <f t="shared" ref="N258:N263" si="93">+LN(C258/C257)</f>
+      <c r="N258" s="22">
+        <f t="shared" ref="N258:N263" si="98">+LN(C258/C257)</f>
         <v>2.0202707317519469E-2</v>
       </c>
-      <c r="O258" s="8">
-        <f t="shared" ref="O258:O263" si="94">+LN(D258/D257)</f>
+      <c r="O258" s="22">
+        <f t="shared" ref="O258:O263" si="99">+LN(D258/D257)</f>
         <v>-5.4941376218979834E-2</v>
       </c>
-      <c r="P258" s="8">
-        <f t="shared" ref="P258:P263" si="95">+LN(E258/E257)</f>
+      <c r="P258" s="22">
+        <f t="shared" ref="P258:P263" si="100">+LN(E258/E257)</f>
         <v>1.3135811565527494E-3</v>
       </c>
       <c r="Q258" s="8">
-        <f t="shared" ref="Q258:Q263" si="96">+_xlfn.STDEV.S(M239:M258)</f>
+        <f t="shared" ref="Q258:Q263" si="101">+_xlfn.STDEV.S(M239:M258)</f>
         <v>2.8417511554841141E-2</v>
       </c>
       <c r="R258" s="8">
-        <f t="shared" ref="R258:R263" si="97">+_xlfn.STDEV.S(N239:N258)</f>
+        <f t="shared" ref="R258:R263" si="102">+_xlfn.STDEV.S(N239:N258)</f>
         <v>1.6893419308479745E-2</v>
       </c>
       <c r="S258" s="8">
-        <f t="shared" ref="S258:S263" si="98">+_xlfn.STDEV.S(O239:O258)</f>
+        <f t="shared" ref="S258:S263" si="103">+_xlfn.STDEV.S(O239:O258)</f>
         <v>2.5818237743090586E-2</v>
       </c>
       <c r="T258" s="8">
-        <f t="shared" ref="T258:T263" si="99">+_xlfn.STDEV.S(P239:P258)</f>
+        <f t="shared" ref="T258:T263" si="104">+_xlfn.STDEV.S(P239:P258)</f>
         <v>1.4835431534097953E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="14">
         <v>45671</v>
       </c>
@@ -20124,63 +20172,63 @@
         <v>212.68035002162958</v>
       </c>
       <c r="G259" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>2.1268035002162957</v>
       </c>
       <c r="H259" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>45389.266093544844</v>
       </c>
       <c r="I259">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>583.03458682191001</v>
       </c>
       <c r="J259">
-        <f t="shared" si="89"/>
+        <f t="shared" si="94"/>
         <v>12851.553985697439</v>
       </c>
       <c r="K259">
-        <f t="shared" si="90"/>
+        <f t="shared" si="95"/>
         <v>1036.415644007858</v>
       </c>
       <c r="L259">
-        <f t="shared" si="91"/>
+        <f t="shared" si="96"/>
         <v>32.264381732031829</v>
       </c>
-      <c r="M259" s="8">
-        <f t="shared" si="92"/>
+      <c r="M259" s="22">
+        <f t="shared" si="97"/>
         <v>2.112116181286005E-2</v>
       </c>
-      <c r="N259" s="8">
-        <f t="shared" si="93"/>
+      <c r="N259" s="22">
+        <f t="shared" si="98"/>
         <v>-8.0321716972642666E-3</v>
       </c>
-      <c r="O259" s="8">
-        <f t="shared" si="94"/>
+      <c r="O259" s="22">
+        <f t="shared" si="99"/>
         <v>2.8987719804136131E-2</v>
       </c>
-      <c r="P259" s="8">
-        <f t="shared" si="95"/>
+      <c r="P259" s="22">
+        <f t="shared" si="100"/>
         <v>8.7476314077940091E-4</v>
       </c>
       <c r="Q259" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>2.6053069287116627E-2</v>
       </c>
       <c r="R259" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>1.3091842392565981E-2</v>
       </c>
       <c r="S259" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>2.6251393472825839E-2</v>
       </c>
       <c r="T259" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>1.3899563933030349E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="14">
         <v>45672</v>
       </c>
@@ -20200,63 +20248,63 @@
         <v>212.68190967745883</v>
       </c>
       <c r="G260" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>2.1268190967745881</v>
       </c>
       <c r="H260" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>47255.777490628774</v>
       </c>
       <c r="I260">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>583.03031126648852</v>
       </c>
       <c r="J260">
-        <f t="shared" si="89"/>
+        <f t="shared" si="94"/>
         <v>12716.050951871975</v>
       </c>
       <c r="K260">
-        <f t="shared" si="90"/>
+        <f t="shared" si="95"/>
         <v>1025.4879799896758</v>
       </c>
       <c r="L260">
-        <f t="shared" si="91"/>
+        <f t="shared" si="96"/>
         <v>32.07136897700579</v>
       </c>
-      <c r="M260" s="8">
-        <f t="shared" si="92"/>
+      <c r="M260" s="22">
+        <f t="shared" si="97"/>
         <v>4.0306607269032693E-2</v>
       </c>
-      <c r="N260" s="8">
-        <f t="shared" si="93"/>
+      <c r="N260" s="22">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="O260" s="8">
-        <f t="shared" si="94"/>
+      <c r="O260" s="22">
+        <f t="shared" si="99"/>
         <v>-1.0592353511567803E-2</v>
       </c>
-      <c r="P260" s="8">
-        <f t="shared" si="95"/>
+      <c r="P260" s="22">
+        <f t="shared" si="100"/>
         <v>-5.9928557636758041E-3</v>
       </c>
       <c r="Q260" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>2.7019947433498035E-2</v>
       </c>
       <c r="R260" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>1.3091842392565981E-2</v>
       </c>
       <c r="S260" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>2.5468377815451554E-2</v>
       </c>
       <c r="T260" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>1.1463795611681479E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="14">
         <v>45673</v>
       </c>
@@ -20276,63 +20324,63 @@
         <v>212.68346934472555</v>
       </c>
       <c r="G261" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>2.1268346934472557</v>
       </c>
       <c r="H261" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>46903.932076785037</v>
       </c>
       <c r="I261">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>575.97330143908493</v>
       </c>
       <c r="J261">
-        <f t="shared" si="89"/>
+        <f t="shared" si="94"/>
         <v>12362.864909534668</v>
       </c>
       <c r="K261">
-        <f t="shared" si="90"/>
+        <f t="shared" si="95"/>
         <v>1009.2134620028301</v>
       </c>
       <c r="L261">
-        <f t="shared" si="91"/>
+        <f t="shared" si="96"/>
         <v>31.80312988517527</v>
       </c>
-      <c r="M261" s="8">
-        <f t="shared" si="92"/>
+      <c r="M261" s="22">
+        <f t="shared" si="97"/>
         <v>-7.4660765644215012E-3</v>
       </c>
-      <c r="N261" s="8">
-        <f t="shared" si="93"/>
+      <c r="N261" s="22">
+        <f t="shared" si="98"/>
         <v>-1.2170535620255179E-2</v>
       </c>
-      <c r="O261" s="8">
-        <f t="shared" si="94"/>
+      <c r="O261" s="22">
+        <f t="shared" si="99"/>
         <v>-2.8160502676789722E-2</v>
       </c>
-      <c r="P261" s="8">
-        <f t="shared" si="95"/>
+      <c r="P261" s="22">
+        <f t="shared" si="100"/>
         <v>-8.3916576362482887E-3</v>
       </c>
       <c r="Q261" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>2.6992304079782821E-2</v>
       </c>
       <c r="R261" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>1.1346448844561962E-2</v>
       </c>
       <c r="S261" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>2.4433845574869256E-2</v>
       </c>
       <c r="T261" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>1.0820780183787572E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="14">
         <v>45674</v>
       </c>
@@ -20352,63 +20400,63 @@
         <v>212.68502902342985</v>
       </c>
       <c r="G262" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>2.1268502902342985</v>
       </c>
       <c r="H262" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>49115.840677480046</v>
       </c>
       <c r="I262">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>580.67086605515135</v>
       </c>
       <c r="J262">
-        <f t="shared" si="89"/>
+        <f t="shared" si="94"/>
         <v>11805.654641180199</v>
       </c>
       <c r="K262">
-        <f t="shared" si="90"/>
+        <f t="shared" si="95"/>
         <v>955.92345272714169</v>
       </c>
       <c r="L262">
-        <f t="shared" si="91"/>
+        <f t="shared" si="96"/>
         <v>31.469069688316825</v>
       </c>
-      <c r="M262" s="8">
-        <f t="shared" si="92"/>
+      <c r="M262" s="22">
+        <f t="shared" si="97"/>
         <v>4.6087425270128053E-2</v>
       </c>
-      <c r="N262" s="8">
-        <f t="shared" si="93"/>
+      <c r="N262" s="22">
+        <f t="shared" si="98"/>
         <v>8.1301260832503091E-3</v>
       </c>
-      <c r="O262" s="8">
-        <f t="shared" si="94"/>
+      <c r="O262" s="22">
+        <f t="shared" si="99"/>
         <v>-4.6111257093515268E-2</v>
       </c>
-      <c r="P262" s="8">
-        <f t="shared" si="95"/>
+      <c r="P262" s="22">
+        <f t="shared" si="100"/>
         <v>-1.0552226917828606E-2</v>
       </c>
       <c r="Q262" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>2.8711391881087452E-2</v>
       </c>
       <c r="R262" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>9.6412273641909123E-3</v>
       </c>
       <c r="S262" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>2.6575086047616093E-2</v>
       </c>
       <c r="T262" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>1.1036153548877603E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="14">
         <v>45677</v>
       </c>
@@ -20428,63 +20476,63 @@
         <v>212.68658871357178</v>
       </c>
       <c r="G263" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>2.1268658871357178</v>
       </c>
       <c r="H263" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>47965.722999764395</v>
       </c>
       <c r="I263">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>580.66660783355417</v>
       </c>
       <c r="J263">
-        <f t="shared" si="89"/>
+        <f t="shared" si="94"/>
         <v>11927.585633602865</v>
       </c>
       <c r="K263">
-        <f t="shared" si="90"/>
+        <f t="shared" si="95"/>
         <v>965.79640757917934</v>
       </c>
       <c r="L263">
-        <f t="shared" si="91"/>
+        <f t="shared" si="96"/>
         <v>31.515856455937758</v>
       </c>
-      <c r="M263" s="8">
-        <f t="shared" si="92"/>
+      <c r="M263" s="22">
+        <f t="shared" si="97"/>
         <v>-2.3687618543614401E-2</v>
       </c>
-      <c r="N263" s="8">
-        <f t="shared" si="93"/>
+      <c r="N263" s="22">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="O263" s="8">
-        <f t="shared" si="94"/>
+      <c r="O263" s="22">
+        <f t="shared" si="99"/>
         <v>1.0282547629892043E-2</v>
       </c>
-      <c r="P263" s="8">
-        <f t="shared" si="95"/>
+      <c r="P263" s="22">
+        <f t="shared" si="100"/>
         <v>1.4929832573154871E-3</v>
       </c>
       <c r="Q263" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>2.8235642113433688E-2</v>
       </c>
       <c r="R263" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>8.6009657229332952E-3</v>
       </c>
       <c r="S263" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>2.6503712729378816E-2</v>
       </c>
       <c r="T263" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>1.1047869898804852E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="14">
         <v>45678</v>
       </c>
@@ -20504,63 +20552,63 @@
         <v>212.68814841515143</v>
       </c>
       <c r="G264" s="6">
-        <f t="shared" ref="G264" si="100">+F264/$U$1</f>
+        <f t="shared" ref="G264" si="105">+F264/$U$1</f>
         <v>2.1268814841515145</v>
       </c>
       <c r="H264" s="2">
-        <f t="shared" ref="H264" si="101">+B264/G264</f>
+        <f t="shared" ref="H264" si="106">+B264/G264</f>
         <v>49824.228942533264</v>
       </c>
       <c r="I264">
-        <f t="shared" ref="I264" si="102">+C264/G264</f>
+        <f t="shared" ref="I264" si="107">+C264/G264</f>
         <v>580.66234964318357</v>
       </c>
       <c r="J264">
-        <f t="shared" ref="J264" si="103">+D264/F264</f>
+        <f t="shared" ref="J264" si="108">+D264/F264</f>
         <v>12317.18466459402</v>
       </c>
       <c r="K264">
-        <f t="shared" ref="K264" si="104">+D264/C264/G264</f>
+        <f t="shared" ref="K264" si="109">+D264/C264/G264</f>
         <v>997.3428878213781</v>
       </c>
       <c r="L264">
-        <f t="shared" ref="L264" si="105">+E264/G264</f>
+        <f t="shared" ref="L264" si="110">+E264/G264</f>
         <v>31.529730499653358</v>
       </c>
-      <c r="M264" s="8">
-        <f t="shared" ref="M264" si="106">+LN(B264/B263)</f>
+      <c r="M264" s="22">
+        <f t="shared" ref="M264" si="111">+LN(B264/B263)</f>
         <v>3.8022072329813437E-2</v>
       </c>
-      <c r="N264" s="8">
-        <f t="shared" ref="N264" si="107">+LN(C264/C263)</f>
+      <c r="N264" s="22">
+        <f t="shared" ref="N264" si="112">+LN(C264/C263)</f>
         <v>0</v>
       </c>
-      <c r="O264" s="8">
-        <f t="shared" ref="O264" si="108">+LN(D264/D263)</f>
+      <c r="O264" s="22">
+        <f t="shared" ref="O264" si="113">+LN(D264/D263)</f>
         <v>3.2148909921005039E-2</v>
       </c>
-      <c r="P264" s="8">
-        <f t="shared" ref="P264" si="109">+LN(E264/E263)</f>
+      <c r="P264" s="22">
+        <f t="shared" ref="P264" si="114">+LN(E264/E263)</f>
         <v>4.474606682161615E-4</v>
       </c>
       <c r="Q264" s="8">
-        <f t="shared" ref="Q264" si="110">+_xlfn.STDEV.S(M245:M264)</f>
+        <f t="shared" ref="Q264" si="115">+_xlfn.STDEV.S(M245:M264)</f>
         <v>2.801656910783254E-2</v>
       </c>
       <c r="R264" s="8">
-        <f t="shared" ref="R264" si="111">+_xlfn.STDEV.S(N245:N264)</f>
+        <f t="shared" ref="R264" si="116">+_xlfn.STDEV.S(N245:N264)</f>
         <v>8.6009657229332952E-3</v>
       </c>
       <c r="S264" s="8">
-        <f t="shared" ref="S264" si="112">+_xlfn.STDEV.S(O245:O264)</f>
+        <f t="shared" ref="S264" si="117">+_xlfn.STDEV.S(O245:O264)</f>
         <v>2.7110924433475184E-2</v>
       </c>
       <c r="T264" s="8">
-        <f t="shared" ref="T264" si="113">+_xlfn.STDEV.S(P245:P264)</f>
+        <f t="shared" ref="T264" si="118">+_xlfn.STDEV.S(P245:P264)</f>
         <v>1.1051310383238458E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="14">
         <v>45679</v>
       </c>
@@ -20580,63 +20628,63 @@
         <v>212.68970812816892</v>
       </c>
       <c r="G265" s="6">
-        <f t="shared" ref="G265" si="114">+F265/$U$1</f>
+        <f t="shared" ref="G265" si="119">+F265/$U$1</f>
         <v>2.126897081281689</v>
       </c>
       <c r="H265" s="2">
-        <f t="shared" ref="H265" si="115">+B265/G265</f>
+        <f t="shared" ref="H265" si="120">+B265/G265</f>
         <v>48734.407937377793</v>
       </c>
       <c r="I265">
-        <f t="shared" ref="I265" si="116">+C265/G265</f>
+        <f t="shared" ref="I265" si="121">+C265/G265</f>
         <v>580.65809148403969</v>
       </c>
       <c r="J265">
-        <f t="shared" ref="J265" si="117">+D265/F265</f>
+        <f t="shared" ref="J265" si="122">+D265/F265</f>
         <v>12604.962523078151</v>
       </c>
       <c r="K265">
-        <f t="shared" ref="K265" si="118">+D265/C265/G265</f>
+        <f t="shared" ref="K265" si="123">+D265/C265/G265</f>
         <v>1020.6447387107817</v>
       </c>
       <c r="L265">
-        <f t="shared" ref="L265" si="119">+E265/G265</f>
+        <f t="shared" ref="L265" si="124">+E265/G265</f>
         <v>31.040524048401863</v>
       </c>
-      <c r="M265" s="8">
-        <f t="shared" ref="M265" si="120">+LN(B265/B264)</f>
+      <c r="M265" s="22">
+        <f t="shared" ref="M265" si="125">+LN(B265/B264)</f>
         <v>-2.2108748257031394E-2</v>
       </c>
-      <c r="N265" s="8">
-        <f t="shared" ref="N265" si="121">+LN(C265/C264)</f>
+      <c r="N265" s="22">
+        <f t="shared" ref="N265" si="126">+LN(C265/C264)</f>
         <v>0</v>
       </c>
-      <c r="O265" s="8">
-        <f t="shared" ref="O265" si="122">+LN(D265/D264)</f>
+      <c r="O265" s="22">
+        <f t="shared" ref="O265" si="127">+LN(D265/D264)</f>
         <v>2.3102506255507291E-2</v>
       </c>
-      <c r="P265" s="8">
-        <f t="shared" ref="P265" si="123">+LN(E265/E264)</f>
+      <c r="P265" s="22">
+        <f t="shared" ref="P265" si="128">+LN(E265/E264)</f>
         <v>-1.5630014613035596E-2</v>
       </c>
       <c r="Q265" s="8">
-        <f t="shared" ref="Q265" si="124">+_xlfn.STDEV.S(M246:M265)</f>
+        <f t="shared" ref="Q265" si="129">+_xlfn.STDEV.S(M246:M265)</f>
         <v>2.8585080719773948E-2</v>
       </c>
       <c r="R265" s="8">
-        <f t="shared" ref="R265" si="125">+_xlfn.STDEV.S(N246:N265)</f>
+        <f t="shared" ref="R265" si="130">+_xlfn.STDEV.S(N246:N265)</f>
         <v>8.6009657229332952E-3</v>
       </c>
       <c r="S265" s="8">
-        <f t="shared" ref="S265" si="126">+_xlfn.STDEV.S(O246:O265)</f>
+        <f t="shared" ref="S265" si="131">+_xlfn.STDEV.S(O246:O265)</f>
         <v>2.7540104235045146E-2</v>
       </c>
       <c r="T265" s="8">
-        <f t="shared" ref="T265" si="127">+_xlfn.STDEV.S(P246:P265)</f>
+        <f t="shared" ref="T265" si="132">+_xlfn.STDEV.S(P246:P265)</f>
         <v>1.1514662178500935E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="14">
         <v>45680</v>
       </c>
@@ -20656,63 +20704,63 @@
         <v>212.69126785262429</v>
       </c>
       <c r="G266" s="6">
-        <f t="shared" ref="G266:G272" si="128">+F266/$U$1</f>
+        <f t="shared" ref="G266:G272" si="133">+F266/$U$1</f>
         <v>2.1269126785262431</v>
       </c>
       <c r="H266" s="2">
-        <f t="shared" ref="H266:H272" si="129">+B266/G266</f>
+        <f t="shared" ref="H266:H272" si="134">+B266/G266</f>
         <v>48878.438240367694</v>
       </c>
       <c r="I266">
-        <f t="shared" ref="I266:I272" si="130">+C266/G266</f>
+        <f t="shared" ref="I266:I272" si="135">+C266/G266</f>
         <v>583.00465859238147</v>
       </c>
       <c r="J266">
-        <f t="shared" ref="J266:J272" si="131">+D266/F266</f>
+        <f t="shared" ref="J266:J272" si="136">+D266/F266</f>
         <v>12342.067572886541</v>
       </c>
       <c r="K266">
-        <f t="shared" ref="K266:K272" si="132">+D266/C266/G266</f>
+        <f t="shared" ref="K266:K272" si="137">+D266/C266/G266</f>
         <v>995.32803007149505</v>
       </c>
       <c r="L266">
-        <f t="shared" ref="L266:L272" si="133">+E266/G266</f>
+        <f t="shared" ref="L266:L272" si="138">+E266/G266</f>
         <v>30.932158458703856</v>
       </c>
-      <c r="M266" s="8">
-        <f t="shared" ref="M266:M272" si="134">+LN(B266/B265)</f>
+      <c r="M266" s="22">
+        <f t="shared" ref="M266:M272" si="139">+LN(B266/B265)</f>
         <v>2.958387663327274E-3</v>
       </c>
-      <c r="N266" s="8">
-        <f t="shared" ref="N266:N272" si="135">+LN(C266/C265)</f>
+      <c r="N266" s="22">
+        <f t="shared" ref="N266:N272" si="140">+LN(C266/C265)</f>
         <v>4.0404095370049058E-3</v>
       </c>
-      <c r="O266" s="8">
-        <f t="shared" ref="O266:O272" si="136">+LN(D266/D265)</f>
+      <c r="O266" s="22">
+        <f t="shared" ref="O266:O272" si="141">+LN(D266/D265)</f>
         <v>-2.1069699231050589E-2</v>
       </c>
-      <c r="P266" s="8">
-        <f t="shared" ref="P266:P272" si="137">+LN(E266/E265)</f>
+      <c r="P266" s="22">
+        <f t="shared" ref="P266:P272" si="142">+LN(E266/E265)</f>
         <v>-3.4898753271403187E-3</v>
       </c>
       <c r="Q266" s="8">
-        <f t="shared" ref="Q266:Q272" si="138">+_xlfn.STDEV.S(M247:M266)</f>
+        <f t="shared" ref="Q266:Q272" si="143">+_xlfn.STDEV.S(M247:M266)</f>
         <v>2.7198513953495634E-2</v>
       </c>
       <c r="R266" s="8">
-        <f t="shared" ref="R266:R272" si="139">+_xlfn.STDEV.S(N247:N266)</f>
+        <f t="shared" ref="R266:R272" si="144">+_xlfn.STDEV.S(N247:N266)</f>
         <v>8.6128677887320395E-3</v>
       </c>
       <c r="S266" s="8">
-        <f t="shared" ref="S266:S272" si="140">+_xlfn.STDEV.S(O247:O266)</f>
+        <f t="shared" ref="S266:S272" si="145">+_xlfn.STDEV.S(O247:O266)</f>
         <v>2.7765864111903484E-2</v>
       </c>
       <c r="T266" s="8">
-        <f t="shared" ref="T266:T272" si="141">+_xlfn.STDEV.S(P247:P266)</f>
+        <f t="shared" ref="T266:T272" si="146">+_xlfn.STDEV.S(P247:P266)</f>
         <v>1.1029651527722778E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="14">
         <v>45681</v>
       </c>
@@ -20732,63 +20780,63 @@
         <v>212.69282758851764</v>
       </c>
       <c r="G267" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>2.1269282758851764</v>
       </c>
       <c r="H267" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="134"/>
         <v>49282.094365112825</v>
       </c>
       <c r="I267">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>583.00038325643197</v>
       </c>
       <c r="J267">
-        <f t="shared" si="131"/>
+        <f t="shared" si="136"/>
         <v>12064.732173124448</v>
       </c>
       <c r="K267">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>972.96227202616512</v>
       </c>
       <c r="L267">
-        <f t="shared" si="133"/>
+        <f t="shared" si="138"/>
         <v>31.002455864458973</v>
       </c>
-      <c r="M267" s="8">
-        <f t="shared" si="134"/>
+      <c r="M267" s="22">
+        <f t="shared" si="139"/>
         <v>8.2317874601104332E-3</v>
       </c>
-      <c r="N267" s="8">
-        <f t="shared" si="135"/>
+      <c r="N267" s="22">
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
-      <c r="O267" s="8">
-        <f t="shared" si="136"/>
+      <c r="O267" s="22">
+        <f t="shared" si="141"/>
         <v>-2.2719721446080469E-2</v>
       </c>
-      <c r="P267" s="8">
-        <f t="shared" si="137"/>
+      <c r="P267" s="22">
+        <f t="shared" si="142"/>
         <v>2.2773865456783243E-3</v>
       </c>
       <c r="Q267" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>2.6732129457943867E-2</v>
       </c>
       <c r="R267" s="8">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>8.4739425119039567E-3</v>
       </c>
       <c r="S267" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>2.8200329308289574E-2</v>
       </c>
       <c r="T267" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1.10647785273127E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="14">
         <v>45684</v>
       </c>
@@ -20808,63 +20856,63 @@
         <v>212.69438733584906</v>
       </c>
       <c r="G268" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>2.1269438733584907</v>
       </c>
       <c r="H268" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="134"/>
         <v>47997.35962886567</v>
       </c>
       <c r="I268">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>578.29452643609409</v>
       </c>
       <c r="J268">
-        <f t="shared" si="131"/>
+        <f t="shared" si="136"/>
         <v>11467.622773461388</v>
       </c>
       <c r="K268">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>932.32705475295825</v>
       </c>
       <c r="L268">
-        <f t="shared" si="133"/>
+        <f t="shared" si="138"/>
         <v>30.865882650837055</v>
       </c>
-      <c r="M268" s="8">
-        <f t="shared" si="134"/>
+      <c r="M268" s="22">
+        <f t="shared" si="139"/>
         <v>-2.6407482645200955E-2</v>
       </c>
-      <c r="N268" s="8">
-        <f t="shared" si="135"/>
+      <c r="N268" s="22">
+        <f t="shared" si="140"/>
         <v>-8.0972102326193618E-3</v>
       </c>
-      <c r="O268" s="8">
-        <f t="shared" si="136"/>
+      <c r="O268" s="22">
+        <f t="shared" si="141"/>
         <v>-5.0751513219231631E-2</v>
       </c>
-      <c r="P268" s="8">
-        <f t="shared" si="137"/>
+      <c r="P268" s="22">
+        <f t="shared" si="142"/>
         <v>-4.4076368947796258E-3</v>
       </c>
       <c r="Q268" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>2.7236759674058402E-2</v>
       </c>
       <c r="R268" s="8">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>8.6917045956611851E-3</v>
       </c>
       <c r="S268" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>3.0191563617746983E-2</v>
       </c>
       <c r="T268" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1.0962515199686683E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="14">
         <v>45685</v>
       </c>
@@ -20884,63 +20932,63 @@
         <v>212.69594709461862</v>
       </c>
       <c r="G269" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>2.1269594709461863</v>
       </c>
       <c r="H269" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="134"/>
         <v>47641.942116989114</v>
       </c>
       <c r="I269">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>578.29028564085877</v>
       </c>
       <c r="J269">
-        <f t="shared" si="131"/>
+        <f t="shared" si="136"/>
         <v>11451.224309960646</v>
       </c>
       <c r="K269">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>930.99384633826378</v>
       </c>
       <c r="L269">
-        <f t="shared" si="133"/>
+        <f t="shared" si="138"/>
         <v>31.260586253870486</v>
       </c>
-      <c r="M269" s="8">
-        <f t="shared" si="134"/>
+      <c r="M269" s="22">
+        <f t="shared" si="139"/>
         <v>-7.4251581811635974E-3</v>
       </c>
-      <c r="N269" s="8">
-        <f t="shared" si="135"/>
+      <c r="N269" s="22">
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
-      <c r="O269" s="8">
-        <f t="shared" si="136"/>
+      <c r="O269" s="22">
+        <f t="shared" si="141"/>
         <v>-1.4236694174907284E-3</v>
       </c>
-      <c r="P269" s="8">
-        <f t="shared" si="137"/>
+      <c r="P269" s="22">
+        <f t="shared" si="142"/>
         <v>1.2713959665558314E-2</v>
       </c>
       <c r="Q269" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>2.7357511801461759E-2</v>
       </c>
       <c r="R269" s="8">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>8.24730078071928E-3</v>
       </c>
       <c r="S269" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>3.0188523056011128E-2</v>
       </c>
       <c r="T269" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1.1498861800611637E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="14">
         <v>45686</v>
       </c>
@@ -20960,63 +21008,63 @@
         <v>212.69750686482641</v>
       </c>
       <c r="G270" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>2.1269750686482642</v>
       </c>
       <c r="H270" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="134"/>
         <v>48756.194432455428</v>
       </c>
       <c r="I270">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>573.58453231674912</v>
       </c>
       <c r="J270">
-        <f t="shared" si="131"/>
+        <f t="shared" si="136"/>
         <v>11967.023203603536</v>
       </c>
       <c r="K270">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>980.90354127897831</v>
       </c>
       <c r="L270">
-        <f t="shared" si="133"/>
+        <f t="shared" si="138"/>
         <v>31.31207364942253</v>
       </c>
-      <c r="M270" s="8">
-        <f t="shared" si="134"/>
+      <c r="M270" s="22">
+        <f t="shared" si="139"/>
         <v>2.312607778332515E-2</v>
       </c>
-      <c r="N270" s="8">
-        <f t="shared" si="135"/>
+      <c r="N270" s="22">
+        <f t="shared" si="140"/>
         <v>-8.1633106391609811E-3</v>
       </c>
-      <c r="O270" s="8">
-        <f t="shared" si="136"/>
+      <c r="O270" s="22">
+        <f t="shared" si="141"/>
         <v>4.406548294327356E-2</v>
       </c>
-      <c r="P270" s="8">
-        <f t="shared" si="137"/>
+      <c r="P270" s="22">
+        <f t="shared" si="142"/>
         <v>1.6530171319798143E-3</v>
       </c>
       <c r="Q270" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>2.7657454266937023E-2</v>
       </c>
       <c r="R270" s="8">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>8.4468900902772964E-3</v>
       </c>
       <c r="S270" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>3.1899602621149069E-2</v>
       </c>
       <c r="T270" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1.1522383708074097E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="14">
         <v>45687</v>
       </c>
@@ -21036,136 +21084,168 @@
         <v>212.69906664647252</v>
       </c>
       <c r="G271" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>2.1269906664647253</v>
       </c>
       <c r="H271" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="134"/>
         <v>49241.071741081367</v>
       </c>
       <c r="I271">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>573.58032606121583</v>
       </c>
       <c r="J271">
-        <f t="shared" si="131"/>
+        <f t="shared" si="136"/>
         <v>12220.688322626018</v>
       </c>
       <c r="K271">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>1001.6957641496736</v>
       </c>
       <c r="L271">
+        <f t="shared" si="138"/>
+        <v>31.36356028815058</v>
+      </c>
+      <c r="M271" s="22">
+        <f t="shared" si="139"/>
+        <v>9.90314539226529E-3</v>
+      </c>
+      <c r="N271" s="22">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="O271" s="22">
+        <f t="shared" si="141"/>
+        <v>2.0982812455077736E-2</v>
+      </c>
+      <c r="P271" s="22">
+        <f t="shared" si="142"/>
+        <v>1.650289175080543E-3</v>
+      </c>
+      <c r="Q271" s="8">
+        <f t="shared" si="143"/>
+        <v>2.7244426555315889E-2</v>
+      </c>
+      <c r="R271" s="8">
+        <f t="shared" si="144"/>
+        <v>8.4468900902772964E-3</v>
+      </c>
+      <c r="S271" s="8">
+        <f t="shared" si="145"/>
+        <v>2.8898539956395932E-2</v>
+      </c>
+      <c r="T271" s="8">
+        <f t="shared" si="146"/>
+        <v>1.013324379078628E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="15">
+        <v>45688</v>
+      </c>
+      <c r="B272" s="11">
+        <v>102405.42</v>
+      </c>
+      <c r="C272" s="11">
+        <v>1220</v>
+      </c>
+      <c r="D272" s="11">
+        <v>2564659</v>
+      </c>
+      <c r="E272" s="11">
+        <v>66.45</v>
+      </c>
+      <c r="F272" s="11">
+        <v>212.70062643955703</v>
+      </c>
+      <c r="G272" s="12">
         <f t="shared" si="133"/>
-        <v>31.36356028815058</v>
-      </c>
-      <c r="M271" s="8">
+        <v>2.1270062643955701</v>
+      </c>
+      <c r="H272" s="13">
         <f t="shared" si="134"/>
-        <v>9.90314539226529E-3</v>
-      </c>
-      <c r="N271" s="8">
+        <v>48145.330699860671</v>
+      </c>
+      <c r="I272" s="11">
         <f t="shared" si="135"/>
+        <v>573.57611983652839</v>
+      </c>
+      <c r="J272" s="11">
+        <f t="shared" si="136"/>
+        <v>12057.599655113367</v>
+      </c>
+      <c r="K272" s="11">
+        <f t="shared" si="137"/>
+        <v>988.32784058306288</v>
+      </c>
+      <c r="L272" s="11">
+        <f t="shared" si="138"/>
+        <v>31.241092756669925</v>
+      </c>
+      <c r="M272" s="22">
+        <f t="shared" si="139"/>
+        <v>-2.2496573933432754E-2</v>
+      </c>
+      <c r="N272" s="22">
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
-      <c r="O271" s="8">
-        <f t="shared" si="136"/>
-        <v>2.0982812455077736E-2</v>
-      </c>
-      <c r="P271" s="8">
-        <f t="shared" si="137"/>
-        <v>1.650289175080543E-3</v>
-      </c>
-      <c r="Q271" s="8">
-        <f t="shared" si="138"/>
-        <v>2.7244426555315889E-2</v>
-      </c>
-      <c r="R271" s="8">
-        <f t="shared" si="139"/>
-        <v>8.4468900902772964E-3</v>
-      </c>
-      <c r="S271" s="8">
-        <f t="shared" si="140"/>
-        <v>2.8898539956395932E-2</v>
-      </c>
-      <c r="T271" s="8">
+      <c r="O272" s="22">
         <f t="shared" si="141"/>
-        <v>1.013324379078628E-2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="14">
-        <v>45688</v>
-      </c>
-      <c r="B272">
-        <v>102405.42</v>
-      </c>
-      <c r="C272">
-        <v>1220</v>
-      </c>
-      <c r="D272">
-        <v>2564659</v>
-      </c>
-      <c r="E272">
-        <v>66.45</v>
-      </c>
-      <c r="F272">
-        <v>212.70062643955703</v>
-      </c>
-      <c r="G272" s="6">
-        <f t="shared" si="128"/>
-        <v>2.1270062643955701</v>
-      </c>
-      <c r="H272" s="2">
-        <f t="shared" si="129"/>
-        <v>48145.330699860671</v>
-      </c>
-      <c r="I272">
-        <f t="shared" si="130"/>
-        <v>573.57611983652839</v>
-      </c>
-      <c r="J272">
-        <f t="shared" si="131"/>
-        <v>12057.599655113367</v>
-      </c>
-      <c r="K272">
-        <f t="shared" si="132"/>
-        <v>988.32784058306288</v>
-      </c>
-      <c r="L272">
-        <f t="shared" si="133"/>
-        <v>31.241092756669925</v>
-      </c>
-      <c r="M272" s="8">
-        <f t="shared" si="134"/>
-        <v>-2.2496573933432754E-2</v>
-      </c>
-      <c r="N272" s="8">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="O272" s="8">
-        <f t="shared" si="136"/>
         <v>-1.3427808481598708E-2</v>
       </c>
-      <c r="P272" s="8">
-        <f t="shared" si="137"/>
+      <c r="P272" s="22">
+        <f t="shared" si="142"/>
         <v>-3.9050815621696142E-3</v>
       </c>
-      <c r="Q272" s="8">
-        <f t="shared" si="138"/>
+      <c r="Q272" s="19">
+        <f t="shared" si="143"/>
         <v>2.7780840247965493E-2</v>
       </c>
-      <c r="R272" s="8">
-        <f t="shared" si="139"/>
+      <c r="R272" s="19">
+        <f t="shared" si="144"/>
         <v>6.9949558265587656E-3</v>
       </c>
-      <c r="S272" s="8">
-        <f t="shared" si="140"/>
+      <c r="S272" s="19">
+        <f t="shared" si="145"/>
         <v>2.8810434875523906E-2</v>
       </c>
-      <c r="T272" s="8">
-        <f t="shared" si="141"/>
+      <c r="T272" s="19">
+        <f t="shared" si="146"/>
         <v>1.0074045462583243E-2</v>
+      </c>
+      <c r="U272" s="19">
+        <f>SUM(M251:M272)</f>
+        <v>8.1189267611627647E-2</v>
+      </c>
+      <c r="V272" s="19">
+        <f t="shared" ref="V272" si="147">SUM(N251:N272)</f>
+        <v>-8.1633106391609672E-3</v>
+      </c>
+      <c r="W272" s="19">
+        <f t="shared" ref="W272" si="148">SUM(O251:O272)</f>
+        <v>1.217049583297181E-2</v>
+      </c>
+      <c r="X272" s="19">
+        <f t="shared" ref="X272" si="149">SUM(P251:P272)</f>
+        <v>-4.7139261276747425E-2</v>
+      </c>
+      <c r="Y272" s="19">
+        <f t="shared" ref="Y272" si="150">SUM(Q251:Q272)</f>
+        <v>0.62489379405292411</v>
+      </c>
+      <c r="Z272" s="19">
+        <f t="shared" ref="Z272" si="151">SUM(R251:R272)</f>
+        <v>0.26383976020155558</v>
+      </c>
+      <c r="AA272" s="19">
+        <f t="shared" ref="AA272" si="152">SUM(S251:S272)</f>
+        <v>0.6029191320942946</v>
+      </c>
+      <c r="AB272" s="19">
+        <f t="shared" ref="AB272" si="153">SUM(T251:T272)</f>
+        <v>0.27301263152702265</v>
       </c>
     </row>
     <row r="273" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21188,59 +21268,59 @@
         <v>212.70218624408</v>
       </c>
       <c r="G273" s="6">
-        <f t="shared" ref="G273" si="142">+F273/$U$1</f>
+        <f t="shared" ref="G273" si="154">+F273/$U$1</f>
         <v>2.1270218624408002</v>
       </c>
       <c r="H273" s="2">
-        <f t="shared" ref="H273" si="143">+B273/G273</f>
+        <f t="shared" ref="H273" si="155">+B273/G273</f>
         <v>47674.836723885506</v>
       </c>
       <c r="I273">
-        <f t="shared" ref="I273" si="144">+C273/G273</f>
+        <f t="shared" ref="I273" si="156">+C273/G273</f>
         <v>573.57191364268613</v>
       </c>
       <c r="J273">
-        <f t="shared" ref="J273" si="145">+D273/F273</f>
+        <f t="shared" ref="J273" si="157">+D273/F273</f>
         <v>11678.939666136785</v>
       </c>
       <c r="K273">
-        <f t="shared" ref="K273" si="146">+D273/C273/G273</f>
+        <f t="shared" ref="K273" si="158">+D273/C273/G273</f>
         <v>957.29013656858888</v>
       </c>
       <c r="L273">
-        <f t="shared" ref="L273" si="147">+E273/G273</f>
+        <f t="shared" ref="L273" si="159">+E273/G273</f>
         <v>30.89295938152533</v>
       </c>
-      <c r="M273" s="8">
-        <f t="shared" ref="M273" si="148">+LN(B273/B272)</f>
+      <c r="M273" s="22">
+        <f t="shared" ref="M273" si="160">+LN(B273/B272)</f>
         <v>-9.8130994870594748E-3</v>
       </c>
-      <c r="N273" s="8">
-        <f t="shared" ref="N273" si="149">+LN(C273/C272)</f>
+      <c r="N273" s="22">
+        <f t="shared" ref="N273" si="161">+LN(C273/C272)</f>
         <v>0</v>
       </c>
-      <c r="O273" s="8">
-        <f t="shared" ref="O273" si="150">+LN(D273/D272)</f>
+      <c r="O273" s="22">
+        <f t="shared" ref="O273" si="162">+LN(D273/D272)</f>
         <v>-3.1900613340120697E-2</v>
       </c>
-      <c r="P273" s="8">
-        <f t="shared" ref="P273" si="151">+LN(E273/E272)</f>
+      <c r="P273" s="22">
+        <f t="shared" ref="P273" si="163">+LN(E273/E272)</f>
         <v>-1.1198664249477939E-2</v>
       </c>
       <c r="Q273" s="8">
-        <f t="shared" ref="Q273" si="152">+_xlfn.STDEV.S(M254:M273)</f>
+        <f t="shared" ref="Q273" si="164">+_xlfn.STDEV.S(M254:M273)</f>
         <v>2.643328412134412E-2</v>
       </c>
       <c r="R273" s="8">
-        <f t="shared" ref="R273" si="153">+_xlfn.STDEV.S(N254:N273)</f>
+        <f t="shared" ref="R273" si="165">+_xlfn.STDEV.S(N254:N273)</f>
         <v>6.9949558265587656E-3</v>
       </c>
       <c r="S273" s="8">
-        <f t="shared" ref="S273" si="154">+_xlfn.STDEV.S(O254:O273)</f>
+        <f t="shared" ref="S273" si="166">+_xlfn.STDEV.S(O254:O273)</f>
         <v>2.8631575982280826E-2</v>
       </c>
       <c r="T273" s="8">
-        <f t="shared" ref="T273" si="155">+_xlfn.STDEV.S(P254:P273)</f>
+        <f t="shared" ref="T273" si="167">+_xlfn.STDEV.S(P254:P273)</f>
         <v>9.7751765864891402E-3</v>
       </c>
     </row>
@@ -21264,59 +21344,59 @@
         <v>212.70374606004154</v>
       </c>
       <c r="G274" s="6">
-        <f t="shared" ref="G274:G279" si="156">+F274/$U$1</f>
+        <f t="shared" ref="G274:G279" si="168">+F274/$U$1</f>
         <v>2.1270374606004152</v>
       </c>
       <c r="H274" s="2">
-        <f t="shared" ref="H274:H279" si="157">+B274/G274</f>
+        <f t="shared" ref="H274:H279" si="169">+B274/G274</f>
         <v>46013.20936415148</v>
       </c>
       <c r="I274">
-        <f t="shared" ref="I274:I279" si="158">+C274/G274</f>
+        <f t="shared" ref="I274:I279" si="170">+C274/G274</f>
         <v>573.56770747968926</v>
       </c>
       <c r="J274">
-        <f t="shared" ref="J274:J279" si="159">+D274/F274</f>
+        <f t="shared" ref="J274:J279" si="171">+D274/F274</f>
         <v>11864.610035065534</v>
       </c>
       <c r="K274">
-        <f t="shared" ref="K274:K279" si="160">+D274/C274/G274</f>
+        <f t="shared" ref="K274:K279" si="172">+D274/C274/G274</f>
         <v>972.50901926766687</v>
       </c>
       <c r="L274">
-        <f t="shared" ref="L274:L279" si="161">+E274/G274</f>
+        <f t="shared" ref="L274:L279" si="173">+E274/G274</f>
         <v>30.709379223420736</v>
       </c>
-      <c r="M274" s="8">
-        <f t="shared" ref="M274:M279" si="162">+LN(B274/B273)</f>
+      <c r="M274" s="22">
+        <f t="shared" ref="M274:M279" si="174">+LN(B274/B273)</f>
         <v>-3.5467878043435243E-2</v>
       </c>
-      <c r="N274" s="8">
-        <f t="shared" ref="N274:N279" si="163">+LN(C274/C273)</f>
+      <c r="N274" s="22">
+        <f t="shared" ref="N274:N279" si="175">+LN(C274/C273)</f>
         <v>0</v>
       </c>
-      <c r="O274" s="8">
-        <f t="shared" ref="O274:O279" si="164">+LN(D274/D273)</f>
+      <c r="O274" s="22">
+        <f t="shared" ref="O274:O279" si="176">+LN(D274/D273)</f>
         <v>1.5780164553697403E-2</v>
       </c>
-      <c r="P274" s="8">
-        <f t="shared" ref="P274:P279" si="165">+LN(E274/E273)</f>
+      <c r="P274" s="22">
+        <f t="shared" ref="P274:P279" si="177">+LN(E274/E273)</f>
         <v>-5.9528528075121056E-3</v>
       </c>
       <c r="Q274" s="8">
-        <f t="shared" ref="Q274:Q279" si="166">+_xlfn.STDEV.S(M255:M274)</f>
+        <f t="shared" ref="Q274:Q279" si="178">+_xlfn.STDEV.S(M255:M274)</f>
         <v>2.4821879372159711E-2</v>
       </c>
       <c r="R274" s="8">
-        <f t="shared" ref="R274:R279" si="167">+_xlfn.STDEV.S(N255:N274)</f>
+        <f t="shared" ref="R274:R279" si="179">+_xlfn.STDEV.S(N255:N274)</f>
         <v>6.9949558265587656E-3</v>
       </c>
       <c r="S274" s="8">
-        <f t="shared" ref="S274:S279" si="168">+_xlfn.STDEV.S(O255:O274)</f>
+        <f t="shared" ref="S274:S279" si="180">+_xlfn.STDEV.S(O255:O274)</f>
         <v>2.8896938536318677E-2</v>
       </c>
       <c r="T274" s="8">
-        <f t="shared" ref="T274:T279" si="169">+_xlfn.STDEV.S(P255:P274)</f>
+        <f t="shared" ref="T274:T279" si="181">+_xlfn.STDEV.S(P255:P274)</f>
         <v>9.7703974103127006E-3</v>
       </c>
     </row>
@@ -21340,59 +21420,59 @@
         <v>212.70530588744174</v>
       </c>
       <c r="G275" s="6">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>2.1270530588744174</v>
       </c>
       <c r="H275" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="169"/>
         <v>45422.209660875335</v>
       </c>
       <c r="I275">
-        <f t="shared" si="158"/>
+        <f t="shared" si="170"/>
         <v>571.21283126004732</v>
       </c>
       <c r="J275">
-        <f t="shared" si="159"/>
+        <f t="shared" si="171"/>
         <v>11648.576370309933</v>
       </c>
       <c r="K275">
-        <f t="shared" si="160"/>
+        <f t="shared" si="172"/>
         <v>958.73056545760755</v>
       </c>
       <c r="L275">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>30.568113817718743</v>
       </c>
-      <c r="M275" s="8">
-        <f t="shared" si="162"/>
+      <c r="M275" s="22">
+        <f t="shared" si="174"/>
         <v>-1.2919997043715541E-2</v>
       </c>
-      <c r="N275" s="8">
-        <f t="shared" si="163"/>
+      <c r="N275" s="22">
+        <f t="shared" si="175"/>
         <v>-4.1067819526533593E-3</v>
       </c>
-      <c r="O275" s="8">
-        <f t="shared" si="164"/>
+      <c r="O275" s="22">
+        <f t="shared" si="176"/>
         <v>-1.8368716640495109E-2</v>
       </c>
-      <c r="P275" s="8">
-        <f t="shared" si="165"/>
+      <c r="P275" s="22">
+        <f t="shared" si="177"/>
         <v>-4.6033532265050163E-3</v>
       </c>
       <c r="Q275" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="178"/>
         <v>2.4636554845545593E-2</v>
       </c>
       <c r="R275" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="179"/>
         <v>6.8282490291801832E-3</v>
       </c>
       <c r="S275" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="180"/>
         <v>2.897774933328754E-2</v>
       </c>
       <c r="T275" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="181"/>
         <v>6.1829176419892417E-3</v>
       </c>
     </row>
@@ -21416,59 +21496,59 @@
         <v>212.70686572628068</v>
       </c>
       <c r="G276" s="6">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>2.1270686572628068</v>
       </c>
       <c r="H276" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="169"/>
         <v>45411.463175006276</v>
       </c>
       <c r="I276">
-        <f t="shared" si="158"/>
+        <f t="shared" si="170"/>
         <v>571.20864239686011</v>
       </c>
       <c r="J276">
-        <f t="shared" si="159"/>
+        <f t="shared" si="171"/>
         <v>11769.638894597683</v>
       </c>
       <c r="K276">
-        <f t="shared" si="160"/>
+        <f t="shared" si="172"/>
         <v>968.69455922614668</v>
       </c>
       <c r="L276">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>30.765344492551872</v>
       </c>
-      <c r="M276" s="8">
-        <f t="shared" si="162"/>
+      <c r="M276" s="22">
+        <f t="shared" si="174"/>
         <v>-2.2928568294175298E-4</v>
       </c>
-      <c r="N276" s="8">
-        <f t="shared" si="163"/>
+      <c r="N276" s="22">
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="O276" s="8">
-        <f t="shared" si="164"/>
+      <c r="O276" s="22">
+        <f t="shared" si="176"/>
         <v>1.0346601383235001E-2</v>
       </c>
-      <c r="P276" s="8">
-        <f t="shared" si="165"/>
+      <c r="P276" s="22">
+        <f t="shared" si="177"/>
         <v>6.4387774187324642E-3</v>
       </c>
       <c r="Q276" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="178"/>
         <v>2.3737625727949192E-2</v>
       </c>
       <c r="R276" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="179"/>
         <v>6.759654967753939E-3</v>
       </c>
       <c r="S276" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="180"/>
         <v>2.8746195758183293E-2</v>
       </c>
       <c r="T276" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="181"/>
         <v>6.5063101207080837E-3</v>
       </c>
     </row>
@@ -21492,59 +21572,59 @@
         <v>212.70842557655843</v>
       </c>
       <c r="G277" s="6">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>2.1270842557655842</v>
       </c>
       <c r="H277" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="169"/>
         <v>45380.943297545615</v>
       </c>
       <c r="I277">
-        <f t="shared" si="158"/>
+        <f t="shared" si="170"/>
         <v>571.20445356439109</v>
       </c>
       <c r="J277">
-        <f t="shared" si="159"/>
+        <f t="shared" si="171"/>
         <v>11360.067159776381</v>
       </c>
       <c r="K277">
-        <f t="shared" si="160"/>
+        <f t="shared" si="172"/>
         <v>934.98495142192451</v>
       </c>
       <c r="L277">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>30.581769304002993</v>
       </c>
-      <c r="M277" s="8">
-        <f t="shared" si="162"/>
+      <c r="M277" s="22">
+        <f t="shared" si="174"/>
         <v>-6.6496694004302488E-4</v>
       </c>
-      <c r="N277" s="8">
-        <f t="shared" si="163"/>
+      <c r="N277" s="22">
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="O277" s="8">
-        <f t="shared" si="164"/>
+      <c r="O277" s="22">
+        <f t="shared" si="176"/>
         <v>-3.5411582114624529E-2</v>
       </c>
-      <c r="P277" s="8">
-        <f t="shared" si="165"/>
+      <c r="P277" s="22">
+        <f t="shared" si="177"/>
         <v>-5.9774873359773164E-3</v>
       </c>
       <c r="Q277" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="178"/>
         <v>2.3194058920723779E-2</v>
       </c>
       <c r="R277" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="179"/>
         <v>6.6843167752709117E-3</v>
       </c>
       <c r="S277" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="180"/>
         <v>2.9483147777733337E-2</v>
       </c>
       <c r="T277" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="181"/>
         <v>6.5453707991472345E-3</v>
       </c>
     </row>
@@ -21568,59 +21648,59 @@
         <v>212.70998543827508</v>
       </c>
       <c r="G278" s="6">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>2.1270998543827506</v>
       </c>
       <c r="H278" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="169"/>
         <v>45807.699059936596</v>
       </c>
       <c r="I278">
-        <f t="shared" si="158"/>
+        <f t="shared" si="170"/>
         <v>566.49902801562234</v>
       </c>
       <c r="J278">
-        <f t="shared" si="159"/>
+        <f t="shared" si="171"/>
         <v>11242.387117242013</v>
       </c>
       <c r="K278">
-        <f t="shared" si="160"/>
+        <f t="shared" si="172"/>
         <v>932.9781840034866</v>
       </c>
       <c r="L278">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>30.393495569468868</v>
       </c>
-      <c r="M278" s="8">
-        <f t="shared" si="162"/>
+      <c r="M278" s="22">
+        <f t="shared" si="174"/>
         <v>9.367246272332614E-3</v>
       </c>
-      <c r="N278" s="8">
-        <f t="shared" si="163"/>
+      <c r="N278" s="22">
+        <f t="shared" si="175"/>
         <v>-8.2645098498934245E-3</v>
       </c>
-      <c r="O278" s="8">
-        <f t="shared" si="164"/>
+      <c r="O278" s="22">
+        <f t="shared" si="176"/>
         <v>-1.0405793025991133E-2</v>
       </c>
-      <c r="P278" s="8">
-        <f t="shared" si="165"/>
+      <c r="P278" s="22">
+        <f t="shared" si="177"/>
         <v>-6.1680997406476611E-3</v>
       </c>
       <c r="Q278" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="178"/>
         <v>2.3257365876333091E-2</v>
       </c>
       <c r="R278" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="179"/>
         <v>4.8407341033250258E-3</v>
       </c>
       <c r="S278" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="180"/>
         <v>2.7309926762754757E-2</v>
       </c>
       <c r="T278" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="181"/>
         <v>6.5259850258142784E-3</v>
       </c>
     </row>
@@ -21644,59 +21724,59 @@
         <v>212.71154531143071</v>
       </c>
       <c r="G279" s="6">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>2.1271154531143073</v>
       </c>
       <c r="H279" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="169"/>
         <v>45012.803540972018</v>
       </c>
       <c r="I279">
-        <f t="shared" si="158"/>
+        <f t="shared" si="170"/>
         <v>566.49487372007047</v>
       </c>
       <c r="J279">
-        <f t="shared" si="159"/>
+        <f t="shared" si="171"/>
         <v>10688.503046091231</v>
       </c>
       <c r="K279">
-        <f t="shared" si="160"/>
+        <f t="shared" si="172"/>
         <v>887.01270092043399</v>
       </c>
       <c r="L279">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>30.388571483207766</v>
       </c>
-      <c r="M279" s="8">
-        <f t="shared" si="162"/>
+      <c r="M279" s="22">
+        <f t="shared" si="174"/>
         <v>-1.7497872997852448E-2</v>
       </c>
-      <c r="N279" s="8">
-        <f t="shared" si="163"/>
+      <c r="N279" s="22">
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="O279" s="8">
-        <f t="shared" si="164"/>
+      <c r="O279" s="22">
+        <f t="shared" si="176"/>
         <v>-5.0515183464586236E-2</v>
       </c>
-      <c r="P279" s="8">
-        <f t="shared" si="165"/>
+      <c r="P279" s="22">
+        <f t="shared" si="177"/>
         <v>-1.5469100502658059E-4</v>
       </c>
       <c r="Q279" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="178"/>
         <v>2.3147401502046725E-2</v>
       </c>
       <c r="R279" s="8">
-        <f t="shared" si="167"/>
+        <f t="shared" si="179"/>
         <v>4.6278845741279584E-3</v>
       </c>
       <c r="S279" s="8">
-        <f t="shared" si="168"/>
+        <f t="shared" si="180"/>
         <v>2.7847611856520946E-2</v>
       </c>
       <c r="T279" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="181"/>
         <v>6.4983470993695419E-3</v>
       </c>
     </row>
@@ -21720,59 +21800,59 @@
         <v>212.71154531143071</v>
       </c>
       <c r="G280" s="6">
-        <f t="shared" ref="G280:G283" si="170">+F280/$U$1</f>
+        <f t="shared" ref="G280:G283" si="182">+F280/$U$1</f>
         <v>2.1271154531143073</v>
       </c>
       <c r="H280" s="2">
-        <f t="shared" ref="H280:H283" si="171">+B280/G280</f>
+        <f t="shared" ref="H280:H283" si="183">+B280/G280</f>
         <v>46018.122738324062</v>
       </c>
       <c r="I280">
-        <f t="shared" ref="I280:I283" si="172">+C280/G280</f>
+        <f t="shared" ref="I280:I283" si="184">+C280/G280</f>
         <v>568.84547485583846</v>
       </c>
       <c r="J280">
-        <f t="shared" ref="J280:J283" si="173">+D280/F280</f>
+        <f t="shared" ref="J280:J283" si="185">+D280/F280</f>
         <v>10746.224407581149</v>
       </c>
       <c r="K280">
-        <f t="shared" ref="K280:K283" si="174">+D280/C280/G280</f>
+        <f t="shared" ref="K280:K283" si="186">+D280/C280/G280</f>
         <v>888.11771963480555</v>
       </c>
       <c r="L280">
-        <f t="shared" ref="L280:L283" si="175">+E280/G280</f>
+        <f t="shared" ref="L280:L283" si="187">+E280/G280</f>
         <v>30.524906349082308</v>
       </c>
-      <c r="M280" s="8">
-        <f t="shared" ref="M280:M283" si="176">+LN(B280/B279)</f>
+      <c r="M280" s="22">
+        <f t="shared" ref="M280:M283" si="188">+LN(B280/B279)</f>
         <v>2.208831904054007E-2</v>
       </c>
-      <c r="N280" s="8">
-        <f t="shared" ref="N280:N283" si="177">+LN(C280/C279)</f>
+      <c r="N280" s="22">
+        <f t="shared" ref="N280:N283" si="189">+LN(C280/C279)</f>
         <v>4.1407926660313871E-3</v>
       </c>
-      <c r="O280" s="8">
-        <f t="shared" ref="O280:O283" si="178">+LN(D280/D279)</f>
+      <c r="O280" s="22">
+        <f t="shared" ref="O280:O283" si="190">+LN(D280/D279)</f>
         <v>5.3857928579157327E-3</v>
       </c>
-      <c r="P280" s="8">
-        <f t="shared" ref="P280:P283" si="179">+LN(E280/E279)</f>
+      <c r="P280" s="22">
+        <f t="shared" ref="P280:P283" si="191">+LN(E280/E279)</f>
         <v>4.4763523075555455E-3</v>
       </c>
       <c r="Q280" s="8">
-        <f t="shared" ref="Q280:Q283" si="180">+_xlfn.STDEV.S(M261:M280)</f>
+        <f t="shared" ref="Q280:Q283" si="192">+_xlfn.STDEV.S(M261:M280)</f>
         <v>2.1778806039037545E-2</v>
       </c>
       <c r="R280" s="8">
-        <f t="shared" ref="R280:R283" si="181">+_xlfn.STDEV.S(N261:N280)</f>
+        <f t="shared" ref="R280:R283" si="193">+_xlfn.STDEV.S(N261:N280)</f>
         <v>4.7852497745907129E-3</v>
       </c>
       <c r="S280" s="8">
-        <f t="shared" ref="S280:S283" si="182">+_xlfn.STDEV.S(O261:O280)</f>
+        <f t="shared" ref="S280:S283" si="194">+_xlfn.STDEV.S(O261:O280)</f>
         <v>2.8034359161389855E-2</v>
       </c>
       <c r="T280" s="8">
-        <f t="shared" ref="T280:T283" si="183">+_xlfn.STDEV.S(P261:P280)</f>
+        <f t="shared" ref="T280:T283" si="195">+_xlfn.STDEV.S(P261:P280)</f>
         <v>6.6630921778261087E-3</v>
       </c>
     </row>
@@ -21796,59 +21876,59 @@
         <v>212.71154531143071</v>
       </c>
       <c r="G281" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="182"/>
         <v>2.1271154531143073</v>
       </c>
       <c r="H281" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="183"/>
         <v>45424.835712858512</v>
       </c>
       <c r="I281">
-        <f t="shared" si="172"/>
+        <f t="shared" si="184"/>
         <v>573.54667712737421</v>
       </c>
       <c r="J281">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>11065.426639413889</v>
       </c>
       <c r="K281">
-        <f t="shared" si="174"/>
+        <f t="shared" si="186"/>
         <v>907.00218355851541</v>
       </c>
       <c r="L281">
-        <f t="shared" si="175"/>
+        <f t="shared" si="187"/>
         <v>30.825783294460596</v>
       </c>
-      <c r="M281" s="8">
-        <f t="shared" si="176"/>
+      <c r="M281" s="22">
+        <f t="shared" si="188"/>
         <v>-1.2976293866793016E-2</v>
       </c>
-      <c r="N281" s="8">
-        <f t="shared" si="177"/>
+      <c r="N281" s="22">
+        <f t="shared" si="189"/>
         <v>8.2304991365154435E-3</v>
       </c>
-      <c r="O281" s="8">
-        <f t="shared" si="178"/>
+      <c r="O281" s="22">
+        <f t="shared" si="190"/>
         <v>2.9271055338025896E-2</v>
       </c>
-      <c r="P281" s="8">
-        <f t="shared" si="179"/>
+      <c r="P281" s="22">
+        <f t="shared" si="191"/>
         <v>9.8085077551323518E-3</v>
       </c>
       <c r="Q281" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="192"/>
         <v>2.1895190649953825E-2</v>
       </c>
       <c r="R281" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="193"/>
         <v>4.4947160529478954E-3</v>
       </c>
       <c r="S281" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="194"/>
         <v>2.8834624471654646E-2</v>
       </c>
       <c r="T281" s="8">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>7.0429387786522168E-3</v>
       </c>
     </row>
@@ -21872,59 +21952,59 @@
         <v>212.71154531143071</v>
       </c>
       <c r="G282" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="182"/>
         <v>2.1271154531143073</v>
       </c>
       <c r="H282" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="183"/>
         <v>45840.939125912148</v>
       </c>
       <c r="I282">
-        <f t="shared" si="172"/>
+        <f t="shared" si="184"/>
         <v>575.8972782631422</v>
       </c>
       <c r="J282">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>11223.5844862329</v>
       </c>
       <c r="K282">
-        <f t="shared" si="174"/>
+        <f t="shared" si="186"/>
         <v>916.21097846799171</v>
       </c>
       <c r="L282">
-        <f t="shared" si="175"/>
+        <f t="shared" si="187"/>
         <v>30.910404935348243</v>
       </c>
-      <c r="M282" s="8">
-        <f t="shared" si="176"/>
+      <c r="M282" s="22">
+        <f t="shared" si="188"/>
         <v>9.1185616288482069E-3</v>
       </c>
-      <c r="N282" s="8">
-        <f t="shared" si="177"/>
+      <c r="N282" s="22">
+        <f t="shared" si="189"/>
         <v>4.0899852515250664E-3</v>
       </c>
-      <c r="O282" s="8">
-        <f t="shared" si="178"/>
+      <c r="O282" s="22">
+        <f t="shared" si="190"/>
         <v>1.4191791679406436E-2</v>
       </c>
-      <c r="P282" s="8">
-        <f t="shared" si="179"/>
+      <c r="P282" s="22">
+        <f t="shared" si="191"/>
         <v>2.7413967823459559E-3</v>
       </c>
       <c r="Q282" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="192"/>
         <v>1.9030973516827358E-2</v>
       </c>
       <c r="R282" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="193"/>
         <v>4.1802005506250631E-3</v>
       </c>
       <c r="S282" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="194"/>
         <v>2.7490099550976695E-2</v>
       </c>
       <c r="T282" s="8">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>6.7710868747120267E-3</v>
       </c>
     </row>
@@ -21948,59 +22028,59 @@
         <v>212.71154531143071</v>
       </c>
       <c r="G283" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="182"/>
         <v>2.1271154531143073</v>
       </c>
       <c r="H283" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="183"/>
         <v>45025.003160866661</v>
       </c>
       <c r="I283">
-        <f t="shared" si="172"/>
+        <f t="shared" si="184"/>
         <v>573.54667712737421</v>
       </c>
       <c r="J283">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>10597.398447271138</v>
       </c>
       <c r="K283">
-        <f t="shared" si="174"/>
+        <f t="shared" si="186"/>
         <v>868.6392169894375</v>
       </c>
       <c r="L283">
-        <f t="shared" si="175"/>
+        <f t="shared" si="187"/>
         <v>30.477894326366943</v>
       </c>
-      <c r="M283" s="8">
-        <f t="shared" si="176"/>
+      <c r="M283" s="22">
+        <f t="shared" si="188"/>
         <v>-1.7959597972098652E-2</v>
       </c>
-      <c r="N283" s="8">
-        <f t="shared" si="177"/>
+      <c r="N283" s="22">
+        <f t="shared" si="189"/>
         <v>-4.0899852515251661E-3</v>
       </c>
-      <c r="O283" s="8">
-        <f t="shared" si="178"/>
+      <c r="O283" s="22">
+        <f t="shared" si="190"/>
         <v>-5.7408780507675013E-2</v>
       </c>
-      <c r="P283" s="8">
-        <f t="shared" si="179"/>
+      <c r="P283" s="22">
+        <f t="shared" si="191"/>
         <v>-1.409121187096966E-2</v>
       </c>
       <c r="Q283" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" si="192"/>
         <v>1.8751335015598627E-2</v>
       </c>
       <c r="R283" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="193"/>
         <v>4.2585754168434926E-3</v>
       </c>
       <c r="S283" s="8">
-        <f t="shared" si="182"/>
+        <f t="shared" si="194"/>
         <v>2.9892724962540789E-2</v>
       </c>
       <c r="T283" s="8">
-        <f t="shared" si="183"/>
+        <f t="shared" si="195"/>
         <v>7.3541039183597683E-3</v>
       </c>
     </row>
@@ -22024,59 +22104,59 @@
         <v>212.71310519602542</v>
       </c>
       <c r="G284" s="6">
-        <f t="shared" ref="G284:G285" si="184">+F284/$U$1</f>
+        <f t="shared" ref="G284:G285" si="196">+F284/$U$1</f>
         <v>2.1271310519602542</v>
       </c>
       <c r="H284" s="2">
-        <f t="shared" ref="H284:H285" si="185">+B284/G284</f>
+        <f t="shared" ref="H284:H285" si="197">+B284/G284</f>
         <v>44914.745573365442</v>
       </c>
       <c r="I284">
-        <f t="shared" ref="I284:I285" si="186">+C284/G284</f>
+        <f t="shared" ref="I284:I285" si="198">+C284/G284</f>
         <v>580.59422284390416</v>
       </c>
       <c r="J284">
-        <f t="shared" ref="J284:J285" si="187">+D284/F284</f>
+        <f t="shared" ref="J284:J285" si="199">+D284/F284</f>
         <v>11243.900547622157</v>
       </c>
       <c r="K284">
-        <f t="shared" ref="K284:K285" si="188">+D284/C284/G284</f>
+        <f t="shared" ref="K284:K285" si="200">+D284/C284/G284</f>
         <v>910.43729130543795</v>
       </c>
       <c r="L284">
-        <f t="shared" ref="L284:L285" si="189">+E284/G284</f>
+        <f t="shared" ref="L284:L285" si="201">+E284/G284</f>
         <v>30.614004689550637</v>
       </c>
-      <c r="M284" s="8">
-        <f t="shared" ref="M284:M285" si="190">+LN(B284/B283)</f>
+      <c r="M284" s="22">
+        <f t="shared" ref="M284:M285" si="202">+LN(B284/B283)</f>
         <v>-2.444477918319947E-3</v>
       </c>
-      <c r="N284" s="8">
-        <f t="shared" ref="N284:N285" si="191">+LN(C284/C283)</f>
+      <c r="N284" s="22">
+        <f t="shared" ref="N284:N285" si="203">+LN(C284/C283)</f>
         <v>1.2220111334775397E-2</v>
       </c>
-      <c r="O284" s="8">
-        <f t="shared" ref="O284:O285" si="192">+LN(D284/D283)</f>
+      <c r="O284" s="22">
+        <f t="shared" ref="O284:O285" si="204">+LN(D284/D283)</f>
         <v>5.9224599890071714E-2</v>
       </c>
-      <c r="P284" s="8">
-        <f t="shared" ref="P284:P285" si="193">+LN(E284/E283)</f>
+      <c r="P284" s="22">
+        <f t="shared" ref="P284:P285" si="205">+LN(E284/E283)</f>
         <v>4.4632625073807632E-3</v>
       </c>
       <c r="Q284" s="8">
-        <f t="shared" ref="Q284:Q285" si="194">+_xlfn.STDEV.S(M265:M284)</f>
+        <f t="shared" ref="Q284:Q285" si="206">+_xlfn.STDEV.S(M265:M284)</f>
         <v>1.6064847826357406E-2</v>
       </c>
       <c r="R284" s="8">
-        <f t="shared" ref="R284:R285" si="195">+_xlfn.STDEV.S(N265:N284)</f>
+        <f t="shared" ref="R284:R285" si="207">+_xlfn.STDEV.S(N265:N284)</f>
         <v>5.1369226100127941E-3</v>
       </c>
       <c r="S284" s="8">
-        <f t="shared" ref="S284:S285" si="196">+_xlfn.STDEV.S(O265:O284)</f>
+        <f t="shared" ref="S284:S285" si="208">+_xlfn.STDEV.S(O265:O284)</f>
         <v>3.2228714634906439E-2</v>
       </c>
       <c r="T284" s="8">
-        <f t="shared" ref="T284:T285" si="197">+_xlfn.STDEV.S(P265:P284)</f>
+        <f t="shared" ref="T284:T285" si="209">+_xlfn.STDEV.S(P265:P284)</f>
         <v>7.4688464001320884E-3</v>
       </c>
     </row>
@@ -22100,59 +22180,59 @@
         <v>212.71466509205928</v>
       </c>
       <c r="G285" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>2.1271466509205927</v>
       </c>
       <c r="H285" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="197"/>
         <v>45392.164173641861</v>
       </c>
       <c r="I285">
-        <f t="shared" si="186"/>
+        <f t="shared" si="198"/>
         <v>580.58996518435299</v>
       </c>
       <c r="J285">
-        <f t="shared" si="187"/>
+        <f t="shared" si="199"/>
         <v>11290.143060708286</v>
       </c>
       <c r="K285">
-        <f t="shared" si="188"/>
+        <f t="shared" si="200"/>
         <v>914.18162434884903</v>
       </c>
       <c r="L285">
-        <f t="shared" si="189"/>
+        <f t="shared" si="201"/>
         <v>30.392826922403582</v>
       </c>
-      <c r="M285" s="8">
-        <f t="shared" si="190"/>
+      <c r="M285" s="22">
+        <f t="shared" si="202"/>
         <v>1.0580678122833191E-2</v>
       </c>
-      <c r="N285" s="8">
-        <f t="shared" si="191"/>
+      <c r="N285" s="22">
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="O285" s="8">
-        <f t="shared" si="192"/>
+      <c r="O285" s="22">
+        <f t="shared" si="204"/>
         <v>4.1115747642365653E-3</v>
       </c>
-      <c r="P285" s="8">
-        <f t="shared" si="193"/>
+      <c r="P285" s="22">
+        <f t="shared" si="205"/>
         <v>-7.2436164764183315E-3</v>
       </c>
       <c r="Q285" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="206"/>
         <v>1.5914165230719986E-2</v>
       </c>
       <c r="R285" s="8">
-        <f t="shared" si="195"/>
+        <f t="shared" si="207"/>
         <v>5.1369226100127941E-3</v>
       </c>
       <c r="S285" s="8">
-        <f t="shared" si="196"/>
+        <f t="shared" si="208"/>
         <v>3.1645520695983767E-2</v>
       </c>
       <c r="T285" s="8">
-        <f t="shared" si="197"/>
+        <f t="shared" si="209"/>
         <v>6.8409172599314307E-3</v>
       </c>
     </row>
@@ -22176,59 +22256,59 @@
         <v>212.71622499953239</v>
       </c>
       <c r="G286" s="6">
-        <f t="shared" ref="G286:G289" si="198">+F286/$U$1</f>
+        <f t="shared" ref="G286:G289" si="210">+F286/$U$1</f>
         <v>2.1271622499953238</v>
       </c>
       <c r="H286" s="2">
-        <f t="shared" ref="H286:H289" si="199">+B286/G286</f>
+        <f t="shared" ref="H286:H289" si="211">+B286/G286</f>
         <v>46227.757191636971</v>
       </c>
       <c r="I286">
-        <f t="shared" ref="I286:I289" si="200">+C286/G286</f>
+        <f t="shared" ref="I286:I289" si="212">+C286/G286</f>
         <v>575.88460870941697</v>
       </c>
       <c r="J286">
-        <f t="shared" ref="J286:J289" si="201">+D286/F286</f>
+        <f t="shared" ref="J286:J289" si="213">+D286/F286</f>
         <v>11330.687163169139</v>
       </c>
       <c r="K286">
-        <f t="shared" ref="K286:K289" si="202">+D286/C286/G286</f>
+        <f t="shared" ref="K286:K289" si="214">+D286/C286/G286</f>
         <v>924.95405413625633</v>
       </c>
       <c r="L286">
-        <f t="shared" ref="L286:L289" si="203">+E286/G286</f>
+        <f t="shared" ref="L286:L289" si="215">+E286/G286</f>
         <v>30.486626020249538</v>
       </c>
-      <c r="M286" s="8">
-        <f t="shared" ref="M286:M289" si="204">+LN(B286/B285)</f>
+      <c r="M286" s="22">
+        <f t="shared" ref="M286:M289" si="216">+LN(B286/B285)</f>
         <v>1.8248261139728605E-2</v>
       </c>
-      <c r="N286" s="8">
-        <f t="shared" ref="N286:N289" si="205">+LN(C286/C285)</f>
+      <c r="N286" s="22">
+        <f t="shared" ref="N286:N289" si="217">+LN(C286/C285)</f>
         <v>-8.1301260832501755E-3</v>
       </c>
-      <c r="O286" s="8">
-        <f t="shared" ref="O286:O289" si="206">+LN(D286/D285)</f>
+      <c r="O286" s="22">
+        <f t="shared" ref="O286:O289" si="218">+LN(D286/D285)</f>
         <v>3.5920068547978545E-3</v>
       </c>
-      <c r="P286" s="8">
-        <f t="shared" ref="P286:P289" si="207">+LN(E286/E285)</f>
+      <c r="P286" s="22">
+        <f t="shared" ref="P286:P289" si="219">+LN(E286/E285)</f>
         <v>3.0888055445861999E-3</v>
       </c>
       <c r="Q286" s="8">
-        <f t="shared" ref="Q286:Q289" si="208">+_xlfn.STDEV.S(M267:M286)</f>
+        <f t="shared" ref="Q286:Q289" si="220">+_xlfn.STDEV.S(M267:M286)</f>
         <v>1.65957495523824E-2</v>
       </c>
       <c r="R286" s="8">
-        <f t="shared" ref="R286:R289" si="209">+_xlfn.STDEV.S(N267:N286)</f>
+        <f t="shared" ref="R286:R289" si="221">+_xlfn.STDEV.S(N267:N286)</f>
         <v>5.3495668696416417E-3</v>
       </c>
       <c r="S286" s="8">
-        <f t="shared" ref="S286:S289" si="210">+_xlfn.STDEV.S(O267:O286)</f>
+        <f t="shared" ref="S286:S289" si="222">+_xlfn.STDEV.S(O267:O286)</f>
         <v>3.1487078586543552E-2</v>
       </c>
       <c r="T286" s="8">
-        <f t="shared" ref="T286:T289" si="211">+_xlfn.STDEV.S(P267:P286)</f>
+        <f t="shared" ref="T286:T289" si="223">+_xlfn.STDEV.S(P267:P286)</f>
         <v>6.8754238628087223E-3</v>
       </c>
     </row>
@@ -22252,59 +22332,59 @@
         <v>212.71778491844481</v>
       </c>
       <c r="G287" s="6">
-        <f t="shared" si="198"/>
+        <f t="shared" si="210"/>
         <v>2.1271778491844482</v>
       </c>
       <c r="H287" s="2">
-        <f t="shared" si="199"/>
+        <f t="shared" si="211"/>
         <v>45189.239835707282</v>
       </c>
       <c r="I287">
-        <f t="shared" si="200"/>
+        <f t="shared" si="212"/>
         <v>575.88038558678124</v>
       </c>
       <c r="J287">
-        <f t="shared" si="201"/>
+        <f t="shared" si="213"/>
         <v>11115.803038784705</v>
       </c>
       <c r="K287">
-        <f t="shared" si="202"/>
+        <f t="shared" si="214"/>
         <v>907.4124929620167</v>
       </c>
       <c r="L287">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>30.39238116586564</v>
       </c>
-      <c r="M287" s="8">
-        <f t="shared" si="204"/>
+      <c r="M287" s="22">
+        <f t="shared" si="216"/>
         <v>-2.2714087618250247E-2</v>
       </c>
-      <c r="N287" s="8">
-        <f t="shared" si="205"/>
+      <c r="N287" s="22">
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="O287" s="8">
-        <f t="shared" si="206"/>
+      <c r="O287" s="22">
+        <f t="shared" si="218"/>
         <v>-1.913959676707435E-2</v>
       </c>
-      <c r="P287" s="8">
-        <f t="shared" si="207"/>
+      <c r="P287" s="22">
+        <f t="shared" si="219"/>
         <v>-3.0888055445862563E-3</v>
       </c>
       <c r="Q287" s="8">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>1.6953598767706409E-2</v>
       </c>
       <c r="R287" s="8">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>5.3495668696416417E-3</v>
       </c>
       <c r="S287" s="8">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>3.1386681250692584E-2</v>
       </c>
       <c r="T287" s="8">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>6.8569963766894155E-3</v>
       </c>
     </row>
@@ -22328,63 +22408,63 @@
         <v>212.71934484879662</v>
       </c>
       <c r="G288" s="6">
-        <f t="shared" si="198"/>
+        <f t="shared" si="210"/>
         <v>2.1271934484879664</v>
       </c>
       <c r="H288" s="2">
-        <f t="shared" si="199"/>
+        <f t="shared" si="211"/>
         <v>45401.493723407511</v>
       </c>
       <c r="I288">
-        <f t="shared" si="200"/>
+        <f t="shared" si="212"/>
         <v>578.22667744407454</v>
       </c>
       <c r="J288">
-        <f t="shared" si="201"/>
+        <f t="shared" si="213"/>
         <v>11039.889210213902</v>
       </c>
       <c r="K288">
-        <f t="shared" si="202"/>
+        <f t="shared" si="214"/>
         <v>897.55196831007322</v>
       </c>
       <c r="L288">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>30.415663439537909</v>
       </c>
-      <c r="M288" s="8">
-        <f t="shared" si="204"/>
+      <c r="M288" s="22">
+        <f t="shared" si="216"/>
         <v>4.6933374427716298E-3</v>
       </c>
-      <c r="N288" s="8">
-        <f t="shared" si="205"/>
+      <c r="N288" s="22">
+        <f t="shared" si="217"/>
         <v>4.0733253876358688E-3</v>
       </c>
-      <c r="O288" s="8">
-        <f t="shared" si="206"/>
+      <c r="O288" s="22">
+        <f t="shared" si="218"/>
         <v>-6.8454542121415898E-3</v>
       </c>
-      <c r="P288" s="8">
-        <f t="shared" si="207"/>
+      <c r="P288" s="22">
+        <f t="shared" si="219"/>
         <v>7.7309628898845494E-4</v>
       </c>
       <c r="Q288" s="8">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>1.6232942109705925E-2</v>
       </c>
       <c r="R288" s="8">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>5.1410254516159682E-3</v>
       </c>
       <c r="S288" s="8">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>2.942543304128812E-2</v>
       </c>
       <c r="T288" s="8">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>6.8187575851889346E-3</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="14">
         <v>45713</v>
       </c>
@@ -22395,7 +22475,7 @@
         <v>1240</v>
       </c>
       <c r="D289">
-        <v>2282898.75</v>
+        <v>2282899</v>
       </c>
       <c r="E289">
         <v>64.400000000000006</v>
@@ -22404,89 +22484,346 @@
         <v>212.72090479058792</v>
       </c>
       <c r="G289" s="6">
-        <f t="shared" si="198"/>
+        <f t="shared" si="210"/>
         <v>2.1272090479058794</v>
       </c>
       <c r="H289" s="2">
-        <f t="shared" si="199"/>
+        <f t="shared" si="211"/>
         <v>41691.083482042421</v>
       </c>
       <c r="I289">
-        <f t="shared" si="200"/>
+        <f t="shared" si="212"/>
         <v>582.92343257034941</v>
       </c>
       <c r="J289">
-        <f t="shared" si="201"/>
-        <v>10731.89657710129</v>
+        <f t="shared" si="213"/>
+        <v>10731.897752350147</v>
       </c>
       <c r="K289">
-        <f t="shared" si="202"/>
-        <v>865.47553041139429</v>
+        <f t="shared" si="214"/>
+        <v>865.47562518952793</v>
       </c>
       <c r="L289">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>30.274410530266536</v>
       </c>
-      <c r="M289" s="8">
-        <f t="shared" si="204"/>
+      <c r="M289" s="22">
+        <f t="shared" si="216"/>
         <v>-8.5250392026426827E-2</v>
       </c>
-      <c r="N289" s="8">
-        <f t="shared" si="205"/>
+      <c r="N289" s="22">
+        <f t="shared" si="217"/>
         <v>8.0972102326193028E-3</v>
       </c>
-      <c r="O289" s="8">
-        <f t="shared" si="206"/>
-        <v>-2.8287376539749224E-2</v>
-      </c>
-      <c r="P289" s="8">
-        <f t="shared" si="207"/>
+      <c r="O289" s="22">
+        <f t="shared" si="218"/>
+        <v>-2.8287267029861264E-2</v>
+      </c>
+      <c r="P289" s="22">
+        <f t="shared" si="219"/>
         <v>-4.6475683965468513E-3</v>
       </c>
       <c r="Q289" s="8">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>2.4585527292771463E-2</v>
       </c>
       <c r="R289" s="8">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>5.4505397321480843E-3</v>
       </c>
       <c r="S289" s="8">
-        <f t="shared" si="210"/>
-        <v>3.0010113310725697E-2</v>
+        <f t="shared" si="222"/>
+        <v>3.0010108499796115E-2</v>
       </c>
       <c r="T289" s="8">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>6.0827226307411438E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="14"/>
-    </row>
-    <row r="291" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="14"/>
-      <c r="D291" s="18"/>
-    </row>
-    <row r="292" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="14"/>
-    </row>
-    <row r="293" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="14">
+        <v>45714</v>
+      </c>
+      <c r="B290">
+        <v>88736.17</v>
+      </c>
+      <c r="C290">
+        <v>1240</v>
+      </c>
+      <c r="D290">
+        <v>2275037</v>
+      </c>
+      <c r="E290">
+        <v>64.38</v>
+      </c>
+      <c r="F290">
+        <v>212.72246474381882</v>
+      </c>
+      <c r="G290" s="6">
+        <f t="shared" ref="G290:G292" si="224">+F290/$U$1</f>
+        <v>2.1272246474381884</v>
+      </c>
+      <c r="H290" s="2">
+        <f t="shared" ref="H290:H292" si="225">+B290/G290</f>
+        <v>41714.52700440678</v>
+      </c>
+      <c r="I290">
+        <f t="shared" ref="I290:I292" si="226">+C290/G290</f>
+        <v>582.91915783005288</v>
+      </c>
+      <c r="J290">
+        <f t="shared" ref="J290:J292" si="227">+D290/F290</f>
+        <v>10694.860097356534</v>
+      </c>
+      <c r="K290">
+        <f t="shared" ref="K290:K292" si="228">+D290/C290/G290</f>
+        <v>862.48871752875266</v>
+      </c>
+      <c r="L290">
+        <f t="shared" ref="L290:L292" si="229">+E290/G290</f>
+        <v>30.264786597660326</v>
+      </c>
+      <c r="M290" s="22">
+        <f t="shared" ref="M290:M292" si="230">+LN(B290/B289)</f>
+        <v>5.6949028440107926E-4</v>
+      </c>
+      <c r="N290" s="22">
+        <f t="shared" ref="N290:N292" si="231">+LN(C290/C289)</f>
+        <v>0</v>
+      </c>
+      <c r="O290" s="22">
+        <f t="shared" ref="O290:O292" si="232">+LN(D290/D289)</f>
+        <v>-3.4498105270733279E-3</v>
+      </c>
+      <c r="P290" s="22">
+        <f t="shared" ref="P290:P292" si="233">+LN(E290/E289)</f>
+        <v>-3.1060723964599913E-4</v>
+      </c>
+      <c r="Q290" s="8">
+        <f t="shared" ref="Q290:Q292" si="234">+_xlfn.STDEV.S(M271:M290)</f>
+        <v>2.3646391042403681E-2</v>
+      </c>
+      <c r="R290" s="8">
+        <f t="shared" ref="R290:R292" si="235">+_xlfn.STDEV.S(N271:N290)</f>
+        <v>5.0673238924963141E-3</v>
+      </c>
+      <c r="S290" s="8">
+        <f t="shared" ref="S290:S292" si="236">+_xlfn.STDEV.S(O271:O290)</f>
+        <v>2.7872898557780267E-2</v>
+      </c>
+      <c r="T290" s="8">
+        <f t="shared" ref="T290:T292" si="237">+_xlfn.STDEV.S(P271:P290)</f>
+        <v>6.043224080213583E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="14">
+        <v>45715</v>
+      </c>
+      <c r="B291">
+        <v>84347.02</v>
+      </c>
+      <c r="C291">
+        <v>1230</v>
+      </c>
+      <c r="D291">
+        <v>2193657</v>
+      </c>
+      <c r="E291">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="F291">
+        <v>212.72402470848937</v>
+      </c>
+      <c r="G291" s="6">
+        <f t="shared" si="224"/>
+        <v>2.1272402470848935</v>
+      </c>
+      <c r="H291" s="2">
+        <f t="shared" si="225"/>
+        <v>39650.913955575372</v>
+      </c>
+      <c r="I291">
+        <f t="shared" si="226"/>
+        <v>578.21395664432134</v>
+      </c>
+      <c r="J291">
+        <f t="shared" si="227"/>
+        <v>10312.220272280585</v>
+      </c>
+      <c r="K291">
+        <f t="shared" si="228"/>
+        <v>838.39189205533216</v>
+      </c>
+      <c r="L291">
+        <f t="shared" si="229"/>
+        <v>30.13293871617967</v>
+      </c>
+      <c r="M291" s="22">
+        <f t="shared" si="230"/>
+        <v>-5.0728105845172386E-2</v>
+      </c>
+      <c r="N291" s="22">
+        <f t="shared" si="231"/>
+        <v>-8.0972102326193618E-3</v>
+      </c>
+      <c r="O291" s="22">
+        <f t="shared" si="232"/>
+        <v>-3.6426301835894168E-2</v>
+      </c>
+      <c r="P291" s="22">
+        <f t="shared" si="233"/>
+        <v>-4.3586619440377462E-3</v>
+      </c>
+      <c r="Q291" s="8">
+        <f t="shared" si="234"/>
+        <v>2.5100129425861633E-2</v>
+      </c>
+      <c r="R291" s="8">
+        <f t="shared" si="235"/>
+        <v>5.4450881567971541E-3</v>
+      </c>
+      <c r="S291" s="8">
+        <f t="shared" si="236"/>
+        <v>2.7945738267149772E-2</v>
+      </c>
+      <c r="T291" s="8">
+        <f t="shared" si="237"/>
+        <v>6.0174676287807803E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B292" s="11">
+        <v>84373.01</v>
+      </c>
+      <c r="C292" s="11">
+        <v>1225</v>
+      </c>
+      <c r="D292" s="11">
+        <v>2205801</v>
+      </c>
+      <c r="E292" s="11">
+        <v>63.9</v>
+      </c>
+      <c r="F292" s="11">
+        <v>212.72558468459965</v>
+      </c>
+      <c r="G292" s="12">
+        <f t="shared" si="224"/>
+        <v>2.1272558468459963</v>
+      </c>
+      <c r="H292" s="13">
+        <f t="shared" si="225"/>
+        <v>39662.840802669198</v>
+      </c>
+      <c r="I292" s="11">
+        <f t="shared" si="226"/>
+        <v>575.85927043813854</v>
+      </c>
+      <c r="J292" s="11">
+        <f t="shared" si="227"/>
+        <v>10369.232282381357</v>
+      </c>
+      <c r="K292" s="11">
+        <f t="shared" si="228"/>
+        <v>846.46794141888643</v>
+      </c>
+      <c r="L292" s="11">
+        <f t="shared" si="229"/>
+        <v>30.038699902854734</v>
+      </c>
+      <c r="M292" s="22">
+        <f t="shared" si="230"/>
+        <v>3.0808434784601547E-4</v>
+      </c>
+      <c r="N292" s="22">
+        <f t="shared" si="231"/>
+        <v>-4.0733253876357864E-3</v>
+      </c>
+      <c r="O292" s="22">
+        <f t="shared" si="232"/>
+        <v>5.5206940690349978E-3</v>
+      </c>
+      <c r="P292" s="22">
+        <f t="shared" si="233"/>
+        <v>-3.1250025431351662E-3</v>
+      </c>
+      <c r="Q292" s="19">
+        <f t="shared" si="234"/>
+        <v>2.5059952649431536E-2</v>
+      </c>
+      <c r="R292" s="19">
+        <f t="shared" si="235"/>
+        <v>5.5365687571284445E-3</v>
+      </c>
+      <c r="S292" s="19">
+        <f t="shared" si="236"/>
+        <v>2.8090142190092104E-2</v>
+      </c>
+      <c r="T292" s="19">
+        <f t="shared" si="237"/>
+        <v>6.0069578250015864E-3</v>
+      </c>
+      <c r="U292" s="19">
+        <f>SUM(M271:M292)</f>
+        <v>-0.20628550570397458</v>
+      </c>
+      <c r="V292" s="19">
+        <f t="shared" ref="V292" si="238">SUM(N271:N292)</f>
+        <v>4.0899852515251947E-3</v>
+      </c>
+      <c r="W292" s="19">
+        <f t="shared" ref="W292" si="239">SUM(O271:O292)</f>
+        <v>-0.14317981410163677</v>
+      </c>
+      <c r="X292" s="19">
+        <f t="shared" ref="X292" si="240">SUM(P271:P292)</f>
+        <v>-4.1385216162853962E-2</v>
+      </c>
+      <c r="Y292" s="19">
+        <f t="shared" ref="Y292" si="241">SUM(Q271:Q292)</f>
+        <v>0.48586304628814148</v>
+      </c>
+      <c r="Z292" s="19">
+        <f t="shared" ref="Z292" si="242">SUM(R271:R292)</f>
+        <v>0.12450486376411361</v>
+      </c>
+      <c r="AA292" s="19">
+        <f t="shared" ref="AA292" si="243">SUM(S271:S292)</f>
+        <v>0.641946244709794</v>
+      </c>
+      <c r="AB292" s="19">
+        <f t="shared" ref="AB292" si="244">SUM(T271:T292)</f>
+        <v>0.15885432933623747</v>
+      </c>
+      <c r="AC292" s="19">
+        <f t="shared" ref="AC292" si="245">SUM(U271:U292)</f>
+        <v>-0.12509623809234693</v>
+      </c>
+    </row>
+    <row r="293" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="14"/>
     </row>
-    <row r="294" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="14"/>
-      <c r="D294" s="19"/>
+      <c r="D294" s="18"/>
       <c r="H294" s="7"/>
     </row>
-    <row r="295" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="14"/>
-      <c r="D295" s="19"/>
-    </row>
-    <row r="296" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D295" s="18"/>
+    </row>
+    <row r="296" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="14"/>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A297" s="14"/>
+    </row>
+    <row r="301" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="F301" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -95,7 +95,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -218,13 +218,13 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC301"/>
+  <dimension ref="A1:AC302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J273" workbookViewId="0">
-      <selection activeCell="J294" sqref="J294"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,7 +520,7 @@
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.5546875" style="21"/>
+    <col min="13" max="16" width="11.5546875" style="20"/>
     <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,16 +561,16 @@
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -632,16 +632,16 @@
         <f t="shared" ref="L2:L65" si="5">+E2/G2</f>
         <v>31.399019709243237</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>0</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="20">
         <v>0</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="20">
         <v>0</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="20">
         <v>0</v>
       </c>
       <c r="Q2">
@@ -700,19 +700,19 @@
         <f t="shared" si="5"/>
         <v>30.273877018042057</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="21">
         <f t="shared" ref="M3:M66" si="6">+LN(B3/B2)</f>
         <v>1.8528157200100568E-2</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="21">
         <f t="shared" ref="N3:N66" si="7">+LN(C3/C2)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="21">
         <f t="shared" ref="O3:O66" si="8">+LN(D3/D2)</f>
         <v>4.414350036627316E-2</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="21">
         <f t="shared" ref="P3:P66" si="9">+LN(E3/E2)</f>
         <v>-6.5187968657545777E-3</v>
       </c>
@@ -777,19 +777,19 @@
         <f t="shared" si="5"/>
         <v>29.843644322698687</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <f t="shared" si="6"/>
         <v>-4.950243423034302E-2</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="21">
         <f t="shared" si="7"/>
         <v>1.4815085785140682E-2</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="21">
         <f t="shared" si="8"/>
         <v>3.2754333026364331E-2</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="21">
         <f t="shared" si="9"/>
         <v>-7.867451566035976E-3</v>
       </c>
@@ -853,19 +853,19 @@
         <f t="shared" si="5"/>
         <v>29.465909112789781</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="21">
         <f t="shared" si="6"/>
         <v>3.1583061082349879E-2</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="21">
         <f t="shared" si="7"/>
         <v>4.8899852941917702E-3</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="21">
         <f t="shared" si="8"/>
         <v>4.9123641970255628E-2</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="21">
         <f t="shared" si="9"/>
         <v>-6.2920770375988694E-3</v>
       </c>
@@ -929,19 +929,19 @@
         <f t="shared" si="5"/>
         <v>28.577631218115407</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="21">
         <f t="shared" si="6"/>
         <v>-1.8543657756421444E-3</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="21">
         <f t="shared" si="7"/>
         <v>2.4097551579060524E-2</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="21">
         <f t="shared" si="8"/>
         <v>4.5864867485576617E-2</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="21">
         <f t="shared" si="9"/>
         <v>-2.416383742288734E-2</v>
       </c>
@@ -1005,19 +1005,19 @@
         <f t="shared" si="5"/>
         <v>27.691901321939138</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="21">
         <f t="shared" si="6"/>
         <v>6.2018539337498256E-2</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="21">
         <f t="shared" si="7"/>
         <v>6.4538521137571164E-2</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="21">
         <f t="shared" si="8"/>
         <v>-4.0949836068300119E-2</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="21">
         <f t="shared" si="9"/>
         <v>-2.5038439355569705E-2</v>
       </c>
@@ -1081,19 +1081,19 @@
         <f t="shared" si="5"/>
         <v>28.753787251016476</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="21">
         <f t="shared" si="6"/>
         <v>-1.7847001249706614E-2</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="21">
         <f t="shared" si="7"/>
         <v>2.6433257068155431E-2</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="21">
         <f t="shared" si="8"/>
         <v>9.2390103937434551E-3</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="21">
         <f t="shared" si="9"/>
         <v>4.4075337456965444E-2</v>
       </c>
@@ -1157,19 +1157,19 @@
         <f t="shared" si="5"/>
         <v>29.061610446379753</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="21">
         <f t="shared" si="6"/>
         <v>1.1351792164029527E-2</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="21">
         <f t="shared" si="7"/>
         <v>-2.6433257068155483E-2</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="21">
         <f t="shared" si="8"/>
         <v>-2.5069309550254472E-2</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="21">
         <f t="shared" si="9"/>
         <v>1.709443335930004E-2</v>
       </c>
@@ -1233,19 +1233,19 @@
         <f t="shared" si="5"/>
         <v>28.769001307421167</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="21">
         <f t="shared" si="6"/>
         <v>-6.8417480952335519E-3</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="21">
         <f t="shared" si="9"/>
         <v>-3.673762792006667E-3</v>
       </c>
@@ -1309,19 +1309,19 @@
         <f t="shared" si="5"/>
         <v>28.735751029409752</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="21">
         <f t="shared" si="6"/>
         <v>-0.10253331233342021</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="21">
         <f t="shared" si="7"/>
         <v>8.8889474172459942E-3</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="21">
         <f t="shared" si="8"/>
         <v>1.317575593042636E-2</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="21">
         <f t="shared" si="9"/>
         <v>5.2894118552621336E-3</v>
       </c>
@@ -1385,19 +1385,19 @@
         <f t="shared" si="5"/>
         <v>28.248234444837156</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="21">
         <f t="shared" si="6"/>
         <v>1.8638277389134816E-2</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="21">
         <f t="shared" si="7"/>
         <v>4.3296805753324258E-2</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="21">
         <f t="shared" si="9"/>
         <v>-1.0665222090524997E-2</v>
       </c>
@@ -1461,19 +1461,19 @@
         <f t="shared" si="5"/>
         <v>28.05283409222751</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="21">
         <f t="shared" si="6"/>
         <v>1.3079171616269652E-2</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="21">
         <f t="shared" si="7"/>
         <v>3.7426405519116815E-2</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="21">
         <f t="shared" si="8"/>
         <v>6.0920233546858542E-2</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="21">
         <f t="shared" si="9"/>
         <v>-4.9544627607256658E-4</v>
       </c>
@@ -1537,19 +1537,19 @@
         <f t="shared" si="5"/>
         <v>28.109846359136494</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="21">
         <f t="shared" si="6"/>
         <v>-1.0112665905860494E-2</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="21">
         <f t="shared" si="7"/>
         <v>1.2170535620255114E-2</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="21">
         <f t="shared" si="8"/>
         <v>8.3490304748303056E-3</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="21">
         <f t="shared" si="9"/>
         <v>8.4761029959286062E-3</v>
       </c>
@@ -1613,19 +1613,19 @@
         <f t="shared" si="5"/>
         <v>27.707230684411567</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="21">
         <f t="shared" si="6"/>
         <v>-3.4596126533815746E-2</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="21">
         <f t="shared" si="7"/>
         <v>-1.6260520871780291E-2</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="21">
         <f t="shared" si="8"/>
         <v>3.5730368313298497E-2</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P15" s="21">
         <f t="shared" si="9"/>
         <v>-7.9806567198560125E-3</v>
       </c>
@@ -1689,19 +1689,19 @@
         <f t="shared" si="5"/>
         <v>28.744404719889577</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="21">
         <f t="shared" si="6"/>
         <v>6.7752312174019771E-3</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O16" s="22">
+      <c r="O16" s="21">
         <f t="shared" si="8"/>
         <v>3.7655788256475697E-2</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="21">
         <f t="shared" si="9"/>
         <v>4.3195563010922457E-2</v>
       </c>
@@ -1765,19 +1765,19 @@
         <f t="shared" si="5"/>
         <v>28.669698471302727</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="21">
         <f t="shared" si="6"/>
         <v>-5.0282130347958746E-2</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="21">
         <f t="shared" si="7"/>
         <v>1.2220111334775397E-2</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O17" s="21">
         <f t="shared" si="8"/>
         <v>-1.1120369234063449E-2</v>
       </c>
-      <c r="P17" s="22">
+      <c r="P17" s="21">
         <f t="shared" si="9"/>
         <v>3.8434805704470523E-3</v>
       </c>
@@ -1841,19 +1841,19 @@
         <f t="shared" si="5"/>
         <v>28.775304091769556</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="21">
         <f t="shared" si="6"/>
         <v>8.2867015928850662E-3</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <f t="shared" si="7"/>
         <v>1.6064602503806622E-2</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="21">
         <f t="shared" si="8"/>
         <v>3.6772973403759047E-2</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="21">
         <f t="shared" si="9"/>
         <v>1.0122607662246404E-2</v>
       </c>
@@ -1917,19 +1917,19 @@
         <f t="shared" si="5"/>
         <v>29.240273151265637</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="21">
         <f t="shared" si="6"/>
         <v>7.2593462396211136E-3</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O19" s="21">
         <f t="shared" si="8"/>
         <v>2.6241067678552141E-2</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="21">
         <f t="shared" si="9"/>
         <v>2.2475301883433638E-2</v>
       </c>
@@ -1993,19 +1993,19 @@
         <f t="shared" si="5"/>
         <v>28.72956175188315</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="21">
         <f t="shared" si="6"/>
         <v>-4.6310371122968786E-3</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="21">
         <f t="shared" si="7"/>
         <v>-2.8284713838581992E-2</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="21">
         <f t="shared" si="8"/>
         <v>-2.4676471394907536E-2</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="21">
         <f t="shared" si="9"/>
         <v>-1.1174509871315718E-2</v>
       </c>
@@ -2069,19 +2069,19 @@
         <f t="shared" si="5"/>
         <v>28.509244087297002</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="21">
         <f t="shared" si="6"/>
         <v>5.0966817296491579E-2</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="21">
         <f t="shared" si="7"/>
         <v>4.0899852515250664E-3</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O21" s="21">
         <f t="shared" si="8"/>
         <v>-9.2731907420253433E-6</v>
       </c>
-      <c r="P21" s="22">
+      <c r="P21" s="21">
         <f t="shared" si="9"/>
         <v>-1.252382412535617E-3</v>
       </c>
@@ -2145,19 +2145,19 @@
         <f t="shared" si="5"/>
         <v>27.979584377294909</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="21">
         <f t="shared" si="6"/>
         <v>2.9102060365808473E-2</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="21">
         <f t="shared" si="7"/>
         <v>-8.196767204178515E-3</v>
       </c>
-      <c r="O22" s="22">
+      <c r="O22" s="21">
         <f t="shared" si="8"/>
         <v>1.0731567784576073E-2</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="21">
         <f t="shared" si="9"/>
         <v>-1.2307425960130968E-2</v>
       </c>
@@ -2221,19 +2221,19 @@
         <f t="shared" si="5"/>
         <v>27.862683466327223</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="21">
         <f t="shared" si="6"/>
         <v>-8.7181680074343501E-3</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="21">
         <f t="shared" si="7"/>
         <v>-1.6597891409037828E-2</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O23" s="21">
         <f t="shared" si="8"/>
         <v>-5.1992123675157166E-3</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P23" s="21">
         <f t="shared" si="9"/>
         <v>2.2590163605487423E-3</v>
       </c>
@@ -2297,19 +2297,19 @@
         <f t="shared" si="5"/>
         <v>27.718705050670948</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="21">
         <f t="shared" si="6"/>
         <v>-7.224831818399979E-3</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O24" s="21">
         <f t="shared" si="8"/>
         <v>3.270210532632456E-2</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P24" s="21">
         <f t="shared" si="9"/>
         <v>1.2650223065867022E-3</v>
       </c>
@@ -2373,19 +2373,19 @@
         <f t="shared" si="5"/>
         <v>27.693503156349145</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="21">
         <f t="shared" si="6"/>
         <v>1.1343187362493901E-2</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="21">
         <f t="shared" si="7"/>
         <v>-1.6878037787351748E-2</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="21">
         <f t="shared" si="8"/>
         <v>1.0491961563701808E-2</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="21">
         <f t="shared" si="9"/>
         <v>5.536232519506256E-3</v>
       </c>
@@ -2449,19 +2449,19 @@
         <f t="shared" si="5"/>
         <v>28.640618095501825</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="21">
         <f t="shared" si="6"/>
         <v>-1.0965259953053801E-2</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="21">
         <f t="shared" si="7"/>
         <v>-1.2848142477849024E-2</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O26" s="21">
         <f t="shared" si="8"/>
         <v>-5.4213654695365987E-2</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="21">
         <f t="shared" si="9"/>
         <v>4.0073928629326863E-2</v>
       </c>
@@ -2525,19 +2525,19 @@
         <f t="shared" si="5"/>
         <v>29.210529745668559</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="21">
         <f t="shared" si="6"/>
         <v>1.1518642422440944E-3</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N27" s="21">
         <f t="shared" si="7"/>
         <v>-1.3015368112070361E-2</v>
       </c>
-      <c r="O27" s="22">
+      <c r="O27" s="21">
         <f t="shared" si="8"/>
         <v>-2.4446422330252439E-2</v>
       </c>
-      <c r="P27" s="22">
+      <c r="P27" s="21">
         <f t="shared" si="9"/>
         <v>2.6149176407433548E-2</v>
       </c>
@@ -2601,19 +2601,19 @@
         <f t="shared" si="5"/>
         <v>27.728836287965052</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="21">
         <f t="shared" si="6"/>
         <v>1.0248508918232709E-2</v>
       </c>
-      <c r="N28" s="22">
+      <c r="N28" s="21">
         <f t="shared" si="7"/>
         <v>2.9261984549030798E-2</v>
       </c>
-      <c r="O28" s="22">
+      <c r="O28" s="21">
         <f t="shared" si="8"/>
         <v>-5.2160640390372E-2</v>
       </c>
-      <c r="P28" s="22">
+      <c r="P28" s="21">
         <f t="shared" si="9"/>
         <v>-4.5610511252052295E-2</v>
       </c>
@@ -2677,19 +2677,19 @@
         <f t="shared" si="5"/>
         <v>27.550675245527088</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="21">
         <f t="shared" si="6"/>
         <v>2.6557358900665077E-2</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="21">
         <f t="shared" si="7"/>
         <v>-2.926198454903094E-2</v>
       </c>
-      <c r="O29" s="22">
+      <c r="O29" s="21">
         <f t="shared" si="8"/>
         <v>-3.2472417007643771E-2</v>
       </c>
-      <c r="P29" s="22">
+      <c r="P29" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -2753,19 +2753,19 @@
         <f t="shared" si="5"/>
         <v>27.441085324310649</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="21">
         <f t="shared" si="6"/>
         <v>2.43545533820544E-2</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O30" s="22">
+      <c r="O30" s="21">
         <f t="shared" si="8"/>
         <v>2.7659175449600559E-2</v>
       </c>
-      <c r="P30" s="22">
+      <c r="P30" s="21">
         <f t="shared" si="9"/>
         <v>2.4601574072502515E-3</v>
       </c>
@@ -2829,19 +2829,19 @@
         <f t="shared" si="5"/>
         <v>28.534002845475552</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="21">
         <f t="shared" si="6"/>
         <v>9.2499997704694401E-2</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N31" s="21">
         <f t="shared" si="7"/>
         <v>-3.5559302036486801E-2</v>
       </c>
-      <c r="O31" s="22">
+      <c r="O31" s="21">
         <f t="shared" si="8"/>
         <v>-3.8748512039222978E-2</v>
       </c>
-      <c r="P31" s="22">
+      <c r="P31" s="21">
         <f t="shared" si="9"/>
         <v>4.5500951518751345E-2</v>
       </c>
@@ -2905,19 +2905,19 @@
         <f t="shared" si="5"/>
         <v>29.434483784952207</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="21">
         <f t="shared" si="6"/>
         <v>4.0548837208437667E-2</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="21">
         <f t="shared" si="7"/>
         <v>-2.7524673390090033E-2</v>
       </c>
-      <c r="O32" s="22">
+      <c r="O32" s="21">
         <f t="shared" si="8"/>
         <v>-1.0756100551204179E-2</v>
       </c>
-      <c r="P32" s="22">
+      <c r="P32" s="21">
         <f t="shared" si="9"/>
         <v>3.7516294269090117E-2</v>
       </c>
@@ -2981,19 +2981,19 @@
         <f t="shared" si="5"/>
         <v>29.758629486944034</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="21">
         <f t="shared" si="6"/>
         <v>3.239782805237987E-3</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="21">
         <f t="shared" si="7"/>
         <v>1.8433701688837966E-2</v>
       </c>
-      <c r="O33" s="22">
+      <c r="O33" s="21">
         <f t="shared" si="8"/>
         <v>-2.6292778368965725E-2</v>
       </c>
-      <c r="P33" s="22">
+      <c r="P33" s="21">
         <f t="shared" si="9"/>
         <v>1.7398099663608932E-2</v>
       </c>
@@ -3057,19 +3057,19 @@
         <f t="shared" si="5"/>
         <v>29.908119649936776</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="21">
         <f t="shared" si="6"/>
         <v>3.46323466552179E-3</v>
       </c>
-      <c r="N34" s="22">
+      <c r="N34" s="21">
         <f t="shared" si="7"/>
         <v>1.3605652055778678E-2</v>
       </c>
-      <c r="O34" s="22">
+      <c r="O34" s="21">
         <f t="shared" si="8"/>
         <v>6.4486371299137092E-3</v>
       </c>
-      <c r="P34" s="22">
+      <c r="P34" s="21">
         <f t="shared" si="9"/>
         <v>1.145669482554266E-2</v>
       </c>
@@ -3133,19 +3133,19 @@
         <f t="shared" si="5"/>
         <v>29.207845817764778</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="21">
         <f t="shared" si="6"/>
         <v>-7.2023896264663805E-3</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="21">
         <f t="shared" si="7"/>
         <v>4.4943895878392674E-3</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O35" s="21">
         <f t="shared" si="8"/>
         <v>-1.1769027290969717E-2</v>
       </c>
-      <c r="P35" s="22">
+      <c r="P35" s="21">
         <f t="shared" si="9"/>
         <v>-1.724679034271227E-2</v>
       </c>
@@ -3209,19 +3209,19 @@
         <f t="shared" si="5"/>
         <v>28.444121692957644</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="21">
         <f t="shared" si="6"/>
         <v>1.0042851959245886E-2</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N36" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O36" s="22">
+      <c r="O36" s="21">
         <f t="shared" si="8"/>
         <v>-1.9249344109497586E-2</v>
       </c>
-      <c r="P36" s="22">
+      <c r="P36" s="21">
         <f t="shared" si="9"/>
         <v>-2.0049997410514678E-2</v>
       </c>
@@ -3285,19 +3285,19 @@
         <f t="shared" si="5"/>
         <v>29.450918847889668</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="21">
         <f t="shared" si="6"/>
         <v>-8.5286001655502063E-3</v>
       </c>
-      <c r="N37" s="22">
+      <c r="N37" s="21">
         <f t="shared" si="7"/>
         <v>-2.7274417919659174E-2</v>
       </c>
-      <c r="O37" s="22">
+      <c r="O37" s="21">
         <f t="shared" si="8"/>
         <v>3.45272106284659E-2</v>
       </c>
-      <c r="P37" s="22">
+      <c r="P37" s="21">
         <f t="shared" si="9"/>
         <v>4.1229437346347798E-2</v>
       </c>
@@ -3361,19 +3361,19 @@
         <f t="shared" si="5"/>
         <v>28.738255621098354</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M38" s="21">
         <f t="shared" si="6"/>
         <v>-1.0144429632461092E-2</v>
       </c>
-      <c r="N38" s="22">
+      <c r="N38" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O38" s="22">
+      <c r="O38" s="21">
         <f t="shared" si="8"/>
         <v>2.7119102580558264E-2</v>
       </c>
-      <c r="P38" s="22">
+      <c r="P38" s="21">
         <f t="shared" si="9"/>
         <v>-1.805007841545726E-2</v>
       </c>
@@ -3437,19 +3437,19 @@
         <f t="shared" si="5"/>
         <v>28.432580976071279</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="21">
         <f t="shared" si="6"/>
         <v>8.3900389823531926E-3</v>
       </c>
-      <c r="N39" s="22">
+      <c r="N39" s="21">
         <f t="shared" si="7"/>
         <v>-4.6189458562945285E-3</v>
       </c>
-      <c r="O39" s="22">
+      <c r="O39" s="21">
         <f t="shared" si="8"/>
         <v>-2.3025145821824494E-2</v>
       </c>
-      <c r="P39" s="22">
+      <c r="P39" s="21">
         <f t="shared" si="9"/>
         <v>-4.2476307508046299E-3</v>
       </c>
@@ -3513,19 +3513,19 @@
         <f t="shared" si="5"/>
         <v>27.43013450768623</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="21">
         <f t="shared" si="6"/>
         <v>5.1339619628539862E-2</v>
       </c>
-      <c r="N40" s="22">
+      <c r="N40" s="21">
         <f t="shared" si="7"/>
         <v>-9.3023926623135612E-3</v>
       </c>
-      <c r="O40" s="22">
+      <c r="O40" s="21">
         <f t="shared" si="8"/>
         <v>-4.3613591009853563E-2</v>
       </c>
-      <c r="P40" s="22">
+      <c r="P40" s="21">
         <f t="shared" si="9"/>
         <v>-2.9447648660624576E-2</v>
       </c>
@@ -3589,19 +3589,19 @@
         <f t="shared" si="5"/>
         <v>28.068389363797241</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="21">
         <f t="shared" si="6"/>
         <v>4.5312680534919637E-2</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="21">
         <f t="shared" si="7"/>
         <v>-2.3641763057040424E-2</v>
       </c>
-      <c r="O41" s="22">
+      <c r="O41" s="21">
         <f t="shared" si="8"/>
         <v>-2.459476314052151E-2</v>
       </c>
-      <c r="P41" s="22">
+      <c r="P41" s="21">
         <f t="shared" si="9"/>
         <v>2.9447648660624649E-2</v>
       </c>
@@ -3665,19 +3665,19 @@
         <f t="shared" si="5"/>
         <v>28.479561944729095</v>
       </c>
-      <c r="M42" s="22">
+      <c r="M42" s="21">
         <f t="shared" si="6"/>
         <v>9.2990291621617177E-2</v>
       </c>
-      <c r="N42" s="22">
+      <c r="N42" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O42" s="22">
+      <c r="O42" s="21">
         <f t="shared" si="8"/>
         <v>5.4408217944776523E-3</v>
       </c>
-      <c r="P42" s="22">
+      <c r="P42" s="21">
         <f t="shared" si="9"/>
         <v>2.0988543631695378E-2</v>
       </c>
@@ -3741,19 +3741,19 @@
         <f t="shared" si="5"/>
         <v>28.726528788216466</v>
       </c>
-      <c r="M43" s="22">
+      <c r="M43" s="21">
         <f t="shared" si="6"/>
         <v>-2.0352676333313589E-2</v>
       </c>
-      <c r="N43" s="22">
+      <c r="N43" s="21">
         <f t="shared" si="7"/>
         <v>-1.4458083175229888E-2</v>
       </c>
-      <c r="O43" s="22">
+      <c r="O43" s="21">
         <f t="shared" si="8"/>
         <v>3.8897136818966963E-2</v>
       </c>
-      <c r="P43" s="22">
+      <c r="P43" s="21">
         <f t="shared" si="9"/>
         <v>1.4096066143709535E-2</v>
       </c>
@@ -3817,19 +3817,19 @@
         <f t="shared" si="5"/>
         <v>29.186013851132056</v>
       </c>
-      <c r="M44" s="22">
+      <c r="M44" s="21">
         <f t="shared" si="6"/>
         <v>2.8226560998236921E-2</v>
       </c>
-      <c r="N44" s="22">
+      <c r="N44" s="21">
         <f t="shared" si="7"/>
         <v>1.9231361927887592E-2</v>
       </c>
-      <c r="O44" s="22">
+      <c r="O44" s="21">
         <f t="shared" si="8"/>
         <v>1.3735172911194641E-3</v>
       </c>
-      <c r="P44" s="22">
+      <c r="P44" s="21">
         <f t="shared" si="9"/>
         <v>2.1330300560835416E-2</v>
       </c>
@@ -3893,19 +3893,19 @@
         <f t="shared" si="5"/>
         <v>28.567926840040755</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="21">
         <f t="shared" si="6"/>
         <v>7.8271423470596124E-2</v>
       </c>
-      <c r="N45" s="22">
+      <c r="N45" s="21">
         <f t="shared" si="7"/>
         <v>-3.3901551675681339E-2</v>
       </c>
-      <c r="O45" s="22">
+      <c r="O45" s="21">
         <f t="shared" si="8"/>
         <v>-4.8651827700038432E-2</v>
       </c>
-      <c r="P45" s="22">
+      <c r="P45" s="21">
         <f t="shared" si="9"/>
         <v>-1.5943239869314108E-2</v>
       </c>
@@ -3969,19 +3969,19 @@
         <f t="shared" si="5"/>
         <v>29.173567741853834</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M46" s="21">
         <f t="shared" si="6"/>
         <v>-5.8820739980755356E-2</v>
       </c>
-      <c r="N46" s="22">
+      <c r="N46" s="21">
         <f t="shared" si="7"/>
         <v>-4.9382816405825663E-3</v>
       </c>
-      <c r="O46" s="22">
+      <c r="O46" s="21">
         <f t="shared" si="8"/>
         <v>8.9664516862525533E-3</v>
       </c>
-      <c r="P46" s="22">
+      <c r="P46" s="21">
         <f t="shared" si="9"/>
         <v>2.644016319179503E-2</v>
       </c>
@@ -4045,19 +4045,19 @@
         <f t="shared" si="5"/>
         <v>28.742055401894945</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M47" s="21">
         <f t="shared" si="6"/>
         <v>2.843520146542864E-2</v>
       </c>
-      <c r="N47" s="22">
+      <c r="N47" s="21">
         <f t="shared" si="7"/>
         <v>-2.0000666706669543E-2</v>
       </c>
-      <c r="O47" s="22">
+      <c r="O47" s="21">
         <f t="shared" si="8"/>
         <v>-2.5591957691902138E-2</v>
       </c>
-      <c r="P47" s="22">
+      <c r="P47" s="21">
         <f t="shared" si="9"/>
         <v>-9.4399622167508912E-3</v>
       </c>
@@ -4121,19 +4121,19 @@
         <f t="shared" si="5"/>
         <v>28.162732811286702</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="21">
         <f t="shared" si="6"/>
         <v>1.2006340567854578E-2</v>
       </c>
-      <c r="N48" s="22">
+      <c r="N48" s="21">
         <f t="shared" si="7"/>
         <v>-5.063301956546762E-3</v>
       </c>
-      <c r="O48" s="22">
+      <c r="O48" s="21">
         <f t="shared" si="8"/>
         <v>2.7688549955259805E-3</v>
       </c>
-      <c r="P48" s="22">
+      <c r="P48" s="21">
         <f t="shared" si="9"/>
         <v>-1.4900095197927602E-2</v>
       </c>
@@ -4197,19 +4197,19 @@
         <f t="shared" si="5"/>
         <v>28.070707362476519</v>
       </c>
-      <c r="M49" s="22">
+      <c r="M49" s="21">
         <f t="shared" si="6"/>
         <v>3.1332984910258099E-2</v>
       </c>
-      <c r="N49" s="22">
+      <c r="N49" s="21">
         <f t="shared" si="7"/>
         <v>5.0633019565466345E-3</v>
       </c>
-      <c r="O49" s="22">
+      <c r="O49" s="21">
         <f t="shared" si="8"/>
         <v>-2.8450182367658203E-2</v>
       </c>
-      <c r="P49" s="22">
+      <c r="P49" s="21">
         <f t="shared" si="9"/>
         <v>2.1887451399726994E-3</v>
       </c>
@@ -4273,19 +4273,19 @@
         <f t="shared" si="5"/>
         <v>28.400271845452842</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M50" s="21">
         <f t="shared" si="6"/>
         <v>4.3275188080431966E-2</v>
       </c>
-      <c r="N50" s="22">
+      <c r="N50" s="21">
         <f t="shared" si="7"/>
         <v>2.9852963149681128E-2</v>
       </c>
-      <c r="O50" s="22">
+      <c r="O50" s="21">
         <f t="shared" si="8"/>
         <v>7.4747067525014088E-2</v>
       </c>
-      <c r="P50" s="22">
+      <c r="P50" s="21">
         <f t="shared" si="9"/>
         <v>1.7133854716850666E-2</v>
       </c>
@@ -4349,19 +4349,19 @@
         <f t="shared" si="5"/>
         <v>28.914634266153605</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M51" s="21">
         <f t="shared" si="6"/>
         <v>-9.2394808718787563E-3</v>
       </c>
-      <c r="N51" s="22">
+      <c r="N51" s="21">
         <f t="shared" si="7"/>
         <v>9.7561749453646558E-3</v>
       </c>
-      <c r="O51" s="22">
+      <c r="O51" s="21">
         <f t="shared" si="8"/>
         <v>1.1885740539617664E-2</v>
       </c>
-      <c r="P51" s="22">
+      <c r="P51" s="21">
         <f t="shared" si="9"/>
         <v>2.3410853374984681E-2</v>
       </c>
@@ -4425,19 +4425,19 @@
         <f t="shared" si="5"/>
         <v>28.174586078984831</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M52" s="21">
         <f t="shared" si="6"/>
         <v>2.2559587028748947E-2</v>
       </c>
-      <c r="N52" s="22">
+      <c r="N52" s="21">
         <f t="shared" si="7"/>
         <v>4.8426244757879908E-3</v>
       </c>
-      <c r="O52" s="22">
+      <c r="O52" s="21">
         <f t="shared" si="8"/>
         <v>-1.3521641754797925E-2</v>
       </c>
-      <c r="P52" s="22">
+      <c r="P52" s="21">
         <f t="shared" si="9"/>
         <v>-2.0465746626545264E-2</v>
       </c>
@@ -4501,19 +4501,19 @@
         <f t="shared" si="5"/>
         <v>28.43122624823846</v>
       </c>
-      <c r="M53" s="22">
+      <c r="M53" s="21">
         <f t="shared" si="6"/>
         <v>-2.3219432022538435E-2</v>
       </c>
-      <c r="N53" s="22">
+      <c r="N53" s="21">
         <f t="shared" si="7"/>
         <v>-1.4598799421152636E-2</v>
       </c>
-      <c r="O53" s="22">
+      <c r="O53" s="21">
         <f t="shared" si="8"/>
         <v>2.357128359209238E-2</v>
       </c>
-      <c r="P53" s="22">
+      <c r="P53" s="21">
         <f t="shared" si="9"/>
         <v>1.4529415756220014E-2</v>
       </c>
@@ -4577,19 +4577,19 @@
         <f t="shared" si="5"/>
         <v>28.920569999987308</v>
       </c>
-      <c r="M54" s="22">
+      <c r="M54" s="21">
         <f t="shared" si="6"/>
         <v>-4.2834057903118249E-2</v>
       </c>
-      <c r="N54" s="22">
+      <c r="N54" s="21">
         <f t="shared" si="7"/>
         <v>4.8899852941917702E-3</v>
       </c>
-      <c r="O54" s="22">
+      <c r="O54" s="21">
         <f t="shared" si="8"/>
         <v>5.6416420436141437E-2</v>
       </c>
-      <c r="P54" s="22">
+      <c r="P54" s="21">
         <f t="shared" si="9"/>
         <v>2.2526777288538701E-2</v>
       </c>
@@ -4653,19 +4653,19 @@
         <f t="shared" si="5"/>
         <v>29.20660251391962</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M55" s="21">
         <f t="shared" si="6"/>
         <v>-1.0526051854464483E-2</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N55" s="21">
         <f t="shared" si="7"/>
         <v>9.7088141269609032E-3</v>
       </c>
-      <c r="O55" s="22">
+      <c r="O55" s="21">
         <f t="shared" si="8"/>
         <v>5.1462487926612916E-3</v>
       </c>
-      <c r="P55" s="22">
+      <c r="P55" s="21">
         <f t="shared" si="9"/>
         <v>1.5303418139886706E-2</v>
       </c>
@@ -4729,19 +4729,19 @@
         <f t="shared" si="5"/>
         <v>30.039146234381651</v>
       </c>
-      <c r="M56" s="22">
+      <c r="M56" s="21">
         <f t="shared" si="6"/>
         <v>-8.5948796501336799E-2</v>
       </c>
-      <c r="N56" s="22">
+      <c r="N56" s="21">
         <f t="shared" si="7"/>
         <v>-4.8426244757880151E-3</v>
       </c>
-      <c r="O56" s="22">
+      <c r="O56" s="21">
         <f t="shared" si="8"/>
         <v>4.7730251563901704E-2</v>
       </c>
-      <c r="P56" s="22">
+      <c r="P56" s="21">
         <f t="shared" si="9"/>
         <v>3.3568335902404461E-2</v>
       </c>
@@ -4805,19 +4805,19 @@
         <f t="shared" si="5"/>
         <v>30.064898249798041</v>
       </c>
-      <c r="M57" s="22">
+      <c r="M57" s="21">
         <f t="shared" si="6"/>
         <v>8.7573731899425272E-2</v>
       </c>
-      <c r="N57" s="22">
+      <c r="N57" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O57" s="22">
+      <c r="O57" s="21">
         <f t="shared" si="8"/>
         <v>3.3451897491663329E-2</v>
       </c>
-      <c r="P57" s="22">
+      <c r="P57" s="21">
         <f t="shared" si="9"/>
         <v>6.3186421869441001E-3</v>
       </c>
@@ -4881,19 +4881,19 @@
         <f t="shared" si="5"/>
         <v>30.443157946158095</v>
       </c>
-      <c r="M58" s="22">
+      <c r="M58" s="21">
         <f t="shared" si="6"/>
         <v>-3.4243931953273528E-2</v>
       </c>
-      <c r="N58" s="22">
+      <c r="N58" s="21">
         <f t="shared" si="7"/>
         <v>-9.7561749453646852E-3</v>
       </c>
-      <c r="O58" s="22">
+      <c r="O58" s="21">
         <f t="shared" si="8"/>
         <v>1.557341875633721E-3</v>
       </c>
-      <c r="P58" s="22">
+      <c r="P58" s="21">
         <f t="shared" si="9"/>
         <v>1.7964678345379431E-2</v>
       </c>
@@ -4957,19 +4957,19 @@
         <f t="shared" si="5"/>
         <v>30.691529635579702</v>
       </c>
-      <c r="M59" s="22">
+      <c r="M59" s="21">
         <f t="shared" si="6"/>
         <v>-3.1416944974476023E-2</v>
       </c>
-      <c r="N59" s="22">
+      <c r="N59" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O59" s="22">
+      <c r="O59" s="21">
         <f t="shared" si="8"/>
         <v>-1.1889656970040964E-2</v>
       </c>
-      <c r="P59" s="22">
+      <c r="P59" s="21">
         <f t="shared" si="9"/>
         <v>1.3587165546308356E-2</v>
       </c>
@@ -5033,19 +5033,19 @@
         <f t="shared" si="5"/>
         <v>30.411229478276535</v>
       </c>
-      <c r="M60" s="22">
+      <c r="M60" s="21">
         <f t="shared" si="6"/>
         <v>9.6440315329204773E-2</v>
       </c>
-      <c r="N60" s="22">
+      <c r="N60" s="21">
         <f t="shared" si="7"/>
         <v>-4.9140148024290403E-3</v>
       </c>
-      <c r="O60" s="22">
+      <c r="O60" s="21">
         <f t="shared" si="8"/>
         <v>1.4491962135120861E-3</v>
       </c>
-      <c r="P60" s="22">
+      <c r="P60" s="21">
         <f t="shared" si="9"/>
         <v>-3.7130503762824708E-3</v>
       </c>
@@ -5109,19 +5109,19 @@
         <f t="shared" si="5"/>
         <v>30.346478423980862</v>
       </c>
-      <c r="M61" s="22">
+      <c r="M61" s="21">
         <f t="shared" si="6"/>
         <v>2.0440644779690042E-3</v>
       </c>
-      <c r="N61" s="22">
+      <c r="N61" s="21">
         <f t="shared" si="7"/>
         <v>-4.9382816405825663E-3</v>
       </c>
-      <c r="O61" s="22">
+      <c r="O61" s="21">
         <f t="shared" si="8"/>
         <v>-9.6452396362681366E-4</v>
       </c>
-      <c r="P61" s="22">
+      <c r="P61" s="21">
         <f t="shared" si="9"/>
         <v>3.3302752519917237E-3</v>
       </c>
@@ -5185,19 +5185,19 @@
         <f t="shared" si="5"/>
         <v>31.290398567842963</v>
       </c>
-      <c r="M62" s="22">
+      <c r="M62" s="21">
         <f t="shared" si="6"/>
         <v>-6.8526617422191377E-2</v>
       </c>
-      <c r="N62" s="22">
+      <c r="N62" s="21">
         <f t="shared" si="7"/>
         <v>-4.9627893421290139E-3</v>
       </c>
-      <c r="O62" s="22">
+      <c r="O62" s="21">
         <f t="shared" si="8"/>
         <v>-6.9740873449970948E-4</v>
       </c>
-      <c r="P62" s="22">
+      <c r="P62" s="21">
         <f t="shared" si="9"/>
         <v>3.4888410423513053E-2</v>
       </c>
@@ -5261,19 +5261,19 @@
         <f t="shared" si="5"/>
         <v>31.157459968120776</v>
       </c>
-      <c r="M63" s="22">
+      <c r="M63" s="21">
         <f t="shared" si="6"/>
         <v>1.039073917318107E-2</v>
       </c>
-      <c r="N63" s="22">
+      <c r="N63" s="21">
         <f t="shared" si="7"/>
         <v>-4.9875415110390512E-3</v>
       </c>
-      <c r="O63" s="22">
+      <c r="O63" s="21">
         <f t="shared" si="8"/>
         <v>-2.4637831711284312E-2</v>
       </c>
-      <c r="P63" s="22">
+      <c r="P63" s="21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5337,19 +5337,19 @@
         <f t="shared" si="5"/>
         <v>31.523757523365866</v>
       </c>
-      <c r="M64" s="22">
+      <c r="M64" s="21">
         <f t="shared" si="6"/>
         <v>3.591844293524718E-2</v>
       </c>
-      <c r="N64" s="22">
+      <c r="N64" s="21">
         <f t="shared" si="7"/>
         <v>-1.5113637810048184E-2</v>
       </c>
-      <c r="O64" s="22">
+      <c r="O64" s="21">
         <f t="shared" si="8"/>
         <v>2.6065205479727304E-2</v>
       </c>
-      <c r="P64" s="22">
+      <c r="P64" s="21">
         <f t="shared" si="9"/>
         <v>1.5945360328778135E-2</v>
       </c>
@@ -5413,19 +5413,19 @@
         <f t="shared" si="5"/>
         <v>32.382932954073354</v>
       </c>
-      <c r="M65" s="22">
+      <c r="M65" s="21">
         <f t="shared" si="6"/>
         <v>1.2466024634290673E-2</v>
       </c>
-      <c r="N65" s="22">
+      <c r="N65" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O65" s="22">
+      <c r="O65" s="21">
         <f t="shared" si="8"/>
         <v>1.2493568577155726E-2</v>
       </c>
-      <c r="P65" s="22">
+      <c r="P65" s="21">
         <f t="shared" si="9"/>
         <v>3.1147648254879121E-2</v>
       </c>
@@ -5489,19 +5489,19 @@
         <f t="shared" ref="L66:L129" si="39">+E66/G66</f>
         <v>31.6796762387368</v>
       </c>
-      <c r="M66" s="22">
+      <c r="M66" s="21">
         <f t="shared" si="6"/>
         <v>3.1517489060040996E-2</v>
       </c>
-      <c r="N66" s="22">
+      <c r="N66" s="21">
         <f t="shared" si="7"/>
         <v>5.0633019565466345E-3</v>
       </c>
-      <c r="O66" s="22">
+      <c r="O66" s="21">
         <f t="shared" si="8"/>
         <v>1.8988440600420924E-2</v>
       </c>
-      <c r="P66" s="22">
+      <c r="P66" s="21">
         <f t="shared" si="9"/>
         <v>-1.7698582605417013E-2</v>
       </c>
@@ -5565,19 +5565,19 @@
         <f t="shared" si="39"/>
         <v>30.303498652363654</v>
       </c>
-      <c r="M67" s="22">
+      <c r="M67" s="21">
         <f t="shared" ref="M67:M130" si="40">+LN(B67/B66)</f>
         <v>-3.5029743143535422E-2</v>
       </c>
-      <c r="N67" s="22">
+      <c r="N67" s="21">
         <f t="shared" ref="N67:N130" si="41">+LN(C67/C66)</f>
         <v>1.0050335853501506E-2</v>
       </c>
-      <c r="O67" s="22">
+      <c r="O67" s="21">
         <f t="shared" ref="O67:O130" si="42">+LN(D67/D66)</f>
         <v>-1.548785205579473E-2</v>
       </c>
-      <c r="P67" s="22">
+      <c r="P67" s="21">
         <f t="shared" ref="P67:P130" si="43">+LN(E67/E66)</f>
         <v>-4.015458066112506E-2</v>
       </c>
@@ -5641,19 +5641,19 @@
         <f t="shared" si="39"/>
         <v>30.752251653046066</v>
       </c>
-      <c r="M68" s="22">
+      <c r="M68" s="21">
         <f t="shared" si="40"/>
         <v>1.960518288514209E-2</v>
       </c>
-      <c r="N68" s="22">
+      <c r="N68" s="21">
         <f t="shared" si="41"/>
         <v>-5.0125418235442863E-3</v>
       </c>
-      <c r="O68" s="22">
+      <c r="O68" s="21">
         <f t="shared" si="42"/>
         <v>2.0338183762007224E-2</v>
       </c>
-      <c r="P68" s="22">
+      <c r="P68" s="21">
         <f t="shared" si="43"/>
         <v>1.8957636708638547E-2</v>
       </c>
@@ -5717,19 +5717,19 @@
         <f t="shared" si="39"/>
         <v>29.728003996980267</v>
       </c>
-      <c r="M69" s="22">
+      <c r="M69" s="21">
         <f t="shared" si="40"/>
         <v>-5.9903785009938664E-3</v>
       </c>
-      <c r="N69" s="22">
+      <c r="N69" s="21">
         <f t="shared" si="41"/>
         <v>1.0000083334583399E-2</v>
       </c>
-      <c r="O69" s="22">
+      <c r="O69" s="21">
         <f t="shared" si="42"/>
         <v>-1.1805764473544601E-2</v>
       </c>
-      <c r="P69" s="22">
+      <c r="P69" s="21">
         <f t="shared" si="43"/>
         <v>-2.9616125406111613E-2</v>
       </c>
@@ -5793,19 +5793,19 @@
         <f t="shared" si="39"/>
         <v>29.324523872646544</v>
       </c>
-      <c r="M70" s="22">
+      <c r="M70" s="21">
         <f t="shared" si="40"/>
         <v>-6.411772834816884E-2</v>
       </c>
-      <c r="N70" s="22">
+      <c r="N70" s="21">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O70" s="22">
+      <c r="O70" s="21">
         <f t="shared" si="42"/>
         <v>-2.3498412844936384E-3</v>
       </c>
-      <c r="P70" s="22">
+      <c r="P70" s="21">
         <f t="shared" si="43"/>
         <v>-9.4077453304672615E-3</v>
       </c>
@@ -5869,19 +5869,19 @@
         <f t="shared" si="39"/>
         <v>28.904597852716023</v>
       </c>
-      <c r="M71" s="22">
+      <c r="M71" s="21">
         <f t="shared" si="40"/>
         <v>-3.5954182367180058E-2</v>
       </c>
-      <c r="N71" s="22">
+      <c r="N71" s="21">
         <f t="shared" si="41"/>
         <v>3.4233171642242176E-2</v>
       </c>
-      <c r="O71" s="22">
+      <c r="O71" s="21">
         <f t="shared" si="42"/>
         <v>-3.1387036939568048E-2</v>
       </c>
-      <c r="P71" s="22">
+      <c r="P71" s="21">
         <f t="shared" si="43"/>
         <v>-1.0165886895261853E-2</v>
       </c>
@@ -5945,19 +5945,19 @@
         <f t="shared" si="39"/>
         <v>30.361334014290968</v>
       </c>
-      <c r="M72" s="22">
+      <c r="M72" s="21">
         <f t="shared" si="40"/>
         <v>4.5604118888128344E-3</v>
       </c>
-      <c r="N72" s="22">
+      <c r="N72" s="21">
         <f t="shared" si="41"/>
         <v>-4.8192864359488828E-3</v>
       </c>
-      <c r="O72" s="22">
+      <c r="O72" s="21">
         <f t="shared" si="42"/>
         <v>-2.6002994798387472E-2</v>
       </c>
-      <c r="P72" s="22">
+      <c r="P72" s="21">
         <f t="shared" si="43"/>
         <v>5.3426807284801967E-2</v>
       </c>
@@ -6021,19 +6021,19 @@
         <f t="shared" si="39"/>
         <v>30.89877536714096</v>
       </c>
-      <c r="M73" s="22">
+      <c r="M73" s="21">
         <f t="shared" si="40"/>
         <v>-3.8255205831288795E-2</v>
       </c>
-      <c r="N73" s="22">
+      <c r="N73" s="21">
         <f t="shared" si="41"/>
         <v>-4.8426244757880151E-3</v>
       </c>
-      <c r="O73" s="22">
+      <c r="O73" s="21">
         <f t="shared" si="42"/>
         <v>4.0615172233115766E-4</v>
       </c>
-      <c r="P73" s="22">
+      <c r="P73" s="21">
         <f t="shared" si="43"/>
         <v>2.1804253132020352E-2</v>
       </c>
@@ -6097,19 +6097,19 @@
         <f t="shared" si="39"/>
         <v>30.48053782186485</v>
       </c>
-      <c r="M74" s="22">
+      <c r="M74" s="21">
         <f t="shared" si="40"/>
         <v>3.418373253949953E-2</v>
       </c>
-      <c r="N74" s="22">
+      <c r="N74" s="21">
         <f t="shared" si="41"/>
         <v>-1.4670189747793742E-2</v>
       </c>
-      <c r="O74" s="22">
+      <c r="O74" s="21">
         <f t="shared" si="42"/>
         <v>1.3869910696350492E-2</v>
       </c>
-      <c r="P74" s="22">
+      <c r="P74" s="21">
         <f t="shared" si="43"/>
         <v>-9.3705816780737666E-3</v>
       </c>
@@ -6173,19 +6173,19 @@
         <f t="shared" si="39"/>
         <v>31.773420893926172</v>
       </c>
-      <c r="M75" s="22">
+      <c r="M75" s="21">
         <f t="shared" si="40"/>
         <v>2.2973765536552247E-2</v>
       </c>
-      <c r="N75" s="22">
+      <c r="N75" s="21">
         <f t="shared" si="41"/>
         <v>9.8040000966208348E-3</v>
       </c>
-      <c r="O75" s="22">
+      <c r="O75" s="21">
         <f t="shared" si="42"/>
         <v>6.4448028915599753E-2</v>
       </c>
-      <c r="P75" s="22">
+      <c r="P75" s="21">
         <f t="shared" si="43"/>
         <v>4.5799337182064227E-2</v>
       </c>
@@ -6249,19 +6249,19 @@
         <f t="shared" si="39"/>
         <v>31.369962702386367</v>
       </c>
-      <c r="M76" s="22">
+      <c r="M76" s="21">
         <f t="shared" si="40"/>
         <v>2.8917992359811153E-2</v>
       </c>
-      <c r="N76" s="22">
+      <c r="N76" s="21">
         <f t="shared" si="41"/>
         <v>4.8661896511729063E-3</v>
       </c>
-      <c r="O76" s="22">
+      <c r="O76" s="21">
         <f t="shared" si="42"/>
         <v>-1.799858401637653E-2</v>
       </c>
-      <c r="P76" s="22">
+      <c r="P76" s="21">
         <f t="shared" si="43"/>
         <v>-8.5216925316751874E-3</v>
       </c>
@@ -6325,19 +6325,19 @@
         <f t="shared" si="39"/>
         <v>30.355878355538533</v>
       </c>
-      <c r="M77" s="22">
+      <c r="M77" s="21">
         <f t="shared" si="40"/>
         <v>-6.5248848767270311E-3</v>
       </c>
-      <c r="N77" s="22">
+      <c r="N77" s="21">
         <f t="shared" si="41"/>
         <v>4.8426244757879908E-3</v>
       </c>
-      <c r="O77" s="22">
+      <c r="O77" s="21">
         <f t="shared" si="42"/>
         <v>-3.5195307244911142E-2</v>
       </c>
-      <c r="P77" s="22">
+      <c r="P77" s="21">
         <f t="shared" si="43"/>
         <v>-2.860305540092592E-2</v>
       </c>
@@ -6401,19 +6401,19 @@
         <f t="shared" si="39"/>
         <v>30.034092188707145</v>
       </c>
-      <c r="M78" s="22">
+      <c r="M78" s="21">
         <f t="shared" si="40"/>
         <v>-3.2560712084839731E-2</v>
       </c>
-      <c r="N78" s="22">
+      <c r="N78" s="21">
         <f t="shared" si="41"/>
         <v>9.6154586994419734E-3</v>
       </c>
-      <c r="O78" s="22">
+      <c r="O78" s="21">
         <f t="shared" si="42"/>
         <v>3.4707731435431169E-2</v>
       </c>
-      <c r="P78" s="22">
+      <c r="P78" s="21">
         <f t="shared" si="43"/>
         <v>-6.3994479677500233E-3</v>
       </c>
@@ -6477,19 +6477,19 @@
         <f t="shared" si="39"/>
         <v>30.233851711826642</v>
       </c>
-      <c r="M79" s="22">
+      <c r="M79" s="21">
         <f t="shared" si="40"/>
         <v>3.2099449721218671E-3</v>
       </c>
-      <c r="N79" s="22">
+      <c r="N79" s="21">
         <f t="shared" si="41"/>
         <v>9.523881511255541E-3</v>
       </c>
-      <c r="O79" s="22">
+      <c r="O79" s="21">
         <f t="shared" si="42"/>
         <v>5.2715150282785488E-3</v>
       </c>
-      <c r="P79" s="22">
+      <c r="P79" s="21">
         <f t="shared" si="43"/>
         <v>1.0886665072171915E-2</v>
       </c>
@@ -6553,19 +6553,19 @@
         <f t="shared" si="39"/>
         <v>30.555443309806154</v>
       </c>
-      <c r="M80" s="22">
+      <c r="M80" s="21">
         <f t="shared" si="40"/>
         <v>-2.2833306339397348E-2</v>
       </c>
-      <c r="N80" s="22">
+      <c r="N80" s="21">
         <f t="shared" si="41"/>
         <v>-9.5238815112554786E-3</v>
       </c>
-      <c r="O80" s="22">
+      <c r="O80" s="21">
         <f t="shared" si="42"/>
         <v>4.4029312688664134E-2</v>
       </c>
-      <c r="P80" s="22">
+      <c r="P80" s="21">
         <f t="shared" si="43"/>
         <v>1.4838226166263917E-2</v>
       </c>
@@ -6629,19 +6629,19 @@
         <f t="shared" si="39"/>
         <v>30.250418714581027</v>
       </c>
-      <c r="M81" s="22">
+      <c r="M81" s="21">
         <f t="shared" si="40"/>
         <v>1.2099137316238306E-2</v>
       </c>
-      <c r="N81" s="22">
+      <c r="N81" s="21">
         <f t="shared" si="41"/>
         <v>-4.7961722634930551E-3</v>
       </c>
-      <c r="O81" s="22">
+      <c r="O81" s="21">
         <f t="shared" si="42"/>
         <v>1.179281253951308E-2</v>
       </c>
-      <c r="P81" s="22">
+      <c r="P81" s="21">
         <f t="shared" si="43"/>
         <v>-5.7752270691536316E-3</v>
       </c>
@@ -6705,19 +6705,19 @@
         <f t="shared" si="39"/>
         <v>30.117996930532925</v>
       </c>
-      <c r="M82" s="22">
+      <c r="M82" s="21">
         <f t="shared" si="40"/>
         <v>-9.0156338913311054E-2</v>
       </c>
-      <c r="N82" s="22">
+      <c r="N82" s="21">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O82" s="22">
+      <c r="O82" s="21">
         <f t="shared" si="42"/>
         <v>3.422812996427424E-2</v>
       </c>
-      <c r="P82" s="22">
+      <c r="P82" s="21">
         <f t="shared" si="43"/>
         <v>-2.5464934438579694E-3</v>
       </c>
@@ -6781,19 +6781,19 @@
         <f t="shared" si="39"/>
         <v>29.898118037988674</v>
       </c>
-      <c r="M83" s="22">
+      <c r="M83" s="21">
         <f t="shared" si="40"/>
         <v>1.4265415876255384E-2</v>
       </c>
-      <c r="N83" s="22">
+      <c r="N83" s="21">
         <f t="shared" si="41"/>
         <v>-4.8192864359488828E-3</v>
       </c>
-      <c r="O83" s="22">
+      <c r="O83" s="21">
         <f t="shared" si="42"/>
         <v>5.837036631645353E-2</v>
       </c>
-      <c r="P83" s="22">
+      <c r="P83" s="21">
         <f t="shared" si="43"/>
         <v>-5.4867262158790541E-3</v>
       </c>
@@ -6857,19 +6857,19 @@
         <f t="shared" si="39"/>
         <v>30.365868129431753</v>
       </c>
-      <c r="M84" s="22">
+      <c r="M84" s="21">
         <f t="shared" si="40"/>
         <v>7.9213559012938362E-2</v>
       </c>
-      <c r="N84" s="22">
+      <c r="N84" s="21">
         <f t="shared" si="41"/>
         <v>9.6154586994419734E-3</v>
       </c>
-      <c r="O84" s="22">
+      <c r="O84" s="21">
         <f t="shared" si="42"/>
         <v>2.97358588205279E-2</v>
       </c>
-      <c r="P84" s="22">
+      <c r="P84" s="21">
         <f t="shared" si="43"/>
         <v>1.7364317195134392E-2</v>
       </c>
@@ -6933,19 +6933,19 @@
         <f t="shared" si="39"/>
         <v>30.381380182241141</v>
       </c>
-      <c r="M85" s="22">
+      <c r="M85" s="21">
         <f t="shared" si="40"/>
         <v>-1.3170672532446118E-2</v>
       </c>
-      <c r="N85" s="22">
+      <c r="N85" s="21">
         <f t="shared" si="41"/>
         <v>-4.7961722634930551E-3</v>
       </c>
-      <c r="O85" s="22">
+      <c r="O85" s="21">
         <f t="shared" si="42"/>
         <v>-2.1763599314076464E-2</v>
       </c>
-      <c r="P85" s="22">
+      <c r="P85" s="21">
         <f t="shared" si="43"/>
         <v>2.3513430015247917E-3</v>
       </c>
@@ -7009,19 +7009,19 @@
         <f t="shared" si="39"/>
         <v>30.029494517999808</v>
       </c>
-      <c r="M86" s="22">
+      <c r="M86" s="21">
         <f t="shared" si="40"/>
         <v>-1.2895715918401891E-2</v>
       </c>
-      <c r="N86" s="22">
+      <c r="N86" s="21">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O86" s="22">
+      <c r="O86" s="21">
         <f t="shared" si="42"/>
         <v>-9.0079183353416574E-3</v>
       </c>
-      <c r="P86" s="22">
+      <c r="P86" s="21">
         <f t="shared" si="43"/>
         <v>-9.8092424781298666E-3</v>
       </c>
@@ -7085,19 +7085,19 @@
         <f t="shared" si="39"/>
         <v>29.678800307502772</v>
       </c>
-      <c r="M87" s="22">
+      <c r="M87" s="21">
         <f t="shared" si="40"/>
         <v>-1.8572576959370989E-2</v>
       </c>
-      <c r="N87" s="22">
+      <c r="N87" s="21">
         <f t="shared" si="41"/>
         <v>4.7961722634930135E-3</v>
       </c>
-      <c r="O87" s="22">
+      <c r="O87" s="21">
         <f t="shared" si="42"/>
         <v>-1.0796970473568299E-2</v>
       </c>
-      <c r="P87" s="22">
+      <c r="P87" s="21">
         <f t="shared" si="43"/>
         <v>-9.9064177185293843E-3</v>
       </c>
@@ -7161,19 +7161,19 @@
         <f t="shared" si="39"/>
         <v>29.608700168293762</v>
       </c>
-      <c r="M88" s="22">
+      <c r="M88" s="21">
         <f t="shared" si="40"/>
         <v>3.1090187300044241E-2</v>
       </c>
-      <c r="N88" s="22">
+      <c r="N88" s="21">
         <f t="shared" si="41"/>
         <v>-4.7961722634930551E-3</v>
       </c>
-      <c r="O88" s="22">
+      <c r="O88" s="21">
         <f t="shared" si="42"/>
         <v>-1.9287951294172836E-2</v>
       </c>
-      <c r="P88" s="22">
+      <c r="P88" s="21">
         <f t="shared" si="43"/>
         <v>-5.2411883722308574E-4</v>
       </c>
@@ -7237,19 +7237,19 @@
         <f t="shared" si="39"/>
         <v>30.128082838218464</v>
       </c>
-      <c r="M89" s="22">
+      <c r="M89" s="21">
         <f t="shared" si="40"/>
         <v>-2.6338810722795619E-2</v>
       </c>
-      <c r="N89" s="22">
+      <c r="N89" s="21">
         <f t="shared" si="41"/>
         <v>4.7961722634930135E-3</v>
       </c>
-      <c r="O89" s="22">
+      <c r="O89" s="21">
         <f t="shared" si="42"/>
         <v>-2.1959439913159524E-2</v>
       </c>
-      <c r="P89" s="22">
+      <c r="P89" s="21">
         <f t="shared" si="43"/>
         <v>1.9230113698033513E-2</v>
       </c>
@@ -7313,19 +7313,19 @@
         <f t="shared" si="39"/>
         <v>30.057765871643248</v>
       </c>
-      <c r="M90" s="22">
+      <c r="M90" s="21">
         <f t="shared" si="40"/>
         <v>2.2056930901616773E-2</v>
       </c>
-      <c r="N90" s="22">
+      <c r="N90" s="21">
         <f t="shared" si="41"/>
         <v>1.4252022707201413E-2</v>
       </c>
-      <c r="O90" s="22">
+      <c r="O90" s="21">
         <f t="shared" si="42"/>
         <v>2.3645394292711879E-2</v>
       </c>
-      <c r="P90" s="22">
+      <c r="P90" s="21">
         <f t="shared" si="43"/>
         <v>-4.9602719980885654E-4</v>
       </c>
@@ -7389,19 +7389,19 @@
         <f t="shared" si="39"/>
         <v>30.356441279104068</v>
       </c>
-      <c r="M91" s="22">
+      <c r="M91" s="21">
         <f t="shared" si="40"/>
         <v>-2.1048465844258943E-2</v>
       </c>
-      <c r="N91" s="22">
+      <c r="N91" s="21">
         <f t="shared" si="41"/>
         <v>1.8692133012152546E-2</v>
       </c>
-      <c r="O91" s="22">
+      <c r="O91" s="21">
         <f t="shared" si="42"/>
         <v>4.7043208638146851E-2</v>
       </c>
-      <c r="P91" s="22">
+      <c r="P91" s="21">
         <f t="shared" si="43"/>
         <v>1.1728303965559404E-2</v>
       </c>
@@ -7465,19 +7465,19 @@
         <f t="shared" si="39"/>
         <v>29.856517392431584</v>
       </c>
-      <c r="M92" s="22">
+      <c r="M92" s="21">
         <f t="shared" si="40"/>
         <v>7.2830026698965808E-2</v>
       </c>
-      <c r="N92" s="22">
+      <c r="N92" s="21">
         <f t="shared" si="41"/>
         <v>1.8349138668196617E-2</v>
       </c>
-      <c r="O92" s="22">
+      <c r="O92" s="21">
         <f t="shared" si="42"/>
         <v>2.3975734492026331E-3</v>
       </c>
-      <c r="P92" s="22">
+      <c r="P92" s="21">
         <f t="shared" si="43"/>
         <v>-1.4764939133279774E-2</v>
       </c>
@@ -7541,19 +7541,19 @@
         <f t="shared" si="39"/>
         <v>29.483569452303804</v>
       </c>
-      <c r="M93" s="22">
+      <c r="M93" s="21">
         <f t="shared" si="40"/>
         <v>-1.4597586660987405E-2</v>
       </c>
-      <c r="N93" s="22">
+      <c r="N93" s="21">
         <f t="shared" si="41"/>
         <v>4.5351551653913628E-3</v>
       </c>
-      <c r="O93" s="22">
+      <c r="O93" s="21">
         <f t="shared" si="42"/>
         <v>-5.3336952392955056E-3</v>
       </c>
-      <c r="P93" s="22">
+      <c r="P93" s="21">
         <f t="shared" si="43"/>
         <v>-1.072937865649491E-2</v>
       </c>
@@ -7617,19 +7617,19 @@
         <f t="shared" si="39"/>
         <v>29.701301654778888</v>
       </c>
-      <c r="M94" s="22">
+      <c r="M94" s="21">
         <f t="shared" si="40"/>
         <v>1.5083636287777698E-2</v>
       </c>
-      <c r="N94" s="22">
+      <c r="N94" s="21">
         <f t="shared" si="41"/>
         <v>6.5669103507857235E-2</v>
       </c>
-      <c r="O94" s="22">
+      <c r="O94" s="21">
         <f t="shared" si="42"/>
         <v>3.9944621461908934E-2</v>
       </c>
-      <c r="P94" s="22">
+      <c r="P94" s="21">
         <f t="shared" si="43"/>
         <v>9.1983661370084405E-3</v>
       </c>
@@ -7693,19 +7693,19 @@
         <f t="shared" si="39"/>
         <v>29.199555256662858</v>
       </c>
-      <c r="M95" s="22">
+      <c r="M95" s="21">
         <f t="shared" si="40"/>
         <v>7.5245698233062444E-2</v>
       </c>
-      <c r="N95" s="22">
+      <c r="N95" s="21">
         <f t="shared" si="41"/>
         <v>4.1499730906752838E-2</v>
       </c>
-      <c r="O95" s="22">
+      <c r="O95" s="21">
         <f t="shared" si="42"/>
         <v>3.0565109951221404E-2</v>
       </c>
-      <c r="P95" s="22">
+      <c r="P95" s="21">
         <f t="shared" si="43"/>
         <v>-1.5196758394871421E-2</v>
       </c>
@@ -7769,19 +7769,19 @@
         <f t="shared" si="39"/>
         <v>27.977926918669827</v>
       </c>
-      <c r="M96" s="22">
+      <c r="M96" s="21">
         <f t="shared" si="40"/>
         <v>-1.7518595478006632E-2</v>
       </c>
-      <c r="N96" s="22">
+      <c r="N96" s="21">
         <f t="shared" si="41"/>
         <v>3.593200922606337E-2</v>
       </c>
-      <c r="O96" s="22">
+      <c r="O96" s="21">
         <f t="shared" si="42"/>
         <v>-1.1614636046477712E-2</v>
       </c>
-      <c r="P96" s="22">
+      <c r="P96" s="21">
         <f t="shared" si="43"/>
         <v>-4.0896968279474512E-2</v>
       </c>
@@ -7845,19 +7845,19 @@
         <f t="shared" si="39"/>
         <v>27.346311330967453</v>
       </c>
-      <c r="M97" s="22">
+      <c r="M97" s="21">
         <f t="shared" si="40"/>
         <v>-1.447434983028143E-2</v>
       </c>
-      <c r="N97" s="22">
+      <c r="N97" s="21">
         <f t="shared" si="41"/>
         <v>3.9138993211363148E-3</v>
       </c>
-      <c r="O97" s="22">
+      <c r="O97" s="21">
         <f t="shared" si="42"/>
         <v>-3.1902577684107286E-2</v>
       </c>
-      <c r="P97" s="22">
+      <c r="P97" s="21">
         <f t="shared" si="43"/>
         <v>-2.0993589255839752E-2</v>
       </c>
@@ -7921,19 +7921,19 @@
         <f t="shared" si="39"/>
         <v>27.190979731539997</v>
       </c>
-      <c r="M98" s="22">
+      <c r="M98" s="21">
         <f t="shared" si="40"/>
         <v>-1.8597913167892444E-2</v>
       </c>
-      <c r="N98" s="22">
+      <c r="N98" s="21">
         <f t="shared" si="41"/>
         <v>-3.1748698314580298E-2</v>
       </c>
-      <c r="O98" s="22">
+      <c r="O98" s="21">
         <f t="shared" si="42"/>
         <v>4.6342479698413402E-3</v>
       </c>
-      <c r="P98" s="22">
+      <c r="P98" s="21">
         <f t="shared" si="43"/>
         <v>-3.8557249274237329E-3</v>
       </c>
@@ -7997,19 +7997,19 @@
         <f t="shared" si="39"/>
         <v>27.420215315087223</v>
       </c>
-      <c r="M99" s="22">
+      <c r="M99" s="21">
         <f t="shared" si="40"/>
         <v>8.8314096252547752E-3</v>
       </c>
-      <c r="N99" s="22">
+      <c r="N99" s="21">
         <f t="shared" si="41"/>
         <v>-2.4491020008295755E-2</v>
       </c>
-      <c r="O99" s="22">
+      <c r="O99" s="21">
         <f t="shared" si="42"/>
         <v>3.5268209230558352E-2</v>
       </c>
-      <c r="P99" s="22">
+      <c r="P99" s="21">
         <f t="shared" si="43"/>
         <v>1.0235870793595029E-2</v>
       </c>
@@ -8073,19 +8073,19 @@
         <f t="shared" si="39"/>
         <v>27.792758597132515</v>
       </c>
-      <c r="M100" s="22">
+      <c r="M100" s="21">
         <f t="shared" si="40"/>
         <v>1.2452033212410804E-2</v>
       </c>
-      <c r="N100" s="22">
+      <c r="N100" s="21">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O100" s="22">
+      <c r="O100" s="21">
         <f t="shared" si="42"/>
         <v>9.5213332215558771E-6</v>
       </c>
-      <c r="P100" s="22">
+      <c r="P100" s="21">
         <f t="shared" si="43"/>
         <v>1.533561305284541E-2</v>
       </c>
@@ -8149,19 +8149,19 @@
         <f t="shared" si="39"/>
         <v>28.208223021825166</v>
       </c>
-      <c r="M101" s="22">
+      <c r="M101" s="21">
         <f t="shared" si="40"/>
         <v>-1.5261383823780427E-2</v>
       </c>
-      <c r="N101" s="22">
+      <c r="N101" s="21">
         <f t="shared" si="41"/>
         <v>8.2304991365154435E-3</v>
       </c>
-      <c r="O101" s="22">
+      <c r="O101" s="21">
         <f t="shared" si="42"/>
         <v>-4.8904084626322083E-3</v>
       </c>
-      <c r="P101" s="22">
+      <c r="P101" s="21">
         <f t="shared" si="43"/>
         <v>1.6678662300601339E-2</v>
       </c>
@@ -8225,19 +8225,19 @@
         <f t="shared" si="39"/>
         <v>28.682035780094736</v>
       </c>
-      <c r="M102" s="22">
+      <c r="M102" s="21">
         <f t="shared" si="40"/>
         <v>-1.0881688998970681E-2</v>
       </c>
-      <c r="N102" s="22">
+      <c r="N102" s="21">
         <f t="shared" si="41"/>
         <v>8.1633106391608354E-3</v>
       </c>
-      <c r="O102" s="22">
+      <c r="O102" s="21">
         <f t="shared" si="42"/>
         <v>4.6900635842645443E-2</v>
       </c>
-      <c r="P102" s="22">
+      <c r="P102" s="21">
         <f t="shared" si="43"/>
         <v>1.8498098816748375E-2</v>
       </c>
@@ -8301,19 +8301,19 @@
         <f t="shared" si="39"/>
         <v>27.961123385552266</v>
       </c>
-      <c r="M103" s="22">
+      <c r="M103" s="21">
         <f t="shared" si="40"/>
         <v>1.1698974286526468E-2</v>
       </c>
-      <c r="N103" s="22">
+      <c r="N103" s="21">
         <f t="shared" si="41"/>
         <v>-4.0733253876357864E-3</v>
       </c>
-      <c r="O103" s="22">
+      <c r="O103" s="21">
         <f t="shared" si="42"/>
         <v>5.1036284584515396E-3</v>
       </c>
-      <c r="P103" s="22">
+      <c r="P103" s="21">
         <f t="shared" si="43"/>
         <v>-2.3615265921568609E-2</v>
       </c>
@@ -8377,19 +8377,19 @@
         <f t="shared" si="39"/>
         <v>27.08279896727198</v>
       </c>
-      <c r="M104" s="22">
+      <c r="M104" s="21">
         <f t="shared" si="40"/>
         <v>-9.2934960246930653E-3</v>
       </c>
-      <c r="N104" s="22">
+      <c r="N104" s="21">
         <f t="shared" si="41"/>
         <v>8.1301260832503091E-3</v>
       </c>
-      <c r="O104" s="22">
+      <c r="O104" s="21">
         <f t="shared" si="42"/>
         <v>4.7303273516339497E-3</v>
       </c>
-      <c r="P104" s="22">
+      <c r="P104" s="21">
         <f t="shared" si="43"/>
         <v>-2.9277447777322614E-2</v>
       </c>
@@ -8453,19 +8453,19 @@
         <f t="shared" si="39"/>
         <v>26.209446209336875</v>
       </c>
-      <c r="M105" s="22">
+      <c r="M105" s="21">
         <f t="shared" si="40"/>
         <v>1.5647188528488291E-2</v>
       </c>
-      <c r="N105" s="22">
+      <c r="N105" s="21">
         <f t="shared" si="41"/>
         <v>2.4001152099543045E-2</v>
       </c>
-      <c r="O105" s="22">
+      <c r="O105" s="21">
         <f t="shared" si="42"/>
         <v>-4.820273984338827E-2</v>
       </c>
-      <c r="P105" s="22">
+      <c r="P105" s="21">
         <f t="shared" si="43"/>
         <v>-3.0140068596093614E-2</v>
       </c>
@@ -8529,19 +8529,19 @@
         <f t="shared" si="39"/>
         <v>25.70325722682594</v>
       </c>
-      <c r="M106" s="22">
+      <c r="M106" s="21">
         <f t="shared" si="40"/>
         <v>2.5706017234355574E-2</v>
       </c>
-      <c r="N106" s="22">
+      <c r="N106" s="21">
         <f t="shared" si="41"/>
         <v>-7.9365495957363034E-3</v>
       </c>
-      <c r="O106" s="22">
+      <c r="O106" s="21">
         <f t="shared" si="42"/>
         <v>-3.5729092960663497E-2</v>
       </c>
-      <c r="P106" s="22">
+      <c r="P106" s="21">
         <f t="shared" si="43"/>
         <v>-1.6863318731238326E-2</v>
       </c>
@@ -8605,19 +8605,19 @@
         <f t="shared" si="39"/>
         <v>24.753983565628129</v>
       </c>
-      <c r="M107" s="22">
+      <c r="M107" s="21">
         <f t="shared" si="40"/>
         <v>8.246192220944604E-3</v>
       </c>
-      <c r="N107" s="22">
+      <c r="N107" s="21">
         <f t="shared" si="41"/>
         <v>-3.9920212695374498E-3</v>
       </c>
-      <c r="O107" s="22">
+      <c r="O107" s="21">
         <f t="shared" si="42"/>
         <v>-1.4484821380757804E-2</v>
       </c>
-      <c r="P107" s="22">
+      <c r="P107" s="21">
         <f t="shared" si="43"/>
         <v>-3.4992450820407743E-2</v>
       </c>
@@ -8681,19 +8681,19 @@
         <f t="shared" si="39"/>
         <v>25.152835958120406</v>
       </c>
-      <c r="M108" s="22">
+      <c r="M108" s="21">
         <f t="shared" si="40"/>
         <v>-5.9884453857574774E-3</v>
       </c>
-      <c r="N108" s="22">
+      <c r="N108" s="21">
         <f t="shared" si="41"/>
         <v>7.9681696491768813E-3</v>
       </c>
-      <c r="O108" s="22">
+      <c r="O108" s="21">
         <f t="shared" si="42"/>
         <v>1.0242279460195302E-2</v>
       </c>
-      <c r="P108" s="22">
+      <c r="P108" s="21">
         <f t="shared" si="43"/>
         <v>1.8623068916452563E-2</v>
       </c>
@@ -8757,19 +8757,19 @@
         <f t="shared" si="39"/>
         <v>26.425779316246466</v>
       </c>
-      <c r="M109" s="22">
+      <c r="M109" s="21">
         <f t="shared" si="40"/>
         <v>-1.5745613264590112E-2</v>
       </c>
-      <c r="N109" s="22">
+      <c r="N109" s="21">
         <f t="shared" si="41"/>
         <v>1.9646997383796421E-2</v>
       </c>
-      <c r="O109" s="22">
+      <c r="O109" s="21">
         <f t="shared" si="42"/>
         <v>3.7098740122802308E-2</v>
       </c>
-      <c r="P109" s="22">
+      <c r="P109" s="21">
         <f t="shared" si="43"/>
         <v>5.200821618906093E-2</v>
       </c>
@@ -8833,19 +8833,19 @@
         <f t="shared" si="39"/>
         <v>25.967550906470596</v>
       </c>
-      <c r="M110" s="22">
+      <c r="M110" s="21">
         <f t="shared" si="40"/>
         <v>-2.3138523838659637E-3</v>
       </c>
-      <c r="N110" s="22">
+      <c r="N110" s="21">
         <f t="shared" si="41"/>
         <v>7.7519768043179237E-3</v>
       </c>
-      <c r="O110" s="22">
+      <c r="O110" s="21">
         <f t="shared" si="42"/>
         <v>-2.0349348134609598E-2</v>
       </c>
-      <c r="P110" s="22">
+      <c r="P110" s="21">
         <f t="shared" si="43"/>
         <v>-1.4853461255544648E-2</v>
       </c>
@@ -8909,19 +8909,19 @@
         <f t="shared" si="39"/>
         <v>26.073889730679323</v>
       </c>
-      <c r="M111" s="22">
+      <c r="M111" s="21">
         <f t="shared" si="40"/>
         <v>-3.1635271200017079E-2</v>
       </c>
-      <c r="N111" s="22">
+      <c r="N111" s="21">
         <f t="shared" si="41"/>
         <v>-7.7519768043179359E-3</v>
       </c>
-      <c r="O111" s="22">
+      <c r="O111" s="21">
         <f t="shared" si="42"/>
         <v>1.4923104750506198E-2</v>
       </c>
-      <c r="P111" s="22">
+      <c r="P111" s="21">
         <f t="shared" si="43"/>
         <v>6.7255488144216989E-3</v>
       </c>
@@ -8985,19 +8985,19 @@
         <f t="shared" si="39"/>
         <v>26.106813734346591</v>
       </c>
-      <c r="M112" s="22">
+      <c r="M112" s="21">
         <f t="shared" si="40"/>
         <v>1.3210713606790055E-2</v>
       </c>
-      <c r="N112" s="22">
+      <c r="N112" s="21">
         <f t="shared" si="41"/>
         <v>-3.1623188430512185E-2</v>
       </c>
-      <c r="O112" s="22">
+      <c r="O112" s="21">
         <f t="shared" si="42"/>
         <v>2.3391193128041415E-2</v>
       </c>
-      <c r="P112" s="22">
+      <c r="P112" s="21">
         <f t="shared" si="43"/>
         <v>3.9007679192315757E-3</v>
       </c>
@@ -9061,19 +9061,19 @@
         <f t="shared" si="39"/>
         <v>27.208762103743144</v>
       </c>
-      <c r="M113" s="22">
+      <c r="M113" s="21">
         <f t="shared" si="40"/>
         <v>-2.2594321243214654E-2</v>
       </c>
-      <c r="N113" s="22">
+      <c r="N113" s="21">
         <f t="shared" si="41"/>
         <v>2.7724548014854768E-2</v>
       </c>
-      <c r="O113" s="22">
+      <c r="O113" s="21">
         <f t="shared" si="42"/>
         <v>-1.4327957764248379E-2</v>
       </c>
-      <c r="P113" s="22">
+      <c r="P113" s="21">
         <f t="shared" si="43"/>
         <v>4.3981559901315005E-2</v>
       </c>
@@ -9137,19 +9137,19 @@
         <f t="shared" si="39"/>
         <v>27.473893282616363</v>
       </c>
-      <c r="M114" s="22">
+      <c r="M114" s="21">
         <f t="shared" si="40"/>
         <v>-3.6035892792982277E-3</v>
       </c>
-      <c r="N114" s="22">
+      <c r="N114" s="21">
         <f t="shared" si="41"/>
         <v>1.9342962843130935E-2</v>
       </c>
-      <c r="O114" s="22">
+      <c r="O114" s="21">
         <f t="shared" si="42"/>
         <v>-1.5888832983229236E-2</v>
       </c>
-      <c r="P114" s="22">
+      <c r="P114" s="21">
         <f t="shared" si="43"/>
         <v>1.2336006180065648E-2</v>
       </c>
@@ -9213,19 +9213,19 @@
         <f t="shared" si="39"/>
         <v>26.984035550035145</v>
       </c>
-      <c r="M115" s="22">
+      <c r="M115" s="21">
         <f t="shared" si="40"/>
         <v>-2.0538492088048688E-2</v>
       </c>
-      <c r="N115" s="22">
+      <c r="N115" s="21">
         <f t="shared" si="41"/>
         <v>-3.8387763071657129E-3</v>
       </c>
-      <c r="O115" s="22">
+      <c r="O115" s="21">
         <f t="shared" si="42"/>
         <v>1.2146547491037203E-2</v>
       </c>
-      <c r="P115" s="22">
+      <c r="P115" s="21">
         <f t="shared" si="43"/>
         <v>-1.5351958200317928E-2</v>
       </c>
@@ -9289,19 +9289,19 @@
         <f t="shared" si="39"/>
         <v>26.516370474226228</v>
       </c>
-      <c r="M116" s="22">
+      <c r="M116" s="21">
         <f t="shared" si="40"/>
         <v>-2.9425446288257114E-2</v>
       </c>
-      <c r="N116" s="22">
+      <c r="N116" s="21">
         <f t="shared" si="41"/>
         <v>2.2814677766171264E-2</v>
       </c>
-      <c r="O116" s="22">
+      <c r="O116" s="21">
         <f t="shared" si="42"/>
         <v>-3.1893697093804414E-2</v>
       </c>
-      <c r="P116" s="22">
+      <c r="P116" s="21">
         <f t="shared" si="43"/>
         <v>-1.4844274018469871E-2</v>
       </c>
@@ -9365,19 +9365,19 @@
         <f t="shared" si="39"/>
         <v>26.379446193849084</v>
       </c>
-      <c r="M117" s="22">
+      <c r="M117" s="21">
         <f t="shared" si="40"/>
         <v>-4.6261950212971761E-2</v>
       </c>
-      <c r="N117" s="22">
+      <c r="N117" s="21">
         <f t="shared" si="41"/>
         <v>2.2305757514298186E-2</v>
       </c>
-      <c r="O117" s="22">
+      <c r="O117" s="21">
         <f t="shared" si="42"/>
         <v>3.4909752310958587E-2</v>
       </c>
-      <c r="P117" s="22">
+      <c r="P117" s="21">
         <f t="shared" si="43"/>
         <v>-2.5382971628491184E-3</v>
       </c>
@@ -9441,19 +9441,19 @@
         <f t="shared" si="39"/>
         <v>26.409968371151702</v>
       </c>
-      <c r="M118" s="22">
+      <c r="M118" s="21">
         <f t="shared" si="40"/>
         <v>2.3044282714662839E-2</v>
       </c>
-      <c r="N118" s="22">
+      <c r="N118" s="21">
         <f t="shared" si="41"/>
         <v>3.6697288889624017E-3</v>
       </c>
-      <c r="O118" s="22">
+      <c r="O118" s="21">
         <f t="shared" si="42"/>
         <v>-8.7354177421318652E-3</v>
       </c>
-      <c r="P118" s="22">
+      <c r="P118" s="21">
         <f t="shared" si="43"/>
         <v>3.7952202239648894E-3</v>
       </c>
@@ -9517,19 +9517,19 @@
         <f t="shared" si="39"/>
         <v>26.468580621122538</v>
       </c>
-      <c r="M119" s="22">
+      <c r="M119" s="21">
         <f t="shared" si="40"/>
         <v>-1.665913638619311E-2</v>
       </c>
-      <c r="N119" s="22">
+      <c r="N119" s="21">
         <f t="shared" si="41"/>
         <v>-7.352974305258806E-3</v>
       </c>
-      <c r="O119" s="22">
+      <c r="O119" s="21">
         <f t="shared" si="42"/>
         <v>2.135666811824442E-2</v>
       </c>
-      <c r="P119" s="22">
+      <c r="P119" s="21">
         <f t="shared" si="43"/>
         <v>4.8557091137688517E-3</v>
       </c>
@@ -9593,19 +9593,19 @@
         <f t="shared" si="39"/>
         <v>26.095640347700485</v>
       </c>
-      <c r="M120" s="22">
+      <c r="M120" s="21">
         <f t="shared" si="40"/>
         <v>1.3289906067993908E-2</v>
       </c>
-      <c r="N120" s="22">
+      <c r="N120" s="21">
         <f t="shared" si="41"/>
         <v>7.3529743052587332E-3</v>
       </c>
-      <c r="O120" s="22">
+      <c r="O120" s="21">
         <f t="shared" si="42"/>
         <v>7.53798967623979E-3</v>
       </c>
-      <c r="P120" s="22">
+      <c r="P120" s="21">
         <f t="shared" si="43"/>
         <v>-1.1551283556516113E-2</v>
       </c>
@@ -9669,19 +9669,19 @@
         <f t="shared" si="39"/>
         <v>25.412253767531411</v>
       </c>
-      <c r="M121" s="22">
+      <c r="M121" s="21">
         <f t="shared" si="40"/>
         <v>1.8854563779500594E-2</v>
       </c>
-      <c r="N121" s="22">
+      <c r="N121" s="21">
         <f t="shared" si="41"/>
         <v>2.8882874148785931E-2</v>
       </c>
-      <c r="O121" s="22">
+      <c r="O121" s="21">
         <f t="shared" si="42"/>
         <v>-1.4764087731339477E-2</v>
       </c>
-      <c r="P121" s="22">
+      <c r="P121" s="21">
         <f t="shared" si="43"/>
         <v>-2.4785977944631079E-2</v>
       </c>
@@ -9745,19 +9745,19 @@
         <f t="shared" si="39"/>
         <v>25.046654772896375</v>
       </c>
-      <c r="M122" s="22">
+      <c r="M122" s="21">
         <f t="shared" si="40"/>
         <v>1.3608215732451865E-3</v>
       </c>
-      <c r="N122" s="22">
+      <c r="N122" s="21">
         <f t="shared" si="41"/>
         <v>1.4134510934904716E-2</v>
       </c>
-      <c r="O122" s="22">
+      <c r="O122" s="21">
         <f t="shared" si="42"/>
         <v>2.0770083028382791E-2</v>
       </c>
-      <c r="P122" s="22">
+      <c r="P122" s="21">
         <f t="shared" si="43"/>
         <v>-1.2719550192606692E-2</v>
       </c>
@@ -9821,19 +9821,19 @@
         <f t="shared" si="39"/>
         <v>25.115670659640511</v>
       </c>
-      <c r="M123" s="22">
+      <c r="M123" s="21">
         <f t="shared" si="40"/>
         <v>-1.2449982553843159E-2</v>
       </c>
-      <c r="N123" s="22">
+      <c r="N123" s="21">
         <f t="shared" si="41"/>
         <v>-1.0582109330536972E-2</v>
       </c>
-      <c r="O123" s="22">
+      <c r="O123" s="21">
         <f t="shared" si="42"/>
         <v>1.3350455820303562E-2</v>
       </c>
-      <c r="P123" s="22">
+      <c r="P123" s="21">
         <f t="shared" si="43"/>
         <v>4.5233664600199449E-3</v>
       </c>
@@ -9897,19 +9897,19 @@
         <f t="shared" si="39"/>
         <v>24.995950764531969</v>
       </c>
-      <c r="M124" s="22">
+      <c r="M124" s="21">
         <f t="shared" si="40"/>
         <v>-2.9406399941557863E-2</v>
       </c>
-      <c r="N124" s="22">
+      <c r="N124" s="21">
         <f t="shared" si="41"/>
         <v>-1.0695289116747919E-2</v>
       </c>
-      <c r="O124" s="22">
+      <c r="O124" s="21">
         <f t="shared" si="42"/>
         <v>-1.8461473329249467E-2</v>
       </c>
-      <c r="P124" s="22">
+      <c r="P124" s="21">
         <f t="shared" si="43"/>
         <v>-3.0064753852979301E-3</v>
       </c>
@@ -9973,19 +9973,19 @@
         <f t="shared" si="39"/>
         <v>24.928195643437643</v>
       </c>
-      <c r="M125" s="22">
+      <c r="M125" s="21">
         <f t="shared" si="40"/>
         <v>-5.2049665495911536E-2</v>
       </c>
-      <c r="N125" s="22">
+      <c r="N125" s="21">
         <f t="shared" si="41"/>
         <v>1.7762456339840468E-2</v>
       </c>
-      <c r="O125" s="22">
+      <c r="O125" s="21">
         <f t="shared" si="42"/>
         <v>3.158807965503749E-3</v>
       </c>
-      <c r="P125" s="22">
+      <c r="P125" s="21">
         <f t="shared" si="43"/>
         <v>-9.4266165429607947E-4</v>
       </c>
@@ -10049,19 +10049,19 @@
         <f t="shared" si="39"/>
         <v>25.213647210199486</v>
       </c>
-      <c r="M126" s="22">
+      <c r="M126" s="21">
         <f t="shared" si="40"/>
         <v>-2.3151364974531196E-2</v>
       </c>
-      <c r="N126" s="22">
+      <c r="N126" s="21">
         <f t="shared" si="41"/>
         <v>1.398624197473987E-2</v>
       </c>
-      <c r="O126" s="22">
+      <c r="O126" s="21">
         <f t="shared" si="42"/>
         <v>1.6206838635886373E-2</v>
       </c>
-      <c r="P126" s="22">
+      <c r="P126" s="21">
         <f t="shared" si="43"/>
         <v>1.3157548569354204E-2</v>
       </c>
@@ -10125,19 +10125,19 @@
         <f t="shared" si="39"/>
         <v>26.125949609383362</v>
       </c>
-      <c r="M127" s="22">
+      <c r="M127" s="21">
         <f t="shared" si="40"/>
         <v>3.702807469114365E-2</v>
       </c>
-      <c r="N127" s="22">
+      <c r="N127" s="21">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O127" s="22">
+      <c r="O127" s="21">
         <f t="shared" si="42"/>
         <v>1.5487382137972494E-2</v>
       </c>
-      <c r="P127" s="22">
+      <c r="P127" s="21">
         <f t="shared" si="43"/>
         <v>3.7315317098194842E-2</v>
       </c>
@@ -10201,19 +10201,19 @@
         <f t="shared" si="39"/>
         <v>25.927191327075853</v>
       </c>
-      <c r="M128" s="22">
+      <c r="M128" s="21">
         <f t="shared" si="40"/>
         <v>-4.9113258760323528E-3</v>
       </c>
-      <c r="N128" s="22">
+      <c r="N128" s="21">
         <f t="shared" si="41"/>
         <v>1.7212128881121426E-2</v>
       </c>
-      <c r="O128" s="22">
+      <c r="O128" s="21">
         <f t="shared" si="42"/>
         <v>9.4732311603189148E-3</v>
       </c>
-      <c r="P128" s="22">
+      <c r="P128" s="21">
         <f t="shared" si="43"/>
         <v>-5.865119452397911E-3</v>
       </c>
@@ -10277,19 +10277,19 @@
         <f t="shared" si="39"/>
         <v>25.262176515379259</v>
       </c>
-      <c r="M129" s="22">
+      <c r="M129" s="21">
         <f t="shared" si="40"/>
         <v>-5.4914245214982274E-3</v>
       </c>
-      <c r="N129" s="22">
+      <c r="N129" s="21">
         <f t="shared" si="41"/>
         <v>2.3609865639133667E-2</v>
       </c>
-      <c r="O129" s="22">
+      <c r="O129" s="21">
         <f t="shared" si="42"/>
         <v>1.6188253108662475E-2</v>
       </c>
-      <c r="P129" s="22">
+      <c r="P129" s="21">
         <f t="shared" si="43"/>
         <v>-2.4212335784879944E-2</v>
       </c>
@@ -10353,19 +10353,19 @@
         <f t="shared" ref="L130:L193" si="55">+E130/G130</f>
         <v>24.872986944044015</v>
       </c>
-      <c r="M130" s="22">
+      <c r="M130" s="21">
         <f t="shared" si="40"/>
         <v>6.0089393843354433E-2</v>
       </c>
-      <c r="N130" s="22">
+      <c r="N130" s="21">
         <f t="shared" si="41"/>
         <v>-5.4808236494995027E-2</v>
       </c>
-      <c r="O130" s="22">
+      <c r="O130" s="21">
         <f t="shared" si="42"/>
         <v>-0.13098651716893242</v>
       </c>
-      <c r="P130" s="22">
+      <c r="P130" s="21">
         <f t="shared" si="43"/>
         <v>-1.3754262138971003E-2</v>
       </c>
@@ -10429,19 +10429,19 @@
         <f t="shared" si="55"/>
         <v>24.854243486578572</v>
       </c>
-      <c r="M131" s="22">
+      <c r="M131" s="21">
         <f t="shared" ref="M131:M194" si="56">+LN(B131/B130)</f>
         <v>6.1925164433188608E-2</v>
       </c>
-      <c r="N131" s="22">
+      <c r="N131" s="21">
         <f t="shared" ref="N131:N194" si="57">+LN(C131/C130)</f>
         <v>-1.7762456339840388E-2</v>
       </c>
-      <c r="O131" s="22">
+      <c r="O131" s="21">
         <f t="shared" ref="O131:O194" si="58">+LN(D131/D130)</f>
         <v>1.4043937529047713E-2</v>
       </c>
-      <c r="P131" s="22">
+      <c r="P131" s="21">
         <f t="shared" ref="P131:P194" si="59">+LN(E131/E130)</f>
         <v>1.0178117927006245E-3</v>
       </c>
@@ -10505,19 +10505,19 @@
         <f t="shared" si="55"/>
         <v>24.583095276286713</v>
       </c>
-      <c r="M132" s="22">
+      <c r="M132" s="21">
         <f t="shared" si="56"/>
         <v>5.0269680447920439E-3</v>
       </c>
-      <c r="N132" s="22">
+      <c r="N132" s="21">
         <f t="shared" si="57"/>
         <v>4.8960827195701703E-2</v>
       </c>
-      <c r="O132" s="22">
+      <c r="O132" s="21">
         <f t="shared" si="58"/>
         <v>-1.161676353382286E-3</v>
       </c>
-      <c r="P132" s="22">
+      <c r="P132" s="21">
         <f t="shared" si="59"/>
         <v>-9.1978165046312406E-3</v>
       </c>
@@ -10581,19 +10581,19 @@
         <f t="shared" si="55"/>
         <v>24.292673394350832</v>
       </c>
-      <c r="M133" s="22">
+      <c r="M133" s="21">
         <f t="shared" si="56"/>
         <v>-1.5869380412084893E-2</v>
       </c>
-      <c r="N133" s="22">
+      <c r="N133" s="21">
         <f t="shared" si="57"/>
         <v>-6.849341845574783E-3</v>
       </c>
-      <c r="O133" s="22">
+      <c r="O133" s="21">
         <f t="shared" si="58"/>
         <v>2.8127092129189373E-3</v>
       </c>
-      <c r="P133" s="22">
+      <c r="P133" s="21">
         <f t="shared" si="59"/>
         <v>-1.0112561671013364E-2</v>
       </c>
@@ -10657,19 +10657,19 @@
         <f t="shared" si="55"/>
         <v>23.641041992727757</v>
       </c>
-      <c r="M134" s="22">
+      <c r="M134" s="21">
         <f t="shared" si="56"/>
         <v>-2.759572653564316E-3</v>
       </c>
-      <c r="N134" s="22">
+      <c r="N134" s="21">
         <f t="shared" si="57"/>
         <v>-1.0362787035546547E-2</v>
       </c>
-      <c r="O134" s="22">
+      <c r="O134" s="21">
         <f t="shared" si="58"/>
         <v>2.4076520486621893E-2</v>
       </c>
-      <c r="P134" s="22">
+      <c r="P134" s="21">
         <f t="shared" si="59"/>
         <v>-2.5418866707472197E-2</v>
       </c>
@@ -10733,19 +10733,19 @@
         <f t="shared" si="55"/>
         <v>24.477888556528008</v>
       </c>
-      <c r="M135" s="22">
+      <c r="M135" s="21">
         <f t="shared" si="56"/>
         <v>6.2551892312363078E-2</v>
       </c>
-      <c r="N135" s="22">
+      <c r="N135" s="21">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O135" s="22">
+      <c r="O135" s="21">
         <f t="shared" si="58"/>
         <v>7.1918624675289125E-3</v>
       </c>
-      <c r="P135" s="22">
+      <c r="P135" s="21">
         <f t="shared" si="59"/>
         <v>3.6557595733797514E-2</v>
       </c>
@@ -10809,19 +10809,19 @@
         <f t="shared" si="55"/>
         <v>24.331809928641778</v>
       </c>
-      <c r="M136" s="22">
+      <c r="M136" s="21">
         <f t="shared" si="56"/>
         <v>-7.0809617174405299E-3</v>
       </c>
-      <c r="N136" s="22">
+      <c r="N136" s="21">
         <f t="shared" si="57"/>
         <v>3.4662079764863291E-3</v>
       </c>
-      <c r="O136" s="22">
+      <c r="O136" s="21">
         <f t="shared" si="58"/>
         <v>3.6841134403331727E-2</v>
       </c>
-      <c r="P136" s="22">
+      <c r="P136" s="21">
         <f t="shared" si="59"/>
         <v>-4.2139946217478446E-3</v>
       </c>
@@ -10885,19 +10885,19 @@
         <f t="shared" si="55"/>
         <v>23.941007826188923</v>
       </c>
-      <c r="M137" s="22">
+      <c r="M137" s="21">
         <f t="shared" si="56"/>
         <v>-2.4940181516589995E-2</v>
       </c>
-      <c r="N137" s="22">
+      <c r="N137" s="21">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O137" s="22">
+      <c r="O137" s="21">
         <f t="shared" si="58"/>
         <v>-1.7792700196624961E-2</v>
       </c>
-      <c r="P137" s="22">
+      <c r="P137" s="21">
         <f t="shared" si="59"/>
         <v>-1.4420084923145003E-2</v>
       </c>
@@ -10961,19 +10961,19 @@
         <f t="shared" si="55"/>
         <v>23.57898268921182</v>
       </c>
-      <c r="M138" s="22">
+      <c r="M138" s="21">
         <f t="shared" si="56"/>
         <v>-8.205587580048853E-3</v>
       </c>
-      <c r="N138" s="22">
+      <c r="N138" s="21">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O138" s="22">
+      <c r="O138" s="21">
         <f t="shared" si="58"/>
         <v>-2.14019828153399E-2</v>
       </c>
-      <c r="P138" s="22">
+      <c r="P138" s="21">
         <f t="shared" si="59"/>
         <v>-1.3465383340767936E-2</v>
       </c>
@@ -11037,19 +11037,19 @@
         <f t="shared" si="55"/>
         <v>23.881753966639803</v>
       </c>
-      <c r="M139" s="22">
+      <c r="M139" s="21">
         <f t="shared" si="56"/>
         <v>5.282806763193813E-3</v>
       </c>
-      <c r="N139" s="22">
+      <c r="N139" s="21">
         <f t="shared" si="57"/>
         <v>-6.9444723528110461E-3</v>
       </c>
-      <c r="O139" s="22">
+      <c r="O139" s="21">
         <f t="shared" si="58"/>
         <v>-1.5476534072030897E-2</v>
       </c>
-      <c r="P139" s="22">
+      <c r="P139" s="21">
         <f t="shared" si="59"/>
         <v>1.4530646467478769E-2</v>
       </c>
@@ -11113,19 +11113,19 @@
         <f t="shared" si="55"/>
         <v>23.913635678514062</v>
       </c>
-      <c r="M140" s="22">
+      <c r="M140" s="21">
         <f t="shared" si="56"/>
         <v>3.7204719305329266E-2</v>
       </c>
-      <c r="N140" s="22">
+      <c r="N140" s="21">
         <f t="shared" si="57"/>
         <v>-1.4035318116383481E-2</v>
       </c>
-      <c r="O140" s="22">
+      <c r="O140" s="21">
         <f t="shared" si="58"/>
         <v>-4.0272701205951576E-2</v>
       </c>
-      <c r="P140" s="22">
+      <c r="P140" s="21">
         <f t="shared" si="59"/>
         <v>3.1057543906272962E-3</v>
       </c>
@@ -11189,19 +11189,19 @@
         <f t="shared" si="55"/>
         <v>23.971163367749124</v>
       </c>
-      <c r="M141" s="22">
+      <c r="M141" s="21">
         <f t="shared" si="56"/>
         <v>-2.1805152864123319E-2</v>
       </c>
-      <c r="N141" s="22">
+      <c r="N141" s="21">
         <f t="shared" si="57"/>
         <v>-2.1429391455899165E-2</v>
       </c>
-      <c r="O141" s="22">
+      <c r="O141" s="21">
         <f t="shared" si="58"/>
         <v>-2.9867594949741567E-2</v>
       </c>
-      <c r="P141" s="22">
+      <c r="P141" s="21">
         <f t="shared" si="59"/>
         <v>4.1744175425266067E-3</v>
       </c>
@@ -11265,19 +11265,19 @@
         <f t="shared" si="55"/>
         <v>24.920080216993842</v>
       </c>
-      <c r="M142" s="22">
+      <c r="M142" s="21">
         <f t="shared" si="56"/>
         <v>-8.2904828116381959E-3</v>
       </c>
-      <c r="N142" s="22">
+      <c r="N142" s="21">
         <f t="shared" si="57"/>
         <v>-1.8215439891341216E-2</v>
       </c>
-      <c r="O142" s="22">
+      <c r="O142" s="21">
         <f t="shared" si="58"/>
         <v>1.7381525661830776E-2</v>
       </c>
-      <c r="P142" s="22">
+      <c r="P142" s="21">
         <f t="shared" si="59"/>
         <v>4.05939939803572E-2</v>
       </c>
@@ -11341,19 +11341,19 @@
         <f t="shared" si="55"/>
         <v>24.011873705148908</v>
       </c>
-      <c r="M143" s="22">
+      <c r="M143" s="21">
         <f t="shared" si="56"/>
         <v>-2.3519588949377675E-2</v>
       </c>
-      <c r="N143" s="22">
+      <c r="N143" s="21">
         <f t="shared" si="57"/>
         <v>1.4598799421152631E-2</v>
       </c>
-      <c r="O143" s="22">
+      <c r="O143" s="21">
         <f t="shared" si="58"/>
         <v>1.8428571909787042E-2</v>
       </c>
-      <c r="P143" s="22">
+      <c r="P143" s="21">
         <f t="shared" si="59"/>
         <v>-3.5240584682059921E-2</v>
       </c>
@@ -11417,19 +11417,19 @@
         <f t="shared" si="55"/>
         <v>23.220632205868466</v>
       </c>
-      <c r="M144" s="22">
+      <c r="M144" s="21">
         <f t="shared" si="56"/>
         <v>1.0424040712571206E-2</v>
       </c>
-      <c r="N144" s="22">
+      <c r="N144" s="21">
         <f t="shared" si="57"/>
         <v>1.0810916104215676E-2</v>
       </c>
-      <c r="O144" s="22">
+      <c r="O144" s="21">
         <f t="shared" si="58"/>
         <v>-2.9747497839458459E-2</v>
       </c>
-      <c r="P144" s="22">
+      <c r="P144" s="21">
         <f t="shared" si="59"/>
         <v>-3.1622360547066568E-2</v>
       </c>
@@ -11493,19 +11493,19 @@
         <f t="shared" si="55"/>
         <v>23.068417624110115</v>
       </c>
-      <c r="M145" s="22">
+      <c r="M145" s="21">
         <f t="shared" si="56"/>
         <v>-0.11932263820068142</v>
       </c>
-      <c r="N145" s="22">
+      <c r="N145" s="21">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O145" s="22">
+      <c r="O145" s="21">
         <f t="shared" si="58"/>
         <v>-2.2812063031619246E-2</v>
       </c>
-      <c r="P145" s="22">
+      <c r="P145" s="21">
         <f t="shared" si="59"/>
         <v>-4.6918405540257047E-3</v>
       </c>
@@ -11569,19 +11569,19 @@
         <f t="shared" si="55"/>
         <v>23.52701829660246</v>
       </c>
-      <c r="M146" s="22">
+      <c r="M146" s="21">
         <f t="shared" si="56"/>
         <v>-7.2376262468224942E-2</v>
       </c>
-      <c r="N146" s="22">
+      <c r="N146" s="21">
         <f t="shared" si="57"/>
         <v>-1.8083675433295351E-2</v>
       </c>
-      <c r="O146" s="22">
+      <c r="O146" s="21">
         <f t="shared" si="58"/>
         <v>2.5746237943746725E-2</v>
       </c>
-      <c r="P146" s="22">
+      <c r="P146" s="21">
         <f t="shared" si="59"/>
         <v>2.1569878341377351E-2</v>
       </c>
@@ -11645,19 +11645,19 @@
         <f t="shared" si="55"/>
         <v>23.590793837309992</v>
       </c>
-      <c r="M147" s="22">
+      <c r="M147" s="21">
         <f t="shared" si="56"/>
         <v>3.6460557331974827E-2</v>
       </c>
-      <c r="N147" s="22">
+      <c r="N147" s="21">
         <f t="shared" si="57"/>
         <v>7.2727593290798781E-3</v>
       </c>
-      <c r="O147" s="22">
+      <c r="O147" s="21">
         <f t="shared" si="58"/>
         <v>-3.7187319654784171E-3</v>
       </c>
-      <c r="P147" s="22">
+      <c r="P147" s="21">
         <f t="shared" si="59"/>
         <v>4.5919512956969976E-3</v>
       </c>
@@ -11721,19 +11721,19 @@
         <f t="shared" si="55"/>
         <v>23.928838990988432</v>
       </c>
-      <c r="M148" s="22">
+      <c r="M148" s="21">
         <f t="shared" si="56"/>
         <v>-1.5485468206829301E-2</v>
       </c>
-      <c r="N148" s="22">
+      <c r="N148" s="21">
         <f t="shared" si="57"/>
         <v>-3.6297680505787237E-3</v>
       </c>
-      <c r="O148" s="22">
+      <c r="O148" s="21">
         <f t="shared" si="58"/>
         <v>5.2454139482314706E-2</v>
       </c>
-      <c r="P148" s="22">
+      <c r="P148" s="21">
         <f t="shared" si="59"/>
         <v>1.6112722065994216E-2</v>
       </c>
@@ -11797,19 +11797,19 @@
         <f t="shared" si="55"/>
         <v>23.825047818915507</v>
       </c>
-      <c r="M149" s="22">
+      <c r="M149" s="21">
         <f t="shared" si="56"/>
         <v>0.11570927082127064</v>
       </c>
-      <c r="N149" s="22">
+      <c r="N149" s="21">
         <f t="shared" si="57"/>
         <v>-1.4652276786870375E-2</v>
       </c>
-      <c r="O149" s="22">
+      <c r="O149" s="21">
         <f t="shared" si="58"/>
         <v>3.4380165273451321E-2</v>
       </c>
-      <c r="P149" s="22">
+      <c r="P149" s="21">
         <f t="shared" si="59"/>
         <v>-2.4620447397749276E-3</v>
       </c>
@@ -11873,19 +11873,19 @@
         <f t="shared" si="55"/>
         <v>24.034202728259075</v>
       </c>
-      <c r="M150" s="22">
+      <c r="M150" s="21">
         <f t="shared" si="56"/>
         <v>-5.064424479826217E-2</v>
       </c>
-      <c r="N150" s="22">
+      <c r="N150" s="21">
         <f t="shared" si="57"/>
         <v>-3.6968618813260916E-3</v>
       </c>
-      <c r="O150" s="22">
+      <c r="O150" s="21">
         <f t="shared" si="58"/>
         <v>3.1582540119700388E-3</v>
       </c>
-      <c r="P150" s="22">
+      <c r="P150" s="21">
         <f t="shared" si="59"/>
         <v>1.0625355378936246E-2</v>
       </c>
@@ -11949,19 +11949,19 @@
         <f t="shared" si="55"/>
         <v>23.940185731900883</v>
       </c>
-      <c r="M151" s="22">
+      <c r="M151" s="21">
         <f t="shared" si="56"/>
         <v>9.2395058850468243E-3</v>
       </c>
-      <c r="N151" s="22">
+      <c r="N151" s="21">
         <f t="shared" si="57"/>
         <v>3.6968618813262026E-3</v>
       </c>
-      <c r="O151" s="22">
+      <c r="O151" s="21">
         <f t="shared" si="58"/>
         <v>1.755485733173616E-3</v>
       </c>
-      <c r="P151" s="22">
+      <c r="P151" s="21">
         <f t="shared" si="59"/>
         <v>-2.0345886977875742E-3</v>
       </c>
@@ -12025,19 +12025,19 @@
         <f t="shared" si="55"/>
         <v>24.260100289193662</v>
       </c>
-      <c r="M152" s="22">
+      <c r="M152" s="21">
         <f t="shared" si="56"/>
         <v>2.0861703823796863E-2</v>
       </c>
-      <c r="N152" s="22">
+      <c r="N152" s="21">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O152" s="22">
+      <c r="O152" s="21">
         <f t="shared" si="58"/>
         <v>9.7613878151020187E-3</v>
       </c>
-      <c r="P152" s="22">
+      <c r="P152" s="21">
         <f t="shared" si="59"/>
         <v>1.5159461607372518E-2</v>
       </c>
@@ -12101,19 +12101,19 @@
         <f t="shared" si="55"/>
         <v>24.428143963477552</v>
       </c>
-      <c r="M153" s="22">
+      <c r="M153" s="21">
         <f t="shared" si="56"/>
         <v>-3.1207876158552788E-2</v>
       </c>
-      <c r="N153" s="22">
+      <c r="N153" s="21">
         <f t="shared" si="57"/>
         <v>-3.6968618813260916E-3</v>
       </c>
-      <c r="O153" s="22">
+      <c r="O153" s="21">
         <f t="shared" si="58"/>
         <v>2.2494207722814442E-2</v>
       </c>
-      <c r="P153" s="22">
+      <c r="P153" s="21">
         <f t="shared" si="59"/>
         <v>8.7877537760259385E-3</v>
       </c>
@@ -12177,19 +12177,19 @@
         <f t="shared" si="55"/>
         <v>24.217300662292942</v>
       </c>
-      <c r="M154" s="22">
+      <c r="M154" s="21">
         <f t="shared" si="56"/>
         <v>-1.9166024418177777E-2</v>
       </c>
-      <c r="N154" s="22">
+      <c r="N154" s="21">
         <f t="shared" si="57"/>
         <v>-3.7105793965356015E-3</v>
       </c>
-      <c r="O154" s="22">
+      <c r="O154" s="21">
         <f t="shared" si="58"/>
         <v>3.3125062196803249E-3</v>
       </c>
-      <c r="P154" s="22">
+      <c r="P154" s="21">
         <f t="shared" si="59"/>
         <v>-6.7837450893107271E-3</v>
       </c>
@@ -12253,19 +12253,19 @@
         <f t="shared" si="55"/>
         <v>24.287837173991843</v>
       </c>
-      <c r="M155" s="22">
+      <c r="M155" s="21">
         <f t="shared" si="56"/>
         <v>1.4030212970604158E-2</v>
       </c>
-      <c r="N155" s="22">
+      <c r="N155" s="21">
         <f t="shared" si="57"/>
         <v>3.7105793965355534E-3</v>
       </c>
-      <c r="O155" s="22">
+      <c r="O155" s="21">
         <f t="shared" si="58"/>
         <v>4.6850077406721613E-3</v>
       </c>
-      <c r="P155" s="22">
+      <c r="P155" s="21">
         <f t="shared" si="59"/>
         <v>4.7932985722795741E-3</v>
       </c>
@@ -12329,19 +12329,19 @@
         <f t="shared" si="55"/>
         <v>24.266250901846789</v>
       </c>
-      <c r="M156" s="22">
+      <c r="M156" s="21">
         <f t="shared" si="56"/>
         <v>1.9263723704837948E-2</v>
       </c>
-      <c r="N156" s="22">
+      <c r="N156" s="21">
         <f t="shared" si="57"/>
         <v>3.6968618813262026E-3</v>
       </c>
-      <c r="O156" s="22">
+      <c r="O156" s="21">
         <f t="shared" si="58"/>
         <v>1.3268356701865006E-3</v>
       </c>
-      <c r="P156" s="22">
+      <c r="P156" s="21">
         <f t="shared" si="59"/>
         <v>9.9571849310114177E-4</v>
       </c>
@@ -12405,19 +12405,19 @@
         <f t="shared" si="55"/>
         <v>23.960222551699463</v>
       </c>
-      <c r="M157" s="22">
+      <c r="M157" s="21">
         <f t="shared" si="56"/>
         <v>-8.6791019811486986E-3</v>
       </c>
-      <c r="N157" s="22">
+      <c r="N157" s="21">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O157" s="22">
+      <c r="O157" s="21">
         <f t="shared" si="58"/>
         <v>-2.329071434479129E-2</v>
       </c>
-      <c r="P157" s="22">
+      <c r="P157" s="21">
         <f t="shared" si="59"/>
         <v>-1.0806589057360177E-2</v>
       </c>
@@ -12481,19 +12481,19 @@
         <f t="shared" si="55"/>
         <v>23.818865045126742</v>
       </c>
-      <c r="M158" s="22">
+      <c r="M158" s="21">
         <f t="shared" si="56"/>
         <v>3.4686972487494874E-2</v>
       </c>
-      <c r="N158" s="22">
+      <c r="N158" s="21">
         <f t="shared" si="57"/>
         <v>-3.6968618813260916E-3</v>
       </c>
-      <c r="O158" s="22">
+      <c r="O158" s="21">
         <f t="shared" si="58"/>
         <v>-2.7299373215512575E-2</v>
       </c>
-      <c r="P158" s="22">
+      <c r="P158" s="21">
         <f t="shared" si="59"/>
         <v>-4.032263527938563E-3</v>
       </c>
@@ -12557,19 +12557,19 @@
         <f t="shared" si="55"/>
         <v>24.124618203713037</v>
       </c>
-      <c r="M159" s="22">
+      <c r="M159" s="21">
         <f t="shared" si="56"/>
         <v>-1.2460181341082262E-2</v>
       </c>
-      <c r="N159" s="22">
+      <c r="N159" s="21">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O159" s="22">
+      <c r="O159" s="21">
         <f t="shared" si="58"/>
         <v>1.8558262994459236E-2</v>
       </c>
-      <c r="P159" s="22">
+      <c r="P159" s="21">
         <f t="shared" si="59"/>
         <v>1.4639788187308711E-2</v>
       </c>
@@ -12633,19 +12633,19 @@
         <f t="shared" si="55"/>
         <v>24.280527988813091</v>
       </c>
-      <c r="M160" s="22">
+      <c r="M160" s="21">
         <f t="shared" si="56"/>
         <v>6.2245059183102233E-2</v>
       </c>
-      <c r="N160" s="22">
+      <c r="N160" s="21">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O160" s="22">
+      <c r="O160" s="21">
         <f t="shared" si="58"/>
         <v>-8.7281844520301268E-3</v>
       </c>
-      <c r="P160" s="22">
+      <c r="P160" s="21">
         <f t="shared" si="59"/>
         <v>8.3267729327391373E-3</v>
       </c>
@@ -12709,19 +12709,19 @@
         <f t="shared" si="55"/>
         <v>24.459688831901278</v>
       </c>
-      <c r="M161" s="22">
+      <c r="M161" s="21">
         <f t="shared" si="56"/>
         <v>-2.1122679106657882E-2</v>
       </c>
-      <c r="N161" s="22">
+      <c r="N161" s="21">
         <f t="shared" si="57"/>
         <v>-7.4349784875180902E-3</v>
       </c>
-      <c r="O161" s="22">
+      <c r="O161" s="21">
         <f t="shared" si="58"/>
         <v>1.4416354505656551E-2</v>
       </c>
-      <c r="P161" s="22">
+      <c r="P161" s="21">
         <f t="shared" si="59"/>
         <v>9.2365793745868875E-3</v>
       </c>
@@ -12785,19 +12785,19 @@
         <f t="shared" si="55"/>
         <v>24.991494237884009</v>
       </c>
-      <c r="M162" s="22">
+      <c r="M162" s="21">
         <f t="shared" si="56"/>
         <v>-5.5482568383918074E-2</v>
       </c>
-      <c r="N162" s="22">
+      <c r="N162" s="21">
         <f t="shared" si="57"/>
         <v>-7.4906717291576257E-3</v>
       </c>
-      <c r="O162" s="22">
+      <c r="O162" s="21">
         <f t="shared" si="58"/>
         <v>8.7222653050226162E-4</v>
       </c>
-      <c r="P162" s="22">
+      <c r="P162" s="21">
         <f t="shared" si="59"/>
         <v>2.3394010314837226E-2</v>
       </c>
@@ -12861,19 +12861,19 @@
         <f t="shared" si="55"/>
         <v>25.649912418227064</v>
       </c>
-      <c r="M163" s="22">
+      <c r="M163" s="21">
         <f t="shared" si="56"/>
         <v>-8.6259439971546926E-3</v>
       </c>
-      <c r="N163" s="22">
+      <c r="N163" s="21">
         <f t="shared" si="57"/>
         <v>-1.1342276603934495E-2</v>
       </c>
-      <c r="O163" s="22">
+      <c r="O163" s="21">
         <f t="shared" si="58"/>
         <v>2.5995164265286405E-2</v>
       </c>
-      <c r="P163" s="22">
+      <c r="P163" s="21">
         <f t="shared" si="59"/>
         <v>2.7889503117212E-2</v>
       </c>
@@ -12937,19 +12937,19 @@
         <f t="shared" si="55"/>
         <v>25.882319866888913</v>
       </c>
-      <c r="M164" s="22">
+      <c r="M164" s="21">
         <f t="shared" si="56"/>
         <v>5.6820635756649482E-3</v>
       </c>
-      <c r="N164" s="22">
+      <c r="N164" s="21">
         <f t="shared" si="57"/>
         <v>-7.633624855071095E-3</v>
       </c>
-      <c r="O164" s="22">
+      <c r="O164" s="21">
         <f t="shared" si="58"/>
         <v>3.4002953400263179E-2</v>
       </c>
-      <c r="P164" s="22">
+      <c r="P164" s="21">
         <f t="shared" si="59"/>
         <v>1.0904830360568538E-2</v>
       </c>
@@ -13013,19 +13013,19 @@
         <f t="shared" si="55"/>
         <v>26.04825014623621</v>
       </c>
-      <c r="M165" s="22">
+      <c r="M165" s="21">
         <f t="shared" si="56"/>
         <v>-3.4171354037669383E-2</v>
       </c>
-      <c r="N165" s="22">
+      <c r="N165" s="21">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O165" s="22">
+      <c r="O165" s="21">
         <f t="shared" si="58"/>
         <v>2.1466396700622455E-2</v>
       </c>
-      <c r="P165" s="22">
+      <c r="P165" s="21">
         <f t="shared" si="59"/>
         <v>8.0557008322168899E-3</v>
       </c>
@@ -13089,19 +13089,19 @@
         <f t="shared" si="55"/>
         <v>25.70142490252227</v>
       </c>
-      <c r="M166" s="22">
+      <c r="M166" s="21">
         <f t="shared" si="56"/>
         <v>3.0071289319904396E-2</v>
       </c>
-      <c r="N166" s="22">
+      <c r="N166" s="21">
         <f t="shared" si="57"/>
         <v>3.8240964384034758E-3</v>
       </c>
-      <c r="O166" s="22">
+      <c r="O166" s="21">
         <f t="shared" si="58"/>
         <v>-1.1220471601412058E-2</v>
       </c>
-      <c r="P166" s="22">
+      <c r="P166" s="21">
         <f t="shared" si="59"/>
         <v>-1.1738946248513125E-2</v>
       </c>
@@ -13165,19 +13165,19 @@
         <f t="shared" si="55"/>
         <v>25.900099772261857</v>
       </c>
-      <c r="M167" s="22">
+      <c r="M167" s="21">
         <f t="shared" si="56"/>
         <v>-2.7514792519953923E-2</v>
       </c>
-      <c r="N167" s="22">
+      <c r="N167" s="21">
         <f t="shared" si="57"/>
         <v>-3.8240964384033942E-3</v>
       </c>
-      <c r="O167" s="22">
+      <c r="O167" s="21">
         <f t="shared" si="58"/>
         <v>3.4920933638154454E-2</v>
       </c>
-      <c r="P167" s="22">
+      <c r="P167" s="21">
         <f t="shared" si="59"/>
         <v>9.3655996301339577E-3</v>
       </c>
@@ -13241,19 +13241,19 @@
         <f t="shared" si="55"/>
         <v>26.13112572783162</v>
       </c>
-      <c r="M168" s="22">
+      <c r="M168" s="21">
         <f t="shared" si="56"/>
         <v>8.3695604838183446E-3</v>
       </c>
-      <c r="N168" s="22">
+      <c r="N168" s="21">
         <f t="shared" si="57"/>
         <v>-3.1130918595173213E-2</v>
       </c>
-      <c r="O168" s="22">
+      <c r="O168" s="21">
         <f t="shared" si="58"/>
         <v>-1.7660045954279311E-2</v>
       </c>
-      <c r="P168" s="22">
+      <c r="P168" s="21">
         <f t="shared" si="59"/>
         <v>1.0545552274106994E-2</v>
       </c>
@@ -13317,19 +13317,19 @@
         <f t="shared" si="55"/>
         <v>25.983844787682298</v>
       </c>
-      <c r="M169" s="22">
+      <c r="M169" s="21">
         <f t="shared" si="56"/>
         <v>-3.2520166880651201E-2</v>
       </c>
-      <c r="N169" s="22">
+      <c r="N169" s="21">
         <f t="shared" si="57"/>
         <v>-1.9960742562538058E-2</v>
       </c>
-      <c r="O169" s="22">
+      <c r="O169" s="21">
         <f t="shared" si="58"/>
         <v>-2.5120523430888903E-2</v>
       </c>
-      <c r="P169" s="22">
+      <c r="P169" s="21">
         <f t="shared" si="59"/>
         <v>-3.9869570754514196E-3</v>
       </c>
@@ -13393,19 +13393,19 @@
         <f t="shared" si="55"/>
         <v>26.670736529772611</v>
       </c>
-      <c r="M170" s="22">
+      <c r="M170" s="21">
         <f t="shared" si="56"/>
         <v>-2.4161634087901448E-2</v>
       </c>
-      <c r="N170" s="22">
+      <c r="N170" s="21">
         <f t="shared" si="57"/>
         <v>1.9960742562538152E-2</v>
       </c>
-      <c r="O170" s="22">
+      <c r="O170" s="21">
         <f t="shared" si="58"/>
         <v>9.7611514796592073E-3</v>
       </c>
-      <c r="P170" s="22">
+      <c r="P170" s="21">
         <f t="shared" si="59"/>
         <v>2.7757176409363257E-2</v>
       </c>
@@ -13469,19 +13469,19 @@
         <f t="shared" si="55"/>
         <v>26.447660626828501</v>
       </c>
-      <c r="M171" s="22">
+      <c r="M171" s="21">
         <f t="shared" si="56"/>
         <v>4.0360993094607653E-2</v>
       </c>
-      <c r="N171" s="22">
+      <c r="N171" s="21">
         <f t="shared" si="57"/>
         <v>3.9447782910163251E-3</v>
       </c>
-      <c r="O171" s="22">
+      <c r="O171" s="21">
         <f t="shared" si="58"/>
         <v>-3.2289379322584869E-2</v>
       </c>
-      <c r="P171" s="22">
+      <c r="P171" s="21">
         <f t="shared" si="59"/>
         <v>-6.7340321813439564E-3</v>
       </c>
@@ -13545,19 +13545,19 @@
         <f t="shared" si="55"/>
         <v>26.27220138994096</v>
       </c>
-      <c r="M172" s="22">
+      <c r="M172" s="21">
         <f t="shared" si="56"/>
         <v>1.0029325919728663E-2</v>
       </c>
-      <c r="N172" s="22">
+      <c r="N172" s="21">
         <f t="shared" si="57"/>
         <v>7.8431774610258787E-3</v>
       </c>
-      <c r="O172" s="22">
+      <c r="O172" s="21">
         <f t="shared" si="58"/>
         <v>4.6891440232826063E-2</v>
       </c>
-      <c r="P172" s="22">
+      <c r="P172" s="21">
         <f t="shared" si="59"/>
         <v>-4.991097705129087E-3</v>
       </c>
@@ -13621,19 +13621,19 @@
         <f t="shared" si="55"/>
         <v>26.167557904258445</v>
       </c>
-      <c r="M173" s="22">
+      <c r="M173" s="21">
         <f t="shared" si="56"/>
         <v>-4.2153948974877741E-3</v>
       </c>
-      <c r="N173" s="22">
+      <c r="N173" s="21">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O173" s="22">
+      <c r="O173" s="21">
         <f t="shared" si="58"/>
         <v>1.4591290656035164E-2</v>
       </c>
-      <c r="P173" s="22">
+      <c r="P173" s="21">
         <f t="shared" si="59"/>
         <v>-2.3257904750112637E-3</v>
       </c>
@@ -13697,19 +13697,19 @@
         <f t="shared" si="55"/>
         <v>26.460922606570435</v>
       </c>
-      <c r="M174" s="22">
+      <c r="M174" s="21">
         <f t="shared" si="56"/>
         <v>1.2558738956277236E-2</v>
       </c>
-      <c r="N174" s="22">
+      <c r="N174" s="21">
         <f t="shared" si="57"/>
         <v>-7.8431774610258926E-3</v>
       </c>
-      <c r="O174" s="22">
+      <c r="O174" s="21">
         <f t="shared" si="58"/>
         <v>1.5342579026297442E-2</v>
       </c>
-      <c r="P174" s="22">
+      <c r="P174" s="21">
         <f t="shared" si="59"/>
         <v>1.2813843239860234E-2</v>
       </c>
@@ -13773,19 +13773,19 @@
         <f t="shared" si="55"/>
         <v>26.972795526303486</v>
       </c>
-      <c r="M175" s="22">
+      <c r="M175" s="21">
         <f t="shared" si="56"/>
         <v>1.8886249735710188E-2</v>
       </c>
-      <c r="N175" s="22">
+      <c r="N175" s="21">
         <f t="shared" si="57"/>
         <v>3.929278139889557E-3</v>
       </c>
-      <c r="O175" s="22">
+      <c r="O175" s="21">
         <f t="shared" si="58"/>
         <v>-2.6781354978460989E-3</v>
       </c>
-      <c r="P175" s="22">
+      <c r="P175" s="21">
         <f t="shared" si="59"/>
         <v>2.082497167265962E-2</v>
       </c>
@@ -13849,19 +13849,19 @@
         <f t="shared" si="55"/>
         <v>26.90926285743193</v>
       </c>
-      <c r="M176" s="22">
+      <c r="M176" s="21">
         <f t="shared" si="56"/>
         <v>-1.709509165809547E-2</v>
       </c>
-      <c r="N176" s="22">
+      <c r="N176" s="21">
         <f t="shared" si="57"/>
         <v>-3.9292781398895501E-3</v>
       </c>
-      <c r="O176" s="22">
+      <c r="O176" s="21">
         <f t="shared" si="58"/>
         <v>2.3475179483524352E-4</v>
       </c>
-      <c r="P176" s="22">
+      <c r="P176" s="21">
         <f t="shared" si="59"/>
         <v>-6.9300072073520268E-4</v>
       </c>
@@ -13925,19 +13925,19 @@
         <f t="shared" si="55"/>
         <v>27.027446679096393</v>
       </c>
-      <c r="M177" s="22">
+      <c r="M177" s="21">
         <f t="shared" si="56"/>
         <v>3.5538060616005396E-2</v>
       </c>
-      <c r="N177" s="22">
+      <c r="N177" s="21">
         <f t="shared" si="57"/>
         <v>-7.9051795071132611E-3</v>
       </c>
-      <c r="O177" s="22">
+      <c r="O177" s="21">
         <f t="shared" si="58"/>
         <v>9.9265610125779248E-4</v>
       </c>
-      <c r="P177" s="22">
+      <c r="P177" s="21">
         <f t="shared" si="59"/>
         <v>6.0475346298465762E-3</v>
       </c>
@@ -14001,19 +14001,19 @@
         <f t="shared" si="55"/>
         <v>27.196292319752715</v>
       </c>
-      <c r="M178" s="22">
+      <c r="M178" s="21">
         <f t="shared" si="56"/>
         <v>1.8453278024043066E-2</v>
       </c>
-      <c r="N178" s="22">
+      <c r="N178" s="21">
         <f t="shared" si="57"/>
         <v>-1.6000341346441189E-2</v>
       </c>
-      <c r="O178" s="22">
+      <c r="O178" s="21">
         <f t="shared" si="58"/>
         <v>1.7451520845108644E-2</v>
       </c>
-      <c r="P178" s="22">
+      <c r="P178" s="21">
         <f t="shared" si="59"/>
         <v>7.8929716562444116E-3</v>
       </c>
@@ -14077,19 +14077,19 @@
         <f t="shared" si="55"/>
         <v>27.016470485240639</v>
       </c>
-      <c r="M179" s="22">
+      <c r="M179" s="21">
         <f t="shared" si="56"/>
         <v>2.453550863417632E-2</v>
       </c>
-      <c r="N179" s="22">
+      <c r="N179" s="21">
         <f t="shared" si="57"/>
         <v>8.0321716972642527E-3</v>
       </c>
-      <c r="O179" s="22">
+      <c r="O179" s="21">
         <f t="shared" si="58"/>
         <v>-1.3147326940945919E-2</v>
       </c>
-      <c r="P179" s="22">
+      <c r="P179" s="21">
         <f t="shared" si="59"/>
         <v>-4.9687414826675939E-3</v>
       </c>
@@ -14153,19 +14153,19 @@
         <f t="shared" si="55"/>
         <v>26.97151975042458</v>
       </c>
-      <c r="M180" s="22">
+      <c r="M180" s="21">
         <f t="shared" si="56"/>
         <v>9.7365366717193629E-3</v>
       </c>
-      <c r="N180" s="22">
+      <c r="N180" s="21">
         <f t="shared" si="57"/>
         <v>-4.0080213975388218E-3</v>
       </c>
-      <c r="O180" s="22">
+      <c r="O180" s="21">
         <f t="shared" si="58"/>
         <v>-1.810108085477562E-2</v>
       </c>
-      <c r="P180" s="22">
+      <c r="P180" s="21">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
@@ -14229,19 +14229,19 @@
         <f t="shared" si="55"/>
         <v>26.931268787617583</v>
       </c>
-      <c r="M181" s="22">
+      <c r="M181" s="21">
         <f t="shared" si="56"/>
         <v>-4.0276435769673411E-3</v>
       </c>
-      <c r="N181" s="22">
+      <c r="N181" s="21">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O181" s="22">
+      <c r="O181" s="21">
         <f t="shared" si="58"/>
         <v>-8.729692687153956E-3</v>
       </c>
-      <c r="P181" s="22">
+      <c r="P181" s="21">
         <f t="shared" si="59"/>
         <v>1.717475315512285E-4</v>
       </c>
@@ -14305,19 +14305,19 @@
         <f t="shared" si="55"/>
         <v>26.784879508711626</v>
       </c>
-      <c r="M182" s="22">
+      <c r="M182" s="21">
         <f t="shared" si="56"/>
         <v>1.5778284086999279E-2</v>
       </c>
-      <c r="N182" s="22">
+      <c r="N182" s="21">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O182" s="22">
+      <c r="O182" s="21">
         <f t="shared" si="58"/>
         <v>-1.735678249670668E-2</v>
       </c>
-      <c r="P182" s="22">
+      <c r="P182" s="21">
         <f t="shared" si="59"/>
         <v>-3.7852763710555779E-3</v>
       </c>
@@ -14381,19 +14381,19 @@
         <f t="shared" si="55"/>
         <v>26.528272306943904</v>
       </c>
-      <c r="M183" s="22">
+      <c r="M183" s="21">
         <f t="shared" si="56"/>
         <v>-1.8547552735211931E-2</v>
       </c>
-      <c r="N183" s="22">
+      <c r="N183" s="21">
         <f t="shared" si="57"/>
         <v>-2.0284671171505776E-2</v>
       </c>
-      <c r="O183" s="22">
+      <c r="O183" s="21">
         <f t="shared" si="58"/>
         <v>-1.6452541513496427E-2</v>
       </c>
-      <c r="P183" s="22">
+      <c r="P183" s="21">
         <f t="shared" si="59"/>
         <v>-7.9612743100812722E-3</v>
       </c>
@@ -14457,19 +14457,19 @@
         <f t="shared" si="55"/>
         <v>26.493337718749078</v>
       </c>
-      <c r="M184" s="22">
+      <c r="M184" s="21">
         <f t="shared" si="56"/>
         <v>3.085414818111817E-2</v>
       </c>
-      <c r="N184" s="22">
+      <c r="N184" s="21">
         <f t="shared" si="57"/>
         <v>2.0284671171505717E-2</v>
       </c>
-      <c r="O184" s="22">
+      <c r="O184" s="21">
         <f t="shared" si="58"/>
         <v>7.0312825698400621E-3</v>
       </c>
-      <c r="P184" s="22">
+      <c r="P184" s="21">
         <f t="shared" si="59"/>
         <v>3.4746351982665525E-4</v>
       </c>
@@ -14533,19 +14533,19 @@
         <f t="shared" si="55"/>
         <v>26.770856833504997</v>
       </c>
-      <c r="M185" s="22">
+      <c r="M185" s="21">
         <f t="shared" si="56"/>
         <v>8.1490298715000079E-3</v>
       </c>
-      <c r="N185" s="22">
+      <c r="N185" s="21">
         <f t="shared" si="57"/>
         <v>-1.212136053234485E-2</v>
       </c>
-      <c r="O185" s="22">
+      <c r="O185" s="21">
         <f t="shared" si="58"/>
         <v>-1.7737284975335534E-2</v>
       </c>
-      <c r="P185" s="22">
+      <c r="P185" s="21">
         <f t="shared" si="59"/>
         <v>1.2085782467264564E-2</v>
       </c>
@@ -14609,19 +14609,19 @@
         <f t="shared" si="55"/>
         <v>26.788979224618593</v>
       </c>
-      <c r="M186" s="22">
+      <c r="M186" s="21">
         <f t="shared" si="56"/>
         <v>-3.7557304084587136E-2</v>
       </c>
-      <c r="N186" s="22">
+      <c r="N186" s="21">
         <f t="shared" si="57"/>
         <v>-8.1633106391609811E-3</v>
       </c>
-      <c r="O186" s="22">
+      <c r="O186" s="21">
         <f t="shared" si="58"/>
         <v>1.8307002498160068E-2</v>
       </c>
-      <c r="P186" s="22">
+      <c r="P186" s="21">
         <f t="shared" si="59"/>
         <v>1.8859842709859063E-3</v>
       </c>
@@ -14685,19 +14685,19 @@
         <f t="shared" si="55"/>
         <v>26.967430005386497</v>
       </c>
-      <c r="M187" s="22">
+      <c r="M187" s="21">
         <f t="shared" si="56"/>
         <v>-3.8204521384450026E-2</v>
       </c>
-      <c r="N187" s="22">
+      <c r="N187" s="21">
         <f t="shared" si="57"/>
         <v>-4.1067819526533593E-3</v>
       </c>
-      <c r="O187" s="22">
+      <c r="O187" s="21">
         <f t="shared" si="58"/>
         <v>-7.8992515710033743E-3</v>
       </c>
-      <c r="P187" s="22">
+      <c r="P187" s="21">
         <f t="shared" si="59"/>
         <v>7.8485303072679934E-3</v>
       </c>
@@ -14761,19 +14761,19 @@
         <f t="shared" si="55"/>
         <v>27.145410330173146</v>
       </c>
-      <c r="M188" s="22">
+      <c r="M188" s="21">
         <f t="shared" si="56"/>
         <v>-3.5729802976995511E-3</v>
       </c>
-      <c r="N188" s="22">
+      <c r="N188" s="21">
         <f t="shared" si="57"/>
         <v>-8.2645098498934245E-3</v>
       </c>
-      <c r="O188" s="22">
+      <c r="O188" s="21">
         <f t="shared" si="58"/>
         <v>2.2958724488313941E-2</v>
       </c>
-      <c r="P188" s="22">
+      <c r="P188" s="21">
         <f t="shared" si="59"/>
         <v>7.7874102704427392E-3</v>
       </c>
@@ -14837,19 +14837,19 @@
         <f t="shared" si="55"/>
         <v>27.185757817056459</v>
       </c>
-      <c r="M189" s="22">
+      <c r="M189" s="21">
         <f t="shared" si="56"/>
         <v>1.1913351270983778E-3</v>
       </c>
-      <c r="N189" s="22">
+      <c r="N189" s="21">
         <f t="shared" si="57"/>
         <v>-8.3333815591442994E-3</v>
       </c>
-      <c r="O189" s="22">
+      <c r="O189" s="21">
         <f t="shared" si="58"/>
         <v>8.6750487240237512E-4</v>
       </c>
-      <c r="P189" s="22">
+      <c r="P189" s="21">
         <f t="shared" si="59"/>
         <v>2.6945115662719396E-3</v>
       </c>
@@ -14913,19 +14913,19 @@
         <f t="shared" si="55"/>
         <v>27.477130201085807</v>
       </c>
-      <c r="M190" s="22">
+      <c r="M190" s="21">
         <f t="shared" si="56"/>
         <v>3.3740313161737673E-2</v>
       </c>
-      <c r="N190" s="22">
+      <c r="N190" s="21">
         <f t="shared" si="57"/>
         <v>-4.1928782600359274E-3</v>
       </c>
-      <c r="O190" s="22">
+      <c r="O190" s="21">
         <f t="shared" si="58"/>
         <v>-2.4155917864195992E-2</v>
       </c>
-      <c r="P190" s="22">
+      <c r="P190" s="21">
         <f t="shared" si="59"/>
         <v>1.1870071662308754E-2</v>
       </c>
@@ -14989,19 +14989,19 @@
         <f t="shared" si="55"/>
         <v>27.763197545430607</v>
       </c>
-      <c r="M191" s="22">
+      <c r="M191" s="21">
         <f t="shared" si="56"/>
         <v>-8.3839502950916363E-3</v>
       </c>
-      <c r="N191" s="22">
+      <c r="N191" s="21">
         <f t="shared" si="57"/>
         <v>-1.2685159527315687E-2</v>
       </c>
-      <c r="O191" s="22">
+      <c r="O191" s="21">
         <f t="shared" si="58"/>
         <v>9.7366868520630482E-3</v>
       </c>
-      <c r="P191" s="22">
+      <c r="P191" s="21">
         <f t="shared" si="59"/>
         <v>1.1566553273572526E-2</v>
       </c>
@@ -15065,19 +15065,19 @@
         <f t="shared" si="55"/>
         <v>28.248977596844178</v>
       </c>
-      <c r="M192" s="22">
+      <c r="M192" s="21">
         <f t="shared" si="56"/>
         <v>-1.6414807350197886E-3</v>
       </c>
-      <c r="N192" s="22">
+      <c r="N192" s="21">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O192" s="22">
+      <c r="O192" s="21">
         <f t="shared" si="58"/>
         <v>2.3157549600466856E-2</v>
       </c>
-      <c r="P192" s="22">
+      <c r="P192" s="21">
         <f t="shared" si="59"/>
         <v>1.8555219855953643E-2</v>
       </c>
@@ -15141,19 +15141,19 @@
         <f t="shared" si="55"/>
         <v>28.14203690111022</v>
       </c>
-      <c r="M193" s="22">
+      <c r="M193" s="21">
         <f t="shared" si="56"/>
         <v>-2.5869648759487395E-2</v>
       </c>
-      <c r="N193" s="22">
+      <c r="N193" s="21">
         <f t="shared" si="57"/>
         <v>4.246290881451004E-3</v>
       </c>
-      <c r="O193" s="22">
+      <c r="O193" s="21">
         <f t="shared" si="58"/>
         <v>6.2209039517287373E-3</v>
       </c>
-      <c r="P193" s="22">
+      <c r="P193" s="21">
         <f t="shared" si="59"/>
         <v>-2.58356352328963E-3</v>
       </c>
@@ -15217,19 +15217,19 @@
         <f t="shared" ref="L194:L253" si="70">+E194/G194</f>
         <v>28.426144513310991</v>
       </c>
-      <c r="M194" s="22">
+      <c r="M194" s="21">
         <f t="shared" si="56"/>
         <v>3.6177374757534436E-2</v>
       </c>
-      <c r="N194" s="22">
+      <c r="N194" s="21">
         <f t="shared" si="57"/>
         <v>8.4388686458646035E-3</v>
       </c>
-      <c r="O194" s="22">
+      <c r="O194" s="21">
         <f t="shared" si="58"/>
         <v>8.2890729601210536E-3</v>
       </c>
-      <c r="P194" s="22">
+      <c r="P194" s="21">
         <f t="shared" si="59"/>
         <v>1.1254138074423114E-2</v>
       </c>
@@ -15293,19 +15293,19 @@
         <f t="shared" si="70"/>
         <v>29.004562902558131</v>
       </c>
-      <c r="M195" s="22">
+      <c r="M195" s="21">
         <f t="shared" ref="M195:M253" si="71">+LN(B195/B194)</f>
         <v>4.9986709612064119E-2</v>
       </c>
-      <c r="N195" s="22">
+      <c r="N195" s="21">
         <f t="shared" ref="N195:N253" si="72">+LN(C195/C194)</f>
         <v>3.7117662956502588E-2</v>
       </c>
-      <c r="O195" s="22">
+      <c r="O195" s="21">
         <f t="shared" ref="O195:O253" si="73">+LN(D195/D194)</f>
         <v>1.0193898643183956E-2</v>
       </c>
-      <c r="P195" s="22">
+      <c r="P195" s="21">
         <f t="shared" ref="P195:P253" si="74">+LN(E195/E194)</f>
         <v>2.1353124470569061E-2</v>
       </c>
@@ -15369,19 +15369,19 @@
         <f t="shared" si="70"/>
         <v>28.516152834896168</v>
       </c>
-      <c r="M196" s="22">
+      <c r="M196" s="21">
         <f t="shared" si="71"/>
         <v>1.371662476756931E-2</v>
       </c>
-      <c r="N196" s="22">
+      <c r="N196" s="21">
         <f t="shared" si="72"/>
         <v>-1.2220111334775333E-2</v>
       </c>
-      <c r="O196" s="22">
+      <c r="O196" s="21">
         <f t="shared" si="73"/>
         <v>-2.2376501889732062E-2</v>
       </c>
-      <c r="P196" s="22">
+      <c r="P196" s="21">
         <f t="shared" si="74"/>
         <v>-1.5773197677094397E-2</v>
       </c>
@@ -15445,19 +15445,19 @@
         <f t="shared" si="70"/>
         <v>28.200948371664783</v>
       </c>
-      <c r="M197" s="22">
+      <c r="M197" s="21">
         <f t="shared" si="71"/>
         <v>1.0182472700528833E-2</v>
       </c>
-      <c r="N197" s="22">
+      <c r="N197" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O197" s="22">
+      <c r="O197" s="21">
         <f t="shared" si="73"/>
         <v>1.4895112439814763E-2</v>
       </c>
-      <c r="P197" s="22">
+      <c r="P197" s="21">
         <f t="shared" si="74"/>
         <v>-9.9058167405971908E-3</v>
       </c>
@@ -15521,19 +15521,19 @@
         <f t="shared" si="70"/>
         <v>28.094504571238492</v>
       </c>
-      <c r="M198" s="22">
+      <c r="M198" s="21">
         <f t="shared" si="71"/>
         <v>-4.7332904180906448E-3</v>
       </c>
-      <c r="N198" s="22">
+      <c r="N198" s="21">
         <f t="shared" si="72"/>
         <v>4.0899852515250664E-3</v>
       </c>
-      <c r="O198" s="22">
+      <c r="O198" s="21">
         <f t="shared" si="73"/>
         <v>1.591471105705974E-3</v>
       </c>
-      <c r="P198" s="22">
+      <c r="P198" s="21">
         <f t="shared" si="74"/>
         <v>-2.5723486853113579E-3</v>
       </c>
@@ -15597,19 +15597,19 @@
         <f t="shared" si="70"/>
         <v>27.870830899335164</v>
       </c>
-      <c r="M199" s="22">
+      <c r="M199" s="21">
         <f t="shared" si="71"/>
         <v>2.3989890698516814E-2</v>
       </c>
-      <c r="N199" s="22">
+      <c r="N199" s="21">
         <f t="shared" si="72"/>
         <v>1.2170535620255114E-2</v>
       </c>
-      <c r="O199" s="22">
+      <c r="O199" s="21">
         <f t="shared" si="73"/>
         <v>8.339701834076587E-3</v>
       </c>
-      <c r="P199" s="22">
+      <c r="P199" s="21">
         <f t="shared" si="74"/>
         <v>-6.7840673691440846E-3</v>
       </c>
@@ -15673,19 +15673,19 @@
         <f t="shared" si="70"/>
         <v>27.882264883784188</v>
       </c>
-      <c r="M200" s="22">
+      <c r="M200" s="21">
         <f t="shared" si="71"/>
         <v>-2.2998931306167186E-2</v>
       </c>
-      <c r="N200" s="22">
+      <c r="N200" s="21">
         <f t="shared" si="72"/>
         <v>4.024150299725548E-3</v>
       </c>
-      <c r="O200" s="22">
+      <c r="O200" s="21">
         <f t="shared" si="73"/>
         <v>-7.2576047935953491E-3</v>
       </c>
-      <c r="P200" s="22">
+      <c r="P200" s="21">
         <f t="shared" si="74"/>
         <v>1.6194335523029759E-3</v>
       </c>
@@ -15749,19 +15749,19 @@
         <f t="shared" si="70"/>
         <v>27.929680450682898</v>
       </c>
-      <c r="M201" s="22">
+      <c r="M201" s="21">
         <f t="shared" si="71"/>
         <v>-6.5025832955080973E-4</v>
       </c>
-      <c r="N201" s="22">
+      <c r="N201" s="21">
         <f t="shared" si="72"/>
         <v>-4.0241502997254907E-3</v>
       </c>
-      <c r="O201" s="22">
+      <c r="O201" s="21">
         <f t="shared" si="73"/>
         <v>-1.8549913901336344E-2</v>
       </c>
-      <c r="P201" s="22">
+      <c r="P201" s="21">
         <f t="shared" si="74"/>
         <v>2.9083878959572235E-3</v>
       </c>
@@ -15825,19 +15825,19 @@
         <f t="shared" si="70"/>
         <v>28.692567065342303</v>
       </c>
-      <c r="M202" s="22">
+      <c r="M202" s="21">
         <f t="shared" si="71"/>
         <v>-9.9538970853710138E-3</v>
       </c>
-      <c r="N202" s="22">
+      <c r="N202" s="21">
         <f t="shared" si="72"/>
         <v>-8.0972102326193618E-3</v>
       </c>
-      <c r="O202" s="22">
+      <c r="O202" s="21">
         <f t="shared" si="73"/>
         <v>4.1766325258619438E-2</v>
       </c>
-      <c r="P202" s="22">
+      <c r="P202" s="21">
         <f t="shared" si="74"/>
         <v>2.8157431678933389E-2</v>
       </c>
@@ -15901,19 +15901,19 @@
         <f t="shared" si="70"/>
         <v>29.512008553410723</v>
       </c>
-      <c r="M203" s="22">
+      <c r="M203" s="21">
         <f t="shared" si="71"/>
         <v>2.2686020246125666E-2</v>
       </c>
-      <c r="N203" s="22">
+      <c r="N203" s="21">
         <f t="shared" si="72"/>
         <v>-1.2270092591814359E-2</v>
       </c>
-      <c r="O203" s="22">
+      <c r="O203" s="21">
         <f t="shared" si="73"/>
         <v>1.2243626279860068E-2</v>
       </c>
-      <c r="P203" s="22">
+      <c r="P203" s="21">
         <f t="shared" si="74"/>
         <v>2.9368416710269865E-2</v>
       </c>
@@ -15977,19 +15977,19 @@
         <f t="shared" si="70"/>
         <v>30.082481736756073</v>
       </c>
-      <c r="M204" s="22">
+      <c r="M204" s="21">
         <f t="shared" si="71"/>
         <v>-4.0469045204705473E-3</v>
       </c>
-      <c r="N204" s="22">
+      <c r="N204" s="21">
         <f t="shared" si="72"/>
         <v>8.1967672041784907E-3</v>
       </c>
-      <c r="O204" s="22">
+      <c r="O204" s="21">
         <f t="shared" si="73"/>
         <v>-1.120686366301496E-2</v>
       </c>
-      <c r="P204" s="22">
+      <c r="P204" s="21">
         <f t="shared" si="74"/>
         <v>2.0355018642160851E-2</v>
       </c>
@@ -16053,19 +16053,19 @@
         <f t="shared" si="70"/>
         <v>29.337575492140822</v>
       </c>
-      <c r="M205" s="22">
+      <c r="M205" s="21">
         <f t="shared" si="71"/>
         <v>2.7679180352604381E-2</v>
       </c>
-      <c r="N205" s="22">
+      <c r="N205" s="21">
         <f t="shared" si="72"/>
         <v>-4.0899852515251661E-3</v>
       </c>
-      <c r="O205" s="22">
+      <c r="O205" s="21">
         <f t="shared" si="73"/>
         <v>-3.3938694172366631E-3</v>
       </c>
-      <c r="P205" s="22">
+      <c r="P205" s="21">
         <f t="shared" si="74"/>
         <v>-2.3864597280728241E-2</v>
       </c>
@@ -16129,19 +16129,19 @@
         <f t="shared" si="70"/>
         <v>28.885565791716715</v>
       </c>
-      <c r="M206" s="22">
+      <c r="M206" s="21">
         <f t="shared" si="71"/>
         <v>4.1173624581023617E-2</v>
       </c>
-      <c r="N206" s="22">
+      <c r="N206" s="21">
         <f t="shared" si="72"/>
         <v>-2.0704673361691166E-2</v>
       </c>
-      <c r="O206" s="22">
+      <c r="O206" s="21">
         <f t="shared" si="73"/>
         <v>-4.4005588536576426E-3</v>
       </c>
-      <c r="P206" s="22">
+      <c r="P206" s="21">
         <f t="shared" si="74"/>
         <v>-1.4317849087951936E-2</v>
       </c>
@@ -16205,19 +16205,19 @@
         <f t="shared" si="70"/>
         <v>28.586710345495106</v>
       </c>
-      <c r="M207" s="22">
+      <c r="M207" s="21">
         <f t="shared" si="71"/>
         <v>-6.0430184673931145E-3</v>
       </c>
-      <c r="N207" s="22">
+      <c r="N207" s="21">
         <f t="shared" si="72"/>
         <v>-1.2631746905900574E-2</v>
       </c>
-      <c r="O207" s="22">
+      <c r="O207" s="21">
         <f t="shared" si="73"/>
         <v>6.0814892341149018E-3</v>
       </c>
-      <c r="P207" s="22">
+      <c r="P207" s="21">
         <f t="shared" si="74"/>
         <v>-9.1908116387967986E-3</v>
       </c>
@@ -16281,19 +16281,19 @@
         <f t="shared" si="70"/>
         <v>29.168053267878722</v>
       </c>
-      <c r="M208" s="22">
+      <c r="M208" s="21">
         <f t="shared" si="71"/>
         <v>-2.9139696463485895E-2</v>
       </c>
-      <c r="N208" s="22">
+      <c r="N208" s="21">
         <f t="shared" si="72"/>
         <v>8.4388686458646035E-3</v>
       </c>
-      <c r="O208" s="22">
+      <c r="O208" s="21">
         <f t="shared" si="73"/>
         <v>1.6700588759048268E-2</v>
       </c>
-      <c r="P208" s="22">
+      <c r="P208" s="21">
         <f t="shared" si="74"/>
         <v>2.014010754911822E-2</v>
       </c>
@@ -16357,19 +16357,19 @@
         <f t="shared" si="70"/>
         <v>29.043438151678753</v>
       </c>
-      <c r="M209" s="22">
+      <c r="M209" s="21">
         <f t="shared" si="71"/>
         <v>-2.1019064157479724E-2</v>
       </c>
-      <c r="N209" s="22">
+      <c r="N209" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O209" s="22">
+      <c r="O209" s="21">
         <f t="shared" si="73"/>
         <v>2.0631395759632784E-2</v>
       </c>
-      <c r="P209" s="22">
+      <c r="P209" s="21">
         <f t="shared" si="74"/>
         <v>-3.0721990369701403E-3</v>
       </c>
@@ -16433,19 +16433,19 @@
         <f t="shared" si="70"/>
         <v>29.36536376185526</v>
       </c>
-      <c r="M210" s="22">
+      <c r="M210" s="21">
         <f t="shared" si="71"/>
         <v>-1.4791368810730373E-2</v>
       </c>
-      <c r="N210" s="22">
+      <c r="N210" s="21">
         <f t="shared" si="72"/>
         <v>-1.694955831377332E-2</v>
       </c>
-      <c r="O210" s="22">
+      <c r="O210" s="21">
         <f t="shared" si="73"/>
         <v>6.3449686917877602E-3</v>
       </c>
-      <c r="P210" s="22">
+      <c r="P210" s="21">
         <f t="shared" si="74"/>
         <v>1.2232568435634231E-2</v>
       </c>
@@ -16509,19 +16509,19 @@
         <f t="shared" si="70"/>
         <v>29.708755972562766</v>
       </c>
-      <c r="M211" s="22">
+      <c r="M211" s="21">
         <f t="shared" si="71"/>
         <v>2.2492628558961971E-2</v>
       </c>
-      <c r="N211" s="22">
+      <c r="N211" s="21">
         <f t="shared" si="72"/>
         <v>-3.0371097876298759E-2</v>
       </c>
-      <c r="O211" s="22">
+      <c r="O211" s="21">
         <f t="shared" si="73"/>
         <v>2.3201195849733732E-2</v>
       </c>
-      <c r="P211" s="22">
+      <c r="P211" s="21">
         <f t="shared" si="74"/>
         <v>1.2835208293446291E-2</v>
       </c>
@@ -16585,19 +16585,19 @@
         <f t="shared" si="70"/>
         <v>30.020111002969347</v>
       </c>
-      <c r="M212" s="22">
+      <c r="M212" s="21">
         <f t="shared" si="71"/>
         <v>8.6776549281392085E-2</v>
       </c>
-      <c r="N212" s="22">
+      <c r="N212" s="21">
         <f t="shared" si="72"/>
         <v>-1.3303965626362815E-2</v>
       </c>
-      <c r="O212" s="22">
+      <c r="O212" s="21">
         <f t="shared" si="73"/>
         <v>2.6813259697933037E-2</v>
       </c>
-      <c r="P212" s="22">
+      <c r="P212" s="21">
         <f t="shared" si="74"/>
         <v>1.1634976121772986E-2</v>
       </c>
@@ -16661,19 +16661,19 @@
         <f t="shared" si="70"/>
         <v>29.952703945710709</v>
       </c>
-      <c r="M213" s="22">
+      <c r="M213" s="21">
         <f t="shared" si="71"/>
         <v>4.8329391287038614E-3</v>
       </c>
-      <c r="N213" s="22">
+      <c r="N213" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O213" s="22">
+      <c r="O213" s="21">
         <f t="shared" si="73"/>
         <v>-3.2966763792323245E-2</v>
       </c>
-      <c r="P213" s="22">
+      <c r="P213" s="21">
         <f t="shared" si="74"/>
         <v>-1.0386528124194305E-3</v>
       </c>
@@ -16737,19 +16737,19 @@
         <f t="shared" si="70"/>
         <v>30.222953734081731</v>
       </c>
-      <c r="M214" s="22">
+      <c r="M214" s="21">
         <f t="shared" si="71"/>
         <v>5.7278184979092768E-2</v>
       </c>
-      <c r="N214" s="22">
+      <c r="N214" s="21">
         <f t="shared" si="72"/>
         <v>1.3303965626362886E-2</v>
       </c>
-      <c r="O214" s="22">
+      <c r="O214" s="21">
         <f t="shared" si="73"/>
         <v>1.1820307768714441E-2</v>
       </c>
-      <c r="P214" s="22">
+      <c r="P214" s="21">
         <f t="shared" si="74"/>
         <v>1.0191359163403838E-2</v>
       </c>
@@ -16813,19 +16813,19 @@
         <f t="shared" si="70"/>
         <v>30.310633885383766</v>
       </c>
-      <c r="M215" s="22">
+      <c r="M215" s="21">
         <f t="shared" si="71"/>
         <v>9.6710476213733299E-2</v>
       </c>
-      <c r="N215" s="22">
+      <c r="N215" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O215" s="22">
+      <c r="O215" s="21">
         <f t="shared" si="73"/>
         <v>1.2097990074533972E-2</v>
       </c>
-      <c r="P215" s="22">
+      <c r="P215" s="21">
         <f t="shared" si="74"/>
         <v>4.1061796952117794E-3</v>
       </c>
@@ -16889,19 +16889,19 @@
         <f t="shared" si="70"/>
         <v>30.473377449444456</v>
       </c>
-      <c r="M216" s="22">
+      <c r="M216" s="21">
         <f t="shared" si="71"/>
         <v>-4.2149977699010976E-3</v>
       </c>
-      <c r="N216" s="22">
+      <c r="N216" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O216" s="22">
+      <c r="O216" s="21">
         <f t="shared" si="73"/>
         <v>1.5049949203039998E-2</v>
       </c>
-      <c r="P216" s="22">
+      <c r="P216" s="21">
         <f t="shared" si="74"/>
         <v>6.5640962114333718E-3</v>
       </c>
@@ -16965,19 +16965,19 @@
         <f t="shared" si="70"/>
         <v>30.436549224882352</v>
       </c>
-      <c r="M217" s="22">
+      <c r="M217" s="21">
         <f t="shared" si="71"/>
         <v>2.4879232832270774E-2</v>
       </c>
-      <c r="N217" s="22">
+      <c r="N217" s="21">
         <f t="shared" si="72"/>
         <v>4.3956114730381293E-3</v>
       </c>
-      <c r="O217" s="22">
+      <c r="O217" s="21">
         <f t="shared" si="73"/>
         <v>2.18378979566165E-2</v>
       </c>
-      <c r="P217" s="22">
+      <c r="P217" s="21">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -17041,19 +17041,19 @@
         <f t="shared" si="70"/>
         <v>30.841751049597107</v>
       </c>
-      <c r="M218" s="22">
+      <c r="M218" s="21">
         <f t="shared" si="71"/>
         <v>-3.463711411826996E-2</v>
       </c>
-      <c r="N218" s="22">
+      <c r="N218" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O218" s="22">
+      <c r="O218" s="21">
         <f t="shared" si="73"/>
         <v>-9.9801363894819733E-3</v>
       </c>
-      <c r="P218" s="22">
+      <c r="P218" s="21">
         <f t="shared" si="74"/>
         <v>1.443443075450792E-2</v>
       </c>
@@ -17117,19 +17117,19 @@
         <f t="shared" si="70"/>
         <v>31.320975751884145</v>
       </c>
-      <c r="M219" s="22">
+      <c r="M219" s="21">
         <f t="shared" si="71"/>
         <v>5.3338762547763041E-2</v>
       </c>
-      <c r="N219" s="22">
+      <c r="N219" s="21">
         <f t="shared" si="72"/>
         <v>-4.3956114730381093E-3</v>
       </c>
-      <c r="O219" s="22">
+      <c r="O219" s="21">
         <f t="shared" si="73"/>
         <v>2.7438015155436205E-2</v>
       </c>
-      <c r="P219" s="22">
+      <c r="P219" s="21">
         <f t="shared" si="74"/>
         <v>1.6627967847423496E-2</v>
       </c>
@@ -17193,19 +17193,19 @@
         <f t="shared" si="70"/>
         <v>31.55208307609286</v>
       </c>
-      <c r="M220" s="22">
+      <c r="M220" s="21">
         <f t="shared" si="71"/>
         <v>1.5778851001684855E-3</v>
       </c>
-      <c r="N220" s="22">
+      <c r="N220" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O220" s="22">
+      <c r="O220" s="21">
         <f t="shared" si="73"/>
         <v>1.0097186532658977E-2</v>
       </c>
-      <c r="P220" s="22">
+      <c r="P220" s="21">
         <f t="shared" si="74"/>
         <v>8.560855034466637E-3</v>
       </c>
@@ -17269,19 +17269,19 @@
         <f t="shared" si="70"/>
         <v>31.069162336746807</v>
       </c>
-      <c r="M221" s="22">
+      <c r="M221" s="21">
         <f t="shared" si="71"/>
         <v>6.4890182118088002E-2</v>
       </c>
-      <c r="N221" s="22">
+      <c r="N221" s="21">
         <f t="shared" si="72"/>
         <v>-4.4150182091168312E-3</v>
       </c>
-      <c r="O221" s="22">
+      <c r="O221" s="21">
         <f t="shared" si="73"/>
         <v>-2.7416754379095787E-3</v>
       </c>
-      <c r="P221" s="22">
+      <c r="P221" s="21">
         <f t="shared" si="74"/>
         <v>-1.4214580341695478E-2</v>
       </c>
@@ -17345,19 +17345,19 @@
         <f t="shared" si="70"/>
         <v>30.965636165738761</v>
       </c>
-      <c r="M222" s="22">
+      <c r="M222" s="21">
         <f t="shared" si="71"/>
         <v>1.0475860527438808E-2</v>
       </c>
-      <c r="N222" s="22">
+      <c r="N222" s="21">
         <f t="shared" si="72"/>
         <v>4.4150182091166933E-3</v>
       </c>
-      <c r="O222" s="22">
+      <c r="O222" s="21">
         <f t="shared" si="73"/>
         <v>3.3040854032725699E-2</v>
       </c>
-      <c r="P222" s="22">
+      <c r="P222" s="21">
         <f t="shared" si="74"/>
         <v>-2.1284151348260651E-3</v>
       </c>
@@ -17421,19 +17421,19 @@
         <f t="shared" si="70"/>
         <v>31.200592176800825</v>
       </c>
-      <c r="M223" s="22">
+      <c r="M223" s="21">
         <f t="shared" si="71"/>
         <v>-5.090575654881066E-2</v>
       </c>
-      <c r="N223" s="22">
+      <c r="N223" s="21">
         <f t="shared" si="72"/>
         <v>-4.4150182091168312E-3</v>
       </c>
-      <c r="O223" s="22">
+      <c r="O223" s="21">
         <f t="shared" si="73"/>
         <v>2.9626213877614466E-3</v>
       </c>
-      <c r="P223" s="22">
+      <c r="P223" s="21">
         <f t="shared" si="74"/>
         <v>8.7682643509448821E-3</v>
       </c>
@@ -17497,19 +17497,19 @@
         <f t="shared" si="70"/>
         <v>31.108194736289928</v>
       </c>
-      <c r="M224" s="22">
+      <c r="M224" s="21">
         <f t="shared" si="71"/>
         <v>-2.1299119173623569E-2</v>
       </c>
-      <c r="N224" s="22">
+      <c r="N224" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O224" s="22">
+      <c r="O224" s="21">
         <f t="shared" si="73"/>
         <v>1.5082651452256679E-2</v>
       </c>
-      <c r="P224" s="22">
+      <c r="P224" s="21">
         <f t="shared" si="74"/>
         <v>-2.9612938512592166E-3</v>
       </c>
@@ -17573,19 +17573,19 @@
         <f t="shared" si="70"/>
         <v>31.266208961454595</v>
       </c>
-      <c r="M225" s="22">
+      <c r="M225" s="21">
         <f t="shared" si="71"/>
         <v>3.4215867606338608E-2</v>
       </c>
-      <c r="N225" s="22">
+      <c r="N225" s="21">
         <f t="shared" si="72"/>
         <v>4.4150182091166933E-3</v>
       </c>
-      <c r="O225" s="22">
+      <c r="O225" s="21">
         <f t="shared" si="73"/>
         <v>-2.109831769306119E-2</v>
       </c>
-      <c r="P225" s="22">
+      <c r="P225" s="21">
         <f t="shared" si="74"/>
         <v>5.0711476474972943E-3</v>
       </c>
@@ -17649,19 +17649,19 @@
         <f t="shared" si="70"/>
         <v>31.274854569687417</v>
       </c>
-      <c r="M226" s="22">
+      <c r="M226" s="21">
         <f t="shared" si="71"/>
         <v>7.1994505030727862E-3</v>
       </c>
-      <c r="N226" s="22">
+      <c r="N226" s="21">
         <f t="shared" si="72"/>
         <v>-8.8496152769824993E-3</v>
       </c>
-      <c r="O226" s="22">
+      <c r="O226" s="21">
         <f t="shared" si="73"/>
         <v>1.1523108571118986E-2</v>
       </c>
-      <c r="P226" s="22">
+      <c r="P226" s="21">
         <f t="shared" si="74"/>
         <v>2.8097780460196016E-4</v>
       </c>
@@ -17725,19 +17725,19 @@
         <f t="shared" si="70"/>
         <v>31.195637439458803</v>
       </c>
-      <c r="M227" s="22">
+      <c r="M227" s="21">
         <f t="shared" si="71"/>
         <v>7.5863776275319206E-3</v>
       </c>
-      <c r="N227" s="22">
+      <c r="N227" s="21">
         <f t="shared" si="72"/>
         <v>-4.4543503493803087E-3</v>
       </c>
-      <c r="O227" s="22">
+      <c r="O227" s="21">
         <f t="shared" si="73"/>
         <v>1.2248381375193044E-2</v>
       </c>
-      <c r="P227" s="22">
+      <c r="P227" s="21">
         <f t="shared" si="74"/>
         <v>-2.531646921779508E-3</v>
       </c>
@@ -17801,19 +17801,19 @@
         <f t="shared" si="70"/>
         <v>31.536277961369976</v>
       </c>
-      <c r="M228" s="22">
+      <c r="M228" s="21">
         <f t="shared" si="71"/>
         <v>-1.4716666199494606E-2</v>
       </c>
-      <c r="N228" s="22">
+      <c r="N228" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O228" s="22">
+      <c r="O228" s="21">
         <f t="shared" si="73"/>
         <v>1.7920360512597489E-2</v>
       </c>
-      <c r="P228" s="22">
+      <c r="P228" s="21">
         <f t="shared" si="74"/>
         <v>1.1759900331031605E-2</v>
       </c>
@@ -17878,19 +17878,19 @@
         <f t="shared" si="70"/>
         <v>31.448211272739591</v>
       </c>
-      <c r="M229" s="22">
+      <c r="M229" s="21">
         <f t="shared" si="71"/>
         <v>1.4266100485371307E-3</v>
       </c>
-      <c r="N229" s="22">
+      <c r="N229" s="21">
         <f t="shared" si="72"/>
         <v>-1.8018505502678365E-2</v>
       </c>
-      <c r="O229" s="22">
+      <c r="O229" s="21">
         <f t="shared" si="73"/>
         <v>-2.5760083767486133E-2</v>
       </c>
-      <c r="P229" s="22">
+      <c r="P229" s="21">
         <f t="shared" si="74"/>
         <v>-2.7874582508529058E-3</v>
       </c>
@@ -17954,19 +17954,19 @@
         <f t="shared" si="70"/>
         <v>31.419933332740126</v>
       </c>
-      <c r="M230" s="22">
+      <c r="M230" s="21">
         <f t="shared" si="71"/>
         <v>2.8408340532908631E-2</v>
       </c>
-      <c r="N230" s="22">
+      <c r="N230" s="21">
         <f t="shared" si="72"/>
         <v>-9.1324835632724741E-3</v>
       </c>
-      <c r="O230" s="22">
+      <c r="O230" s="21">
         <f t="shared" si="73"/>
         <v>-1.094126751426854E-2</v>
       </c>
-      <c r="P230" s="22">
+      <c r="P230" s="21">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -18030,19 +18030,19 @@
         <f t="shared" si="70"/>
         <v>31.225193189693663</v>
       </c>
-      <c r="M231" s="22">
+      <c r="M231" s="21">
         <f t="shared" si="71"/>
         <v>-2.0573560541896969E-2</v>
       </c>
-      <c r="N231" s="22">
+      <c r="N231" s="21">
         <f t="shared" si="72"/>
         <v>-2.7908788117076502E-2</v>
       </c>
-      <c r="O231" s="22">
+      <c r="O231" s="21">
         <f t="shared" si="73"/>
         <v>-2.1205643052253169E-3</v>
       </c>
-      <c r="P231" s="22">
+      <c r="P231" s="21">
         <f t="shared" si="74"/>
         <v>-5.3176727604016356E-3</v>
       </c>
@@ -18106,19 +18106,19 @@
         <f t="shared" si="70"/>
         <v>31.411604163975422</v>
       </c>
-      <c r="M232" s="22">
+      <c r="M232" s="21">
         <f t="shared" si="71"/>
         <v>4.5249151173745332E-2</v>
       </c>
-      <c r="N232" s="22">
+      <c r="N232" s="21">
         <f t="shared" si="72"/>
         <v>-4.728141195946012E-3</v>
       </c>
-      <c r="O232" s="22">
+      <c r="O232" s="21">
         <f t="shared" si="73"/>
         <v>-4.1408958571752131E-3</v>
       </c>
-      <c r="P232" s="22">
+      <c r="P232" s="21">
         <f t="shared" si="74"/>
         <v>6.8517362367614765E-3</v>
       </c>
@@ -18182,19 +18182,19 @@
         <f t="shared" si="70"/>
         <v>31.750722876510014</v>
       </c>
-      <c r="M233" s="22">
+      <c r="M233" s="21">
         <f t="shared" si="71"/>
         <v>-4.3470609082203238E-2</v>
       </c>
-      <c r="N233" s="22">
+      <c r="N233" s="21">
         <f t="shared" si="72"/>
         <v>-4.7506027585978647E-3</v>
       </c>
-      <c r="O233" s="22">
+      <c r="O233" s="21">
         <f t="shared" si="73"/>
         <v>1.192203031965775E-2</v>
       </c>
-      <c r="P233" s="22">
+      <c r="P233" s="21">
         <f t="shared" si="74"/>
         <v>1.1637704080209609E-2</v>
       </c>
@@ -18258,19 +18258,19 @@
         <f t="shared" si="70"/>
         <v>31.333292288655546</v>
       </c>
-      <c r="M234" s="22">
+      <c r="M234" s="21">
         <f t="shared" si="71"/>
         <v>-2.8083488236616727E-3</v>
       </c>
-      <c r="N234" s="22">
+      <c r="N234" s="21">
         <f t="shared" si="72"/>
         <v>1.4184634991956381E-2</v>
       </c>
-      <c r="O234" s="22">
+      <c r="O234" s="21">
         <f t="shared" si="73"/>
         <v>-1.2466210352306287E-2</v>
       </c>
-      <c r="P234" s="22">
+      <c r="P234" s="21">
         <f t="shared" si="74"/>
         <v>-1.2334713936266976E-2</v>
       </c>
@@ -18334,19 +18334,19 @@
         <f t="shared" si="70"/>
         <v>31.763496898567027</v>
       </c>
-      <c r="M235" s="22">
+      <c r="M235" s="21">
         <f t="shared" si="71"/>
         <v>4.6388102822716853E-2</v>
       </c>
-      <c r="N235" s="22">
+      <c r="N235" s="21">
         <f t="shared" si="72"/>
         <v>4.6838493124264375E-3</v>
       </c>
-      <c r="O235" s="22">
+      <c r="O235" s="21">
         <f t="shared" si="73"/>
         <v>4.0030074754147278E-2</v>
       </c>
-      <c r="P235" s="22">
+      <c r="P235" s="21">
         <f t="shared" si="74"/>
         <v>1.4536145755438124E-2</v>
       </c>
@@ -18410,19 +18410,19 @@
         <f t="shared" si="70"/>
         <v>31.769828183931079</v>
       </c>
-      <c r="M236" s="22">
+      <c r="M236" s="21">
         <f t="shared" si="71"/>
         <v>-1.808233160870143E-2</v>
       </c>
-      <c r="N236" s="22">
+      <c r="N236" s="21">
         <f t="shared" si="72"/>
         <v>9.3023926623134103E-3</v>
       </c>
-      <c r="O236" s="22">
+      <c r="O236" s="21">
         <f t="shared" si="73"/>
         <v>5.632039991498001E-3</v>
       </c>
-      <c r="P236" s="22">
+      <c r="P236" s="21">
         <f t="shared" si="74"/>
         <v>1.0989012094857913E-3</v>
       </c>
@@ -18486,19 +18486,19 @@
         <f t="shared" si="70"/>
         <v>31.844669039615148</v>
       </c>
-      <c r="M237" s="22">
+      <c r="M237" s="21">
         <f t="shared" si="71"/>
         <v>2.6955892905689265E-2</v>
       </c>
-      <c r="N237" s="22">
+      <c r="N237" s="21">
         <f t="shared" si="72"/>
         <v>1.3793322132335769E-2</v>
       </c>
-      <c r="O237" s="22">
+      <c r="O237" s="21">
         <f t="shared" si="73"/>
         <v>2.8483569107705435E-2</v>
       </c>
-      <c r="P237" s="22">
+      <c r="P237" s="21">
         <f t="shared" si="74"/>
         <v>3.1526309437190625E-3</v>
       </c>
@@ -18562,19 +18562,19 @@
         <f t="shared" si="70"/>
         <v>32.552435866157836</v>
       </c>
-      <c r="M238" s="22">
+      <c r="M238" s="21">
         <f t="shared" si="71"/>
         <v>3.8327301701708852E-2</v>
       </c>
-      <c r="N238" s="22">
+      <c r="N238" s="21">
         <f t="shared" si="72"/>
         <v>9.0909717012521048E-3</v>
       </c>
-      <c r="O238" s="22">
+      <c r="O238" s="21">
         <f t="shared" si="73"/>
         <v>7.025476035197252E-2</v>
       </c>
-      <c r="P238" s="22">
+      <c r="P238" s="21">
         <f t="shared" si="74"/>
         <v>2.206220633564555E-2</v>
       </c>
@@ -18638,19 +18638,19 @@
         <f t="shared" si="70"/>
         <v>31.826502282282863</v>
       </c>
-      <c r="M239" s="22">
+      <c r="M239" s="21">
         <f t="shared" si="71"/>
         <v>-5.9179030603150953E-2</v>
       </c>
-      <c r="N239" s="22">
+      <c r="N239" s="21">
         <f t="shared" si="72"/>
         <v>5.2875752047947776E-2</v>
       </c>
-      <c r="O239" s="22">
+      <c r="O239" s="21">
         <f t="shared" si="73"/>
         <v>1.9083404754798222E-2</v>
       </c>
-      <c r="P239" s="22">
+      <c r="P239" s="21">
         <f t="shared" si="74"/>
         <v>-2.2472855852058628E-2</v>
       </c>
@@ -18714,19 +18714,19 @@
         <f t="shared" si="70"/>
         <v>32.939363379688984</v>
       </c>
-      <c r="M240" s="22">
+      <c r="M240" s="21">
         <f t="shared" si="71"/>
         <v>-2.5826046508979073E-2</v>
       </c>
-      <c r="N240" s="22">
+      <c r="N240" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O240" s="22">
+      <c r="O240" s="21">
         <f t="shared" si="73"/>
         <v>-2.784493024090836E-2</v>
       </c>
-      <c r="P240" s="22">
+      <c r="P240" s="21">
         <f t="shared" si="74"/>
         <v>3.4449046898774045E-2</v>
       </c>
@@ -18790,19 +18790,19 @@
         <f t="shared" si="70"/>
         <v>32.313718895498042</v>
       </c>
-      <c r="M241" s="22">
+      <c r="M241" s="21">
         <f t="shared" si="71"/>
         <v>-8.9205973759661009E-3</v>
       </c>
-      <c r="N241" s="22">
+      <c r="N241" s="21">
         <f t="shared" si="72"/>
         <v>3.3758479924954454E-2</v>
       </c>
-      <c r="O241" s="22">
+      <c r="O241" s="21">
         <f t="shared" si="73"/>
         <v>-4.0938653982475585E-2</v>
       </c>
-      <c r="P241" s="22">
+      <c r="P241" s="21">
         <f t="shared" si="74"/>
         <v>-1.9096527437020467E-2</v>
       </c>
@@ -18866,19 +18866,19 @@
         <f t="shared" si="70"/>
         <v>32.228363134332625</v>
       </c>
-      <c r="M242" s="22">
+      <c r="M242" s="21">
         <f t="shared" si="71"/>
         <v>1.163521306684958E-2</v>
       </c>
-      <c r="N242" s="22">
+      <c r="N242" s="21">
         <f t="shared" si="72"/>
         <v>-2.5211419346496056E-2</v>
       </c>
-      <c r="O242" s="22">
+      <c r="O242" s="21">
         <f t="shared" si="73"/>
         <v>1.9506881099851974E-2</v>
       </c>
-      <c r="P242" s="22">
+      <c r="P242" s="21">
         <f t="shared" si="74"/>
         <v>-2.5649693441587313E-3</v>
       </c>
@@ -18942,19 +18942,19 @@
         <f t="shared" si="70"/>
         <v>32.234497097769548</v>
       </c>
-      <c r="M243" s="22">
+      <c r="M243" s="21">
         <f t="shared" si="71"/>
         <v>-3.1905480189316861E-2</v>
       </c>
-      <c r="N243" s="22">
+      <c r="N243" s="21">
         <f t="shared" si="72"/>
         <v>2.1053409197832263E-2</v>
       </c>
-      <c r="O243" s="22">
+      <c r="O243" s="21">
         <f t="shared" si="73"/>
         <v>1.3521206897889699E-2</v>
       </c>
-      <c r="P243" s="22">
+      <c r="P243" s="21">
         <f t="shared" si="74"/>
         <v>2.7030679986176091E-4</v>
       </c>
@@ -19018,19 +19018,19 @@
         <f t="shared" si="70"/>
         <v>32.227562879617849</v>
       </c>
-      <c r="M244" s="22">
+      <c r="M244" s="21">
         <f t="shared" si="71"/>
         <v>4.1273979167770099E-2</v>
       </c>
-      <c r="N244" s="22">
+      <c r="N244" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O244" s="22">
+      <c r="O244" s="21">
         <f t="shared" si="73"/>
         <v>1.9741453637538094E-2</v>
       </c>
-      <c r="P244" s="22">
+      <c r="P244" s="21">
         <f t="shared" si="74"/>
         <v>-1.3514426671023695E-4</v>
       </c>
@@ -19094,19 +19094,19 @@
         <f t="shared" si="70"/>
         <v>32.224984880827371</v>
       </c>
-      <c r="M245" s="22">
+      <c r="M245" s="21">
         <f t="shared" si="71"/>
         <v>6.2948467716832041E-3</v>
       </c>
-      <c r="N245" s="22">
+      <c r="N245" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O245" s="22">
+      <c r="O245" s="21">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="P245" s="22">
+      <c r="P245" s="21">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -19170,19 +19170,19 @@
         <f t="shared" si="70"/>
         <v>32.618709162193511</v>
       </c>
-      <c r="M246" s="22">
+      <c r="M246" s="21">
         <f t="shared" si="71"/>
         <v>-3.5235263857997821E-2</v>
       </c>
-      <c r="N246" s="22">
+      <c r="N246" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O246" s="22">
+      <c r="O246" s="21">
         <f t="shared" si="73"/>
         <v>1.8013237987962227E-2</v>
       </c>
-      <c r="P246" s="22">
+      <c r="P246" s="21">
         <f t="shared" si="74"/>
         <v>1.2223941585714318E-2</v>
       </c>
@@ -19246,19 +19246,19 @@
         <f t="shared" si="70"/>
         <v>32.629163732631163</v>
       </c>
-      <c r="M247" s="22">
+      <c r="M247" s="21">
         <f t="shared" si="71"/>
         <v>-1.7447462563727766E-2</v>
       </c>
-      <c r="N247" s="22">
+      <c r="N247" s="21">
         <f t="shared" si="72"/>
         <v>8.2988028146950641E-3</v>
       </c>
-      <c r="O247" s="22">
+      <c r="O247" s="21">
         <f t="shared" si="73"/>
         <v>-7.6688617079310548E-3</v>
       </c>
-      <c r="P247" s="22">
+      <c r="P247" s="21">
         <f t="shared" si="74"/>
         <v>4.0045385304556604E-4</v>
       </c>
@@ -19322,19 +19322,19 @@
         <f t="shared" si="70"/>
         <v>32.757181742367621</v>
       </c>
-      <c r="M248" s="22">
+      <c r="M248" s="21">
         <f t="shared" si="71"/>
         <v>-1.6699124718738797E-2</v>
       </c>
-      <c r="N248" s="22">
+      <c r="N248" s="21">
         <f t="shared" si="72"/>
         <v>4.1237171838621562E-3</v>
       </c>
-      <c r="O248" s="22">
+      <c r="O248" s="21">
         <f t="shared" si="73"/>
         <v>-1.7182624989483801E-2</v>
       </c>
-      <c r="P248" s="22">
+      <c r="P248" s="21">
         <f t="shared" si="74"/>
         <v>3.9957431959107108E-3</v>
       </c>
@@ -19398,71 +19398,71 @@
         <f t="shared" si="70"/>
         <v>32.754561377457421</v>
       </c>
-      <c r="M249" s="22">
+      <c r="M249" s="21">
         <f t="shared" si="71"/>
         <v>8.4482667245536248E-3</v>
       </c>
-      <c r="N249" s="22">
+      <c r="N249" s="21">
         <f t="shared" si="72"/>
         <v>1.2270092591814401E-2</v>
       </c>
-      <c r="O249" s="22">
+      <c r="O249" s="21">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="P249" s="22">
+      <c r="P249" s="21">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="Q249" s="19">
+      <c r="Q249" s="18">
         <f t="shared" si="79"/>
         <v>3.1501290185368465E-2</v>
       </c>
-      <c r="R249" s="19">
+      <c r="R249" s="18">
         <f t="shared" si="79"/>
         <v>1.7942433805614999E-2</v>
       </c>
-      <c r="S249" s="19">
+      <c r="S249" s="18">
         <f t="shared" si="79"/>
         <v>2.4615061076099242E-2</v>
       </c>
-      <c r="T249" s="19">
+      <c r="T249" s="18">
         <f t="shared" si="79"/>
         <v>1.2940746322726342E-2</v>
       </c>
-      <c r="U249" s="19">
+      <c r="U249" s="18">
         <f>SUM(M228:M249)</f>
         <v>-4.0456817157672728E-2</v>
       </c>
-      <c r="V249" s="19">
+      <c r="V249" s="18">
         <f t="shared" ref="V249:X249" si="80">SUM(N228:N249)</f>
         <v>9.3685484077322953E-2</v>
       </c>
-      <c r="W249" s="19">
+      <c r="W249" s="18">
         <f t="shared" si="80"/>
         <v>0.11504492669835839</v>
       </c>
-      <c r="X249" s="19">
+      <c r="X249" s="18">
         <f t="shared" si="80"/>
         <v>5.7729375378128042E-2</v>
       </c>
-      <c r="Y249" s="19">
+      <c r="Y249" s="18">
         <f t="shared" ref="Y249" si="81">SUM(Q228:Q249)</f>
         <v>0.74730821071529352</v>
       </c>
-      <c r="Z249" s="19">
+      <c r="Z249" s="18">
         <f t="shared" ref="Z249" si="82">SUM(R228:R249)</f>
         <v>0.29921110350730418</v>
       </c>
-      <c r="AA249" s="19">
+      <c r="AA249" s="18">
         <f t="shared" ref="AA249" si="83">SUM(S228:S249)</f>
         <v>0.46955098168393289</v>
       </c>
-      <c r="AB249" s="19">
+      <c r="AB249" s="18">
         <f t="shared" ref="AB249" si="84">SUM(T228:T249)</f>
         <v>0.2309145656447239</v>
       </c>
-      <c r="AC249" s="19"/>
+      <c r="AC249" s="18"/>
     </row>
     <row r="250" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="14">
@@ -19507,19 +19507,19 @@
         <f t="shared" si="70"/>
         <v>32.754321179113028</v>
       </c>
-      <c r="M250" s="22">
+      <c r="M250" s="21">
         <f t="shared" si="71"/>
         <v>1.0546443072553259E-2</v>
       </c>
-      <c r="N250" s="22">
+      <c r="N250" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O250" s="22">
+      <c r="O250" s="21">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="P250" s="22">
+      <c r="P250" s="21">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -19587,19 +19587,19 @@
         <f t="shared" si="70"/>
         <v>33.468113852546686</v>
       </c>
-      <c r="M251" s="22">
+      <c r="M251" s="21">
         <f t="shared" si="71"/>
         <v>2.5793739132302027E-2</v>
       </c>
-      <c r="N251" s="22">
+      <c r="N251" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O251" s="22">
+      <c r="O251" s="21">
         <f t="shared" si="73"/>
         <v>6.1982848308529341E-2</v>
       </c>
-      <c r="P251" s="22">
+      <c r="P251" s="21">
         <f t="shared" si="74"/>
         <v>2.1565595788910402E-2</v>
       </c>
@@ -19663,19 +19663,19 @@
         <f t="shared" si="70"/>
         <v>33.202284972360154</v>
       </c>
-      <c r="M252" s="22">
+      <c r="M252" s="21">
         <f t="shared" si="71"/>
         <v>1.2518990332199975E-2</v>
       </c>
-      <c r="N252" s="22">
+      <c r="N252" s="21">
         <f t="shared" si="72"/>
         <v>-2.0534602441707864E-2</v>
       </c>
-      <c r="O252" s="22">
+      <c r="O252" s="21">
         <f t="shared" si="73"/>
         <v>1.2264749725021248E-2</v>
       </c>
-      <c r="P252" s="22">
+      <c r="P252" s="21">
         <f t="shared" si="74"/>
         <v>-7.9671289316228817E-3</v>
       </c>
@@ -19739,19 +19739,19 @@
         <f t="shared" si="70"/>
         <v>33.519868533590099</v>
       </c>
-      <c r="M253" s="22">
+      <c r="M253" s="21">
         <f t="shared" si="71"/>
         <v>3.9675005861328209E-2</v>
       </c>
-      <c r="N253" s="22">
+      <c r="N253" s="21">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="O253" s="22">
+      <c r="O253" s="21">
         <f t="shared" si="73"/>
         <v>2.6152765042456578E-2</v>
       </c>
-      <c r="P253" s="22">
+      <c r="P253" s="21">
         <f t="shared" si="74"/>
         <v>9.5269888605402434E-3</v>
       </c>
@@ -19815,19 +19815,19 @@
         <f t="shared" ref="L254:L257" si="89">+E254/G254</f>
         <v>33.454316275334229</v>
       </c>
-      <c r="M254" s="22">
+      <c r="M254" s="21">
         <f t="shared" ref="M254:P257" si="90">+LN(B254/B253)</f>
         <v>-5.3134813625759912E-2</v>
       </c>
-      <c r="N254" s="22">
+      <c r="N254" s="21">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="O254" s="22">
+      <c r="O254" s="21">
         <f t="shared" si="90"/>
         <v>7.4522935382701477E-3</v>
       </c>
-      <c r="P254" s="22">
+      <c r="P254" s="21">
         <f t="shared" si="90"/>
         <v>-1.9502053896020553E-3</v>
       </c>
@@ -19891,19 +19891,19 @@
         <f t="shared" si="89"/>
         <v>32.255924104757874</v>
       </c>
-      <c r="M255" s="22">
+      <c r="M255" s="21">
         <f t="shared" si="90"/>
         <v>-1.8268403015105603E-2</v>
       </c>
-      <c r="N255" s="22">
+      <c r="N255" s="21">
         <f t="shared" si="90"/>
         <v>8.2645098498934314E-3</v>
       </c>
-      <c r="O255" s="22">
+      <c r="O255" s="21">
         <f t="shared" si="90"/>
         <v>-1.4166148910975158E-2</v>
       </c>
-      <c r="P255" s="22">
+      <c r="P255" s="21">
         <f t="shared" si="90"/>
         <v>-3.6471762032388146E-2</v>
       </c>
@@ -19967,19 +19967,19 @@
         <f t="shared" si="89"/>
         <v>32.218071600887164</v>
       </c>
-      <c r="M256" s="22">
+      <c r="M256" s="21">
         <f t="shared" si="90"/>
         <v>-2.7298802874510277E-2</v>
       </c>
-      <c r="N256" s="22">
+      <c r="N256" s="21">
         <f t="shared" si="90"/>
         <v>4.1067819526535024E-3</v>
       </c>
-      <c r="O256" s="22">
+      <c r="O256" s="21">
         <f t="shared" si="90"/>
         <v>1.6839762557734811E-2</v>
       </c>
-      <c r="P256" s="22">
+      <c r="P256" s="21">
         <f t="shared" si="90"/>
         <v>-1.1668612759203323E-3</v>
       </c>
@@ -20043,19 +20043,19 @@
         <f t="shared" si="89"/>
         <v>32.194325532819406</v>
       </c>
-      <c r="M257" s="22">
+      <c r="M257" s="21">
         <f t="shared" si="90"/>
         <v>2.3693222493836912E-2</v>
       </c>
-      <c r="N257" s="22">
+      <c r="N257" s="21">
         <f t="shared" si="90"/>
         <v>4.0899852515250664E-3</v>
       </c>
-      <c r="O257" s="22">
+      <c r="O257" s="21">
         <f t="shared" si="90"/>
         <v>-8.7278521406521942E-3</v>
       </c>
-      <c r="P257" s="22">
+      <c r="P257" s="21">
         <f t="shared" si="90"/>
         <v>-7.2998032294757935E-4</v>
       </c>
@@ -20119,19 +20119,19 @@
         <f t="shared" ref="L258:L263" si="96">+E258/G258</f>
         <v>32.236406779628624</v>
       </c>
-      <c r="M258" s="22">
+      <c r="M258" s="21">
         <f t="shared" ref="M258:M263" si="97">+LN(B258/B257)</f>
         <v>-1.9546775486614684E-3</v>
       </c>
-      <c r="N258" s="22">
+      <c r="N258" s="21">
         <f t="shared" ref="N258:N263" si="98">+LN(C258/C257)</f>
         <v>2.0202707317519469E-2</v>
       </c>
-      <c r="O258" s="22">
+      <c r="O258" s="21">
         <f t="shared" ref="O258:O263" si="99">+LN(D258/D257)</f>
         <v>-5.4941376218979834E-2</v>
       </c>
-      <c r="P258" s="22">
+      <c r="P258" s="21">
         <f t="shared" ref="P258:P263" si="100">+LN(E258/E257)</f>
         <v>1.3135811565527494E-3</v>
       </c>
@@ -20195,19 +20195,19 @@
         <f t="shared" si="96"/>
         <v>32.264381732031829</v>
       </c>
-      <c r="M259" s="22">
+      <c r="M259" s="21">
         <f t="shared" si="97"/>
         <v>2.112116181286005E-2</v>
       </c>
-      <c r="N259" s="22">
+      <c r="N259" s="21">
         <f t="shared" si="98"/>
         <v>-8.0321716972642666E-3</v>
       </c>
-      <c r="O259" s="22">
+      <c r="O259" s="21">
         <f t="shared" si="99"/>
         <v>2.8987719804136131E-2</v>
       </c>
-      <c r="P259" s="22">
+      <c r="P259" s="21">
         <f t="shared" si="100"/>
         <v>8.7476314077940091E-4</v>
       </c>
@@ -20271,19 +20271,19 @@
         <f t="shared" si="96"/>
         <v>32.07136897700579</v>
       </c>
-      <c r="M260" s="22">
+      <c r="M260" s="21">
         <f t="shared" si="97"/>
         <v>4.0306607269032693E-2</v>
       </c>
-      <c r="N260" s="22">
+      <c r="N260" s="21">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="O260" s="22">
+      <c r="O260" s="21">
         <f t="shared" si="99"/>
         <v>-1.0592353511567803E-2</v>
       </c>
-      <c r="P260" s="22">
+      <c r="P260" s="21">
         <f t="shared" si="100"/>
         <v>-5.9928557636758041E-3</v>
       </c>
@@ -20347,19 +20347,19 @@
         <f t="shared" si="96"/>
         <v>31.80312988517527</v>
       </c>
-      <c r="M261" s="22">
+      <c r="M261" s="21">
         <f t="shared" si="97"/>
         <v>-7.4660765644215012E-3</v>
       </c>
-      <c r="N261" s="22">
+      <c r="N261" s="21">
         <f t="shared" si="98"/>
         <v>-1.2170535620255179E-2</v>
       </c>
-      <c r="O261" s="22">
+      <c r="O261" s="21">
         <f t="shared" si="99"/>
         <v>-2.8160502676789722E-2</v>
       </c>
-      <c r="P261" s="22">
+      <c r="P261" s="21">
         <f t="shared" si="100"/>
         <v>-8.3916576362482887E-3</v>
       </c>
@@ -20423,19 +20423,19 @@
         <f t="shared" si="96"/>
         <v>31.469069688316825</v>
       </c>
-      <c r="M262" s="22">
+      <c r="M262" s="21">
         <f t="shared" si="97"/>
         <v>4.6087425270128053E-2</v>
       </c>
-      <c r="N262" s="22">
+      <c r="N262" s="21">
         <f t="shared" si="98"/>
         <v>8.1301260832503091E-3</v>
       </c>
-      <c r="O262" s="22">
+      <c r="O262" s="21">
         <f t="shared" si="99"/>
         <v>-4.6111257093515268E-2</v>
       </c>
-      <c r="P262" s="22">
+      <c r="P262" s="21">
         <f t="shared" si="100"/>
         <v>-1.0552226917828606E-2</v>
       </c>
@@ -20499,19 +20499,19 @@
         <f t="shared" si="96"/>
         <v>31.515856455937758</v>
       </c>
-      <c r="M263" s="22">
+      <c r="M263" s="21">
         <f t="shared" si="97"/>
         <v>-2.3687618543614401E-2</v>
       </c>
-      <c r="N263" s="22">
+      <c r="N263" s="21">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="O263" s="22">
+      <c r="O263" s="21">
         <f t="shared" si="99"/>
         <v>1.0282547629892043E-2</v>
       </c>
-      <c r="P263" s="22">
+      <c r="P263" s="21">
         <f t="shared" si="100"/>
         <v>1.4929832573154871E-3</v>
       </c>
@@ -20575,19 +20575,19 @@
         <f t="shared" ref="L264" si="110">+E264/G264</f>
         <v>31.529730499653358</v>
       </c>
-      <c r="M264" s="22">
+      <c r="M264" s="21">
         <f t="shared" ref="M264" si="111">+LN(B264/B263)</f>
         <v>3.8022072329813437E-2</v>
       </c>
-      <c r="N264" s="22">
+      <c r="N264" s="21">
         <f t="shared" ref="N264" si="112">+LN(C264/C263)</f>
         <v>0</v>
       </c>
-      <c r="O264" s="22">
+      <c r="O264" s="21">
         <f t="shared" ref="O264" si="113">+LN(D264/D263)</f>
         <v>3.2148909921005039E-2</v>
       </c>
-      <c r="P264" s="22">
+      <c r="P264" s="21">
         <f t="shared" ref="P264" si="114">+LN(E264/E263)</f>
         <v>4.474606682161615E-4</v>
       </c>
@@ -20651,19 +20651,19 @@
         <f t="shared" ref="L265" si="124">+E265/G265</f>
         <v>31.040524048401863</v>
       </c>
-      <c r="M265" s="22">
+      <c r="M265" s="21">
         <f t="shared" ref="M265" si="125">+LN(B265/B264)</f>
         <v>-2.2108748257031394E-2</v>
       </c>
-      <c r="N265" s="22">
+      <c r="N265" s="21">
         <f t="shared" ref="N265" si="126">+LN(C265/C264)</f>
         <v>0</v>
       </c>
-      <c r="O265" s="22">
+      <c r="O265" s="21">
         <f t="shared" ref="O265" si="127">+LN(D265/D264)</f>
         <v>2.3102506255507291E-2</v>
       </c>
-      <c r="P265" s="22">
+      <c r="P265" s="21">
         <f t="shared" ref="P265" si="128">+LN(E265/E264)</f>
         <v>-1.5630014613035596E-2</v>
       </c>
@@ -20727,19 +20727,19 @@
         <f t="shared" ref="L266:L272" si="138">+E266/G266</f>
         <v>30.932158458703856</v>
       </c>
-      <c r="M266" s="22">
+      <c r="M266" s="21">
         <f t="shared" ref="M266:M272" si="139">+LN(B266/B265)</f>
         <v>2.958387663327274E-3</v>
       </c>
-      <c r="N266" s="22">
+      <c r="N266" s="21">
         <f t="shared" ref="N266:N272" si="140">+LN(C266/C265)</f>
         <v>4.0404095370049058E-3</v>
       </c>
-      <c r="O266" s="22">
+      <c r="O266" s="21">
         <f t="shared" ref="O266:O272" si="141">+LN(D266/D265)</f>
         <v>-2.1069699231050589E-2</v>
       </c>
-      <c r="P266" s="22">
+      <c r="P266" s="21">
         <f t="shared" ref="P266:P272" si="142">+LN(E266/E265)</f>
         <v>-3.4898753271403187E-3</v>
       </c>
@@ -20803,19 +20803,19 @@
         <f t="shared" si="138"/>
         <v>31.002455864458973</v>
       </c>
-      <c r="M267" s="22">
+      <c r="M267" s="21">
         <f t="shared" si="139"/>
         <v>8.2317874601104332E-3</v>
       </c>
-      <c r="N267" s="22">
+      <c r="N267" s="21">
         <f t="shared" si="140"/>
         <v>0</v>
       </c>
-      <c r="O267" s="22">
+      <c r="O267" s="21">
         <f t="shared" si="141"/>
         <v>-2.2719721446080469E-2</v>
       </c>
-      <c r="P267" s="22">
+      <c r="P267" s="21">
         <f t="shared" si="142"/>
         <v>2.2773865456783243E-3</v>
       </c>
@@ -20879,19 +20879,19 @@
         <f t="shared" si="138"/>
         <v>30.865882650837055</v>
       </c>
-      <c r="M268" s="22">
+      <c r="M268" s="21">
         <f t="shared" si="139"/>
         <v>-2.6407482645200955E-2</v>
       </c>
-      <c r="N268" s="22">
+      <c r="N268" s="21">
         <f t="shared" si="140"/>
         <v>-8.0972102326193618E-3</v>
       </c>
-      <c r="O268" s="22">
+      <c r="O268" s="21">
         <f t="shared" si="141"/>
         <v>-5.0751513219231631E-2</v>
       </c>
-      <c r="P268" s="22">
+      <c r="P268" s="21">
         <f t="shared" si="142"/>
         <v>-4.4076368947796258E-3</v>
       </c>
@@ -20955,19 +20955,19 @@
         <f t="shared" si="138"/>
         <v>31.260586253870486</v>
       </c>
-      <c r="M269" s="22">
+      <c r="M269" s="21">
         <f t="shared" si="139"/>
         <v>-7.4251581811635974E-3</v>
       </c>
-      <c r="N269" s="22">
+      <c r="N269" s="21">
         <f t="shared" si="140"/>
         <v>0</v>
       </c>
-      <c r="O269" s="22">
+      <c r="O269" s="21">
         <f t="shared" si="141"/>
         <v>-1.4236694174907284E-3</v>
       </c>
-      <c r="P269" s="22">
+      <c r="P269" s="21">
         <f t="shared" si="142"/>
         <v>1.2713959665558314E-2</v>
       </c>
@@ -21031,19 +21031,19 @@
         <f t="shared" si="138"/>
         <v>31.31207364942253</v>
       </c>
-      <c r="M270" s="22">
+      <c r="M270" s="21">
         <f t="shared" si="139"/>
         <v>2.312607778332515E-2</v>
       </c>
-      <c r="N270" s="22">
+      <c r="N270" s="21">
         <f t="shared" si="140"/>
         <v>-8.1633106391609811E-3</v>
       </c>
-      <c r="O270" s="22">
+      <c r="O270" s="21">
         <f t="shared" si="141"/>
         <v>4.406548294327356E-2</v>
       </c>
-      <c r="P270" s="22">
+      <c r="P270" s="21">
         <f t="shared" si="142"/>
         <v>1.6530171319798143E-3</v>
       </c>
@@ -21107,19 +21107,19 @@
         <f t="shared" si="138"/>
         <v>31.36356028815058</v>
       </c>
-      <c r="M271" s="22">
+      <c r="M271" s="21">
         <f t="shared" si="139"/>
         <v>9.90314539226529E-3</v>
       </c>
-      <c r="N271" s="22">
+      <c r="N271" s="21">
         <f t="shared" si="140"/>
         <v>0</v>
       </c>
-      <c r="O271" s="22">
+      <c r="O271" s="21">
         <f t="shared" si="141"/>
         <v>2.0982812455077736E-2</v>
       </c>
-      <c r="P271" s="22">
+      <c r="P271" s="21">
         <f t="shared" si="142"/>
         <v>1.650289175080543E-3</v>
       </c>
@@ -21183,67 +21183,67 @@
         <f t="shared" si="138"/>
         <v>31.241092756669925</v>
       </c>
-      <c r="M272" s="22">
+      <c r="M272" s="21">
         <f t="shared" si="139"/>
         <v>-2.2496573933432754E-2</v>
       </c>
-      <c r="N272" s="22">
+      <c r="N272" s="21">
         <f t="shared" si="140"/>
         <v>0</v>
       </c>
-      <c r="O272" s="22">
+      <c r="O272" s="21">
         <f t="shared" si="141"/>
         <v>-1.3427808481598708E-2</v>
       </c>
-      <c r="P272" s="22">
+      <c r="P272" s="21">
         <f t="shared" si="142"/>
         <v>-3.9050815621696142E-3</v>
       </c>
-      <c r="Q272" s="19">
+      <c r="Q272" s="18">
         <f t="shared" si="143"/>
         <v>2.7780840247965493E-2</v>
       </c>
-      <c r="R272" s="19">
+      <c r="R272" s="18">
         <f t="shared" si="144"/>
         <v>6.9949558265587656E-3</v>
       </c>
-      <c r="S272" s="19">
+      <c r="S272" s="18">
         <f t="shared" si="145"/>
         <v>2.8810434875523906E-2</v>
       </c>
-      <c r="T272" s="19">
+      <c r="T272" s="18">
         <f t="shared" si="146"/>
         <v>1.0074045462583243E-2</v>
       </c>
-      <c r="U272" s="19">
+      <c r="U272" s="18">
         <f>SUM(M251:M272)</f>
         <v>8.1189267611627647E-2</v>
       </c>
-      <c r="V272" s="19">
+      <c r="V272" s="18">
         <f t="shared" ref="V272" si="147">SUM(N251:N272)</f>
         <v>-8.1633106391609672E-3</v>
       </c>
-      <c r="W272" s="19">
+      <c r="W272" s="18">
         <f t="shared" ref="W272" si="148">SUM(O251:O272)</f>
         <v>1.217049583297181E-2</v>
       </c>
-      <c r="X272" s="19">
+      <c r="X272" s="18">
         <f t="shared" ref="X272" si="149">SUM(P251:P272)</f>
         <v>-4.7139261276747425E-2</v>
       </c>
-      <c r="Y272" s="19">
+      <c r="Y272" s="18">
         <f t="shared" ref="Y272" si="150">SUM(Q251:Q272)</f>
         <v>0.62489379405292411</v>
       </c>
-      <c r="Z272" s="19">
+      <c r="Z272" s="18">
         <f t="shared" ref="Z272" si="151">SUM(R251:R272)</f>
         <v>0.26383976020155558</v>
       </c>
-      <c r="AA272" s="19">
+      <c r="AA272" s="18">
         <f t="shared" ref="AA272" si="152">SUM(S251:S272)</f>
         <v>0.6029191320942946</v>
       </c>
-      <c r="AB272" s="19">
+      <c r="AB272" s="18">
         <f t="shared" ref="AB272" si="153">SUM(T251:T272)</f>
         <v>0.27301263152702265</v>
       </c>
@@ -21291,19 +21291,19 @@
         <f t="shared" ref="L273" si="159">+E273/G273</f>
         <v>30.89295938152533</v>
       </c>
-      <c r="M273" s="22">
+      <c r="M273" s="21">
         <f t="shared" ref="M273" si="160">+LN(B273/B272)</f>
         <v>-9.8130994870594748E-3</v>
       </c>
-      <c r="N273" s="22">
+      <c r="N273" s="21">
         <f t="shared" ref="N273" si="161">+LN(C273/C272)</f>
         <v>0</v>
       </c>
-      <c r="O273" s="22">
+      <c r="O273" s="21">
         <f t="shared" ref="O273" si="162">+LN(D273/D272)</f>
         <v>-3.1900613340120697E-2</v>
       </c>
-      <c r="P273" s="22">
+      <c r="P273" s="21">
         <f t="shared" ref="P273" si="163">+LN(E273/E272)</f>
         <v>-1.1198664249477939E-2</v>
       </c>
@@ -21367,19 +21367,19 @@
         <f t="shared" ref="L274:L279" si="173">+E274/G274</f>
         <v>30.709379223420736</v>
       </c>
-      <c r="M274" s="22">
+      <c r="M274" s="21">
         <f t="shared" ref="M274:M279" si="174">+LN(B274/B273)</f>
         <v>-3.5467878043435243E-2</v>
       </c>
-      <c r="N274" s="22">
+      <c r="N274" s="21">
         <f t="shared" ref="N274:N279" si="175">+LN(C274/C273)</f>
         <v>0</v>
       </c>
-      <c r="O274" s="22">
+      <c r="O274" s="21">
         <f t="shared" ref="O274:O279" si="176">+LN(D274/D273)</f>
         <v>1.5780164553697403E-2</v>
       </c>
-      <c r="P274" s="22">
+      <c r="P274" s="21">
         <f t="shared" ref="P274:P279" si="177">+LN(E274/E273)</f>
         <v>-5.9528528075121056E-3</v>
       </c>
@@ -21443,19 +21443,19 @@
         <f t="shared" si="173"/>
         <v>30.568113817718743</v>
       </c>
-      <c r="M275" s="22">
+      <c r="M275" s="21">
         <f t="shared" si="174"/>
         <v>-1.2919997043715541E-2</v>
       </c>
-      <c r="N275" s="22">
+      <c r="N275" s="21">
         <f t="shared" si="175"/>
         <v>-4.1067819526533593E-3</v>
       </c>
-      <c r="O275" s="22">
+      <c r="O275" s="21">
         <f t="shared" si="176"/>
         <v>-1.8368716640495109E-2</v>
       </c>
-      <c r="P275" s="22">
+      <c r="P275" s="21">
         <f t="shared" si="177"/>
         <v>-4.6033532265050163E-3</v>
       </c>
@@ -21519,19 +21519,19 @@
         <f t="shared" si="173"/>
         <v>30.765344492551872</v>
       </c>
-      <c r="M276" s="22">
+      <c r="M276" s="21">
         <f t="shared" si="174"/>
         <v>-2.2928568294175298E-4</v>
       </c>
-      <c r="N276" s="22">
+      <c r="N276" s="21">
         <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="O276" s="22">
+      <c r="O276" s="21">
         <f t="shared" si="176"/>
         <v>1.0346601383235001E-2</v>
       </c>
-      <c r="P276" s="22">
+      <c r="P276" s="21">
         <f t="shared" si="177"/>
         <v>6.4387774187324642E-3</v>
       </c>
@@ -21595,19 +21595,19 @@
         <f t="shared" si="173"/>
         <v>30.581769304002993</v>
       </c>
-      <c r="M277" s="22">
+      <c r="M277" s="21">
         <f t="shared" si="174"/>
         <v>-6.6496694004302488E-4</v>
       </c>
-      <c r="N277" s="22">
+      <c r="N277" s="21">
         <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="O277" s="22">
+      <c r="O277" s="21">
         <f t="shared" si="176"/>
         <v>-3.5411582114624529E-2</v>
       </c>
-      <c r="P277" s="22">
+      <c r="P277" s="21">
         <f t="shared" si="177"/>
         <v>-5.9774873359773164E-3</v>
       </c>
@@ -21671,19 +21671,19 @@
         <f t="shared" si="173"/>
         <v>30.393495569468868</v>
       </c>
-      <c r="M278" s="22">
+      <c r="M278" s="21">
         <f t="shared" si="174"/>
         <v>9.367246272332614E-3</v>
       </c>
-      <c r="N278" s="22">
+      <c r="N278" s="21">
         <f t="shared" si="175"/>
         <v>-8.2645098498934245E-3</v>
       </c>
-      <c r="O278" s="22">
+      <c r="O278" s="21">
         <f t="shared" si="176"/>
         <v>-1.0405793025991133E-2</v>
       </c>
-      <c r="P278" s="22">
+      <c r="P278" s="21">
         <f t="shared" si="177"/>
         <v>-6.1680997406476611E-3</v>
       </c>
@@ -21747,19 +21747,19 @@
         <f t="shared" si="173"/>
         <v>30.388571483207766</v>
       </c>
-      <c r="M279" s="22">
+      <c r="M279" s="21">
         <f t="shared" si="174"/>
         <v>-1.7497872997852448E-2</v>
       </c>
-      <c r="N279" s="22">
+      <c r="N279" s="21">
         <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="O279" s="22">
+      <c r="O279" s="21">
         <f t="shared" si="176"/>
         <v>-5.0515183464586236E-2</v>
       </c>
-      <c r="P279" s="22">
+      <c r="P279" s="21">
         <f t="shared" si="177"/>
         <v>-1.5469100502658059E-4</v>
       </c>
@@ -21823,19 +21823,19 @@
         <f t="shared" ref="L280:L283" si="187">+E280/G280</f>
         <v>30.524906349082308</v>
       </c>
-      <c r="M280" s="22">
+      <c r="M280" s="21">
         <f t="shared" ref="M280:M283" si="188">+LN(B280/B279)</f>
         <v>2.208831904054007E-2</v>
       </c>
-      <c r="N280" s="22">
+      <c r="N280" s="21">
         <f t="shared" ref="N280:N283" si="189">+LN(C280/C279)</f>
         <v>4.1407926660313871E-3</v>
       </c>
-      <c r="O280" s="22">
+      <c r="O280" s="21">
         <f t="shared" ref="O280:O283" si="190">+LN(D280/D279)</f>
         <v>5.3857928579157327E-3</v>
       </c>
-      <c r="P280" s="22">
+      <c r="P280" s="21">
         <f t="shared" ref="P280:P283" si="191">+LN(E280/E279)</f>
         <v>4.4763523075555455E-3</v>
       </c>
@@ -21899,19 +21899,19 @@
         <f t="shared" si="187"/>
         <v>30.825783294460596</v>
       </c>
-      <c r="M281" s="22">
+      <c r="M281" s="21">
         <f t="shared" si="188"/>
         <v>-1.2976293866793016E-2</v>
       </c>
-      <c r="N281" s="22">
+      <c r="N281" s="21">
         <f t="shared" si="189"/>
         <v>8.2304991365154435E-3</v>
       </c>
-      <c r="O281" s="22">
+      <c r="O281" s="21">
         <f t="shared" si="190"/>
         <v>2.9271055338025896E-2</v>
       </c>
-      <c r="P281" s="22">
+      <c r="P281" s="21">
         <f t="shared" si="191"/>
         <v>9.8085077551323518E-3</v>
       </c>
@@ -21975,19 +21975,19 @@
         <f t="shared" si="187"/>
         <v>30.910404935348243</v>
       </c>
-      <c r="M282" s="22">
+      <c r="M282" s="21">
         <f t="shared" si="188"/>
         <v>9.1185616288482069E-3</v>
       </c>
-      <c r="N282" s="22">
+      <c r="N282" s="21">
         <f t="shared" si="189"/>
         <v>4.0899852515250664E-3</v>
       </c>
-      <c r="O282" s="22">
+      <c r="O282" s="21">
         <f t="shared" si="190"/>
         <v>1.4191791679406436E-2</v>
       </c>
-      <c r="P282" s="22">
+      <c r="P282" s="21">
         <f t="shared" si="191"/>
         <v>2.7413967823459559E-3</v>
       </c>
@@ -22051,19 +22051,19 @@
         <f t="shared" si="187"/>
         <v>30.477894326366943</v>
       </c>
-      <c r="M283" s="22">
+      <c r="M283" s="21">
         <f t="shared" si="188"/>
         <v>-1.7959597972098652E-2</v>
       </c>
-      <c r="N283" s="22">
+      <c r="N283" s="21">
         <f t="shared" si="189"/>
         <v>-4.0899852515251661E-3</v>
       </c>
-      <c r="O283" s="22">
+      <c r="O283" s="21">
         <f t="shared" si="190"/>
         <v>-5.7408780507675013E-2</v>
       </c>
-      <c r="P283" s="22">
+      <c r="P283" s="21">
         <f t="shared" si="191"/>
         <v>-1.409121187096966E-2</v>
       </c>
@@ -22127,19 +22127,19 @@
         <f t="shared" ref="L284:L285" si="201">+E284/G284</f>
         <v>30.614004689550637</v>
       </c>
-      <c r="M284" s="22">
+      <c r="M284" s="21">
         <f t="shared" ref="M284:M285" si="202">+LN(B284/B283)</f>
         <v>-2.444477918319947E-3</v>
       </c>
-      <c r="N284" s="22">
+      <c r="N284" s="21">
         <f t="shared" ref="N284:N285" si="203">+LN(C284/C283)</f>
         <v>1.2220111334775397E-2</v>
       </c>
-      <c r="O284" s="22">
+      <c r="O284" s="21">
         <f t="shared" ref="O284:O285" si="204">+LN(D284/D283)</f>
         <v>5.9224599890071714E-2</v>
       </c>
-      <c r="P284" s="22">
+      <c r="P284" s="21">
         <f t="shared" ref="P284:P285" si="205">+LN(E284/E283)</f>
         <v>4.4632625073807632E-3</v>
       </c>
@@ -22203,19 +22203,19 @@
         <f t="shared" si="201"/>
         <v>30.392826922403582</v>
       </c>
-      <c r="M285" s="22">
+      <c r="M285" s="21">
         <f t="shared" si="202"/>
         <v>1.0580678122833191E-2</v>
       </c>
-      <c r="N285" s="22">
+      <c r="N285" s="21">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="O285" s="22">
+      <c r="O285" s="21">
         <f t="shared" si="204"/>
         <v>4.1115747642365653E-3</v>
       </c>
-      <c r="P285" s="22">
+      <c r="P285" s="21">
         <f t="shared" si="205"/>
         <v>-7.2436164764183315E-3</v>
       </c>
@@ -22279,19 +22279,19 @@
         <f t="shared" ref="L286:L289" si="215">+E286/G286</f>
         <v>30.486626020249538</v>
       </c>
-      <c r="M286" s="22">
+      <c r="M286" s="21">
         <f t="shared" ref="M286:M289" si="216">+LN(B286/B285)</f>
         <v>1.8248261139728605E-2</v>
       </c>
-      <c r="N286" s="22">
+      <c r="N286" s="21">
         <f t="shared" ref="N286:N289" si="217">+LN(C286/C285)</f>
         <v>-8.1301260832501755E-3</v>
       </c>
-      <c r="O286" s="22">
+      <c r="O286" s="21">
         <f t="shared" ref="O286:O289" si="218">+LN(D286/D285)</f>
         <v>3.5920068547978545E-3</v>
       </c>
-      <c r="P286" s="22">
+      <c r="P286" s="21">
         <f t="shared" ref="P286:P289" si="219">+LN(E286/E285)</f>
         <v>3.0888055445861999E-3</v>
       </c>
@@ -22355,19 +22355,19 @@
         <f t="shared" si="215"/>
         <v>30.39238116586564</v>
       </c>
-      <c r="M287" s="22">
+      <c r="M287" s="21">
         <f t="shared" si="216"/>
         <v>-2.2714087618250247E-2</v>
       </c>
-      <c r="N287" s="22">
+      <c r="N287" s="21">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="O287" s="22">
+      <c r="O287" s="21">
         <f t="shared" si="218"/>
         <v>-1.913959676707435E-2</v>
       </c>
-      <c r="P287" s="22">
+      <c r="P287" s="21">
         <f t="shared" si="219"/>
         <v>-3.0888055445862563E-3</v>
       </c>
@@ -22431,19 +22431,19 @@
         <f t="shared" si="215"/>
         <v>30.415663439537909</v>
       </c>
-      <c r="M288" s="22">
+      <c r="M288" s="21">
         <f t="shared" si="216"/>
         <v>4.6933374427716298E-3</v>
       </c>
-      <c r="N288" s="22">
+      <c r="N288" s="21">
         <f t="shared" si="217"/>
         <v>4.0733253876358688E-3</v>
       </c>
-      <c r="O288" s="22">
+      <c r="O288" s="21">
         <f t="shared" si="218"/>
         <v>-6.8454542121415898E-3</v>
       </c>
-      <c r="P288" s="22">
+      <c r="P288" s="21">
         <f t="shared" si="219"/>
         <v>7.7309628898845494E-4</v>
       </c>
@@ -22507,19 +22507,19 @@
         <f t="shared" si="215"/>
         <v>30.274410530266536</v>
       </c>
-      <c r="M289" s="22">
+      <c r="M289" s="21">
         <f t="shared" si="216"/>
         <v>-8.5250392026426827E-2</v>
       </c>
-      <c r="N289" s="22">
+      <c r="N289" s="21">
         <f t="shared" si="217"/>
         <v>8.0972102326193028E-3</v>
       </c>
-      <c r="O289" s="22">
+      <c r="O289" s="21">
         <f t="shared" si="218"/>
         <v>-2.8287267029861264E-2</v>
       </c>
-      <c r="P289" s="22">
+      <c r="P289" s="21">
         <f t="shared" si="219"/>
         <v>-4.6475683965468513E-3</v>
       </c>
@@ -22560,59 +22560,59 @@
         <v>212.72246474381882</v>
       </c>
       <c r="G290" s="6">
-        <f t="shared" ref="G290:G292" si="224">+F290/$U$1</f>
+        <f t="shared" ref="G290:G298" si="224">+F290/$U$1</f>
         <v>2.1272246474381884</v>
       </c>
       <c r="H290" s="2">
-        <f t="shared" ref="H290:H292" si="225">+B290/G290</f>
+        <f t="shared" ref="H290:H298" si="225">+B290/G290</f>
         <v>41714.52700440678</v>
       </c>
       <c r="I290">
-        <f t="shared" ref="I290:I292" si="226">+C290/G290</f>
+        <f t="shared" ref="I290:I298" si="226">+C290/G290</f>
         <v>582.91915783005288</v>
       </c>
       <c r="J290">
-        <f t="shared" ref="J290:J292" si="227">+D290/F290</f>
+        <f t="shared" ref="J290:J298" si="227">+D290/F290</f>
         <v>10694.860097356534</v>
       </c>
       <c r="K290">
-        <f t="shared" ref="K290:K292" si="228">+D290/C290/G290</f>
+        <f t="shared" ref="K290:K298" si="228">+D290/C290/G290</f>
         <v>862.48871752875266</v>
       </c>
       <c r="L290">
-        <f t="shared" ref="L290:L292" si="229">+E290/G290</f>
+        <f t="shared" ref="L290:L298" si="229">+E290/G290</f>
         <v>30.264786597660326</v>
       </c>
-      <c r="M290" s="22">
-        <f t="shared" ref="M290:M292" si="230">+LN(B290/B289)</f>
+      <c r="M290" s="21">
+        <f t="shared" ref="M290:M298" si="230">+LN(B290/B289)</f>
         <v>5.6949028440107926E-4</v>
       </c>
-      <c r="N290" s="22">
-        <f t="shared" ref="N290:N292" si="231">+LN(C290/C289)</f>
+      <c r="N290" s="21">
+        <f t="shared" ref="N290:N298" si="231">+LN(C290/C289)</f>
         <v>0</v>
       </c>
-      <c r="O290" s="22">
-        <f t="shared" ref="O290:O292" si="232">+LN(D290/D289)</f>
+      <c r="O290" s="21">
+        <f t="shared" ref="O290:O298" si="232">+LN(D290/D289)</f>
         <v>-3.4498105270733279E-3</v>
       </c>
-      <c r="P290" s="22">
-        <f t="shared" ref="P290:P292" si="233">+LN(E290/E289)</f>
+      <c r="P290" s="21">
+        <f t="shared" ref="P290:P298" si="233">+LN(E290/E289)</f>
         <v>-3.1060723964599913E-4</v>
       </c>
       <c r="Q290" s="8">
-        <f t="shared" ref="Q290:Q292" si="234">+_xlfn.STDEV.S(M271:M290)</f>
+        <f t="shared" ref="Q290:Q298" si="234">+_xlfn.STDEV.S(M271:M290)</f>
         <v>2.3646391042403681E-2</v>
       </c>
       <c r="R290" s="8">
-        <f t="shared" ref="R290:R292" si="235">+_xlfn.STDEV.S(N271:N290)</f>
+        <f t="shared" ref="R290:R298" si="235">+_xlfn.STDEV.S(N271:N290)</f>
         <v>5.0673238924963141E-3</v>
       </c>
       <c r="S290" s="8">
-        <f t="shared" ref="S290:S292" si="236">+_xlfn.STDEV.S(O271:O290)</f>
+        <f t="shared" ref="S290:S298" si="236">+_xlfn.STDEV.S(O271:O290)</f>
         <v>2.7872898557780267E-2</v>
       </c>
       <c r="T290" s="8">
-        <f t="shared" ref="T290:T292" si="237">+_xlfn.STDEV.S(P271:P290)</f>
+        <f t="shared" ref="T290:T298" si="237">+_xlfn.STDEV.S(P271:P290)</f>
         <v>6.043224080213583E-3</v>
       </c>
     </row>
@@ -22659,19 +22659,19 @@
         <f t="shared" si="229"/>
         <v>30.13293871617967</v>
       </c>
-      <c r="M291" s="22">
+      <c r="M291" s="21">
         <f t="shared" si="230"/>
         <v>-5.0728105845172386E-2</v>
       </c>
-      <c r="N291" s="22">
+      <c r="N291" s="21">
         <f t="shared" si="231"/>
         <v>-8.0972102326193618E-3</v>
       </c>
-      <c r="O291" s="22">
+      <c r="O291" s="21">
         <f t="shared" si="232"/>
         <v>-3.6426301835894168E-2</v>
       </c>
-      <c r="P291" s="22">
+      <c r="P291" s="21">
         <f t="shared" si="233"/>
         <v>-4.3586619440377462E-3</v>
       </c>
@@ -22735,95 +22735,543 @@
         <f t="shared" si="229"/>
         <v>30.038699902854734</v>
       </c>
-      <c r="M292" s="22">
+      <c r="M292" s="21">
         <f t="shared" si="230"/>
         <v>3.0808434784601547E-4</v>
       </c>
-      <c r="N292" s="22">
+      <c r="N292" s="21">
         <f t="shared" si="231"/>
         <v>-4.0733253876357864E-3</v>
       </c>
-      <c r="O292" s="22">
+      <c r="O292" s="21">
         <f t="shared" si="232"/>
         <v>5.5206940690349978E-3</v>
       </c>
-      <c r="P292" s="22">
+      <c r="P292" s="21">
         <f t="shared" si="233"/>
         <v>-3.1250025431351662E-3</v>
       </c>
-      <c r="Q292" s="19">
+      <c r="Q292" s="18">
         <f t="shared" si="234"/>
         <v>2.5059952649431536E-2</v>
       </c>
-      <c r="R292" s="19">
+      <c r="R292" s="18">
         <f t="shared" si="235"/>
         <v>5.5365687571284445E-3</v>
       </c>
-      <c r="S292" s="19">
+      <c r="S292" s="18">
         <f t="shared" si="236"/>
         <v>2.8090142190092104E-2</v>
       </c>
-      <c r="T292" s="19">
+      <c r="T292" s="18">
         <f t="shared" si="237"/>
         <v>6.0069578250015864E-3</v>
       </c>
-      <c r="U292" s="19">
+      <c r="U292" s="18">
         <f>SUM(M271:M292)</f>
         <v>-0.20628550570397458</v>
       </c>
-      <c r="V292" s="19">
+      <c r="V292" s="18">
         <f t="shared" ref="V292" si="238">SUM(N271:N292)</f>
         <v>4.0899852515251947E-3</v>
       </c>
-      <c r="W292" s="19">
+      <c r="W292" s="18">
         <f t="shared" ref="W292" si="239">SUM(O271:O292)</f>
         <v>-0.14317981410163677</v>
       </c>
-      <c r="X292" s="19">
+      <c r="X292" s="18">
         <f t="shared" ref="X292" si="240">SUM(P271:P292)</f>
         <v>-4.1385216162853962E-2</v>
       </c>
-      <c r="Y292" s="19">
+      <c r="Y292" s="18">
         <f t="shared" ref="Y292" si="241">SUM(Q271:Q292)</f>
         <v>0.48586304628814148</v>
       </c>
-      <c r="Z292" s="19">
+      <c r="Z292" s="18">
         <f t="shared" ref="Z292" si="242">SUM(R271:R292)</f>
         <v>0.12450486376411361</v>
       </c>
-      <c r="AA292" s="19">
+      <c r="AA292" s="18">
         <f t="shared" ref="AA292" si="243">SUM(S271:S292)</f>
         <v>0.641946244709794</v>
       </c>
-      <c r="AB292" s="19">
+      <c r="AB292" s="18">
         <f t="shared" ref="AB292" si="244">SUM(T271:T292)</f>
         <v>0.15885432933623747</v>
       </c>
-      <c r="AC292" s="19">
+      <c r="AC292" s="18">
         <f t="shared" ref="AC292" si="245">SUM(U271:U292)</f>
         <v>-0.12509623809234693</v>
       </c>
     </row>
     <row r="293" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="14"/>
+      <c r="A293" s="14">
+        <v>45721</v>
+      </c>
+      <c r="B293" s="22">
+        <v>93623.56</v>
+      </c>
+      <c r="C293" s="22">
+        <v>1230</v>
+      </c>
+      <c r="D293" s="22">
+        <v>2290050</v>
+      </c>
+      <c r="E293" s="22">
+        <v>65.53</v>
+      </c>
+      <c r="F293">
+        <v>212.88158343961084</v>
+      </c>
+      <c r="G293" s="6">
+        <f t="shared" si="224"/>
+        <v>2.1288158343961086</v>
+      </c>
+      <c r="H293" s="2">
+        <f t="shared" si="225"/>
+        <v>43979.173062924274</v>
+      </c>
+      <c r="I293">
+        <f t="shared" si="226"/>
+        <v>577.78600672092432</v>
+      </c>
+      <c r="J293">
+        <f t="shared" si="227"/>
+        <v>10757.388981229697</v>
+      </c>
+      <c r="K293">
+        <f t="shared" si="228"/>
+        <v>874.58447001867444</v>
+      </c>
+      <c r="L293">
+        <f t="shared" si="229"/>
+        <v>30.782371561318836</v>
+      </c>
+      <c r="M293" s="8">
+        <f t="shared" si="230"/>
+        <v>0.10403449748238534</v>
+      </c>
+      <c r="N293" s="8">
+        <f t="shared" si="231"/>
+        <v>4.0733253876358688E-3</v>
+      </c>
+      <c r="O293" s="8">
+        <f t="shared" si="232"/>
+        <v>3.7482943148858784E-2</v>
+      </c>
+      <c r="P293" s="8">
+        <f t="shared" si="233"/>
+        <v>2.5188691667916371E-2</v>
+      </c>
+      <c r="Q293" s="8">
+        <f t="shared" si="234"/>
+        <v>3.5700491697061743E-2</v>
+      </c>
+      <c r="R293" s="8">
+        <f t="shared" si="235"/>
+        <v>5.6031695687054853E-3</v>
+      </c>
+      <c r="S293" s="8">
+        <f t="shared" si="236"/>
+        <v>2.9185915360775853E-2</v>
+      </c>
+      <c r="T293" s="8">
+        <f t="shared" si="237"/>
+        <v>8.1783755080545983E-3</v>
+      </c>
     </row>
     <row r="294" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="14"/>
-      <c r="D294" s="18"/>
-      <c r="H294" s="7"/>
+      <c r="A294" s="14">
+        <v>45722</v>
+      </c>
+      <c r="B294" s="22">
+        <v>89961.73</v>
+      </c>
+      <c r="C294" s="22">
+        <v>1225</v>
+      </c>
+      <c r="D294" s="22">
+        <v>2270181</v>
+      </c>
+      <c r="E294" s="22">
+        <v>65.290000000000006</v>
+      </c>
+      <c r="F294">
+        <v>213.0376965937038</v>
+      </c>
+      <c r="G294" s="6">
+        <f t="shared" si="224"/>
+        <v>2.130376965937038</v>
+      </c>
+      <c r="H294" s="2">
+        <f t="shared" si="225"/>
+        <v>42228.080493928304</v>
+      </c>
+      <c r="I294">
+        <f t="shared" si="226"/>
+        <v>575.01560502518316</v>
+      </c>
+      <c r="J294">
+        <f t="shared" si="227"/>
+        <v>10656.240826381023</v>
+      </c>
+      <c r="K294">
+        <f t="shared" si="228"/>
+        <v>869.89721031681825</v>
+      </c>
+      <c r="L294">
+        <f t="shared" si="229"/>
+        <v>30.647158246607521</v>
+      </c>
+      <c r="M294" s="8">
+        <f t="shared" si="230"/>
+        <v>-3.9897703536322389E-2</v>
+      </c>
+      <c r="N294" s="8">
+        <f t="shared" si="231"/>
+        <v>-4.0733253876357864E-3</v>
+      </c>
+      <c r="O294" s="8">
+        <f t="shared" si="232"/>
+        <v>-8.7140873915138705E-3</v>
+      </c>
+      <c r="P294" s="8">
+        <f t="shared" si="233"/>
+        <v>-3.6691678528633534E-3</v>
+      </c>
+      <c r="Q294" s="8">
+        <f t="shared" si="234"/>
+        <v>3.5919121528583772E-2</v>
+      </c>
+      <c r="R294" s="8">
+        <f t="shared" si="235"/>
+        <v>5.6921101344567637E-3</v>
+      </c>
+      <c r="S294" s="8">
+        <f t="shared" si="236"/>
+        <v>2.8820857698031367E-2</v>
+      </c>
+      <c r="T294" s="8">
+        <f t="shared" si="237"/>
+        <v>8.1085487658654667E-3</v>
+      </c>
     </row>
     <row r="295" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="14"/>
-      <c r="D295" s="18"/>
+      <c r="A295" s="14">
+        <v>45723</v>
+      </c>
+      <c r="B295" s="22">
+        <v>86742.67</v>
+      </c>
+      <c r="C295" s="22">
+        <v>1215</v>
+      </c>
+      <c r="D295" s="22">
+        <v>2262289</v>
+      </c>
+      <c r="E295" s="22">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="F295">
+        <v>213.19392423077124</v>
+      </c>
+      <c r="G295" s="6">
+        <f t="shared" si="224"/>
+        <v>2.1319392423077126</v>
+      </c>
+      <c r="H295" s="2">
+        <f t="shared" si="225"/>
+        <v>40687.214850506527</v>
+      </c>
+      <c r="I295">
+        <f t="shared" si="226"/>
+        <v>569.9036707466513</v>
+      </c>
+      <c r="J295">
+        <f t="shared" si="227"/>
+        <v>10611.414036129805</v>
+      </c>
+      <c r="K295">
+        <f t="shared" si="228"/>
+        <v>873.36741038105379</v>
+      </c>
+      <c r="L295">
+        <f t="shared" si="229"/>
+        <v>30.793560481084498</v>
+      </c>
+      <c r="M295" s="8">
+        <f t="shared" si="230"/>
+        <v>-3.6438438095662447E-2</v>
+      </c>
+      <c r="N295" s="8">
+        <f t="shared" si="231"/>
+        <v>-8.196767204178515E-3</v>
+      </c>
+      <c r="O295" s="8">
+        <f t="shared" si="232"/>
+        <v>-3.482431422927566E-3</v>
+      </c>
+      <c r="P295" s="8">
+        <f t="shared" si="233"/>
+        <v>5.4987155502630846E-3</v>
+      </c>
+      <c r="Q295" s="8">
+        <f t="shared" si="234"/>
+        <v>3.6597713547388062E-2</v>
+      </c>
+      <c r="R295" s="8">
+        <f t="shared" si="235"/>
+        <v>5.9239032803934284E-3</v>
+      </c>
+      <c r="S295" s="8">
+        <f t="shared" si="236"/>
+        <v>2.8657135681705331E-2</v>
+      </c>
+      <c r="T295" s="8">
+        <f t="shared" si="237"/>
+        <v>8.1228371778681377E-3</v>
+      </c>
     </row>
     <row r="296" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="14"/>
-    </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A297" s="14"/>
-    </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A296" s="14">
+        <v>45726</v>
+      </c>
+      <c r="B296" s="22">
+        <v>78532</v>
+      </c>
+      <c r="C296" s="22">
+        <v>1215</v>
+      </c>
+      <c r="D296" s="22">
+        <v>2138846</v>
+      </c>
+      <c r="E296" s="22">
+        <v>65</v>
+      </c>
+      <c r="F296">
+        <v>213.35026643476732</v>
+      </c>
+      <c r="G296" s="6">
+        <f t="shared" si="224"/>
+        <v>2.1335026643476733</v>
+      </c>
+      <c r="H296" s="2">
+        <f t="shared" si="225"/>
+        <v>36808.95332934185</v>
+      </c>
+      <c r="I296">
+        <f t="shared" si="226"/>
+        <v>569.486047664014</v>
+      </c>
+      <c r="J296">
+        <f t="shared" si="227"/>
+        <v>10025.044897958731</v>
+      </c>
+      <c r="K296">
+        <f t="shared" si="228"/>
+        <v>825.10657596368151</v>
+      </c>
+      <c r="L296">
+        <f t="shared" si="229"/>
+        <v>30.466331768033672</v>
+      </c>
+      <c r="M296" s="8">
+        <f t="shared" si="230"/>
+        <v>-9.9439734543271749E-2</v>
+      </c>
+      <c r="N296" s="8">
+        <f t="shared" si="231"/>
+        <v>0</v>
+      </c>
+      <c r="O296" s="8">
+        <f t="shared" si="232"/>
+        <v>-5.6110701326003688E-2</v>
+      </c>
+      <c r="P296" s="8">
+        <f t="shared" si="233"/>
+        <v>-9.950330853168203E-3</v>
+      </c>
+      <c r="Q296" s="8">
+        <f t="shared" si="234"/>
+        <v>4.2162040796392644E-2</v>
+      </c>
+      <c r="R296" s="8">
+        <f t="shared" si="235"/>
+        <v>5.9239032803934284E-3</v>
+      </c>
+      <c r="S296" s="8">
+        <f t="shared" si="236"/>
+        <v>3.0624582984084096E-2</v>
+      </c>
+      <c r="T296" s="8">
+        <f t="shared" si="237"/>
+        <v>8.3147104287573416E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="14">
+        <v>45727</v>
+      </c>
+      <c r="B297" s="22">
+        <v>82862.210000000006</v>
+      </c>
+      <c r="C297" s="22">
+        <v>1220</v>
+      </c>
+      <c r="D297" s="22">
+        <v>2159500</v>
+      </c>
+      <c r="E297" s="22">
+        <v>64.98</v>
+      </c>
+      <c r="F297">
+        <v>213.50672328970779</v>
+      </c>
+      <c r="G297" s="6">
+        <f t="shared" si="224"/>
+        <v>2.1350672328970779</v>
+      </c>
+      <c r="H297" s="2">
+        <f t="shared" si="225"/>
+        <v>38810.117416098452</v>
+      </c>
+      <c r="I297">
+        <f t="shared" si="226"/>
+        <v>571.41057724190682</v>
+      </c>
+      <c r="J297">
+        <f t="shared" si="227"/>
+        <v>10114.435586507359</v>
+      </c>
+      <c r="K297">
+        <f t="shared" si="228"/>
+        <v>829.05209725470149</v>
+      </c>
+      <c r="L297">
+        <f t="shared" si="229"/>
+        <v>30.43463877801566</v>
+      </c>
+      <c r="M297" s="8">
+        <f t="shared" si="230"/>
+        <v>5.3672922751161582E-2</v>
+      </c>
+      <c r="N297" s="8">
+        <f t="shared" si="231"/>
+        <v>4.1067819526535024E-3</v>
+      </c>
+      <c r="O297" s="8">
+        <f t="shared" si="232"/>
+        <v>9.6102821701398323E-3</v>
+      </c>
+      <c r="P297" s="8">
+        <f t="shared" si="233"/>
+        <v>-3.0773965468278988E-4</v>
+      </c>
+      <c r="Q297" s="8">
+        <f t="shared" si="234"/>
+        <v>4.4504664345643215E-2</v>
+      </c>
+      <c r="R297" s="8">
+        <f t="shared" si="235"/>
+        <v>5.9946570357100534E-3</v>
+      </c>
+      <c r="S297" s="8">
+        <f t="shared" si="236"/>
+        <v>3.0144550094823207E-2</v>
+      </c>
+      <c r="T297" s="8">
+        <f t="shared" si="237"/>
+        <v>8.2082624578041618E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="14">
+        <v>45728</v>
+      </c>
+      <c r="B298" s="22">
+        <v>83722.36</v>
+      </c>
+      <c r="C298" s="22">
+        <v>1220</v>
+      </c>
+      <c r="D298" s="22">
+        <v>2272937</v>
+      </c>
+      <c r="E298" s="22">
+        <v>64.75</v>
+      </c>
+      <c r="F298">
+        <v>213.66329487966999</v>
+      </c>
+      <c r="G298" s="6">
+        <f t="shared" si="224"/>
+        <v>2.1366329487967</v>
+      </c>
+      <c r="H298" s="2">
+        <f t="shared" si="225"/>
+        <v>39184.250176030662</v>
+      </c>
+      <c r="I298">
+        <f t="shared" si="226"/>
+        <v>570.99184990434344</v>
+      </c>
+      <c r="J298">
+        <f t="shared" si="227"/>
+        <v>10637.938543819908</v>
+      </c>
+      <c r="K298">
+        <f t="shared" si="228"/>
+        <v>871.96217572294313</v>
+      </c>
+      <c r="L298">
+        <f t="shared" si="229"/>
+        <v>30.304690394513308</v>
+      </c>
+      <c r="M298" s="8">
+        <f t="shared" si="230"/>
+        <v>1.032697859492885E-2</v>
+      </c>
+      <c r="N298" s="8">
+        <f t="shared" si="231"/>
+        <v>0</v>
+      </c>
+      <c r="O298" s="8">
+        <f t="shared" si="232"/>
+        <v>5.1196114393674212E-2</v>
+      </c>
+      <c r="P298" s="8">
+        <f t="shared" si="233"/>
+        <v>-3.5458296613071912E-3</v>
+      </c>
+      <c r="Q298" s="8">
+        <f t="shared" si="234"/>
+        <v>4.4524472711543014E-2</v>
+      </c>
+      <c r="R298" s="8">
+        <f t="shared" si="235"/>
+        <v>5.6553238230990953E-3</v>
+      </c>
+      <c r="S298" s="8">
+        <f t="shared" si="236"/>
+        <v>3.2671070853905679E-2</v>
+      </c>
+      <c r="T298" s="8">
+        <f t="shared" si="237"/>
+        <v>8.1259877154959432E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="14"/>
+    </row>
+    <row r="300" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="14"/>
+    </row>
+    <row r="301" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="14"/>
       <c r="F301" s="7"/>
+    </row>
+    <row r="302" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A302" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
